--- a/financial_data/planet.xlsx
+++ b/financial_data/planet.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holly\Downloads\planet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E71B5DC-562C-4911-94AC-37F03F4643E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5571222F-429E-42BA-B80A-3ECDB0B54C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12945" yWindow="0" windowWidth="15960" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="consolidated" sheetId="1" r:id="rId1"/>
-    <sheet name="income" sheetId="2" r:id="rId2"/>
+    <sheet name="consolidated" sheetId="3" r:id="rId1"/>
+    <sheet name="income" sheetId="4" r:id="rId2"/>
+    <sheet name="pre-consolidation" sheetId="1" r:id="rId3"/>
+    <sheet name="pre-income" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
   <si>
     <t>Cash and cash equivalents</t>
   </si>
@@ -185,6 +187,9 @@
   <si>
     <t>Total other income, net</t>
   </si>
+  <si>
+    <t>Quarter</t>
+  </si>
 </sst>
 </file>
 
@@ -193,8 +198,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -274,7 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -293,19 +298,19 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -314,8 +319,11 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -597,11 +605,2220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A537E283-6F73-4D72-9227-FEDBB5B10DFD}">
+  <dimension ref="A1:AG10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>44227</v>
+      </c>
+      <c r="B2" s="13">
+        <v>71183000</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13">
+        <v>47110000</v>
+      </c>
+      <c r="E2" s="13">
+        <v>7134000</v>
+      </c>
+      <c r="F2" s="13">
+        <v>125427000</v>
+      </c>
+      <c r="G2" s="13">
+        <v>159855000</v>
+      </c>
+      <c r="H2" s="13">
+        <v>11994000</v>
+      </c>
+      <c r="I2" s="13">
+        <v>88393000</v>
+      </c>
+      <c r="J2" s="13">
+        <v>5673000</v>
+      </c>
+      <c r="K2" s="13">
+        <v>4982000</v>
+      </c>
+      <c r="L2" s="13">
+        <v>0</v>
+      </c>
+      <c r="M2" s="13">
+        <v>2984000</v>
+      </c>
+      <c r="N2" s="13">
+        <v>399308000</v>
+      </c>
+      <c r="O2" s="13">
+        <v>1446000</v>
+      </c>
+      <c r="P2" s="13">
+        <v>30195000</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>57570000</v>
+      </c>
+      <c r="R2" s="13">
+        <v>0</v>
+      </c>
+      <c r="S2" s="13">
+        <v>0</v>
+      </c>
+      <c r="T2" s="13">
+        <v>108814000</v>
+      </c>
+      <c r="U2" s="13">
+        <v>15122000</v>
+      </c>
+      <c r="V2" s="13">
+        <v>7971000</v>
+      </c>
+      <c r="W2" s="13">
+        <v>0</v>
+      </c>
+      <c r="X2" s="13">
+        <v>2991000</v>
+      </c>
+      <c r="Y2" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="13">
+        <v>1287000</v>
+      </c>
+      <c r="AB2" s="13">
+        <v>291797000</v>
+      </c>
+      <c r="AC2" s="13">
+        <v>745630000</v>
+      </c>
+      <c r="AD2" s="13">
+        <v>1769000</v>
+      </c>
+      <c r="AE2" s="13">
+        <v>-639905000</v>
+      </c>
+      <c r="AF2" s="13">
+        <v>107511000</v>
+      </c>
+      <c r="AG2" s="13">
+        <v>399308000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>44592</v>
+      </c>
+      <c r="B3" s="5">
+        <v>490762000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>44373000</v>
+      </c>
+      <c r="E3" s="5">
+        <v>16385000</v>
+      </c>
+      <c r="F3" s="5">
+        <v>551520000</v>
+      </c>
+      <c r="G3" s="5">
+        <v>133280000</v>
+      </c>
+      <c r="H3" s="5">
+        <v>10768000</v>
+      </c>
+      <c r="I3" s="5">
+        <v>103219000</v>
+      </c>
+      <c r="J3" s="5">
+        <v>14197000</v>
+      </c>
+      <c r="K3" s="5">
+        <v>5743000</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="5">
+        <v>2714000</v>
+      </c>
+      <c r="N3" s="5">
+        <v>821441000</v>
+      </c>
+      <c r="O3" s="5">
+        <v>2850000</v>
+      </c>
+      <c r="P3" s="5">
+        <v>48823000</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>64233000</v>
+      </c>
+      <c r="R3" s="5">
+        <v>16135000</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="5">
+        <v>132041000</v>
+      </c>
+      <c r="U3" s="5">
+        <v>3579000</v>
+      </c>
+      <c r="V3" s="5">
+        <v>12149000</v>
+      </c>
+      <c r="W3" s="5">
+        <v>23224000</v>
+      </c>
+      <c r="X3" s="5">
+        <v>798000</v>
+      </c>
+      <c r="Y3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>1405000</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>173196000</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>1423151000</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>2096000</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>-777029000</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>648245000</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>821441000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>44592</v>
+      </c>
+      <c r="B4" s="13">
+        <v>490762000</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
+        <v>44373000</v>
+      </c>
+      <c r="E4" s="13">
+        <v>16385000</v>
+      </c>
+      <c r="F4" s="13">
+        <v>551520000</v>
+      </c>
+      <c r="G4" s="13">
+        <v>133280000</v>
+      </c>
+      <c r="H4" s="13">
+        <v>10768000</v>
+      </c>
+      <c r="I4" s="13">
+        <v>103219000</v>
+      </c>
+      <c r="J4" s="13">
+        <v>14197000</v>
+      </c>
+      <c r="K4" s="13">
+        <v>5743000</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="13">
+        <v>2714000</v>
+      </c>
+      <c r="N4" s="13">
+        <v>821441000</v>
+      </c>
+      <c r="O4" s="13">
+        <v>2850000</v>
+      </c>
+      <c r="P4" s="13">
+        <v>48823000</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>64233000</v>
+      </c>
+      <c r="R4" s="13">
+        <v>16135000</v>
+      </c>
+      <c r="S4" s="13">
+        <v>0</v>
+      </c>
+      <c r="T4" s="13">
+        <v>132041000</v>
+      </c>
+      <c r="U4" s="13">
+        <v>3579000</v>
+      </c>
+      <c r="V4" s="13">
+        <v>12149000</v>
+      </c>
+      <c r="W4" s="13">
+        <v>23224000</v>
+      </c>
+      <c r="X4" s="13">
+        <v>798000</v>
+      </c>
+      <c r="Y4" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="13">
+        <v>1405000</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>173196000</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>1423151000</v>
+      </c>
+      <c r="AD4" s="13">
+        <v>2096000</v>
+      </c>
+      <c r="AE4" s="13">
+        <v>-777029000</v>
+      </c>
+      <c r="AF4" s="13">
+        <v>648245000</v>
+      </c>
+      <c r="AG4" s="13">
+        <v>821441000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>44681</v>
+      </c>
+      <c r="B5" s="13">
+        <v>484489000</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13">
+        <v>24581000</v>
+      </c>
+      <c r="E5" s="13">
+        <v>18192000</v>
+      </c>
+      <c r="F5" s="13">
+        <v>527262000</v>
+      </c>
+      <c r="G5" s="13">
+        <v>125329000</v>
+      </c>
+      <c r="H5" s="13">
+        <v>11105000</v>
+      </c>
+      <c r="I5" s="13">
+        <v>103219000</v>
+      </c>
+      <c r="J5" s="13">
+        <v>13604000</v>
+      </c>
+      <c r="K5" s="13">
+        <v>5653000</v>
+      </c>
+      <c r="L5" s="13">
+        <v>7035000</v>
+      </c>
+      <c r="M5" s="13">
+        <v>2787000</v>
+      </c>
+      <c r="N5" s="13">
+        <v>795994000</v>
+      </c>
+      <c r="O5" s="13">
+        <v>3168000</v>
+      </c>
+      <c r="P5" s="13">
+        <v>43184000</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>60672000</v>
+      </c>
+      <c r="R5" s="13">
+        <v>15239000</v>
+      </c>
+      <c r="S5" s="13">
+        <v>7188000</v>
+      </c>
+      <c r="T5" s="13">
+        <v>129451000</v>
+      </c>
+      <c r="U5" s="13">
+        <v>0</v>
+      </c>
+      <c r="V5" s="13">
+        <v>12199000</v>
+      </c>
+      <c r="W5" s="13">
+        <v>19948000</v>
+      </c>
+      <c r="X5" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="13">
+        <v>2271000</v>
+      </c>
+      <c r="Z5" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="13">
+        <v>1419000</v>
+      </c>
+      <c r="AB5" s="13">
+        <v>165288000</v>
+      </c>
+      <c r="AC5" s="13">
+        <v>1450098000</v>
+      </c>
+      <c r="AD5" s="13">
+        <v>2271000</v>
+      </c>
+      <c r="AE5" s="13">
+        <v>-821690000</v>
+      </c>
+      <c r="AF5" s="13">
+        <v>630706000</v>
+      </c>
+      <c r="AG5" s="13">
+        <v>795994000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>44865</v>
+      </c>
+      <c r="B6" s="5">
+        <v>199124000</v>
+      </c>
+      <c r="C6" s="5">
+        <v>226163000</v>
+      </c>
+      <c r="D6" s="5">
+        <v>29009000</v>
+      </c>
+      <c r="E6" s="5">
+        <v>26347000</v>
+      </c>
+      <c r="F6" s="5">
+        <v>480643000</v>
+      </c>
+      <c r="G6" s="5">
+        <v>115385000</v>
+      </c>
+      <c r="H6" s="5">
+        <v>11181000</v>
+      </c>
+      <c r="I6" s="5">
+        <v>103219000</v>
+      </c>
+      <c r="J6" s="5">
+        <v>12419000</v>
+      </c>
+      <c r="K6" s="5">
+        <v>5163000</v>
+      </c>
+      <c r="L6" s="5">
+        <v>15806000</v>
+      </c>
+      <c r="M6" s="5">
+        <v>3412000</v>
+      </c>
+      <c r="N6" s="5">
+        <v>747228000</v>
+      </c>
+      <c r="O6" s="5">
+        <v>2557000</v>
+      </c>
+      <c r="P6" s="5">
+        <v>42629000</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>47698000</v>
+      </c>
+      <c r="R6" s="5">
+        <v>13446000</v>
+      </c>
+      <c r="S6" s="5">
+        <v>3538000</v>
+      </c>
+      <c r="T6" s="5">
+        <v>109868000</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <v>9853000</v>
+      </c>
+      <c r="W6" s="5">
+        <v>17855000</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>14024000</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>1461000</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>153061000</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>1494652000</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>943000</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>-901455000</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>594167000</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>747228000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>44957</v>
+      </c>
+      <c r="B7" s="5">
+        <v>181892000</v>
+      </c>
+      <c r="C7" s="5">
+        <v>226868000</v>
+      </c>
+      <c r="D7" s="5">
+        <v>38952000</v>
+      </c>
+      <c r="E7" s="5">
+        <v>27943000</v>
+      </c>
+      <c r="F7" s="5">
+        <v>475655000</v>
+      </c>
+      <c r="G7" s="5">
+        <v>108091000</v>
+      </c>
+      <c r="H7" s="5">
+        <v>11417000</v>
+      </c>
+      <c r="I7" s="5">
+        <v>112748000</v>
+      </c>
+      <c r="J7" s="5">
+        <v>14831000</v>
+      </c>
+      <c r="K7" s="5">
+        <v>5657000</v>
+      </c>
+      <c r="L7" s="5">
+        <v>20403000</v>
+      </c>
+      <c r="M7" s="5">
+        <v>3921000</v>
+      </c>
+      <c r="N7" s="5">
+        <v>752723000</v>
+      </c>
+      <c r="O7" s="5">
+        <v>6900000</v>
+      </c>
+      <c r="P7" s="5">
+        <v>46022000</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>51900000</v>
+      </c>
+      <c r="R7" s="5">
+        <v>12550000</v>
+      </c>
+      <c r="S7" s="5">
+        <v>4885000</v>
+      </c>
+      <c r="T7" s="5">
+        <v>122257000</v>
+      </c>
+      <c r="U7" s="5">
+        <v>2882000</v>
+      </c>
+      <c r="V7" s="5">
+        <v>8679000</v>
+      </c>
+      <c r="W7" s="5">
+        <v>16670000</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>17145000</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>7499000</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>1487000</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>176619000</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>1513102000</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>2271000</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>-939296000</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>576104000</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>752723000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>45046</v>
+      </c>
+      <c r="B8" s="5">
+        <v>140763000</v>
+      </c>
+      <c r="C8" s="5">
+        <v>235415000</v>
+      </c>
+      <c r="D8" s="5">
+        <v>39072000</v>
+      </c>
+      <c r="E8" s="5">
+        <v>19275000</v>
+      </c>
+      <c r="F8" s="5">
+        <v>434525000</v>
+      </c>
+      <c r="G8" s="5">
+        <v>118193000</v>
+      </c>
+      <c r="H8" s="5">
+        <v>11878000</v>
+      </c>
+      <c r="I8" s="5">
+        <v>112748000</v>
+      </c>
+      <c r="J8" s="5">
+        <v>13999000</v>
+      </c>
+      <c r="K8" s="5">
+        <v>5660000</v>
+      </c>
+      <c r="L8" s="5">
+        <v>23697000</v>
+      </c>
+      <c r="M8" s="5">
+        <v>2757000</v>
+      </c>
+      <c r="N8" s="5">
+        <v>723457000</v>
+      </c>
+      <c r="O8" s="5">
+        <v>14657000</v>
+      </c>
+      <c r="P8" s="5">
+        <v>34432000</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>44620000</v>
+      </c>
+      <c r="R8" s="5">
+        <v>11653000</v>
+      </c>
+      <c r="S8" s="5">
+        <v>6320000</v>
+      </c>
+      <c r="T8" s="5">
+        <v>111682000</v>
+      </c>
+      <c r="U8" s="5">
+        <v>2474000</v>
+      </c>
+      <c r="V8" s="5">
+        <v>10671000</v>
+      </c>
+      <c r="W8" s="5">
+        <v>10725000</v>
+      </c>
+      <c r="X8" s="5">
+        <v>19912000</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>7142000</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>1502000</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>164108000</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>1531380000</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>1682000</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>-973740000</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>559349000</v>
+      </c>
+      <c r="AG8" s="5">
+        <v>723457000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>45138</v>
+      </c>
+      <c r="B9" s="12">
+        <v>118808000</v>
+      </c>
+      <c r="C9" s="12">
+        <v>248979000</v>
+      </c>
+      <c r="D9" s="12">
+        <v>40349000</v>
+      </c>
+      <c r="E9" s="12">
+        <v>19725000</v>
+      </c>
+      <c r="F9" s="12">
+        <v>427861000</v>
+      </c>
+      <c r="G9" s="12">
+        <v>120193000</v>
+      </c>
+      <c r="H9" s="12">
+        <v>12992000</v>
+      </c>
+      <c r="I9" s="12">
+        <v>112750000</v>
+      </c>
+      <c r="J9" s="12">
+        <v>14867000</v>
+      </c>
+      <c r="K9" s="12">
+        <v>5707000</v>
+      </c>
+      <c r="L9" s="12">
+        <v>23485000</v>
+      </c>
+      <c r="M9" s="12">
+        <v>2562000</v>
+      </c>
+      <c r="N9" s="12">
+        <v>720417000</v>
+      </c>
+      <c r="O9" s="12">
+        <v>3825000</v>
+      </c>
+      <c r="P9" s="15">
+        <v>37841000</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>56575000</v>
+      </c>
+      <c r="R9" s="12">
+        <v>10757000</v>
+      </c>
+      <c r="S9" s="12">
+        <v>7261000</v>
+      </c>
+      <c r="T9" s="12">
+        <v>116259000</v>
+      </c>
+      <c r="U9" s="15">
+        <v>18186000</v>
+      </c>
+      <c r="V9" s="15">
+        <v>9605000</v>
+      </c>
+      <c r="W9" s="12">
+        <v>9499000</v>
+      </c>
+      <c r="X9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="12">
+        <v>19139000</v>
+      </c>
+      <c r="Z9" s="12">
+        <v>5926000</v>
+      </c>
+      <c r="AA9" s="12">
+        <v>2235000</v>
+      </c>
+      <c r="AB9" s="12">
+        <v>180849000</v>
+      </c>
+      <c r="AC9" s="12">
+        <v>1549920000</v>
+      </c>
+      <c r="AD9" s="12">
+        <v>1336000</v>
+      </c>
+      <c r="AE9" s="12">
+        <v>-1011715000</v>
+      </c>
+      <c r="AF9" s="12">
+        <v>539568000</v>
+      </c>
+      <c r="AG9" s="12">
+        <v>720417000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>45230</v>
+      </c>
+      <c r="B10" s="7">
+        <v>101547000</v>
+      </c>
+      <c r="C10" s="7">
+        <v>7880000</v>
+      </c>
+      <c r="D10" s="7">
+        <v>213347000</v>
+      </c>
+      <c r="E10" s="7">
+        <v>45145000</v>
+      </c>
+      <c r="F10" s="7">
+        <v>19616000</v>
+      </c>
+      <c r="G10" s="7">
+        <v>387535000</v>
+      </c>
+      <c r="H10" s="7">
+        <v>114058000</v>
+      </c>
+      <c r="I10" s="7">
+        <v>14050000</v>
+      </c>
+      <c r="J10" s="7">
+        <v>135701000</v>
+      </c>
+      <c r="K10" s="7">
+        <v>27427000</v>
+      </c>
+      <c r="L10" s="7">
+        <v>10321000</v>
+      </c>
+      <c r="M10" s="7">
+        <v>22091000</v>
+      </c>
+      <c r="N10" s="7">
+        <v>2337000</v>
+      </c>
+      <c r="O10" s="13">
+        <v>713520000</v>
+      </c>
+      <c r="P10" s="7">
+        <v>4589000</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>41961000</v>
+      </c>
+      <c r="R10" s="7">
+        <v>67228000</v>
+      </c>
+      <c r="S10" s="7">
+        <v>9860000</v>
+      </c>
+      <c r="T10" s="7">
+        <v>7500000</v>
+      </c>
+      <c r="U10" s="7">
+        <v>131138000</v>
+      </c>
+      <c r="V10" s="7">
+        <v>7763000</v>
+      </c>
+      <c r="W10" s="7">
+        <v>8353000</v>
+      </c>
+      <c r="X10" s="7">
+        <v>2666000</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>17321000</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>5588000</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>7093000</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>179922000</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>1583531000</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>-242000</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>-1049719000</v>
+      </c>
+      <c r="AF10" s="7">
+        <v>533598000</v>
+      </c>
+      <c r="AG10" s="7">
+        <v>713520000</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG10">
+    <sortCondition ref="A4:A10"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD2C593-D154-4E49-995E-B05FC984C60F}">
+  <dimension ref="A1:R20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>43677</v>
+      </c>
+      <c r="B2" s="6">
+        <v>23934000</v>
+      </c>
+      <c r="C2" s="6">
+        <v>25598250</v>
+      </c>
+      <c r="D2" s="6">
+        <v>-1664250</v>
+      </c>
+      <c r="E2" s="6">
+        <v>9467750</v>
+      </c>
+      <c r="F2" s="6">
+        <v>8728250</v>
+      </c>
+      <c r="G2" s="6">
+        <v>6754750</v>
+      </c>
+      <c r="H2" s="6">
+        <v>24950750</v>
+      </c>
+      <c r="I2" s="6">
+        <v>-26615000</v>
+      </c>
+      <c r="J2" s="6">
+        <v>-2882250</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>-1736500</v>
+      </c>
+      <c r="M2" s="6">
+        <v>51750</v>
+      </c>
+      <c r="N2" s="6">
+        <v>286000</v>
+      </c>
+      <c r="O2" s="6">
+        <v>-4281000</v>
+      </c>
+      <c r="P2" s="6">
+        <v>-30896000</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>32500</v>
+      </c>
+      <c r="R2" s="6">
+        <v>-30928500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>43769</v>
+      </c>
+      <c r="B3" s="6">
+        <v>23934000</v>
+      </c>
+      <c r="C3" s="6">
+        <v>25598250</v>
+      </c>
+      <c r="D3" s="6">
+        <v>-1664250</v>
+      </c>
+      <c r="E3" s="6">
+        <v>9467750</v>
+      </c>
+      <c r="F3" s="6">
+        <v>8728250</v>
+      </c>
+      <c r="G3" s="6">
+        <v>6754750</v>
+      </c>
+      <c r="H3" s="6">
+        <v>24950750</v>
+      </c>
+      <c r="I3" s="6">
+        <v>-26615000</v>
+      </c>
+      <c r="J3" s="6">
+        <v>-2882250</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>-1736500</v>
+      </c>
+      <c r="M3" s="6">
+        <v>51750</v>
+      </c>
+      <c r="N3" s="6">
+        <v>286000</v>
+      </c>
+      <c r="O3" s="6">
+        <v>-4281000</v>
+      </c>
+      <c r="P3" s="6">
+        <v>-30896000</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>32500</v>
+      </c>
+      <c r="R3" s="6">
+        <v>-30928500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>43861</v>
+      </c>
+      <c r="B4" s="6">
+        <v>23934000</v>
+      </c>
+      <c r="C4" s="6">
+        <v>25598250</v>
+      </c>
+      <c r="D4" s="6">
+        <v>-1664250</v>
+      </c>
+      <c r="E4" s="6">
+        <v>9467750</v>
+      </c>
+      <c r="F4" s="6">
+        <v>8728250</v>
+      </c>
+      <c r="G4" s="6">
+        <v>6754750</v>
+      </c>
+      <c r="H4" s="6">
+        <v>24950750</v>
+      </c>
+      <c r="I4" s="6">
+        <v>-26615000</v>
+      </c>
+      <c r="J4" s="6">
+        <v>-2882250</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>-1736500</v>
+      </c>
+      <c r="M4" s="6">
+        <v>51750</v>
+      </c>
+      <c r="N4" s="6">
+        <v>286000</v>
+      </c>
+      <c r="O4" s="6">
+        <v>-4281000</v>
+      </c>
+      <c r="P4" s="6">
+        <v>-30896000</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>32500</v>
+      </c>
+      <c r="R4" s="6">
+        <v>-30928500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>43951</v>
+      </c>
+      <c r="B5" s="6">
+        <v>28292000</v>
+      </c>
+      <c r="C5" s="6">
+        <v>21845750</v>
+      </c>
+      <c r="D5" s="6">
+        <v>6446250</v>
+      </c>
+      <c r="E5" s="6">
+        <v>10956250</v>
+      </c>
+      <c r="F5" s="6">
+        <v>9317000</v>
+      </c>
+      <c r="G5" s="6">
+        <v>8033500</v>
+      </c>
+      <c r="H5" s="6">
+        <v>28306750</v>
+      </c>
+      <c r="I5" s="6">
+        <v>-21860500</v>
+      </c>
+      <c r="J5" s="6">
+        <v>168250</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>-2361750</v>
+      </c>
+      <c r="M5" s="6">
+        <v>-7513250</v>
+      </c>
+      <c r="N5" s="6">
+        <v>59750</v>
+      </c>
+      <c r="O5" s="6">
+        <v>-9647000</v>
+      </c>
+      <c r="P5" s="6">
+        <v>-31507500</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>268250</v>
+      </c>
+      <c r="R5" s="6">
+        <v>-31775750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>43951</v>
+      </c>
+      <c r="B6" s="6">
+        <v>23934000</v>
+      </c>
+      <c r="C6" s="6">
+        <v>25598250</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-1664250</v>
+      </c>
+      <c r="E6" s="6">
+        <v>9467750</v>
+      </c>
+      <c r="F6" s="6">
+        <v>8728250</v>
+      </c>
+      <c r="G6" s="6">
+        <v>6754750</v>
+      </c>
+      <c r="H6" s="6">
+        <v>24950750</v>
+      </c>
+      <c r="I6" s="6">
+        <v>-26615000</v>
+      </c>
+      <c r="J6" s="6">
+        <v>-2882250</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>-1736500</v>
+      </c>
+      <c r="M6" s="6">
+        <v>51750</v>
+      </c>
+      <c r="N6" s="6">
+        <v>286000</v>
+      </c>
+      <c r="O6" s="6">
+        <v>-4281000</v>
+      </c>
+      <c r="P6" s="6">
+        <v>-30896000</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>32500</v>
+      </c>
+      <c r="R6" s="6">
+        <v>-30928500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>44043</v>
+      </c>
+      <c r="B7" s="6">
+        <v>28292000</v>
+      </c>
+      <c r="C7" s="6">
+        <v>21845750</v>
+      </c>
+      <c r="D7" s="6">
+        <v>6446250</v>
+      </c>
+      <c r="E7" s="6">
+        <v>10956250</v>
+      </c>
+      <c r="F7" s="6">
+        <v>9317000</v>
+      </c>
+      <c r="G7" s="6">
+        <v>8033500</v>
+      </c>
+      <c r="H7" s="6">
+        <v>28306750</v>
+      </c>
+      <c r="I7" s="6">
+        <v>-21860500</v>
+      </c>
+      <c r="J7" s="6">
+        <v>168250</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>-2361750</v>
+      </c>
+      <c r="M7" s="6">
+        <v>-7513250</v>
+      </c>
+      <c r="N7" s="6">
+        <v>59750</v>
+      </c>
+      <c r="O7" s="6">
+        <v>-9647000</v>
+      </c>
+      <c r="P7" s="6">
+        <v>-31507500</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>268250</v>
+      </c>
+      <c r="R7" s="6">
+        <v>-31775750</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>44135</v>
+      </c>
+      <c r="B8" s="6">
+        <v>28292000</v>
+      </c>
+      <c r="C8" s="6">
+        <v>21845750</v>
+      </c>
+      <c r="D8" s="6">
+        <v>6446250</v>
+      </c>
+      <c r="E8" s="6">
+        <v>10956250</v>
+      </c>
+      <c r="F8" s="6">
+        <v>9317000</v>
+      </c>
+      <c r="G8" s="6">
+        <v>8033500</v>
+      </c>
+      <c r="H8" s="6">
+        <v>28306750</v>
+      </c>
+      <c r="I8" s="6">
+        <v>-21860500</v>
+      </c>
+      <c r="J8" s="6">
+        <v>168250</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>-2361750</v>
+      </c>
+      <c r="M8" s="6">
+        <v>-7513250</v>
+      </c>
+      <c r="N8" s="6">
+        <v>59750</v>
+      </c>
+      <c r="O8" s="6">
+        <v>-9647000</v>
+      </c>
+      <c r="P8" s="6">
+        <v>-31507500</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>268250</v>
+      </c>
+      <c r="R8" s="6">
+        <v>-31775750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>44227</v>
+      </c>
+      <c r="B9" s="6">
+        <v>28292000</v>
+      </c>
+      <c r="C9" s="6">
+        <v>21845750</v>
+      </c>
+      <c r="D9" s="6">
+        <v>6446250</v>
+      </c>
+      <c r="E9" s="6">
+        <v>10956250</v>
+      </c>
+      <c r="F9" s="6">
+        <v>9317000</v>
+      </c>
+      <c r="G9" s="6">
+        <v>8033500</v>
+      </c>
+      <c r="H9" s="6">
+        <v>28306750</v>
+      </c>
+      <c r="I9" s="6">
+        <v>-21860500</v>
+      </c>
+      <c r="J9" s="6">
+        <v>168250</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>-2361750</v>
+      </c>
+      <c r="M9" s="6">
+        <v>-7513250</v>
+      </c>
+      <c r="N9" s="6">
+        <v>59750</v>
+      </c>
+      <c r="O9" s="6">
+        <v>-9647000</v>
+      </c>
+      <c r="P9" s="6">
+        <v>-31507500</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>268250</v>
+      </c>
+      <c r="R9" s="6">
+        <v>-31775750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>44316</v>
+      </c>
+      <c r="B10" s="6">
+        <v>31957000</v>
+      </c>
+      <c r="C10" s="6">
+        <v>19126000</v>
+      </c>
+      <c r="D10" s="6">
+        <v>12831000</v>
+      </c>
+      <c r="E10" s="6">
+        <v>12130000</v>
+      </c>
+      <c r="F10" s="6">
+        <v>10653000</v>
+      </c>
+      <c r="G10" s="6">
+        <v>8315000</v>
+      </c>
+      <c r="H10" s="6">
+        <v>31098000</v>
+      </c>
+      <c r="I10" s="6">
+        <v>-18267000</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>-2527000</v>
+      </c>
+      <c r="M10" s="6">
+        <v>-8026000</v>
+      </c>
+      <c r="N10" s="6">
+        <v>-177000</v>
+      </c>
+      <c r="O10" s="6">
+        <v>-10730000</v>
+      </c>
+      <c r="P10" s="6">
+        <v>-28997000</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>258000</v>
+      </c>
+      <c r="R10" s="6">
+        <v>-29255000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>44408</v>
+      </c>
+      <c r="B11" s="6">
+        <v>30406000</v>
+      </c>
+      <c r="C11" s="6">
+        <v>19820000</v>
+      </c>
+      <c r="D11" s="6">
+        <v>10586000</v>
+      </c>
+      <c r="E11" s="6">
+        <v>12432000</v>
+      </c>
+      <c r="F11" s="6">
+        <v>10597000</v>
+      </c>
+      <c r="G11" s="6">
+        <v>11824000</v>
+      </c>
+      <c r="H11" s="6">
+        <v>34853000</v>
+      </c>
+      <c r="I11" s="6">
+        <v>-24267000</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>-2611000</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>-84000</v>
+      </c>
+      <c r="O11" s="6">
+        <v>4074000</v>
+      </c>
+      <c r="P11" s="6">
+        <v>-20193000</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>170000</v>
+      </c>
+      <c r="R11" s="6">
+        <v>-20363000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>44500</v>
+      </c>
+      <c r="B12" s="6">
+        <v>31700000</v>
+      </c>
+      <c r="C12" s="6">
+        <v>20811000</v>
+      </c>
+      <c r="D12" s="6">
+        <v>10889000</v>
+      </c>
+      <c r="E12" s="6">
+        <v>14959000</v>
+      </c>
+      <c r="F12" s="6">
+        <v>12441000</v>
+      </c>
+      <c r="G12" s="6">
+        <v>11800000</v>
+      </c>
+      <c r="H12" s="6">
+        <v>39200000</v>
+      </c>
+      <c r="I12" s="6">
+        <v>-28311000</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>8000</v>
+      </c>
+      <c r="L12" s="6">
+        <v>-2612000</v>
+      </c>
+      <c r="M12" s="6">
+        <v>-10172000</v>
+      </c>
+      <c r="N12" s="6">
+        <v>-60000</v>
+      </c>
+      <c r="O12" s="6">
+        <v>-12836000</v>
+      </c>
+      <c r="P12" s="6">
+        <v>-41147000</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>394000</v>
+      </c>
+      <c r="R12" s="6">
+        <v>-41541000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>44592</v>
+      </c>
+      <c r="B13" s="6">
+        <v>37146000</v>
+      </c>
+      <c r="C13" s="6">
+        <v>23230000</v>
+      </c>
+      <c r="D13" s="6">
+        <v>13916000</v>
+      </c>
+      <c r="E13" s="6">
+        <v>27163000</v>
+      </c>
+      <c r="F13" s="6">
+        <v>19226000</v>
+      </c>
+      <c r="G13" s="6">
+        <v>24733000</v>
+      </c>
+      <c r="H13" s="6">
+        <v>71122000</v>
+      </c>
+      <c r="I13" s="6">
+        <v>-57206000</v>
+      </c>
+      <c r="J13" s="6">
+        <v>-1690000</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <v>-1022000</v>
+      </c>
+      <c r="M13" s="6">
+        <v>23924000</v>
+      </c>
+      <c r="N13" s="6">
+        <v>-1906000</v>
+      </c>
+      <c r="O13" s="6">
+        <v>12529000</v>
+      </c>
+      <c r="P13" s="6">
+        <v>-44677000</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>1288000</v>
+      </c>
+      <c r="R13" s="6">
+        <v>-45965000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>44681</v>
+      </c>
+      <c r="B14" s="6">
+        <v>40127000</v>
+      </c>
+      <c r="C14" s="6">
+        <v>23628000</v>
+      </c>
+      <c r="D14" s="6">
+        <v>16499000</v>
+      </c>
+      <c r="E14" s="6">
+        <v>24750000</v>
+      </c>
+      <c r="F14" s="6">
+        <v>18855000</v>
+      </c>
+      <c r="G14" s="6">
+        <v>20608000</v>
+      </c>
+      <c r="H14" s="6">
+        <v>64213000</v>
+      </c>
+      <c r="I14" s="6">
+        <v>-47714000</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>3276000</v>
+      </c>
+      <c r="N14" s="6">
+        <v>392000</v>
+      </c>
+      <c r="O14" s="6">
+        <v>3668000</v>
+      </c>
+      <c r="P14" s="6">
+        <v>-44046000</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>314000</v>
+      </c>
+      <c r="R14" s="6">
+        <v>-44360000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>44773</v>
+      </c>
+      <c r="B15" s="6">
+        <v>48450000</v>
+      </c>
+      <c r="C15" s="6">
+        <v>24977000</v>
+      </c>
+      <c r="D15" s="6">
+        <v>23473000</v>
+      </c>
+      <c r="E15" s="6">
+        <v>26737000</v>
+      </c>
+      <c r="F15" s="6">
+        <v>19483000</v>
+      </c>
+      <c r="G15" s="6">
+        <v>19893000</v>
+      </c>
+      <c r="H15" s="6">
+        <v>66113000</v>
+      </c>
+      <c r="I15" s="6">
+        <v>-42640000</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6">
+        <v>1153000</v>
+      </c>
+      <c r="O15" s="6">
+        <v>3265000</v>
+      </c>
+      <c r="P15" s="6">
+        <v>-39375000</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>154000</v>
+      </c>
+      <c r="R15" s="6">
+        <v>-39529000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>44865</v>
+      </c>
+      <c r="B16" s="6">
+        <v>49704000</v>
+      </c>
+      <c r="C16" s="6">
+        <v>24728000</v>
+      </c>
+      <c r="D16" s="6">
+        <v>24976000</v>
+      </c>
+      <c r="E16" s="6">
+        <v>27598000</v>
+      </c>
+      <c r="F16" s="6">
+        <v>19383000</v>
+      </c>
+      <c r="G16" s="6">
+        <v>20627000</v>
+      </c>
+      <c r="H16" s="6">
+        <v>67608000</v>
+      </c>
+      <c r="I16" s="6">
+        <v>-42632000</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>2853000</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>-19000</v>
+      </c>
+      <c r="N16" s="6">
+        <v>1000</v>
+      </c>
+      <c r="O16" s="6">
+        <v>2835000</v>
+      </c>
+      <c r="P16" s="6">
+        <v>-39797000</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>439000</v>
+      </c>
+      <c r="R16" s="6">
+        <v>-40236000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>44957</v>
+      </c>
+      <c r="B17" s="6">
+        <v>52975000</v>
+      </c>
+      <c r="C17" s="6">
+        <v>23915000</v>
+      </c>
+      <c r="D17" s="6">
+        <v>29060000</v>
+      </c>
+      <c r="E17" s="6">
+        <v>31831000</v>
+      </c>
+      <c r="F17" s="6">
+        <v>20299000</v>
+      </c>
+      <c r="G17" s="6">
+        <v>19619000</v>
+      </c>
+      <c r="H17" s="6">
+        <v>71749000</v>
+      </c>
+      <c r="I17" s="6">
+        <v>-42689000</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <v>4819000</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
+        <v>3297000</v>
+      </c>
+      <c r="N17" s="6">
+        <v>-1216000</v>
+      </c>
+      <c r="O17" s="6">
+        <v>4788000</v>
+      </c>
+      <c r="P17" s="6">
+        <v>-37901000</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>-60000</v>
+      </c>
+      <c r="R17" s="6">
+        <v>-37841000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>45046</v>
+      </c>
+      <c r="B18" s="6">
+        <v>52703000</v>
+      </c>
+      <c r="C18" s="6">
+        <v>24556000</v>
+      </c>
+      <c r="D18" s="6">
+        <v>28147000</v>
+      </c>
+      <c r="E18" s="6">
+        <v>28186000</v>
+      </c>
+      <c r="F18" s="6">
+        <v>23125000</v>
+      </c>
+      <c r="G18" s="6">
+        <v>21528000</v>
+      </c>
+      <c r="H18" s="6">
+        <v>72839000</v>
+      </c>
+      <c r="I18" s="6">
+        <v>-44692000</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
+        <v>4506000</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>-5945000</v>
+      </c>
+      <c r="N18" s="6">
+        <v>104000</v>
+      </c>
+      <c r="O18" s="6">
+        <v>10555000</v>
+      </c>
+      <c r="P18" s="6">
+        <v>-34137000</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>307000</v>
+      </c>
+      <c r="R18" s="6">
+        <v>-34444000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>45138</v>
+      </c>
+      <c r="B19" s="6">
+        <v>53761000</v>
+      </c>
+      <c r="C19" s="6">
+        <v>27469000</v>
+      </c>
+      <c r="D19" s="6">
+        <v>26292000</v>
+      </c>
+      <c r="E19" s="6">
+        <v>26741000</v>
+      </c>
+      <c r="F19" s="6">
+        <v>22310000</v>
+      </c>
+      <c r="G19" s="6">
+        <v>20521000</v>
+      </c>
+      <c r="H19" s="6">
+        <v>69572000</v>
+      </c>
+      <c r="I19" s="6">
+        <v>-43280000</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <v>3802000</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>1226000</v>
+      </c>
+      <c r="N19" s="6">
+        <v>859000</v>
+      </c>
+      <c r="O19" s="6">
+        <v>5887000</v>
+      </c>
+      <c r="P19" s="6">
+        <v>-37393000</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>582000</v>
+      </c>
+      <c r="R19" s="6">
+        <v>-37975000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>45230</v>
+      </c>
+      <c r="B20" s="6">
+        <v>55380000</v>
+      </c>
+      <c r="C20" s="6">
+        <v>29350000</v>
+      </c>
+      <c r="D20" s="6">
+        <v>26030000</v>
+      </c>
+      <c r="E20" s="6">
+        <v>33002000</v>
+      </c>
+      <c r="F20" s="6">
+        <v>20774000</v>
+      </c>
+      <c r="G20" s="6">
+        <v>20112000</v>
+      </c>
+      <c r="H20" s="6">
+        <v>73888000</v>
+      </c>
+      <c r="I20" s="6">
+        <v>-47858000</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>3445000</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <v>6833000</v>
+      </c>
+      <c r="N20" s="6">
+        <v>-69000</v>
+      </c>
+      <c r="O20" s="6">
+        <v>10209000</v>
+      </c>
+      <c r="P20" s="6">
+        <v>-37649000</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>355000</v>
+      </c>
+      <c r="R20" s="6">
+        <v>-38004000</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R20">
+    <sortCondition ref="A4:A20"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView zoomScale="86" workbookViewId="0">
+      <selection sqref="A1:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,12 +3896,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9961904-157F-4234-8693-8A3031A539AB}">
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="T18" sqref="A1:T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/financial_data/planet.xlsx
+++ b/financial_data/planet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holly\Downloads\planet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holly\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5571222F-429E-42BA-B80A-3ECDB0B54C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DFB521-A214-42F1-814B-8A0E8070C30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="consolidated" sheetId="3" r:id="rId1"/>
@@ -143,9 +143,6 @@
     <t>Interest expense</t>
   </si>
   <si>
-    <t>Change in fair value of convertible notes and warrant liabilities</t>
-  </si>
-  <si>
     <t>Loss before provision for income taxes</t>
   </si>
   <si>
@@ -189,6 +186,9 @@
   </si>
   <si>
     <t>Quarter</t>
+  </si>
+  <si>
+    <t>Change in fair value of financial instruments</t>
   </si>
 </sst>
 </file>
@@ -279,7 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -325,6 +325,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -608,7 +618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A537E283-6F73-4D72-9227-FEDBB5B10DFD}">
   <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -643,13 +653,13 @@
   <sheetData>
     <row r="1" spans="1:33" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -676,7 +686,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>9</v>
@@ -697,7 +707,7 @@
         <v>14</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>15</v>
@@ -715,10 +725,10 @@
         <v>18</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>19</v>
@@ -878,7 +888,7 @@
         <v>5743000</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M3" s="5">
         <v>2714000</v>
@@ -899,7 +909,7 @@
         <v>16135000</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T3" s="5">
         <v>132041000</v>
@@ -917,7 +927,7 @@
         <v>798000</v>
       </c>
       <c r="Y3" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z3" s="5">
         <v>0</v>
@@ -1664,7 +1674,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD2C593-D154-4E49-995E-B05FC984C60F}">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1687,7 +1699,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>26</v>
@@ -1696,7 +1708,7 @@
         <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>28</v>
@@ -1714,31 +1726,31 @@
         <v>32</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -2817,13 +2829,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
-      <selection sqref="A1:J33"/>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.85546875" customWidth="1"/>
+    <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -2900,7 +2912,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="7">
         <v>7880000</v>
@@ -3188,7 +3200,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="7">
         <v>10321000</v>
@@ -3206,7 +3218,7 @@
         <v>15806000</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12" s="13">
         <v>7035000</v>
@@ -3412,7 +3424,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="7">
         <v>9860000</v>
@@ -3430,7 +3442,7 @@
         <v>3538000</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H19" s="13">
         <v>7188000</v>
@@ -3604,7 +3616,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="7">
         <v>17321000</v>
@@ -3622,7 +3634,7 @@
         <v>14024000</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H25" s="13">
         <v>2271000</v>
@@ -3636,7 +3648,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="7">
         <v>5588000</v>
@@ -3900,14 +3912,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9961904-157F-4234-8693-8A3031A539AB}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="T18" sqref="A1:T18"/>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" customWidth="1"/>
-    <col min="2" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -3971,7 +3984,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="6">
@@ -4033,7 +4046,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="6">
@@ -4095,8 +4108,8 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
+      <c r="A4" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="B4" s="6">
         <v>26030000</v>
@@ -4157,7 +4170,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="6">
@@ -4281,7 +4294,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="6">
@@ -4343,7 +4356,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="19" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="6">
@@ -4405,7 +4418,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="6">
@@ -4467,8 +4480,8 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>46</v>
+      <c r="A10" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="B10" s="6">
         <v>0</v>
@@ -4530,7 +4543,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="6">
         <v>3445000</v>
@@ -4653,8 +4666,8 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
+      <c r="A13" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="B13" s="6">
         <v>6833000</v>
@@ -4715,8 +4728,8 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>47</v>
+      <c r="A14" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="B14" s="6">
         <v>-69000</v>
@@ -4777,8 +4790,8 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>48</v>
+      <c r="A15" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="B15" s="6">
         <v>10209000</v>
@@ -4839,8 +4852,8 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>35</v>
+      <c r="A16" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="B16" s="6">
         <v>-37649000</v>
@@ -4901,8 +4914,8 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>36</v>
+      <c r="A17" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="B17" s="6">
         <v>355000</v>
@@ -4963,8 +4976,8 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>37</v>
+      <c r="A18" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="6">
         <v>-38004000</v>
@@ -5023,6 +5036,9 @@
       <c r="T18" s="6">
         <v>-30928500</v>
       </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>

--- a/financial_data/planet.xlsx
+++ b/financial_data/planet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holly\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holly\space_econometrics\financial_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DFB521-A214-42F1-814B-8A0E8070C30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6167F08-DA8B-4C86-9453-0346C937655E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="consolidated" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="55">
   <si>
     <t>Cash and cash equivalents</t>
   </si>
@@ -189,6 +189,21 @@
   </si>
   <si>
     <t>Change in fair value of financial instruments</t>
+  </si>
+  <si>
+    <t>Total Assets</t>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+  </si>
+  <si>
+    <t>Total Current Assets</t>
+  </si>
+  <si>
+    <t>Total Current Liabilities</t>
+  </si>
+  <si>
+    <t>Total Equity</t>
   </si>
 </sst>
 </file>
@@ -279,7 +294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -328,13 +343,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -616,9 +624,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A537E283-6F73-4D72-9227-FEDBB5B10DFD}">
-  <dimension ref="A1:AG10"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -668,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -692,7 +702,7 @@
         <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>11</v>
@@ -710,7 +720,7 @@
         <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>13</v>
@@ -734,7 +744,7 @@
         <v>19</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>21</v>
@@ -746,7 +756,7 @@
         <v>23</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>25</v>
@@ -956,714 +966,613 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>44592</v>
+        <v>44681</v>
       </c>
       <c r="B4" s="13">
-        <v>490762000</v>
+        <v>484489000</v>
       </c>
       <c r="C4" s="13">
         <v>0</v>
       </c>
       <c r="D4" s="13">
-        <v>44373000</v>
+        <v>24581000</v>
       </c>
       <c r="E4" s="13">
-        <v>16385000</v>
+        <v>18192000</v>
       </c>
       <c r="F4" s="13">
-        <v>551520000</v>
+        <v>527262000</v>
       </c>
       <c r="G4" s="13">
-        <v>133280000</v>
+        <v>125329000</v>
       </c>
       <c r="H4" s="13">
-        <v>10768000</v>
+        <v>11105000</v>
       </c>
       <c r="I4" s="13">
         <v>103219000</v>
       </c>
       <c r="J4" s="13">
-        <v>14197000</v>
+        <v>13604000</v>
       </c>
       <c r="K4" s="13">
-        <v>5743000</v>
+        <v>5653000</v>
       </c>
       <c r="L4" s="13">
-        <v>0</v>
+        <v>7035000</v>
       </c>
       <c r="M4" s="13">
-        <v>2714000</v>
+        <v>2787000</v>
       </c>
       <c r="N4" s="13">
-        <v>821441000</v>
+        <v>795994000</v>
       </c>
       <c r="O4" s="13">
-        <v>2850000</v>
+        <v>3168000</v>
       </c>
       <c r="P4" s="13">
-        <v>48823000</v>
+        <v>43184000</v>
       </c>
       <c r="Q4" s="13">
-        <v>64233000</v>
+        <v>60672000</v>
       </c>
       <c r="R4" s="13">
-        <v>16135000</v>
+        <v>15239000</v>
       </c>
       <c r="S4" s="13">
-        <v>0</v>
+        <v>7188000</v>
       </c>
       <c r="T4" s="13">
-        <v>132041000</v>
+        <v>129451000</v>
       </c>
       <c r="U4" s="13">
-        <v>3579000</v>
+        <v>0</v>
       </c>
       <c r="V4" s="13">
-        <v>12149000</v>
+        <v>12199000</v>
       </c>
       <c r="W4" s="13">
-        <v>23224000</v>
+        <v>19948000</v>
       </c>
       <c r="X4" s="13">
-        <v>798000</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="13">
-        <v>0</v>
+        <v>2271000</v>
       </c>
       <c r="Z4" s="13">
         <v>0</v>
       </c>
       <c r="AA4" s="13">
-        <v>1405000</v>
+        <v>1419000</v>
       </c>
       <c r="AB4" s="13">
-        <v>173196000</v>
+        <v>165288000</v>
       </c>
       <c r="AC4" s="13">
-        <v>1423151000</v>
+        <v>1450098000</v>
       </c>
       <c r="AD4" s="13">
-        <v>2096000</v>
+        <v>2271000</v>
       </c>
       <c r="AE4" s="13">
-        <v>-777029000</v>
+        <v>-821690000</v>
       </c>
       <c r="AF4" s="13">
-        <v>648245000</v>
+        <v>630706000</v>
       </c>
       <c r="AG4" s="13">
-        <v>821441000</v>
+        <v>795994000</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>44681</v>
-      </c>
-      <c r="B5" s="13">
-        <v>484489000</v>
-      </c>
-      <c r="C5" s="13">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13">
-        <v>24581000</v>
-      </c>
-      <c r="E5" s="13">
-        <v>18192000</v>
-      </c>
-      <c r="F5" s="13">
-        <v>527262000</v>
-      </c>
-      <c r="G5" s="13">
-        <v>125329000</v>
-      </c>
-      <c r="H5" s="13">
-        <v>11105000</v>
-      </c>
-      <c r="I5" s="13">
+      <c r="A5" s="9">
+        <v>44865</v>
+      </c>
+      <c r="B5" s="5">
+        <v>199124000</v>
+      </c>
+      <c r="C5" s="5">
+        <v>226163000</v>
+      </c>
+      <c r="D5" s="5">
+        <v>29009000</v>
+      </c>
+      <c r="E5" s="5">
+        <v>26347000</v>
+      </c>
+      <c r="F5" s="5">
+        <v>480643000</v>
+      </c>
+      <c r="G5" s="5">
+        <v>115385000</v>
+      </c>
+      <c r="H5" s="5">
+        <v>11181000</v>
+      </c>
+      <c r="I5" s="5">
         <v>103219000</v>
       </c>
-      <c r="J5" s="13">
-        <v>13604000</v>
-      </c>
-      <c r="K5" s="13">
-        <v>5653000</v>
-      </c>
-      <c r="L5" s="13">
-        <v>7035000</v>
-      </c>
-      <c r="M5" s="13">
-        <v>2787000</v>
-      </c>
-      <c r="N5" s="13">
-        <v>795994000</v>
-      </c>
-      <c r="O5" s="13">
-        <v>3168000</v>
-      </c>
-      <c r="P5" s="13">
-        <v>43184000</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>60672000</v>
-      </c>
-      <c r="R5" s="13">
-        <v>15239000</v>
-      </c>
-      <c r="S5" s="13">
-        <v>7188000</v>
-      </c>
-      <c r="T5" s="13">
-        <v>129451000</v>
-      </c>
-      <c r="U5" s="13">
-        <v>0</v>
-      </c>
-      <c r="V5" s="13">
-        <v>12199000</v>
-      </c>
-      <c r="W5" s="13">
-        <v>19948000</v>
-      </c>
-      <c r="X5" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="13">
-        <v>2271000</v>
-      </c>
-      <c r="Z5" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="13">
-        <v>1419000</v>
-      </c>
-      <c r="AB5" s="13">
-        <v>165288000</v>
-      </c>
-      <c r="AC5" s="13">
-        <v>1450098000</v>
-      </c>
-      <c r="AD5" s="13">
-        <v>2271000</v>
-      </c>
-      <c r="AE5" s="13">
-        <v>-821690000</v>
-      </c>
-      <c r="AF5" s="13">
-        <v>630706000</v>
-      </c>
-      <c r="AG5" s="13">
-        <v>795994000</v>
+      <c r="J5" s="5">
+        <v>12419000</v>
+      </c>
+      <c r="K5" s="5">
+        <v>5163000</v>
+      </c>
+      <c r="L5" s="5">
+        <v>15806000</v>
+      </c>
+      <c r="M5" s="5">
+        <v>3412000</v>
+      </c>
+      <c r="N5" s="5">
+        <v>747228000</v>
+      </c>
+      <c r="O5" s="5">
+        <v>2557000</v>
+      </c>
+      <c r="P5" s="5">
+        <v>42629000</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>47698000</v>
+      </c>
+      <c r="R5" s="5">
+        <v>13446000</v>
+      </c>
+      <c r="S5" s="5">
+        <v>3538000</v>
+      </c>
+      <c r="T5" s="5">
+        <v>109868000</v>
+      </c>
+      <c r="U5" s="5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5">
+        <v>9853000</v>
+      </c>
+      <c r="W5" s="5">
+        <v>17855000</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>14024000</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>1461000</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>153061000</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>1494652000</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>943000</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>-901455000</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>594167000</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>747228000</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>44865</v>
+        <v>44957</v>
       </c>
       <c r="B6" s="5">
-        <v>199124000</v>
+        <v>181892000</v>
       </c>
       <c r="C6" s="5">
-        <v>226163000</v>
+        <v>226868000</v>
       </c>
       <c r="D6" s="5">
-        <v>29009000</v>
+        <v>38952000</v>
       </c>
       <c r="E6" s="5">
-        <v>26347000</v>
+        <v>27943000</v>
       </c>
       <c r="F6" s="5">
-        <v>480643000</v>
+        <v>475655000</v>
       </c>
       <c r="G6" s="5">
-        <v>115385000</v>
+        <v>108091000</v>
       </c>
       <c r="H6" s="5">
-        <v>11181000</v>
+        <v>11417000</v>
       </c>
       <c r="I6" s="5">
-        <v>103219000</v>
+        <v>112748000</v>
       </c>
       <c r="J6" s="5">
-        <v>12419000</v>
+        <v>14831000</v>
       </c>
       <c r="K6" s="5">
-        <v>5163000</v>
+        <v>5657000</v>
       </c>
       <c r="L6" s="5">
-        <v>15806000</v>
+        <v>20403000</v>
       </c>
       <c r="M6" s="5">
-        <v>3412000</v>
+        <v>3921000</v>
       </c>
       <c r="N6" s="5">
-        <v>747228000</v>
+        <v>752723000</v>
       </c>
       <c r="O6" s="5">
-        <v>2557000</v>
+        <v>6900000</v>
       </c>
       <c r="P6" s="5">
-        <v>42629000</v>
+        <v>46022000</v>
       </c>
       <c r="Q6" s="5">
-        <v>47698000</v>
+        <v>51900000</v>
       </c>
       <c r="R6" s="5">
-        <v>13446000</v>
+        <v>12550000</v>
       </c>
       <c r="S6" s="5">
-        <v>3538000</v>
+        <v>4885000</v>
       </c>
       <c r="T6" s="5">
-        <v>109868000</v>
+        <v>122257000</v>
       </c>
       <c r="U6" s="5">
-        <v>0</v>
+        <v>2882000</v>
       </c>
       <c r="V6" s="5">
-        <v>9853000</v>
+        <v>8679000</v>
       </c>
       <c r="W6" s="5">
-        <v>17855000</v>
+        <v>16670000</v>
       </c>
       <c r="X6" s="5">
         <v>0</v>
       </c>
       <c r="Y6" s="5">
-        <v>14024000</v>
+        <v>17145000</v>
       </c>
       <c r="Z6" s="5">
-        <v>0</v>
+        <v>7499000</v>
       </c>
       <c r="AA6" s="5">
-        <v>1461000</v>
+        <v>1487000</v>
       </c>
       <c r="AB6" s="5">
-        <v>153061000</v>
+        <v>176619000</v>
       </c>
       <c r="AC6" s="5">
-        <v>1494652000</v>
+        <v>1513102000</v>
       </c>
       <c r="AD6" s="5">
-        <v>943000</v>
+        <v>2271000</v>
       </c>
       <c r="AE6" s="5">
-        <v>-901455000</v>
+        <v>-939296000</v>
       </c>
       <c r="AF6" s="5">
-        <v>594167000</v>
+        <v>576104000</v>
       </c>
       <c r="AG6" s="5">
-        <v>747228000</v>
+        <v>752723000</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
-        <v>44957</v>
+        <v>45046</v>
       </c>
       <c r="B7" s="5">
-        <v>181892000</v>
+        <v>140763000</v>
       </c>
       <c r="C7" s="5">
-        <v>226868000</v>
+        <v>235415000</v>
       </c>
       <c r="D7" s="5">
-        <v>38952000</v>
+        <v>39072000</v>
       </c>
       <c r="E7" s="5">
-        <v>27943000</v>
+        <v>19275000</v>
       </c>
       <c r="F7" s="5">
-        <v>475655000</v>
+        <v>434525000</v>
       </c>
       <c r="G7" s="5">
-        <v>108091000</v>
+        <v>118193000</v>
       </c>
       <c r="H7" s="5">
-        <v>11417000</v>
+        <v>11878000</v>
       </c>
       <c r="I7" s="5">
         <v>112748000</v>
       </c>
       <c r="J7" s="5">
-        <v>14831000</v>
+        <v>13999000</v>
       </c>
       <c r="K7" s="5">
-        <v>5657000</v>
+        <v>5660000</v>
       </c>
       <c r="L7" s="5">
-        <v>20403000</v>
+        <v>23697000</v>
       </c>
       <c r="M7" s="5">
-        <v>3921000</v>
+        <v>2757000</v>
       </c>
       <c r="N7" s="5">
-        <v>752723000</v>
+        <v>723457000</v>
       </c>
       <c r="O7" s="5">
-        <v>6900000</v>
+        <v>14657000</v>
       </c>
       <c r="P7" s="5">
-        <v>46022000</v>
+        <v>34432000</v>
       </c>
       <c r="Q7" s="5">
-        <v>51900000</v>
+        <v>44620000</v>
       </c>
       <c r="R7" s="5">
-        <v>12550000</v>
+        <v>11653000</v>
       </c>
       <c r="S7" s="5">
-        <v>4885000</v>
+        <v>6320000</v>
       </c>
       <c r="T7" s="5">
-        <v>122257000</v>
+        <v>111682000</v>
       </c>
       <c r="U7" s="5">
-        <v>2882000</v>
+        <v>2474000</v>
       </c>
       <c r="V7" s="5">
-        <v>8679000</v>
+        <v>10671000</v>
       </c>
       <c r="W7" s="5">
-        <v>16670000</v>
+        <v>10725000</v>
       </c>
       <c r="X7" s="5">
-        <v>0</v>
+        <v>19912000</v>
       </c>
       <c r="Y7" s="5">
-        <v>17145000</v>
+        <v>7142000</v>
       </c>
       <c r="Z7" s="5">
-        <v>7499000</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="5">
-        <v>1487000</v>
+        <v>1502000</v>
       </c>
       <c r="AB7" s="5">
-        <v>176619000</v>
+        <v>164108000</v>
       </c>
       <c r="AC7" s="5">
-        <v>1513102000</v>
+        <v>1531380000</v>
       </c>
       <c r="AD7" s="5">
-        <v>2271000</v>
+        <v>1682000</v>
       </c>
       <c r="AE7" s="5">
-        <v>-939296000</v>
+        <v>-973740000</v>
       </c>
       <c r="AF7" s="5">
-        <v>576104000</v>
+        <v>559349000</v>
       </c>
       <c r="AG7" s="5">
-        <v>752723000</v>
+        <v>723457000</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
-        <v>45046</v>
-      </c>
-      <c r="B8" s="5">
-        <v>140763000</v>
-      </c>
-      <c r="C8" s="5">
-        <v>235415000</v>
-      </c>
-      <c r="D8" s="5">
-        <v>39072000</v>
-      </c>
-      <c r="E8" s="5">
-        <v>19275000</v>
-      </c>
-      <c r="F8" s="5">
-        <v>434525000</v>
-      </c>
-      <c r="G8" s="5">
-        <v>118193000</v>
-      </c>
-      <c r="H8" s="5">
-        <v>11878000</v>
-      </c>
-      <c r="I8" s="5">
-        <v>112748000</v>
-      </c>
-      <c r="J8" s="5">
-        <v>13999000</v>
-      </c>
-      <c r="K8" s="5">
-        <v>5660000</v>
-      </c>
-      <c r="L8" s="5">
-        <v>23697000</v>
-      </c>
-      <c r="M8" s="5">
-        <v>2757000</v>
-      </c>
-      <c r="N8" s="5">
-        <v>723457000</v>
-      </c>
-      <c r="O8" s="5">
-        <v>14657000</v>
-      </c>
-      <c r="P8" s="5">
-        <v>34432000</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>44620000</v>
-      </c>
-      <c r="R8" s="5">
-        <v>11653000</v>
-      </c>
-      <c r="S8" s="5">
-        <v>6320000</v>
-      </c>
-      <c r="T8" s="5">
-        <v>111682000</v>
-      </c>
-      <c r="U8" s="5">
-        <v>2474000</v>
-      </c>
-      <c r="V8" s="5">
-        <v>10671000</v>
-      </c>
-      <c r="W8" s="5">
-        <v>10725000</v>
-      </c>
-      <c r="X8" s="5">
-        <v>19912000</v>
-      </c>
-      <c r="Y8" s="5">
-        <v>7142000</v>
-      </c>
-      <c r="Z8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="5">
-        <v>1502000</v>
-      </c>
-      <c r="AB8" s="5">
-        <v>164108000</v>
-      </c>
-      <c r="AC8" s="5">
-        <v>1531380000</v>
-      </c>
-      <c r="AD8" s="5">
-        <v>1682000</v>
-      </c>
-      <c r="AE8" s="5">
-        <v>-973740000</v>
-      </c>
-      <c r="AF8" s="5">
-        <v>559349000</v>
-      </c>
-      <c r="AG8" s="5">
-        <v>723457000</v>
+        <v>45138</v>
+      </c>
+      <c r="B8" s="12">
+        <v>118808000</v>
+      </c>
+      <c r="C8" s="12">
+        <v>248979000</v>
+      </c>
+      <c r="D8" s="12">
+        <v>40349000</v>
+      </c>
+      <c r="E8" s="12">
+        <v>19725000</v>
+      </c>
+      <c r="F8" s="12">
+        <v>427861000</v>
+      </c>
+      <c r="G8" s="12">
+        <v>120193000</v>
+      </c>
+      <c r="H8" s="12">
+        <v>12992000</v>
+      </c>
+      <c r="I8" s="12">
+        <v>112750000</v>
+      </c>
+      <c r="J8" s="12">
+        <v>14867000</v>
+      </c>
+      <c r="K8" s="12">
+        <v>5707000</v>
+      </c>
+      <c r="L8" s="12">
+        <v>23485000</v>
+      </c>
+      <c r="M8" s="12">
+        <v>2562000</v>
+      </c>
+      <c r="N8" s="12">
+        <v>720417000</v>
+      </c>
+      <c r="O8" s="12">
+        <v>3825000</v>
+      </c>
+      <c r="P8" s="15">
+        <v>37841000</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>56575000</v>
+      </c>
+      <c r="R8" s="12">
+        <v>10757000</v>
+      </c>
+      <c r="S8" s="12">
+        <v>7261000</v>
+      </c>
+      <c r="T8" s="12">
+        <v>116259000</v>
+      </c>
+      <c r="U8" s="15">
+        <v>18186000</v>
+      </c>
+      <c r="V8" s="15">
+        <v>9605000</v>
+      </c>
+      <c r="W8" s="12">
+        <v>9499000</v>
+      </c>
+      <c r="X8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>19139000</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>5926000</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>2235000</v>
+      </c>
+      <c r="AB8" s="12">
+        <v>180849000</v>
+      </c>
+      <c r="AC8" s="12">
+        <v>1549920000</v>
+      </c>
+      <c r="AD8" s="12">
+        <v>1336000</v>
+      </c>
+      <c r="AE8" s="12">
+        <v>-1011715000</v>
+      </c>
+      <c r="AF8" s="12">
+        <v>539568000</v>
+      </c>
+      <c r="AG8" s="12">
+        <v>720417000</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
-        <v>45138</v>
-      </c>
-      <c r="B9" s="12">
-        <v>118808000</v>
-      </c>
-      <c r="C9" s="12">
-        <v>248979000</v>
-      </c>
-      <c r="D9" s="12">
-        <v>40349000</v>
-      </c>
-      <c r="E9" s="12">
-        <v>19725000</v>
-      </c>
-      <c r="F9" s="12">
-        <v>427861000</v>
-      </c>
-      <c r="G9" s="12">
-        <v>120193000</v>
-      </c>
-      <c r="H9" s="12">
-        <v>12992000</v>
-      </c>
-      <c r="I9" s="12">
-        <v>112750000</v>
-      </c>
-      <c r="J9" s="12">
-        <v>14867000</v>
-      </c>
-      <c r="K9" s="12">
-        <v>5707000</v>
-      </c>
-      <c r="L9" s="12">
-        <v>23485000</v>
-      </c>
-      <c r="M9" s="12">
-        <v>2562000</v>
-      </c>
-      <c r="N9" s="12">
-        <v>720417000</v>
-      </c>
-      <c r="O9" s="12">
-        <v>3825000</v>
-      </c>
-      <c r="P9" s="15">
-        <v>37841000</v>
-      </c>
-      <c r="Q9" s="15">
-        <v>56575000</v>
-      </c>
-      <c r="R9" s="12">
-        <v>10757000</v>
-      </c>
-      <c r="S9" s="12">
-        <v>7261000</v>
-      </c>
-      <c r="T9" s="12">
-        <v>116259000</v>
-      </c>
-      <c r="U9" s="15">
-        <v>18186000</v>
-      </c>
-      <c r="V9" s="15">
-        <v>9605000</v>
-      </c>
-      <c r="W9" s="12">
-        <v>9499000</v>
-      </c>
-      <c r="X9" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="12">
-        <v>19139000</v>
-      </c>
-      <c r="Z9" s="12">
-        <v>5926000</v>
-      </c>
-      <c r="AA9" s="12">
-        <v>2235000</v>
-      </c>
-      <c r="AB9" s="12">
-        <v>180849000</v>
-      </c>
-      <c r="AC9" s="12">
-        <v>1549920000</v>
-      </c>
-      <c r="AD9" s="12">
-        <v>1336000</v>
-      </c>
-      <c r="AE9" s="12">
-        <v>-1011715000</v>
-      </c>
-      <c r="AF9" s="12">
-        <v>539568000</v>
-      </c>
-      <c r="AG9" s="12">
-        <v>720417000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
         <v>45230</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B9" s="7">
         <v>101547000</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C9" s="7">
         <v>7880000</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D9" s="7">
         <v>213347000</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E9" s="7">
         <v>45145000</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F9" s="7">
         <v>19616000</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G9" s="7">
         <v>387535000</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H9" s="7">
         <v>114058000</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I9" s="7">
         <v>14050000</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J9" s="7">
         <v>135701000</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K9" s="7">
         <v>27427000</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L9" s="7">
         <v>10321000</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M9" s="7">
         <v>22091000</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N9" s="7">
         <v>2337000</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O9" s="13">
         <v>713520000</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P9" s="7">
         <v>4589000</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q9" s="7">
         <v>41961000</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R9" s="7">
         <v>67228000</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S9" s="7">
         <v>9860000</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T9" s="7">
         <v>7500000</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U9" s="7">
         <v>131138000</v>
       </c>
-      <c r="V10" s="7">
+      <c r="V9" s="7">
         <v>7763000</v>
       </c>
-      <c r="W10" s="7">
+      <c r="W9" s="7">
         <v>8353000</v>
       </c>
-      <c r="X10" s="7">
+      <c r="X9" s="7">
         <v>2666000</v>
       </c>
-      <c r="Y10" s="7">
+      <c r="Y9" s="7">
         <v>17321000</v>
       </c>
-      <c r="Z10" s="7">
+      <c r="Z9" s="7">
         <v>5588000</v>
       </c>
-      <c r="AA10" s="7">
+      <c r="AA9" s="7">
         <v>7093000</v>
       </c>
-      <c r="AB10" s="7">
+      <c r="AB9" s="7">
         <v>179922000</v>
       </c>
-      <c r="AC10" s="7">
+      <c r="AC9" s="7">
         <v>1583531000</v>
       </c>
-      <c r="AD10" s="7">
+      <c r="AD9" s="7">
         <v>-242000</v>
       </c>
-      <c r="AE10" s="7">
+      <c r="AE9" s="7">
         <v>-1049719000</v>
       </c>
-      <c r="AF10" s="7">
+      <c r="AF9" s="7">
         <v>533598000</v>
       </c>
-      <c r="AG10" s="7">
+      <c r="AG9" s="7">
         <v>713520000</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG10">
-    <sortCondition ref="A4:A10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG9">
+    <sortCondition ref="A4:A9"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1674,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD2C593-D154-4E49-995E-B05FC984C60F}">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3912,7 +3821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9961904-157F-4234-8693-8A3031A539AB}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+    <sheetView zoomScale="104" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -3984,7 +3893,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="6">
@@ -4046,7 +3955,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="6">
@@ -4108,7 +4017,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="6">
@@ -4170,7 +4079,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="6">
@@ -4294,7 +4203,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="6">
@@ -4356,7 +4265,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="6">
@@ -4418,7 +4327,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="6">
@@ -4480,7 +4389,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="6">
@@ -4666,7 +4575,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="6">
@@ -4728,7 +4637,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="6">
@@ -4790,7 +4699,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="6">
@@ -4852,7 +4761,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="6">
@@ -4914,7 +4823,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B17" s="6">
@@ -4976,7 +4885,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="6">

--- a/financial_data/planet.xlsx
+++ b/financial_data/planet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holly\space_econometrics\financial_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holly\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6167F08-DA8B-4C86-9453-0346C937655E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E6F741-1270-4179-A736-74B74A639E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="consolidated" sheetId="3" r:id="rId1"/>
@@ -294,7 +294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -334,14 +334,17 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -624,45 +627,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A537E283-6F73-4D72-9227-FEDBB5B10DFD}">
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2:AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1372,100 +1374,100 @@
       <c r="A8" s="9">
         <v>45138</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="17">
         <v>118808000</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="17">
         <v>248979000</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="17">
         <v>40349000</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="17">
         <v>19725000</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="17">
         <v>427861000</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="17">
         <v>120193000</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="17">
         <v>12992000</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="17">
         <v>112750000</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="17">
         <v>14867000</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="17">
         <v>5707000</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="17">
         <v>23485000</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="17">
         <v>2562000</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="17">
         <v>720417000</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="17">
         <v>3825000</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="18">
         <v>37841000</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="18">
         <v>56575000</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8" s="17">
         <v>10757000</v>
       </c>
-      <c r="S8" s="12">
+      <c r="S8" s="17">
         <v>7261000</v>
       </c>
-      <c r="T8" s="12">
+      <c r="T8" s="17">
         <v>116259000</v>
       </c>
-      <c r="U8" s="15">
+      <c r="U8" s="18">
         <v>18186000</v>
       </c>
-      <c r="V8" s="15">
+      <c r="V8" s="18">
         <v>9605000</v>
       </c>
-      <c r="W8" s="12">
+      <c r="W8" s="17">
         <v>9499000</v>
       </c>
-      <c r="X8" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="12">
+      <c r="X8" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="17">
         <v>19139000</v>
       </c>
-      <c r="Z8" s="12">
+      <c r="Z8" s="17">
         <v>5926000</v>
       </c>
-      <c r="AA8" s="12">
+      <c r="AA8" s="17">
         <v>2235000</v>
       </c>
-      <c r="AB8" s="12">
+      <c r="AB8" s="17">
         <v>180849000</v>
       </c>
-      <c r="AC8" s="12">
+      <c r="AC8" s="17">
         <v>1549920000</v>
       </c>
-      <c r="AD8" s="12">
+      <c r="AD8" s="17">
         <v>1336000</v>
       </c>
-      <c r="AE8" s="12">
+      <c r="AE8" s="17">
         <v>-1011715000</v>
       </c>
-      <c r="AF8" s="12">
+      <c r="AF8" s="17">
         <v>539568000</v>
       </c>
-      <c r="AG8" s="12">
+      <c r="AG8" s="17">
         <v>720417000</v>
       </c>
     </row>
@@ -1473,101 +1475,303 @@
       <c r="A9" s="9">
         <v>45230</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="17">
         <v>101547000</v>
       </c>
-      <c r="C9" s="7">
-        <v>7880000</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="C9" s="17">
         <v>213347000</v>
       </c>
-      <c r="E9" s="7">
+      <c r="D9" s="17">
         <v>45145000</v>
       </c>
-      <c r="F9" s="7">
+      <c r="E9" s="17">
         <v>19616000</v>
       </c>
-      <c r="G9" s="7">
+      <c r="F9" s="17">
         <v>387535000</v>
       </c>
-      <c r="H9" s="7">
+      <c r="G9" s="17">
         <v>114058000</v>
       </c>
-      <c r="I9" s="7">
+      <c r="H9" s="17">
         <v>14050000</v>
       </c>
-      <c r="J9" s="7">
+      <c r="I9" s="17">
         <v>135701000</v>
       </c>
-      <c r="K9" s="7">
+      <c r="J9" s="17">
         <v>27427000</v>
       </c>
-      <c r="L9" s="7">
+      <c r="K9" s="17">
         <v>10321000</v>
       </c>
-      <c r="M9" s="7">
+      <c r="L9" s="17">
         <v>22091000</v>
       </c>
-      <c r="N9" s="7">
+      <c r="M9" s="17">
         <v>2337000</v>
       </c>
-      <c r="O9" s="13">
+      <c r="N9" s="17">
         <v>713520000</v>
       </c>
-      <c r="P9" s="7">
+      <c r="O9" s="17">
         <v>4589000</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="P9" s="17">
         <v>41961000</v>
       </c>
-      <c r="R9" s="7">
+      <c r="Q9" s="17">
         <v>67228000</v>
       </c>
-      <c r="S9" s="7">
+      <c r="R9" s="17">
         <v>9860000</v>
       </c>
-      <c r="T9" s="7">
+      <c r="S9" s="17">
         <v>7500000</v>
       </c>
-      <c r="U9" s="7">
+      <c r="T9" s="17">
         <v>131138000</v>
       </c>
-      <c r="V9" s="7">
+      <c r="U9" s="17">
         <v>7763000</v>
       </c>
-      <c r="W9" s="7">
+      <c r="V9" s="17">
         <v>8353000</v>
       </c>
-      <c r="X9" s="7">
+      <c r="W9" s="17">
         <v>2666000</v>
       </c>
-      <c r="Y9" s="7">
+      <c r="X9" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="17">
         <v>17321000</v>
       </c>
-      <c r="Z9" s="7">
+      <c r="Z9" s="17">
         <v>5588000</v>
       </c>
-      <c r="AA9" s="7">
+      <c r="AA9" s="17">
         <v>7093000</v>
       </c>
-      <c r="AB9" s="7">
+      <c r="AB9" s="17">
         <v>179922000</v>
       </c>
-      <c r="AC9" s="7">
+      <c r="AC9" s="17">
         <v>1583531000</v>
       </c>
-      <c r="AD9" s="7">
+      <c r="AD9" s="17">
         <v>-242000</v>
       </c>
-      <c r="AE9" s="7">
+      <c r="AE9" s="17">
         <v>-1049719000</v>
       </c>
-      <c r="AF9" s="7">
+      <c r="AF9" s="17">
         <v>533598000</v>
       </c>
-      <c r="AG9" s="7">
+      <c r="AG9" s="17">
         <v>713520000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>45322</v>
+      </c>
+      <c r="B10" s="7">
+        <v>83866000</v>
+      </c>
+      <c r="C10" s="7">
+        <v>215041000</v>
+      </c>
+      <c r="D10" s="7">
+        <v>43320000</v>
+      </c>
+      <c r="E10" s="7">
+        <v>19564000</v>
+      </c>
+      <c r="F10" s="7">
+        <v>370151000</v>
+      </c>
+      <c r="G10" s="7">
+        <v>113429000</v>
+      </c>
+      <c r="H10" s="7">
+        <v>14973000</v>
+      </c>
+      <c r="I10" s="7">
+        <v>136256000</v>
+      </c>
+      <c r="J10" s="7">
+        <v>32448000</v>
+      </c>
+      <c r="K10" s="7">
+        <v>9972000</v>
+      </c>
+      <c r="L10" s="7">
+        <v>22339000</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2429000</v>
+      </c>
+      <c r="N10" s="7">
+        <v>701997000</v>
+      </c>
+      <c r="O10" s="7">
+        <v>2601000</v>
+      </c>
+      <c r="P10" s="7">
+        <v>44779000</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>72327000</v>
+      </c>
+      <c r="R10" s="7">
+        <v>8964000</v>
+      </c>
+      <c r="S10" s="7">
+        <v>7978000</v>
+      </c>
+      <c r="T10" s="7">
+        <v>136649000</v>
+      </c>
+      <c r="U10" s="7">
+        <v>5293000</v>
+      </c>
+      <c r="V10" s="7">
+        <v>7101000</v>
+      </c>
+      <c r="W10" s="7">
+        <v>2961000</v>
+      </c>
+      <c r="X10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>16952000</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>5885000</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>9138000</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>183979000</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>1596201000</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>1594000</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>-1079805000</v>
+      </c>
+      <c r="AF10" s="7">
+        <v>518018000</v>
+      </c>
+      <c r="AG10" s="7">
+        <v>701997000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>45412</v>
+      </c>
+      <c r="B11" s="7">
+        <v>107367000</v>
+      </c>
+      <c r="C11" s="7">
+        <v>168218000</v>
+      </c>
+      <c r="D11" s="7">
+        <v>38527000</v>
+      </c>
+      <c r="E11" s="7">
+        <v>23044000</v>
+      </c>
+      <c r="F11" s="7">
+        <v>345958000</v>
+      </c>
+      <c r="G11" s="7">
+        <v>111338000</v>
+      </c>
+      <c r="H11" s="7">
+        <v>16066000</v>
+      </c>
+      <c r="I11" s="7">
+        <v>137110000</v>
+      </c>
+      <c r="J11" s="7">
+        <v>31403000</v>
+      </c>
+      <c r="K11" s="7">
+        <v>9564000</v>
+      </c>
+      <c r="L11" s="7">
+        <v>20966000</v>
+      </c>
+      <c r="M11" s="7">
+        <v>2199000</v>
+      </c>
+      <c r="N11" s="7">
+        <v>674604000</v>
+      </c>
+      <c r="O11" s="7">
+        <v>3131000</v>
+      </c>
+      <c r="P11" s="7">
+        <v>43361000</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>63646000</v>
+      </c>
+      <c r="R11" s="7">
+        <v>8068000</v>
+      </c>
+      <c r="S11" s="7">
+        <v>8175000</v>
+      </c>
+      <c r="T11" s="7">
+        <v>126381000</v>
+      </c>
+      <c r="U11" s="7">
+        <v>13247000</v>
+      </c>
+      <c r="V11" s="7">
+        <v>9261000</v>
+      </c>
+      <c r="W11" s="7">
+        <v>1431000</v>
+      </c>
+      <c r="X11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>15207000</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>2915000</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>5837000</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>174279000</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>1608847000</v>
+      </c>
+      <c r="AD11" s="7">
+        <v>548000</v>
+      </c>
+      <c r="AE11" s="7">
+        <v>-1109098000</v>
+      </c>
+      <c r="AF11" s="7">
+        <v>500325000</v>
+      </c>
+      <c r="AG11" s="7">
+        <v>674604000</v>
       </c>
     </row>
   </sheetData>
@@ -1581,16 +1785,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD2C593-D154-4E49-995E-B05FC984C60F}">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView zoomScale="141" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
@@ -1607,7 +1812,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -1643,7 +1848,7 @@
       <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>49</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -2502,7 +2707,7 @@
         <v>-40236000</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>44957</v>
       </c>
@@ -2558,7 +2763,7 @@
         <v>-37841000</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>45046</v>
       </c>
@@ -2614,7 +2819,7 @@
         <v>-34444000</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>45138</v>
       </c>
@@ -2670,7 +2875,7 @@
         <v>-37975000</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>45230</v>
       </c>
@@ -2724,6 +2929,163 @@
       </c>
       <c r="R20" s="6">
         <v>-38004000</v>
+      </c>
+      <c r="S20" s="12">
+        <v>7500000</v>
+      </c>
+      <c r="T20" s="12">
+        <v>131138000</v>
+      </c>
+      <c r="U20" s="12">
+        <v>7763000</v>
+      </c>
+      <c r="V20" s="12">
+        <v>8353000</v>
+      </c>
+      <c r="W20" s="12">
+        <v>2666000</v>
+      </c>
+      <c r="X20" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="12">
+        <v>17321000</v>
+      </c>
+      <c r="Z20" s="12">
+        <v>5588000</v>
+      </c>
+      <c r="AA20" s="12">
+        <v>7093000</v>
+      </c>
+      <c r="AB20" s="12">
+        <v>179922000</v>
+      </c>
+      <c r="AC20" s="12">
+        <v>1583531000</v>
+      </c>
+      <c r="AD20" s="12">
+        <v>-242000</v>
+      </c>
+      <c r="AE20" s="12">
+        <v>-1049719000</v>
+      </c>
+      <c r="AF20" s="12">
+        <v>533598000</v>
+      </c>
+      <c r="AG20" s="12">
+        <v>713520000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>45322</v>
+      </c>
+      <c r="B21" s="6">
+        <v>220696000</v>
+      </c>
+      <c r="C21" s="6">
+        <v>107746000</v>
+      </c>
+      <c r="D21" s="6">
+        <v>112950000</v>
+      </c>
+      <c r="E21" s="6">
+        <v>116339000</v>
+      </c>
+      <c r="F21" s="6">
+        <v>86304000</v>
+      </c>
+      <c r="G21" s="6">
+        <v>80055000</v>
+      </c>
+      <c r="H21" s="6">
+        <v>282698000</v>
+      </c>
+      <c r="I21" s="6">
+        <v>-169748000</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>15414000</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>13709000</v>
+      </c>
+      <c r="N21" s="6">
+        <v>931000</v>
+      </c>
+      <c r="O21" s="6">
+        <v>30054000</v>
+      </c>
+      <c r="P21" s="6">
+        <v>-139694000</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>815000</v>
+      </c>
+      <c r="R21" s="6">
+        <v>-140509000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>45412</v>
+      </c>
+      <c r="B22" s="6">
+        <v>60440000</v>
+      </c>
+      <c r="C22" s="6">
+        <v>28757000</v>
+      </c>
+      <c r="D22" s="6">
+        <v>31683000</v>
+      </c>
+      <c r="E22" s="6">
+        <v>25589000</v>
+      </c>
+      <c r="F22" s="6">
+        <v>21485000</v>
+      </c>
+      <c r="G22" s="6">
+        <v>19180000</v>
+      </c>
+      <c r="H22" s="6">
+        <v>66254000</v>
+      </c>
+      <c r="I22" s="6">
+        <v>-34571000</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
+        <v>3107000</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0</v>
+      </c>
+      <c r="M22" s="6">
+        <v>1530000</v>
+      </c>
+      <c r="N22" s="6">
+        <v>1083000</v>
+      </c>
+      <c r="O22" s="6">
+        <v>5720000</v>
+      </c>
+      <c r="P22" s="6">
+        <v>-28851000</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>442000</v>
+      </c>
+      <c r="R22" s="6">
+        <v>-29293000</v>
       </c>
     </row>
   </sheetData>
@@ -2736,1080 +3098,1448 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A33"/>
+    <sheetView zoomScale="93" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="9">
+        <v>45412</v>
+      </c>
+      <c r="C1" s="9">
+        <v>45322</v>
+      </c>
+      <c r="D1" s="9">
         <v>45230</v>
       </c>
-      <c r="C1" s="9">
+      <c r="E1" s="9">
         <v>45138</v>
       </c>
-      <c r="D1" s="9">
+      <c r="F1" s="9">
         <v>45046</v>
       </c>
-      <c r="E1" s="9">
+      <c r="G1" s="9">
         <v>44957</v>
       </c>
-      <c r="F1" s="9">
+      <c r="H1" s="9">
         <v>44865</v>
       </c>
-      <c r="G1" s="9">
+      <c r="I1" s="9">
         <v>44592</v>
       </c>
-      <c r="H1" s="10">
+      <c r="J1" s="10">
         <v>44681</v>
       </c>
-      <c r="I1" s="10">
+      <c r="K1" s="10">
         <v>44592</v>
       </c>
-      <c r="J1" s="10">
+      <c r="L1" s="10">
         <v>44227</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7">
+        <v>107367000</v>
+      </c>
+      <c r="C2" s="7">
+        <v>83866000</v>
+      </c>
+      <c r="D2" s="17">
         <v>101547000</v>
       </c>
-      <c r="C2" s="12">
+      <c r="E2" s="17">
         <v>118808000</v>
       </c>
-      <c r="D2" s="5">
+      <c r="F2" s="5">
         <v>140763000</v>
       </c>
-      <c r="E2" s="5">
+      <c r="G2" s="5">
         <v>181892000</v>
       </c>
-      <c r="F2" s="5">
+      <c r="H2" s="5">
         <v>199124000</v>
       </c>
-      <c r="G2" s="5">
+      <c r="I2" s="5">
         <v>490762000</v>
       </c>
-      <c r="H2" s="13">
+      <c r="J2" s="13">
         <v>484489000</v>
       </c>
-      <c r="I2" s="13">
+      <c r="K2" s="13">
         <v>490762000</v>
       </c>
-      <c r="J2" s="13">
+      <c r="L2" s="13">
         <v>71183000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="7">
-        <v>7880000</v>
-      </c>
-      <c r="C3" s="12">
+        <v>168218000</v>
+      </c>
+      <c r="C3" s="7">
+        <v>215041000</v>
+      </c>
+      <c r="D3" s="17">
+        <v>213347000</v>
+      </c>
+      <c r="E3" s="17">
         <v>248979000</v>
       </c>
-      <c r="D3" s="5">
+      <c r="F3" s="5">
         <v>235415000</v>
       </c>
-      <c r="E3" s="5">
+      <c r="G3" s="5">
         <v>226868000</v>
       </c>
-      <c r="F3" s="5">
+      <c r="H3" s="5">
         <v>226163000</v>
       </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13">
+      <c r="I3" s="5">
         <v>0</v>
       </c>
       <c r="J3" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="13">
+        <v>0</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="7">
-        <v>213347000</v>
-      </c>
-      <c r="C4" s="12">
+        <v>38527000</v>
+      </c>
+      <c r="C4" s="7">
+        <v>43320000</v>
+      </c>
+      <c r="D4" s="17">
+        <v>45145000</v>
+      </c>
+      <c r="E4" s="17">
         <v>40349000</v>
       </c>
-      <c r="D4" s="5">
+      <c r="F4" s="5">
         <v>39072000</v>
       </c>
-      <c r="E4" s="5">
+      <c r="G4" s="5">
         <v>38952000</v>
       </c>
-      <c r="F4" s="5">
+      <c r="H4" s="5">
         <v>29009000</v>
       </c>
-      <c r="G4" s="5">
+      <c r="I4" s="5">
         <v>44373000</v>
       </c>
-      <c r="H4" s="13">
+      <c r="J4" s="13">
         <v>24581000</v>
       </c>
-      <c r="I4" s="13">
+      <c r="K4" s="13">
         <v>44373000</v>
       </c>
-      <c r="J4" s="13">
+      <c r="L4" s="13">
         <v>47110000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="7">
-        <v>45145000</v>
-      </c>
-      <c r="C5" s="12">
+        <v>23044000</v>
+      </c>
+      <c r="C5" s="7">
+        <v>19564000</v>
+      </c>
+      <c r="D5" s="17">
+        <v>19616000</v>
+      </c>
+      <c r="E5" s="17">
         <v>19725000</v>
       </c>
-      <c r="D5" s="5">
+      <c r="F5" s="5">
         <v>19275000</v>
       </c>
-      <c r="E5" s="5">
+      <c r="G5" s="5">
         <v>27943000</v>
       </c>
-      <c r="F5" s="5">
+      <c r="H5" s="5">
         <v>26347000</v>
       </c>
-      <c r="G5" s="5">
+      <c r="I5" s="5">
         <v>16385000</v>
       </c>
-      <c r="H5" s="13">
+      <c r="J5" s="13">
         <v>18192000</v>
       </c>
-      <c r="I5" s="13">
+      <c r="K5" s="13">
         <v>16385000</v>
       </c>
-      <c r="J5" s="13">
+      <c r="L5" s="13">
         <v>7134000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="7">
-        <v>19616000</v>
-      </c>
-      <c r="C6" s="12">
+        <v>345958000</v>
+      </c>
+      <c r="C6" s="7">
+        <v>370151000</v>
+      </c>
+      <c r="D6" s="17">
+        <v>387535000</v>
+      </c>
+      <c r="E6" s="17">
         <v>427861000</v>
       </c>
-      <c r="D6" s="5">
+      <c r="F6" s="5">
         <v>434525000</v>
       </c>
-      <c r="E6" s="5">
+      <c r="G6" s="5">
         <v>475655000</v>
       </c>
-      <c r="F6" s="5">
+      <c r="H6" s="5">
         <v>480643000</v>
       </c>
-      <c r="G6" s="5">
+      <c r="I6" s="5">
         <v>551520000</v>
       </c>
-      <c r="H6" s="13">
+      <c r="J6" s="13">
         <v>527262000</v>
       </c>
-      <c r="I6" s="13">
+      <c r="K6" s="13">
         <v>551520000</v>
       </c>
-      <c r="J6" s="13">
+      <c r="L6" s="13">
         <v>125427000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="7">
-        <v>387535000</v>
-      </c>
-      <c r="C7" s="12">
+        <v>111338000</v>
+      </c>
+      <c r="C7" s="7">
+        <v>113429000</v>
+      </c>
+      <c r="D7" s="17">
+        <v>114058000</v>
+      </c>
+      <c r="E7" s="17">
         <v>120193000</v>
       </c>
-      <c r="D7" s="5">
+      <c r="F7" s="5">
         <v>118193000</v>
       </c>
-      <c r="E7" s="5">
+      <c r="G7" s="5">
         <v>108091000</v>
       </c>
-      <c r="F7" s="5">
+      <c r="H7" s="5">
         <v>115385000</v>
       </c>
-      <c r="G7" s="5">
+      <c r="I7" s="5">
         <v>133280000</v>
       </c>
-      <c r="H7" s="13">
+      <c r="J7" s="13">
         <v>125329000</v>
       </c>
-      <c r="I7" s="13">
+      <c r="K7" s="13">
         <v>133280000</v>
       </c>
-      <c r="J7" s="13">
+      <c r="L7" s="13">
         <v>159855000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="7">
-        <v>114058000</v>
-      </c>
-      <c r="C8" s="12">
+        <v>16066000</v>
+      </c>
+      <c r="C8" s="7">
+        <v>14973000</v>
+      </c>
+      <c r="D8" s="17">
+        <v>14050000</v>
+      </c>
+      <c r="E8" s="17">
         <v>12992000</v>
       </c>
-      <c r="D8" s="5">
+      <c r="F8" s="5">
         <v>11878000</v>
       </c>
-      <c r="E8" s="5">
+      <c r="G8" s="5">
         <v>11417000</v>
       </c>
-      <c r="F8" s="5">
+      <c r="H8" s="5">
         <v>11181000</v>
       </c>
-      <c r="G8" s="5">
+      <c r="I8" s="5">
         <v>10768000</v>
       </c>
-      <c r="H8" s="13">
+      <c r="J8" s="13">
         <v>11105000</v>
       </c>
-      <c r="I8" s="13">
+      <c r="K8" s="13">
         <v>10768000</v>
       </c>
-      <c r="J8" s="13">
+      <c r="L8" s="13">
         <v>11994000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="7">
-        <v>14050000</v>
-      </c>
-      <c r="C9" s="12">
+        <v>137110000</v>
+      </c>
+      <c r="C9" s="7">
+        <v>136256000</v>
+      </c>
+      <c r="D9" s="17">
+        <v>135701000</v>
+      </c>
+      <c r="E9" s="17">
         <v>112750000</v>
       </c>
-      <c r="D9" s="5">
+      <c r="F9" s="5">
         <v>112748000</v>
       </c>
-      <c r="E9" s="5">
+      <c r="G9" s="5">
         <v>112748000</v>
       </c>
-      <c r="F9" s="5">
+      <c r="H9" s="5">
         <v>103219000</v>
       </c>
-      <c r="G9" s="5">
+      <c r="I9" s="5">
         <v>103219000</v>
       </c>
-      <c r="H9" s="13">
+      <c r="J9" s="13">
         <v>103219000</v>
       </c>
-      <c r="I9" s="13">
+      <c r="K9" s="13">
         <v>103219000</v>
       </c>
-      <c r="J9" s="13">
+      <c r="L9" s="13">
         <v>88393000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="7">
-        <v>135701000</v>
-      </c>
-      <c r="C10" s="12">
+        <v>31403000</v>
+      </c>
+      <c r="C10" s="7">
+        <v>32448000</v>
+      </c>
+      <c r="D10" s="17">
+        <v>27427000</v>
+      </c>
+      <c r="E10" s="17">
         <v>14867000</v>
       </c>
-      <c r="D10" s="5">
+      <c r="F10" s="5">
         <v>13999000</v>
       </c>
-      <c r="E10" s="5">
+      <c r="G10" s="5">
         <v>14831000</v>
       </c>
-      <c r="F10" s="5">
+      <c r="H10" s="5">
         <v>12419000</v>
       </c>
-      <c r="G10" s="5">
+      <c r="I10" s="5">
         <v>14197000</v>
       </c>
-      <c r="H10" s="13">
+      <c r="J10" s="13">
         <v>13604000</v>
       </c>
-      <c r="I10" s="13">
+      <c r="K10" s="13">
         <v>14197000</v>
       </c>
-      <c r="J10" s="13">
+      <c r="L10" s="13">
         <v>5673000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="7">
-        <v>27427000</v>
-      </c>
-      <c r="C11" s="12">
+        <v>9564000</v>
+      </c>
+      <c r="C11" s="7">
+        <v>9972000</v>
+      </c>
+      <c r="D11" s="17">
+        <v>10321000</v>
+      </c>
+      <c r="E11" s="17">
         <v>5707000</v>
       </c>
-      <c r="D11" s="5">
+      <c r="F11" s="5">
         <v>5660000</v>
       </c>
-      <c r="E11" s="5">
+      <c r="G11" s="5">
         <v>5657000</v>
       </c>
-      <c r="F11" s="5">
+      <c r="H11" s="5">
         <v>5163000</v>
       </c>
-      <c r="G11" s="5">
+      <c r="I11" s="5">
         <v>5743000</v>
       </c>
-      <c r="H11" s="13">
+      <c r="J11" s="13">
         <v>5653000</v>
       </c>
-      <c r="I11" s="13">
+      <c r="K11" s="13">
         <v>5743000</v>
       </c>
-      <c r="J11" s="13">
+      <c r="L11" s="13">
         <v>4982000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="7">
-        <v>10321000</v>
-      </c>
-      <c r="C12" s="12">
+        <v>20966000</v>
+      </c>
+      <c r="C12" s="7">
+        <v>22339000</v>
+      </c>
+      <c r="D12" s="17">
+        <v>22091000</v>
+      </c>
+      <c r="E12" s="17">
         <v>23485000</v>
       </c>
-      <c r="D12" s="5">
+      <c r="F12" s="5">
         <v>23697000</v>
       </c>
-      <c r="E12" s="5">
+      <c r="G12" s="5">
         <v>20403000</v>
       </c>
-      <c r="F12" s="5">
+      <c r="H12" s="5">
         <v>15806000</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="I12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="13">
+      <c r="J12" s="13">
         <v>7035000</v>
       </c>
-      <c r="I12" s="13">
-        <v>0</v>
-      </c>
-      <c r="J12" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="13">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="7">
-        <v>22091000</v>
-      </c>
-      <c r="C13" s="12">
+        <v>2199000</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2429000</v>
+      </c>
+      <c r="D13" s="17">
+        <v>2337000</v>
+      </c>
+      <c r="E13" s="17">
         <v>2562000</v>
       </c>
-      <c r="D13" s="5">
+      <c r="F13" s="5">
         <v>2757000</v>
       </c>
-      <c r="E13" s="5">
+      <c r="G13" s="5">
         <v>3921000</v>
       </c>
-      <c r="F13" s="5">
+      <c r="H13" s="5">
         <v>3412000</v>
       </c>
-      <c r="G13" s="5">
+      <c r="I13" s="5">
         <v>2714000</v>
       </c>
-      <c r="H13" s="13">
+      <c r="J13" s="13">
         <v>2787000</v>
       </c>
-      <c r="I13" s="13">
+      <c r="K13" s="13">
         <v>2714000</v>
       </c>
-      <c r="J13" s="13">
+      <c r="L13" s="13">
         <v>2984000</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="7">
-        <v>2337000</v>
-      </c>
-      <c r="C14" s="12">
+        <v>674604000</v>
+      </c>
+      <c r="C14" s="7">
+        <v>701997000</v>
+      </c>
+      <c r="D14" s="17">
+        <v>713520000</v>
+      </c>
+      <c r="E14" s="17">
         <v>720417000</v>
       </c>
-      <c r="D14" s="5">
+      <c r="F14" s="5">
         <v>723457000</v>
       </c>
-      <c r="E14" s="5">
+      <c r="G14" s="5">
         <v>752723000</v>
       </c>
-      <c r="F14" s="5">
+      <c r="H14" s="5">
         <v>747228000</v>
       </c>
-      <c r="G14" s="5">
+      <c r="I14" s="5">
         <v>821441000</v>
       </c>
-      <c r="H14" s="13">
+      <c r="J14" s="13">
         <v>795994000</v>
       </c>
-      <c r="I14" s="13">
+      <c r="K14" s="13">
         <v>821441000</v>
       </c>
-      <c r="J14" s="13">
+      <c r="L14" s="13">
         <v>399308000</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="13">
-        <v>713520000</v>
-      </c>
-      <c r="C15" s="12">
+      <c r="B15" s="7">
+        <v>3131000</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2601000</v>
+      </c>
+      <c r="D15" s="17">
+        <v>4589000</v>
+      </c>
+      <c r="E15" s="17">
         <v>3825000</v>
       </c>
-      <c r="D15" s="5">
+      <c r="F15" s="5">
         <v>14657000</v>
       </c>
-      <c r="E15" s="5">
+      <c r="G15" s="5">
         <v>6900000</v>
       </c>
-      <c r="F15" s="5">
+      <c r="H15" s="5">
         <v>2557000</v>
       </c>
-      <c r="G15" s="5">
+      <c r="I15" s="5">
         <v>2850000</v>
       </c>
-      <c r="H15" s="13">
+      <c r="J15" s="13">
         <v>3168000</v>
       </c>
-      <c r="I15" s="13">
+      <c r="K15" s="13">
         <v>2850000</v>
       </c>
-      <c r="J15" s="13">
+      <c r="L15" s="13">
         <v>1446000</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="7">
-        <v>4589000</v>
-      </c>
-      <c r="C16" s="15">
+        <v>43361000</v>
+      </c>
+      <c r="C16" s="7">
+        <v>44779000</v>
+      </c>
+      <c r="D16" s="17">
+        <v>41961000</v>
+      </c>
+      <c r="E16" s="18">
         <v>37841000</v>
       </c>
-      <c r="D16" s="5">
+      <c r="F16" s="5">
         <v>34432000</v>
       </c>
-      <c r="E16" s="5">
+      <c r="G16" s="5">
         <v>46022000</v>
       </c>
-      <c r="F16" s="5">
+      <c r="H16" s="5">
         <v>42629000</v>
       </c>
-      <c r="G16" s="5">
+      <c r="I16" s="5">
         <v>48823000</v>
       </c>
-      <c r="H16" s="13">
+      <c r="J16" s="13">
         <v>43184000</v>
       </c>
-      <c r="I16" s="13">
+      <c r="K16" s="13">
         <v>48823000</v>
       </c>
-      <c r="J16" s="13">
+      <c r="L16" s="13">
         <v>30195000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="7">
-        <v>41961000</v>
-      </c>
-      <c r="C17" s="15">
+        <v>63646000</v>
+      </c>
+      <c r="C17" s="7">
+        <v>72327000</v>
+      </c>
+      <c r="D17" s="17">
+        <v>67228000</v>
+      </c>
+      <c r="E17" s="18">
         <v>56575000</v>
       </c>
-      <c r="D17" s="5">
+      <c r="F17" s="5">
         <v>44620000</v>
       </c>
-      <c r="E17" s="5">
+      <c r="G17" s="5">
         <v>51900000</v>
       </c>
-      <c r="F17" s="5">
+      <c r="H17" s="5">
         <v>47698000</v>
       </c>
-      <c r="G17" s="5">
+      <c r="I17" s="5">
         <v>64233000</v>
       </c>
-      <c r="H17" s="13">
+      <c r="J17" s="13">
         <v>60672000</v>
       </c>
-      <c r="I17" s="13">
+      <c r="K17" s="13">
         <v>64233000</v>
       </c>
-      <c r="J17" s="13">
+      <c r="L17" s="13">
         <v>57570000</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="7">
-        <v>67228000</v>
-      </c>
-      <c r="C18" s="12">
+        <v>8068000</v>
+      </c>
+      <c r="C18" s="7">
+        <v>8964000</v>
+      </c>
+      <c r="D18" s="17">
+        <v>9860000</v>
+      </c>
+      <c r="E18" s="17">
         <v>10757000</v>
       </c>
-      <c r="D18" s="5">
+      <c r="F18" s="5">
         <v>11653000</v>
       </c>
-      <c r="E18" s="5">
+      <c r="G18" s="5">
         <v>12550000</v>
       </c>
-      <c r="F18" s="5">
+      <c r="H18" s="5">
         <v>13446000</v>
       </c>
-      <c r="G18" s="5">
+      <c r="I18" s="5">
         <v>16135000</v>
       </c>
-      <c r="H18" s="13">
+      <c r="J18" s="13">
         <v>15239000</v>
       </c>
-      <c r="I18" s="13">
+      <c r="K18" s="13">
         <v>16135000</v>
       </c>
-      <c r="J18" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L18" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="7">
-        <v>9860000</v>
-      </c>
-      <c r="C19" s="12">
+        <v>8175000</v>
+      </c>
+      <c r="C19" s="7">
+        <v>7978000</v>
+      </c>
+      <c r="D19" s="17">
+        <v>7500000</v>
+      </c>
+      <c r="E19" s="17">
         <v>7261000</v>
       </c>
-      <c r="D19" s="5">
+      <c r="F19" s="5">
         <v>6320000</v>
       </c>
-      <c r="E19" s="5">
+      <c r="G19" s="5">
         <v>4885000</v>
       </c>
-      <c r="F19" s="5">
+      <c r="H19" s="5">
         <v>3538000</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="I19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="13">
+      <c r="J19" s="13">
         <v>7188000</v>
       </c>
-      <c r="I19" s="13">
-        <v>0</v>
-      </c>
-      <c r="J19" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="13">
+        <v>0</v>
+      </c>
+      <c r="L19" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="7">
-        <v>7500000</v>
-      </c>
-      <c r="C20" s="12">
+        <v>126381000</v>
+      </c>
+      <c r="C20" s="7">
+        <v>136649000</v>
+      </c>
+      <c r="D20" s="17">
+        <v>131138000</v>
+      </c>
+      <c r="E20" s="17">
         <v>116259000</v>
       </c>
-      <c r="D20" s="5">
+      <c r="F20" s="5">
         <v>111682000</v>
       </c>
-      <c r="E20" s="5">
+      <c r="G20" s="5">
         <v>122257000</v>
       </c>
-      <c r="F20" s="5">
+      <c r="H20" s="5">
         <v>109868000</v>
       </c>
-      <c r="G20" s="5">
+      <c r="I20" s="5">
         <v>132041000</v>
       </c>
-      <c r="H20" s="13">
+      <c r="J20" s="13">
         <v>129451000</v>
       </c>
-      <c r="I20" s="13">
+      <c r="K20" s="13">
         <v>132041000</v>
       </c>
-      <c r="J20" s="13">
+      <c r="L20" s="13">
         <v>108814000</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="7">
-        <v>131138000</v>
-      </c>
-      <c r="C21" s="15">
+        <v>13247000</v>
+      </c>
+      <c r="C21" s="7">
+        <v>5293000</v>
+      </c>
+      <c r="D21" s="17">
+        <v>7763000</v>
+      </c>
+      <c r="E21" s="18">
         <v>18186000</v>
       </c>
-      <c r="D21" s="5">
+      <c r="F21" s="5">
         <v>2474000</v>
       </c>
-      <c r="E21" s="5">
+      <c r="G21" s="5">
         <v>2882000</v>
       </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
         <v>3579000</v>
       </c>
-      <c r="H21" s="13">
-        <v>0</v>
-      </c>
-      <c r="I21" s="13">
+      <c r="J21" s="13">
+        <v>0</v>
+      </c>
+      <c r="K21" s="13">
         <v>3579000</v>
       </c>
-      <c r="J21" s="13">
+      <c r="L21" s="13">
         <v>15122000</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="7">
-        <v>7763000</v>
-      </c>
-      <c r="C22" s="15">
+        <v>9261000</v>
+      </c>
+      <c r="C22" s="7">
+        <v>7101000</v>
+      </c>
+      <c r="D22" s="17">
+        <v>8353000</v>
+      </c>
+      <c r="E22" s="18">
         <v>9605000</v>
       </c>
-      <c r="D22" s="5">
+      <c r="F22" s="5">
         <v>10671000</v>
       </c>
-      <c r="E22" s="5">
+      <c r="G22" s="5">
         <v>8679000</v>
       </c>
-      <c r="F22" s="5">
+      <c r="H22" s="5">
         <v>9853000</v>
       </c>
-      <c r="G22" s="5">
+      <c r="I22" s="5">
         <v>12149000</v>
       </c>
-      <c r="H22" s="13">
+      <c r="J22" s="13">
         <v>12199000</v>
       </c>
-      <c r="I22" s="13">
+      <c r="K22" s="13">
         <v>12149000</v>
       </c>
-      <c r="J22" s="13">
+      <c r="L22" s="13">
         <v>7971000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="7">
-        <v>8353000</v>
-      </c>
-      <c r="C23" s="12">
+        <v>1431000</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2961000</v>
+      </c>
+      <c r="D23" s="17">
+        <v>2666000</v>
+      </c>
+      <c r="E23" s="17">
         <v>9499000</v>
       </c>
-      <c r="D23" s="5">
+      <c r="F23" s="5">
         <v>10725000</v>
       </c>
-      <c r="E23" s="5">
+      <c r="G23" s="5">
         <v>16670000</v>
       </c>
-      <c r="F23" s="5">
+      <c r="H23" s="5">
         <v>17855000</v>
       </c>
-      <c r="G23" s="5">
+      <c r="I23" s="5">
         <v>23224000</v>
       </c>
-      <c r="H23" s="13">
+      <c r="J23" s="13">
         <v>19948000</v>
       </c>
-      <c r="I23" s="13">
+      <c r="K23" s="13">
         <v>23224000</v>
       </c>
-      <c r="J23" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="7">
-        <v>2666000</v>
-      </c>
-      <c r="C24" s="12">
-        <v>0</v>
-      </c>
-      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0</v>
+      </c>
+      <c r="E24" s="17">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
         <v>19912000</v>
       </c>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
       <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
         <v>798000</v>
       </c>
-      <c r="H24" s="13">
-        <v>0</v>
-      </c>
-      <c r="I24" s="13">
+      <c r="J24" s="13">
+        <v>0</v>
+      </c>
+      <c r="K24" s="13">
         <v>798000</v>
       </c>
-      <c r="J24" s="13">
+      <c r="L24" s="13">
         <v>2991000</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="7">
+        <v>15207000</v>
+      </c>
+      <c r="C25" s="7">
+        <v>16952000</v>
+      </c>
+      <c r="D25" s="17">
         <v>17321000</v>
       </c>
-      <c r="C25" s="12">
+      <c r="E25" s="17">
         <v>19139000</v>
       </c>
-      <c r="D25" s="5">
+      <c r="F25" s="5">
         <v>7142000</v>
       </c>
-      <c r="E25" s="5">
+      <c r="G25" s="5">
         <v>17145000</v>
       </c>
-      <c r="F25" s="5">
+      <c r="H25" s="5">
         <v>14024000</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="I25" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="13">
+      <c r="J25" s="13">
         <v>2271000</v>
       </c>
-      <c r="I25" s="13">
-        <v>0</v>
-      </c>
-      <c r="J25" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="13">
+        <v>0</v>
+      </c>
+      <c r="L25" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B26" s="7">
+        <v>2915000</v>
+      </c>
+      <c r="C26" s="7">
+        <v>5885000</v>
+      </c>
+      <c r="D26" s="17">
         <v>5588000</v>
       </c>
-      <c r="C26" s="12">
+      <c r="E26" s="17">
         <v>5926000</v>
       </c>
-      <c r="D26" s="5">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5">
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
         <v>7499000</v>
       </c>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="G26" s="5">
-        <v>0</v>
-      </c>
-      <c r="H26" s="13">
-        <v>0</v>
-      </c>
-      <c r="I26" s="13">
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
         <v>0</v>
       </c>
       <c r="J26" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="13">
+        <v>0</v>
+      </c>
+      <c r="L26" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="7">
+        <v>5837000</v>
+      </c>
+      <c r="C27" s="7">
+        <v>9138000</v>
+      </c>
+      <c r="D27" s="17">
         <v>7093000</v>
       </c>
-      <c r="C27" s="12">
+      <c r="E27" s="17">
         <v>2235000</v>
       </c>
-      <c r="D27" s="5">
+      <c r="F27" s="5">
         <v>1502000</v>
       </c>
-      <c r="E27" s="5">
+      <c r="G27" s="5">
         <v>1487000</v>
       </c>
-      <c r="F27" s="5">
+      <c r="H27" s="5">
         <v>1461000</v>
       </c>
-      <c r="G27" s="5">
+      <c r="I27" s="5">
         <v>1405000</v>
       </c>
-      <c r="H27" s="13">
+      <c r="J27" s="13">
         <v>1419000</v>
       </c>
-      <c r="I27" s="13">
+      <c r="K27" s="13">
         <v>1405000</v>
       </c>
-      <c r="J27" s="13">
+      <c r="L27" s="13">
         <v>1287000</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="7">
+        <v>174279000</v>
+      </c>
+      <c r="C28" s="7">
+        <v>183979000</v>
+      </c>
+      <c r="D28" s="17">
         <v>179922000</v>
       </c>
-      <c r="C28" s="12">
+      <c r="E28" s="17">
         <v>180849000</v>
       </c>
-      <c r="D28" s="5">
+      <c r="F28" s="5">
         <v>164108000</v>
       </c>
-      <c r="E28" s="5">
+      <c r="G28" s="5">
         <v>176619000</v>
       </c>
-      <c r="F28" s="5">
+      <c r="H28" s="5">
         <v>153061000</v>
       </c>
-      <c r="G28" s="5">
+      <c r="I28" s="5">
         <v>173196000</v>
       </c>
-      <c r="H28" s="13">
+      <c r="J28" s="13">
         <v>165288000</v>
       </c>
-      <c r="I28" s="13">
+      <c r="K28" s="13">
         <v>173196000</v>
       </c>
-      <c r="J28" s="13">
+      <c r="L28" s="13">
         <v>291797000</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="7">
+        <v>1608847000</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1596201000</v>
+      </c>
+      <c r="D29" s="17">
         <v>1583531000</v>
       </c>
-      <c r="C29" s="12">
+      <c r="E29" s="17">
         <v>1549920000</v>
       </c>
-      <c r="D29" s="5">
+      <c r="F29" s="5">
         <v>1531380000</v>
       </c>
-      <c r="E29" s="5">
+      <c r="G29" s="5">
         <v>1513102000</v>
       </c>
-      <c r="F29" s="5">
+      <c r="H29" s="5">
         <v>1494652000</v>
       </c>
-      <c r="G29" s="5">
+      <c r="I29" s="5">
         <v>1423151000</v>
       </c>
-      <c r="H29" s="13">
+      <c r="J29" s="13">
         <v>1450098000</v>
       </c>
-      <c r="I29" s="13">
+      <c r="K29" s="13">
         <v>1423151000</v>
       </c>
-      <c r="J29" s="13">
+      <c r="L29" s="13">
         <v>745630000</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="7">
+        <v>548000</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1594000</v>
+      </c>
+      <c r="D30" s="17">
         <v>-242000</v>
       </c>
-      <c r="C30" s="12">
+      <c r="E30" s="17">
         <v>1336000</v>
       </c>
-      <c r="D30" s="5">
+      <c r="F30" s="5">
         <v>1682000</v>
       </c>
-      <c r="E30" s="5">
+      <c r="G30" s="5">
         <v>2271000</v>
       </c>
-      <c r="F30" s="5">
+      <c r="H30" s="5">
         <v>943000</v>
       </c>
-      <c r="G30" s="5">
+      <c r="I30" s="5">
         <v>2096000</v>
       </c>
-      <c r="H30" s="13">
+      <c r="J30" s="13">
         <v>2271000</v>
       </c>
-      <c r="I30" s="13">
+      <c r="K30" s="13">
         <v>2096000</v>
       </c>
-      <c r="J30" s="13">
+      <c r="L30" s="13">
         <v>1769000</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="7">
+        <v>-1109098000</v>
+      </c>
+      <c r="C31" s="7">
+        <v>-1079805000</v>
+      </c>
+      <c r="D31" s="17">
         <v>-1049719000</v>
       </c>
-      <c r="C31" s="12">
+      <c r="E31" s="17">
         <v>-1011715000</v>
       </c>
-      <c r="D31" s="5">
+      <c r="F31" s="5">
         <v>-973740000</v>
       </c>
-      <c r="E31" s="5">
+      <c r="G31" s="5">
         <v>-939296000</v>
       </c>
-      <c r="F31" s="5">
+      <c r="H31" s="5">
         <v>-901455000</v>
       </c>
-      <c r="G31" s="5">
+      <c r="I31" s="5">
         <v>-777029000</v>
       </c>
-      <c r="H31" s="13">
+      <c r="J31" s="13">
         <v>-821690000</v>
       </c>
-      <c r="I31" s="13">
+      <c r="K31" s="13">
         <v>-777029000</v>
       </c>
-      <c r="J31" s="13">
+      <c r="L31" s="13">
         <v>-639905000</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B32" s="7">
+        <v>500325000</v>
+      </c>
+      <c r="C32" s="7">
+        <v>518018000</v>
+      </c>
+      <c r="D32" s="17">
         <v>533598000</v>
       </c>
-      <c r="C32" s="12">
+      <c r="E32" s="17">
         <v>539568000</v>
       </c>
-      <c r="D32" s="5">
+      <c r="F32" s="5">
         <v>559349000</v>
       </c>
-      <c r="E32" s="5">
+      <c r="G32" s="5">
         <v>576104000</v>
       </c>
-      <c r="F32" s="5">
+      <c r="H32" s="5">
         <v>594167000</v>
       </c>
-      <c r="G32" s="5">
+      <c r="I32" s="5">
         <v>648245000</v>
       </c>
-      <c r="H32" s="13">
+      <c r="J32" s="13">
         <v>630706000</v>
       </c>
-      <c r="I32" s="13">
+      <c r="K32" s="13">
         <v>648245000</v>
       </c>
-      <c r="J32" s="13">
+      <c r="L32" s="13">
         <v>107511000</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="7">
+        <v>674604000</v>
+      </c>
+      <c r="C33" s="7">
+        <v>701997000</v>
+      </c>
+      <c r="D33" s="17">
         <v>713520000</v>
       </c>
-      <c r="C33" s="12">
+      <c r="E33" s="17">
         <v>720417000</v>
       </c>
-      <c r="D33" s="5">
+      <c r="F33" s="5">
         <v>723457000</v>
       </c>
-      <c r="E33" s="5">
+      <c r="G33" s="5">
         <v>752723000</v>
       </c>
-      <c r="F33" s="5">
+      <c r="H33" s="5">
         <v>747228000</v>
       </c>
-      <c r="G33" s="5">
+      <c r="I33" s="5">
         <v>821441000</v>
       </c>
-      <c r="H33" s="13">
+      <c r="J33" s="13">
         <v>795994000</v>
       </c>
-      <c r="I33" s="13">
+      <c r="K33" s="13">
         <v>821441000</v>
       </c>
-      <c r="J33" s="13">
+      <c r="L33" s="13">
         <v>399308000</v>
       </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B35"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B36"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B37"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B38"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B39"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B40"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B42"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B43"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B44"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B45"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B47"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B48"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3819,121 +4549,131 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9961904-157F-4234-8693-8A3031A539AB}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="9">
+        <v>45412</v>
+      </c>
+      <c r="C1" s="9">
+        <v>45322</v>
+      </c>
+      <c r="D1" s="9">
         <v>45230</v>
       </c>
-      <c r="C1" s="9">
+      <c r="E1" s="9">
         <v>45138</v>
       </c>
-      <c r="D1" s="9">
+      <c r="F1" s="9">
         <v>45046</v>
       </c>
-      <c r="E1" s="9">
+      <c r="G1" s="9">
         <v>44957</v>
       </c>
-      <c r="F1" s="9">
+      <c r="H1" s="9">
         <v>44865</v>
       </c>
-      <c r="G1" s="10">
+      <c r="I1" s="10">
         <v>44773</v>
       </c>
-      <c r="H1" s="10">
+      <c r="J1" s="10">
         <v>44681</v>
       </c>
-      <c r="I1" s="10">
+      <c r="K1" s="10">
         <v>44592</v>
       </c>
-      <c r="J1" s="9">
+      <c r="L1" s="9">
         <v>44500</v>
       </c>
-      <c r="K1" s="10">
+      <c r="M1" s="10">
         <v>44408</v>
       </c>
-      <c r="L1" s="10">
+      <c r="N1" s="10">
         <v>44316</v>
       </c>
-      <c r="M1" s="8">
+      <c r="O1" s="8">
         <v>44227</v>
       </c>
-      <c r="N1" s="8">
+      <c r="P1" s="8">
         <v>44135</v>
       </c>
-      <c r="O1" s="8">
+      <c r="Q1" s="8">
         <v>44043</v>
       </c>
-      <c r="P1" s="8">
+      <c r="R1" s="8">
         <v>43951</v>
       </c>
-      <c r="Q1" s="11">
+      <c r="S1" s="11">
         <v>43861</v>
       </c>
-      <c r="R1" s="8">
+      <c r="T1" s="8">
         <v>43769</v>
       </c>
-      <c r="S1" s="8">
+      <c r="U1" s="8">
         <v>43677</v>
       </c>
-      <c r="T1" s="8">
+      <c r="V1" s="8">
         <v>43951</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="6">
+        <v>60440000</v>
+      </c>
+      <c r="C2" s="6">
+        <v>220696000</v>
+      </c>
+      <c r="D2" s="6">
         <v>55380000</v>
       </c>
-      <c r="C2" s="6">
+      <c r="E2" s="6">
         <v>53761000</v>
       </c>
-      <c r="D2" s="6">
+      <c r="F2" s="6">
         <v>52703000</v>
       </c>
-      <c r="E2" s="6">
+      <c r="G2" s="6">
         <v>52975000</v>
       </c>
-      <c r="F2" s="6">
+      <c r="H2" s="6">
         <v>49704000</v>
       </c>
-      <c r="G2" s="6">
+      <c r="I2" s="6">
         <v>48450000</v>
       </c>
-      <c r="H2" s="6">
+      <c r="J2" s="6">
         <v>40127000</v>
       </c>
-      <c r="I2" s="6">
+      <c r="K2" s="6">
         <v>37146000</v>
       </c>
-      <c r="J2" s="6">
+      <c r="L2" s="6">
         <v>31700000</v>
       </c>
-      <c r="K2" s="6">
+      <c r="M2" s="6">
         <v>30406000</v>
       </c>
-      <c r="L2" s="6">
+      <c r="N2" s="6">
         <v>31957000</v>
-      </c>
-      <c r="M2" s="6">
-        <v>28292000</v>
-      </c>
-      <c r="N2" s="6">
-        <v>28292000</v>
       </c>
       <c r="O2" s="6">
         <v>28292000</v>
@@ -3942,10 +4682,10 @@
         <v>28292000</v>
       </c>
       <c r="Q2" s="6">
-        <v>23934000</v>
+        <v>28292000</v>
       </c>
       <c r="R2" s="6">
-        <v>23934000</v>
+        <v>28292000</v>
       </c>
       <c r="S2" s="6">
         <v>23934000</v>
@@ -3953,49 +4693,55 @@
       <c r="T2" s="6">
         <v>23934000</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2" s="6">
+        <v>23934000</v>
+      </c>
+      <c r="V2" s="6">
+        <v>23934000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="6">
+        <v>28757000</v>
+      </c>
+      <c r="C3" s="6">
+        <v>107746000</v>
+      </c>
+      <c r="D3" s="6">
         <v>29350000</v>
       </c>
-      <c r="C3" s="6">
+      <c r="E3" s="6">
         <v>27469000</v>
       </c>
-      <c r="D3" s="6">
+      <c r="F3" s="6">
         <v>24556000</v>
       </c>
-      <c r="E3" s="6">
+      <c r="G3" s="6">
         <v>23915000</v>
       </c>
-      <c r="F3" s="6">
+      <c r="H3" s="6">
         <v>24728000</v>
       </c>
-      <c r="G3" s="6">
+      <c r="I3" s="6">
         <v>24977000</v>
       </c>
-      <c r="H3" s="6">
+      <c r="J3" s="6">
         <v>23628000</v>
       </c>
-      <c r="I3" s="6">
+      <c r="K3" s="6">
         <v>23230000</v>
       </c>
-      <c r="J3" s="6">
+      <c r="L3" s="6">
         <v>20811000</v>
       </c>
-      <c r="K3" s="6">
+      <c r="M3" s="6">
         <v>19820000</v>
       </c>
-      <c r="L3" s="6">
+      <c r="N3" s="6">
         <v>19126000</v>
-      </c>
-      <c r="M3" s="6">
-        <v>21845750</v>
-      </c>
-      <c r="N3" s="6">
-        <v>21845750</v>
       </c>
       <c r="O3" s="6">
         <v>21845750</v>
@@ -4004,10 +4750,10 @@
         <v>21845750</v>
       </c>
       <c r="Q3" s="6">
-        <v>25598250</v>
+        <v>21845750</v>
       </c>
       <c r="R3" s="6">
-        <v>25598250</v>
+        <v>21845750</v>
       </c>
       <c r="S3" s="6">
         <v>25598250</v>
@@ -4015,49 +4761,55 @@
       <c r="T3" s="6">
         <v>25598250</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3" s="6">
+        <v>25598250</v>
+      </c>
+      <c r="V3" s="6">
+        <v>25598250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="6">
+        <v>31683000</v>
+      </c>
+      <c r="C4" s="6">
+        <v>112950000</v>
+      </c>
+      <c r="D4" s="6">
         <v>26030000</v>
       </c>
-      <c r="C4" s="6">
+      <c r="E4" s="6">
         <v>26292000</v>
       </c>
-      <c r="D4" s="6">
+      <c r="F4" s="6">
         <v>28147000</v>
       </c>
-      <c r="E4" s="6">
+      <c r="G4" s="6">
         <v>29060000</v>
       </c>
-      <c r="F4" s="6">
+      <c r="H4" s="6">
         <v>24976000</v>
       </c>
-      <c r="G4" s="6">
+      <c r="I4" s="6">
         <v>23473000</v>
       </c>
-      <c r="H4" s="6">
+      <c r="J4" s="6">
         <v>16499000</v>
       </c>
-      <c r="I4" s="6">
+      <c r="K4" s="6">
         <v>13916000</v>
       </c>
-      <c r="J4" s="6">
+      <c r="L4" s="6">
         <v>10889000</v>
       </c>
-      <c r="K4" s="6">
+      <c r="M4" s="6">
         <v>10586000</v>
       </c>
-      <c r="L4" s="6">
+      <c r="N4" s="6">
         <v>12831000</v>
-      </c>
-      <c r="M4" s="6">
-        <v>6446250</v>
-      </c>
-      <c r="N4" s="6">
-        <v>6446250</v>
       </c>
       <c r="O4" s="6">
         <v>6446250</v>
@@ -4066,10 +4818,10 @@
         <v>6446250</v>
       </c>
       <c r="Q4" s="6">
-        <v>-1664250</v>
+        <v>6446250</v>
       </c>
       <c r="R4" s="6">
-        <v>-1664250</v>
+        <v>6446250</v>
       </c>
       <c r="S4" s="6">
         <v>-1664250</v>
@@ -4077,49 +4829,55 @@
       <c r="T4" s="6">
         <v>-1664250</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4" s="6">
+        <v>-1664250</v>
+      </c>
+      <c r="V4" s="6">
+        <v>-1664250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="6">
+        <v>25589000</v>
+      </c>
+      <c r="C5" s="6">
+        <v>116339000</v>
+      </c>
+      <c r="D5" s="6">
         <v>33002000</v>
       </c>
-      <c r="C5" s="6">
+      <c r="E5" s="6">
         <v>26741000</v>
       </c>
-      <c r="D5" s="6">
+      <c r="F5" s="6">
         <v>28186000</v>
       </c>
-      <c r="E5" s="6">
+      <c r="G5" s="6">
         <v>31831000</v>
       </c>
-      <c r="F5" s="6">
+      <c r="H5" s="6">
         <v>27598000</v>
       </c>
-      <c r="G5" s="6">
+      <c r="I5" s="6">
         <v>26737000</v>
       </c>
-      <c r="H5" s="6">
+      <c r="J5" s="6">
         <v>24750000</v>
       </c>
-      <c r="I5" s="6">
+      <c r="K5" s="6">
         <v>27163000</v>
       </c>
-      <c r="J5" s="6">
+      <c r="L5" s="6">
         <v>14959000</v>
       </c>
-      <c r="K5" s="6">
+      <c r="M5" s="6">
         <v>12432000</v>
       </c>
-      <c r="L5" s="6">
+      <c r="N5" s="6">
         <v>12130000</v>
-      </c>
-      <c r="M5" s="6">
-        <v>10956250</v>
-      </c>
-      <c r="N5" s="6">
-        <v>10956250</v>
       </c>
       <c r="O5" s="6">
         <v>10956250</v>
@@ -4128,10 +4886,10 @@
         <v>10956250</v>
       </c>
       <c r="Q5" s="6">
-        <v>9467750</v>
+        <v>10956250</v>
       </c>
       <c r="R5" s="6">
-        <v>9467750</v>
+        <v>10956250</v>
       </c>
       <c r="S5" s="6">
         <v>9467750</v>
@@ -4139,49 +4897,55 @@
       <c r="T5" s="6">
         <v>9467750</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5" s="6">
+        <v>9467750</v>
+      </c>
+      <c r="V5" s="6">
+        <v>9467750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="6">
+        <v>21485000</v>
+      </c>
+      <c r="C6" s="6">
+        <v>86304000</v>
+      </c>
+      <c r="D6" s="6">
         <v>20774000</v>
       </c>
-      <c r="C6" s="6">
+      <c r="E6" s="6">
         <v>22310000</v>
       </c>
-      <c r="D6" s="6">
+      <c r="F6" s="6">
         <v>23125000</v>
       </c>
-      <c r="E6" s="6">
+      <c r="G6" s="6">
         <v>20299000</v>
       </c>
-      <c r="F6" s="6">
+      <c r="H6" s="6">
         <v>19383000</v>
       </c>
-      <c r="G6" s="6">
+      <c r="I6" s="6">
         <v>19483000</v>
       </c>
-      <c r="H6" s="6">
+      <c r="J6" s="6">
         <v>18855000</v>
       </c>
-      <c r="I6" s="6">
+      <c r="K6" s="6">
         <v>19226000</v>
       </c>
-      <c r="J6" s="6">
+      <c r="L6" s="6">
         <v>12441000</v>
       </c>
-      <c r="K6" s="6">
+      <c r="M6" s="6">
         <v>10597000</v>
       </c>
-      <c r="L6" s="6">
+      <c r="N6" s="6">
         <v>10653000</v>
-      </c>
-      <c r="M6" s="6">
-        <v>9317000</v>
-      </c>
-      <c r="N6" s="6">
-        <v>9317000</v>
       </c>
       <c r="O6" s="6">
         <v>9317000</v>
@@ -4190,10 +4954,10 @@
         <v>9317000</v>
       </c>
       <c r="Q6" s="6">
-        <v>8728250</v>
+        <v>9317000</v>
       </c>
       <c r="R6" s="6">
-        <v>8728250</v>
+        <v>9317000</v>
       </c>
       <c r="S6" s="6">
         <v>8728250</v>
@@ -4201,49 +4965,55 @@
       <c r="T6" s="6">
         <v>8728250</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6" s="6">
+        <v>8728250</v>
+      </c>
+      <c r="V6" s="6">
+        <v>8728250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="6">
+        <v>19180000</v>
+      </c>
+      <c r="C7" s="6">
+        <v>80055000</v>
+      </c>
+      <c r="D7" s="6">
         <v>20112000</v>
       </c>
-      <c r="C7" s="6">
+      <c r="E7" s="6">
         <v>20521000</v>
       </c>
-      <c r="D7" s="6">
+      <c r="F7" s="6">
         <v>21528000</v>
       </c>
-      <c r="E7" s="6">
+      <c r="G7" s="6">
         <v>19619000</v>
       </c>
-      <c r="F7" s="6">
+      <c r="H7" s="6">
         <v>20627000</v>
       </c>
-      <c r="G7" s="6">
+      <c r="I7" s="6">
         <v>19893000</v>
       </c>
-      <c r="H7" s="6">
+      <c r="J7" s="6">
         <v>20608000</v>
       </c>
-      <c r="I7" s="6">
+      <c r="K7" s="6">
         <v>24733000</v>
       </c>
-      <c r="J7" s="6">
+      <c r="L7" s="6">
         <v>11800000</v>
       </c>
-      <c r="K7" s="6">
+      <c r="M7" s="6">
         <v>11824000</v>
       </c>
-      <c r="L7" s="6">
+      <c r="N7" s="6">
         <v>8315000</v>
-      </c>
-      <c r="M7" s="6">
-        <v>8033500</v>
-      </c>
-      <c r="N7" s="6">
-        <v>8033500</v>
       </c>
       <c r="O7" s="6">
         <v>8033500</v>
@@ -4252,10 +5022,10 @@
         <v>8033500</v>
       </c>
       <c r="Q7" s="6">
-        <v>6754750</v>
+        <v>8033500</v>
       </c>
       <c r="R7" s="6">
-        <v>6754750</v>
+        <v>8033500</v>
       </c>
       <c r="S7" s="6">
         <v>6754750</v>
@@ -4263,49 +5033,55 @@
       <c r="T7" s="6">
         <v>6754750</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7" s="6">
+        <v>6754750</v>
+      </c>
+      <c r="V7" s="6">
+        <v>6754750</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="6">
+        <v>66254000</v>
+      </c>
+      <c r="C8" s="6">
+        <v>282698000</v>
+      </c>
+      <c r="D8" s="6">
         <v>73888000</v>
       </c>
-      <c r="C8" s="6">
+      <c r="E8" s="6">
         <v>69572000</v>
       </c>
-      <c r="D8" s="6">
+      <c r="F8" s="6">
         <v>72839000</v>
       </c>
-      <c r="E8" s="6">
+      <c r="G8" s="6">
         <v>71749000</v>
       </c>
-      <c r="F8" s="6">
+      <c r="H8" s="6">
         <v>67608000</v>
       </c>
-      <c r="G8" s="6">
+      <c r="I8" s="6">
         <v>66113000</v>
       </c>
-      <c r="H8" s="6">
+      <c r="J8" s="6">
         <v>64213000</v>
       </c>
-      <c r="I8" s="6">
+      <c r="K8" s="6">
         <v>71122000</v>
       </c>
-      <c r="J8" s="6">
+      <c r="L8" s="6">
         <v>39200000</v>
       </c>
-      <c r="K8" s="6">
+      <c r="M8" s="6">
         <v>34853000</v>
       </c>
-      <c r="L8" s="6">
+      <c r="N8" s="6">
         <v>31098000</v>
-      </c>
-      <c r="M8" s="6">
-        <v>28306750</v>
-      </c>
-      <c r="N8" s="6">
-        <v>28306750</v>
       </c>
       <c r="O8" s="6">
         <v>28306750</v>
@@ -4314,10 +5090,10 @@
         <v>28306750</v>
       </c>
       <c r="Q8" s="6">
-        <v>24950750</v>
+        <v>28306750</v>
       </c>
       <c r="R8" s="6">
-        <v>24950750</v>
+        <v>28306750</v>
       </c>
       <c r="S8" s="6">
         <v>24950750</v>
@@ -4325,49 +5101,55 @@
       <c r="T8" s="6">
         <v>24950750</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8" s="6">
+        <v>24950750</v>
+      </c>
+      <c r="V8" s="6">
+        <v>24950750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="6">
+        <v>-34571000</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-169748000</v>
+      </c>
+      <c r="D9" s="6">
         <v>-47858000</v>
       </c>
-      <c r="C9" s="6">
+      <c r="E9" s="6">
         <v>-43280000</v>
       </c>
-      <c r="D9" s="6">
+      <c r="F9" s="6">
         <v>-44692000</v>
       </c>
-      <c r="E9" s="6">
+      <c r="G9" s="6">
         <v>-42689000</v>
       </c>
-      <c r="F9" s="6">
+      <c r="H9" s="6">
         <v>-42632000</v>
       </c>
-      <c r="G9" s="6">
+      <c r="I9" s="6">
         <v>-42640000</v>
       </c>
-      <c r="H9" s="6">
+      <c r="J9" s="6">
         <v>-47714000</v>
       </c>
-      <c r="I9" s="6">
+      <c r="K9" s="6">
         <v>-57206000</v>
       </c>
-      <c r="J9" s="6">
+      <c r="L9" s="6">
         <v>-28311000</v>
       </c>
-      <c r="K9" s="6">
+      <c r="M9" s="6">
         <v>-24267000</v>
       </c>
-      <c r="L9" s="6">
+      <c r="N9" s="6">
         <v>-18267000</v>
-      </c>
-      <c r="M9" s="6">
-        <v>-21860500</v>
-      </c>
-      <c r="N9" s="6">
-        <v>-21860500</v>
       </c>
       <c r="O9" s="6">
         <v>-21860500</v>
@@ -4376,10 +5158,10 @@
         <v>-21860500</v>
       </c>
       <c r="Q9" s="6">
-        <v>-26615000</v>
+        <v>-21860500</v>
       </c>
       <c r="R9" s="6">
-        <v>-26615000</v>
+        <v>-21860500</v>
       </c>
       <c r="S9" s="6">
         <v>-26615000</v>
@@ -4387,8 +5169,14 @@
       <c r="T9" s="6">
         <v>-26615000</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="6">
+        <v>-26615000</v>
+      </c>
+      <c r="V9" s="6">
+        <v>-26615000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
@@ -4414,22 +5202,22 @@
         <v>0</v>
       </c>
       <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
         <v>-1690000</v>
       </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0</v>
-      </c>
       <c r="L10" s="6">
         <v>0</v>
       </c>
       <c r="M10" s="6">
-        <v>168250</v>
+        <v>0</v>
       </c>
       <c r="N10" s="6">
-        <v>168250</v>
+        <v>0</v>
       </c>
       <c r="O10" s="6">
         <v>168250</v>
@@ -4438,10 +5226,10 @@
         <v>168250</v>
       </c>
       <c r="Q10" s="6">
-        <v>-2882250</v>
+        <v>168250</v>
       </c>
       <c r="R10" s="6">
-        <v>-2882250</v>
+        <v>168250</v>
       </c>
       <c r="S10" s="6">
         <v>-2882250</v>
@@ -4449,44 +5237,50 @@
       <c r="T10" s="6">
         <v>-2882250</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" s="6">
+        <v>-2882250</v>
+      </c>
+      <c r="V10" s="6">
+        <v>-2882250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="6">
+        <v>3107000</v>
+      </c>
+      <c r="C11" s="6">
+        <v>15414000</v>
+      </c>
+      <c r="D11" s="6">
         <v>3445000</v>
       </c>
-      <c r="C11" s="6">
+      <c r="E11" s="6">
         <v>3802000</v>
       </c>
-      <c r="D11" s="6">
+      <c r="F11" s="6">
         <v>4506000</v>
       </c>
-      <c r="E11" s="6">
+      <c r="G11" s="6">
         <v>4819000</v>
       </c>
-      <c r="F11" s="6">
+      <c r="H11" s="6">
         <v>2853000</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
       <c r="I11" s="6">
         <v>0</v>
       </c>
       <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
         <v>8000</v>
       </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
       <c r="M11" s="6">
         <v>0</v>
       </c>
@@ -4511,8 +5305,14 @@
       <c r="T11" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11" s="6">
+        <v>0</v>
+      </c>
+      <c r="V11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -4538,22 +5338,22 @@
         <v>0</v>
       </c>
       <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
         <v>-1022000</v>
       </c>
-      <c r="J12" s="6">
+      <c r="L12" s="6">
         <v>-2612000</v>
       </c>
-      <c r="K12" s="6">
+      <c r="M12" s="6">
         <v>-2611000</v>
       </c>
-      <c r="L12" s="6">
+      <c r="N12" s="6">
         <v>-2527000</v>
-      </c>
-      <c r="M12" s="6">
-        <v>-2361750</v>
-      </c>
-      <c r="N12" s="6">
-        <v>-2361750</v>
       </c>
       <c r="O12" s="6">
         <v>-2361750</v>
@@ -4562,10 +5362,10 @@
         <v>-2361750</v>
       </c>
       <c r="Q12" s="6">
-        <v>-1736500</v>
+        <v>-2361750</v>
       </c>
       <c r="R12" s="6">
-        <v>-1736500</v>
+        <v>-2361750</v>
       </c>
       <c r="S12" s="6">
         <v>-1736500</v>
@@ -4573,49 +5373,55 @@
       <c r="T12" s="6">
         <v>-1736500</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U12" s="6">
+        <v>-1736500</v>
+      </c>
+      <c r="V12" s="6">
+        <v>-1736500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="6">
+        <v>1530000</v>
+      </c>
+      <c r="C13" s="6">
+        <v>13709000</v>
+      </c>
+      <c r="D13" s="6">
         <v>6833000</v>
       </c>
-      <c r="C13" s="6">
+      <c r="E13" s="6">
         <v>1226000</v>
       </c>
-      <c r="D13" s="6">
+      <c r="F13" s="6">
         <v>-5945000</v>
       </c>
-      <c r="E13" s="6">
+      <c r="G13" s="6">
         <v>3297000</v>
       </c>
-      <c r="F13" s="6">
+      <c r="H13" s="6">
         <v>-19000</v>
       </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
         <v>3276000</v>
       </c>
-      <c r="I13" s="6">
+      <c r="K13" s="6">
         <v>23924000</v>
       </c>
-      <c r="J13" s="6">
+      <c r="L13" s="6">
         <v>-10172000</v>
       </c>
-      <c r="K13" s="6">
-        <v>0</v>
-      </c>
-      <c r="L13" s="6">
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
         <v>-8026000</v>
-      </c>
-      <c r="M13" s="6">
-        <v>-7513250</v>
-      </c>
-      <c r="N13" s="6">
-        <v>-7513250</v>
       </c>
       <c r="O13" s="6">
         <v>-7513250</v>
@@ -4624,10 +5430,10 @@
         <v>-7513250</v>
       </c>
       <c r="Q13" s="6">
-        <v>51750</v>
+        <v>-7513250</v>
       </c>
       <c r="R13" s="6">
-        <v>51750</v>
+        <v>-7513250</v>
       </c>
       <c r="S13" s="6">
         <v>51750</v>
@@ -4635,49 +5441,55 @@
       <c r="T13" s="6">
         <v>51750</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13" s="6">
+        <v>51750</v>
+      </c>
+      <c r="V13" s="6">
+        <v>51750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="6">
+        <v>1083000</v>
+      </c>
+      <c r="C14" s="6">
+        <v>931000</v>
+      </c>
+      <c r="D14" s="6">
         <v>-69000</v>
       </c>
-      <c r="C14" s="6">
+      <c r="E14" s="6">
         <v>859000</v>
       </c>
-      <c r="D14" s="6">
+      <c r="F14" s="6">
         <v>104000</v>
       </c>
-      <c r="E14" s="6">
+      <c r="G14" s="6">
         <v>-1216000</v>
       </c>
-      <c r="F14" s="6">
+      <c r="H14" s="6">
         <v>1000</v>
       </c>
-      <c r="G14" s="6">
+      <c r="I14" s="6">
         <v>1153000</v>
       </c>
-      <c r="H14" s="6">
+      <c r="J14" s="6">
         <v>392000</v>
       </c>
-      <c r="I14" s="6">
+      <c r="K14" s="6">
         <v>-1906000</v>
       </c>
-      <c r="J14" s="6">
+      <c r="L14" s="6">
         <v>-60000</v>
       </c>
-      <c r="K14" s="6">
+      <c r="M14" s="6">
         <v>-84000</v>
       </c>
-      <c r="L14" s="6">
+      <c r="N14" s="6">
         <v>-177000</v>
-      </c>
-      <c r="M14" s="6">
-        <v>59750</v>
-      </c>
-      <c r="N14" s="6">
-        <v>59750</v>
       </c>
       <c r="O14" s="6">
         <v>59750</v>
@@ -4686,10 +5498,10 @@
         <v>59750</v>
       </c>
       <c r="Q14" s="6">
-        <v>286000</v>
+        <v>59750</v>
       </c>
       <c r="R14" s="6">
-        <v>286000</v>
+        <v>59750</v>
       </c>
       <c r="S14" s="6">
         <v>286000</v>
@@ -4697,49 +5509,55 @@
       <c r="T14" s="6">
         <v>286000</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14" s="6">
+        <v>286000</v>
+      </c>
+      <c r="V14" s="6">
+        <v>286000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="6">
+        <v>5720000</v>
+      </c>
+      <c r="C15" s="6">
+        <v>30054000</v>
+      </c>
+      <c r="D15" s="6">
         <v>10209000</v>
       </c>
-      <c r="C15" s="6">
+      <c r="E15" s="6">
         <v>5887000</v>
       </c>
-      <c r="D15" s="6">
+      <c r="F15" s="6">
         <v>10555000</v>
       </c>
-      <c r="E15" s="6">
+      <c r="G15" s="6">
         <v>4788000</v>
       </c>
-      <c r="F15" s="6">
+      <c r="H15" s="6">
         <v>2835000</v>
       </c>
-      <c r="G15" s="6">
+      <c r="I15" s="6">
         <v>3265000</v>
       </c>
-      <c r="H15" s="6">
+      <c r="J15" s="6">
         <v>3668000</v>
       </c>
-      <c r="I15" s="6">
+      <c r="K15" s="6">
         <v>12529000</v>
       </c>
-      <c r="J15" s="6">
+      <c r="L15" s="6">
         <v>-12836000</v>
       </c>
-      <c r="K15" s="6">
+      <c r="M15" s="6">
         <v>4074000</v>
       </c>
-      <c r="L15" s="6">
+      <c r="N15" s="6">
         <v>-10730000</v>
-      </c>
-      <c r="M15" s="6">
-        <v>-9647000</v>
-      </c>
-      <c r="N15" s="6">
-        <v>-9647000</v>
       </c>
       <c r="O15" s="6">
         <v>-9647000</v>
@@ -4748,10 +5566,10 @@
         <v>-9647000</v>
       </c>
       <c r="Q15" s="6">
-        <v>-4281000</v>
+        <v>-9647000</v>
       </c>
       <c r="R15" s="6">
-        <v>-4281000</v>
+        <v>-9647000</v>
       </c>
       <c r="S15" s="6">
         <v>-4281000</v>
@@ -4759,49 +5577,55 @@
       <c r="T15" s="6">
         <v>-4281000</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U15" s="6">
+        <v>-4281000</v>
+      </c>
+      <c r="V15" s="6">
+        <v>-4281000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="6">
+        <v>-28851000</v>
+      </c>
+      <c r="C16" s="6">
+        <v>-139694000</v>
+      </c>
+      <c r="D16" s="6">
         <v>-37649000</v>
       </c>
-      <c r="C16" s="6">
+      <c r="E16" s="6">
         <v>-37393000</v>
       </c>
-      <c r="D16" s="6">
+      <c r="F16" s="6">
         <v>-34137000</v>
       </c>
-      <c r="E16" s="6">
+      <c r="G16" s="6">
         <v>-37901000</v>
       </c>
-      <c r="F16" s="6">
+      <c r="H16" s="6">
         <v>-39797000</v>
       </c>
-      <c r="G16" s="6">
+      <c r="I16" s="6">
         <v>-39375000</v>
       </c>
-      <c r="H16" s="6">
+      <c r="J16" s="6">
         <v>-44046000</v>
       </c>
-      <c r="I16" s="6">
+      <c r="K16" s="6">
         <v>-44677000</v>
       </c>
-      <c r="J16" s="6">
+      <c r="L16" s="6">
         <v>-41147000</v>
       </c>
-      <c r="K16" s="6">
+      <c r="M16" s="6">
         <v>-20193000</v>
       </c>
-      <c r="L16" s="6">
+      <c r="N16" s="6">
         <v>-28997000</v>
-      </c>
-      <c r="M16" s="6">
-        <v>-31507500</v>
-      </c>
-      <c r="N16" s="6">
-        <v>-31507500</v>
       </c>
       <c r="O16" s="6">
         <v>-31507500</v>
@@ -4810,10 +5634,10 @@
         <v>-31507500</v>
       </c>
       <c r="Q16" s="6">
-        <v>-30896000</v>
+        <v>-31507500</v>
       </c>
       <c r="R16" s="6">
-        <v>-30896000</v>
+        <v>-31507500</v>
       </c>
       <c r="S16" s="6">
         <v>-30896000</v>
@@ -4821,49 +5645,55 @@
       <c r="T16" s="6">
         <v>-30896000</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16" s="6">
+        <v>-30896000</v>
+      </c>
+      <c r="V16" s="6">
+        <v>-30896000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B17" s="6">
+        <v>442000</v>
+      </c>
+      <c r="C17" s="6">
+        <v>815000</v>
+      </c>
+      <c r="D17" s="6">
         <v>355000</v>
       </c>
-      <c r="C17" s="6">
+      <c r="E17" s="6">
         <v>582000</v>
       </c>
-      <c r="D17" s="6">
+      <c r="F17" s="6">
         <v>307000</v>
       </c>
-      <c r="E17" s="6">
+      <c r="G17" s="6">
         <v>-60000</v>
       </c>
-      <c r="F17" s="6">
+      <c r="H17" s="6">
         <v>439000</v>
       </c>
-      <c r="G17" s="6">
+      <c r="I17" s="6">
         <v>154000</v>
       </c>
-      <c r="H17" s="6">
+      <c r="J17" s="6">
         <v>314000</v>
       </c>
-      <c r="I17" s="6">
+      <c r="K17" s="6">
         <v>1288000</v>
       </c>
-      <c r="J17" s="6">
+      <c r="L17" s="6">
         <v>394000</v>
       </c>
-      <c r="K17" s="6">
+      <c r="M17" s="6">
         <v>170000</v>
       </c>
-      <c r="L17" s="6">
+      <c r="N17" s="6">
         <v>258000</v>
-      </c>
-      <c r="M17" s="6">
-        <v>268250</v>
-      </c>
-      <c r="N17" s="6">
-        <v>268250</v>
       </c>
       <c r="O17" s="6">
         <v>268250</v>
@@ -4872,10 +5702,10 @@
         <v>268250</v>
       </c>
       <c r="Q17" s="6">
-        <v>32500</v>
+        <v>268250</v>
       </c>
       <c r="R17" s="6">
-        <v>32500</v>
+        <v>268250</v>
       </c>
       <c r="S17" s="6">
         <v>32500</v>
@@ -4883,49 +5713,55 @@
       <c r="T17" s="6">
         <v>32500</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17" s="6">
+        <v>32500</v>
+      </c>
+      <c r="V17" s="6">
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="6">
+        <v>-29293000</v>
+      </c>
+      <c r="C18" s="6">
+        <v>-140509000</v>
+      </c>
+      <c r="D18" s="6">
         <v>-38004000</v>
       </c>
-      <c r="C18" s="6">
+      <c r="E18" s="6">
         <v>-37975000</v>
       </c>
-      <c r="D18" s="6">
+      <c r="F18" s="6">
         <v>-34444000</v>
       </c>
-      <c r="E18" s="6">
+      <c r="G18" s="6">
         <v>-37841000</v>
       </c>
-      <c r="F18" s="6">
+      <c r="H18" s="6">
         <v>-40236000</v>
       </c>
-      <c r="G18" s="6">
+      <c r="I18" s="6">
         <v>-39529000</v>
       </c>
-      <c r="H18" s="6">
+      <c r="J18" s="6">
         <v>-44360000</v>
       </c>
-      <c r="I18" s="6">
+      <c r="K18" s="6">
         <v>-45965000</v>
       </c>
-      <c r="J18" s="6">
+      <c r="L18" s="6">
         <v>-41541000</v>
       </c>
-      <c r="K18" s="6">
+      <c r="M18" s="6">
         <v>-20363000</v>
       </c>
-      <c r="L18" s="6">
+      <c r="N18" s="6">
         <v>-29255000</v>
-      </c>
-      <c r="M18" s="6">
-        <v>-31775750</v>
-      </c>
-      <c r="N18" s="6">
-        <v>-31775750</v>
       </c>
       <c r="O18" s="6">
         <v>-31775750</v>
@@ -4934,10 +5770,10 @@
         <v>-31775750</v>
       </c>
       <c r="Q18" s="6">
-        <v>-30928500</v>
+        <v>-31775750</v>
       </c>
       <c r="R18" s="6">
-        <v>-30928500</v>
+        <v>-31775750</v>
       </c>
       <c r="S18" s="6">
         <v>-30928500</v>
@@ -4945,11 +5781,18 @@
       <c r="T18" s="6">
         <v>-30928500</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18" s="6">
+        <v>-30928500</v>
+      </c>
+      <c r="V18" s="6">
+        <v>-30928500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
     </row>
   </sheetData>

--- a/financial_data/planet.xlsx
+++ b/financial_data/planet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holly\space_econometrics\financial_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EBF729-1C5F-4D20-8BC2-2F0BAF3FA94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6932D11-E047-4C64-96C4-F225FDD16B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,7 +195,7 @@
   <numFmts count="3">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -245,12 +245,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -277,7 +274,6 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -559,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A537E283-6F73-4D72-9227-FEDBB5B10DFD}">
-  <dimension ref="A1:AX27"/>
+  <dimension ref="A1:AX21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,682 +605,682 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AO1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AR1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AS1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AT1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AU1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AV1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AX1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>43677</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="6">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="5">
         <v>23934000</v>
       </c>
-      <c r="AI2" s="6">
+      <c r="AI2" s="5">
         <v>25598250</v>
       </c>
-      <c r="AJ2" s="6">
+      <c r="AJ2" s="5">
         <v>-1664250</v>
       </c>
-      <c r="AK2" s="6">
+      <c r="AK2" s="5">
         <v>9467750</v>
       </c>
-      <c r="AL2" s="6">
+      <c r="AL2" s="5">
         <v>8728250</v>
       </c>
-      <c r="AM2" s="6">
+      <c r="AM2" s="5">
         <v>6754750</v>
       </c>
-      <c r="AN2" s="6">
+      <c r="AN2" s="5">
         <v>24950750</v>
       </c>
-      <c r="AO2" s="6">
+      <c r="AO2" s="5">
         <v>-26615000</v>
       </c>
-      <c r="AP2" s="6">
+      <c r="AP2" s="5">
         <v>-2882250</v>
       </c>
-      <c r="AQ2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="6">
+      <c r="AQ2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="5">
         <v>-1736500</v>
       </c>
-      <c r="AS2" s="6">
+      <c r="AS2" s="5">
         <v>51750</v>
       </c>
-      <c r="AT2" s="6">
+      <c r="AT2" s="5">
         <v>286000</v>
       </c>
-      <c r="AU2" s="6">
+      <c r="AU2" s="5">
         <v>-4281000</v>
       </c>
-      <c r="AV2" s="6">
+      <c r="AV2" s="5">
         <v>-30896000</v>
       </c>
-      <c r="AW2" s="6">
+      <c r="AW2" s="5">
         <v>32500</v>
       </c>
-      <c r="AX2" s="6">
+      <c r="AX2" s="5">
         <v>-30928500</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>43769</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="6">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="5">
         <v>23934000</v>
       </c>
-      <c r="AI3" s="6">
+      <c r="AI3" s="5">
         <v>25598250</v>
       </c>
-      <c r="AJ3" s="6">
+      <c r="AJ3" s="5">
         <v>-1664250</v>
       </c>
-      <c r="AK3" s="6">
+      <c r="AK3" s="5">
         <v>9467750</v>
       </c>
-      <c r="AL3" s="6">
+      <c r="AL3" s="5">
         <v>8728250</v>
       </c>
-      <c r="AM3" s="6">
+      <c r="AM3" s="5">
         <v>6754750</v>
       </c>
-      <c r="AN3" s="6">
+      <c r="AN3" s="5">
         <v>24950750</v>
       </c>
-      <c r="AO3" s="6">
+      <c r="AO3" s="5">
         <v>-26615000</v>
       </c>
-      <c r="AP3" s="6">
+      <c r="AP3" s="5">
         <v>-2882250</v>
       </c>
-      <c r="AQ3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="6">
+      <c r="AQ3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="5">
         <v>-1736500</v>
       </c>
-      <c r="AS3" s="6">
+      <c r="AS3" s="5">
         <v>51750</v>
       </c>
-      <c r="AT3" s="6">
+      <c r="AT3" s="5">
         <v>286000</v>
       </c>
-      <c r="AU3" s="6">
+      <c r="AU3" s="5">
         <v>-4281000</v>
       </c>
-      <c r="AV3" s="6">
+      <c r="AV3" s="5">
         <v>-30896000</v>
       </c>
-      <c r="AW3" s="6">
+      <c r="AW3" s="5">
         <v>32500</v>
       </c>
-      <c r="AX3" s="6">
+      <c r="AX3" s="5">
         <v>-30928500</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>43861</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="6">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="5">
         <v>23934000</v>
       </c>
-      <c r="AI4" s="6">
+      <c r="AI4" s="5">
         <v>25598250</v>
       </c>
-      <c r="AJ4" s="6">
+      <c r="AJ4" s="5">
         <v>-1664250</v>
       </c>
-      <c r="AK4" s="6">
+      <c r="AK4" s="5">
         <v>9467750</v>
       </c>
-      <c r="AL4" s="6">
+      <c r="AL4" s="5">
         <v>8728250</v>
       </c>
-      <c r="AM4" s="6">
+      <c r="AM4" s="5">
         <v>6754750</v>
       </c>
-      <c r="AN4" s="6">
+      <c r="AN4" s="5">
         <v>24950750</v>
       </c>
-      <c r="AO4" s="6">
+      <c r="AO4" s="5">
         <v>-26615000</v>
       </c>
-      <c r="AP4" s="6">
+      <c r="AP4" s="5">
         <v>-2882250</v>
       </c>
-      <c r="AQ4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="6">
+      <c r="AQ4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="5">
         <v>-1736500</v>
       </c>
-      <c r="AS4" s="6">
+      <c r="AS4" s="5">
         <v>51750</v>
       </c>
-      <c r="AT4" s="6">
+      <c r="AT4" s="5">
         <v>286000</v>
       </c>
-      <c r="AU4" s="6">
+      <c r="AU4" s="5">
         <v>-4281000</v>
       </c>
-      <c r="AV4" s="6">
+      <c r="AV4" s="5">
         <v>-30896000</v>
       </c>
-      <c r="AW4" s="6">
+      <c r="AW4" s="5">
         <v>32500</v>
       </c>
-      <c r="AX4" s="6">
+      <c r="AX4" s="5">
         <v>-30928500</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>43951</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="6">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="5">
         <v>28292000</v>
       </c>
-      <c r="AI5" s="6">
+      <c r="AI5" s="5">
         <v>21845750</v>
       </c>
-      <c r="AJ5" s="6">
+      <c r="AJ5" s="5">
         <v>6446250</v>
       </c>
-      <c r="AK5" s="6">
+      <c r="AK5" s="5">
         <v>10956250</v>
       </c>
-      <c r="AL5" s="6">
+      <c r="AL5" s="5">
         <v>9317000</v>
       </c>
-      <c r="AM5" s="6">
+      <c r="AM5" s="5">
         <v>8033500</v>
       </c>
-      <c r="AN5" s="6">
+      <c r="AN5" s="5">
         <v>28306750</v>
       </c>
-      <c r="AO5" s="6">
+      <c r="AO5" s="5">
         <v>-21860500</v>
       </c>
-      <c r="AP5" s="6">
+      <c r="AP5" s="5">
         <v>168250</v>
       </c>
-      <c r="AQ5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="6">
+      <c r="AQ5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="5">
         <v>-2361750</v>
       </c>
-      <c r="AS5" s="6">
+      <c r="AS5" s="5">
         <v>-7513250</v>
       </c>
-      <c r="AT5" s="6">
+      <c r="AT5" s="5">
         <v>59750</v>
       </c>
-      <c r="AU5" s="6">
+      <c r="AU5" s="5">
         <v>-9647000</v>
       </c>
-      <c r="AV5" s="6">
+      <c r="AV5" s="5">
         <v>-31507500</v>
       </c>
-      <c r="AW5" s="6">
+      <c r="AW5" s="5">
         <v>268250</v>
       </c>
-      <c r="AX5" s="6">
+      <c r="AX5" s="5">
         <v>-31775750</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>44043</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="6">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="5">
         <v>28292000</v>
       </c>
-      <c r="AI6" s="6">
+      <c r="AI6" s="5">
         <v>21845750</v>
       </c>
-      <c r="AJ6" s="6">
+      <c r="AJ6" s="5">
         <v>6446250</v>
       </c>
-      <c r="AK6" s="6">
+      <c r="AK6" s="5">
         <v>10956250</v>
       </c>
-      <c r="AL6" s="6">
+      <c r="AL6" s="5">
         <v>9317000</v>
       </c>
-      <c r="AM6" s="6">
+      <c r="AM6" s="5">
         <v>8033500</v>
       </c>
-      <c r="AN6" s="6">
+      <c r="AN6" s="5">
         <v>28306750</v>
       </c>
-      <c r="AO6" s="6">
+      <c r="AO6" s="5">
         <v>-21860500</v>
       </c>
-      <c r="AP6" s="6">
+      <c r="AP6" s="5">
         <v>168250</v>
       </c>
-      <c r="AQ6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="6">
+      <c r="AQ6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="5">
         <v>-2361750</v>
       </c>
-      <c r="AS6" s="6">
+      <c r="AS6" s="5">
         <v>-7513250</v>
       </c>
-      <c r="AT6" s="6">
+      <c r="AT6" s="5">
         <v>59750</v>
       </c>
-      <c r="AU6" s="6">
+      <c r="AU6" s="5">
         <v>-9647000</v>
       </c>
-      <c r="AV6" s="6">
+      <c r="AV6" s="5">
         <v>-31507500</v>
       </c>
-      <c r="AW6" s="6">
+      <c r="AW6" s="5">
         <v>268250</v>
       </c>
-      <c r="AX6" s="6">
+      <c r="AX6" s="5">
         <v>-31775750</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>44135</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="6">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="5">
         <v>28292000</v>
       </c>
-      <c r="AI7" s="6">
+      <c r="AI7" s="5">
         <v>21845750</v>
       </c>
-      <c r="AJ7" s="6">
+      <c r="AJ7" s="5">
         <v>6446250</v>
       </c>
-      <c r="AK7" s="6">
+      <c r="AK7" s="5">
         <v>10956250</v>
       </c>
-      <c r="AL7" s="6">
+      <c r="AL7" s="5">
         <v>9317000</v>
       </c>
-      <c r="AM7" s="6">
+      <c r="AM7" s="5">
         <v>8033500</v>
       </c>
-      <c r="AN7" s="6">
+      <c r="AN7" s="5">
         <v>28306750</v>
       </c>
-      <c r="AO7" s="6">
+      <c r="AO7" s="5">
         <v>-21860500</v>
       </c>
-      <c r="AP7" s="6">
+      <c r="AP7" s="5">
         <v>168250</v>
       </c>
-      <c r="AQ7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="6">
+      <c r="AQ7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="5">
         <v>-2361750</v>
       </c>
-      <c r="AS7" s="6">
+      <c r="AS7" s="5">
         <v>-7513250</v>
       </c>
-      <c r="AT7" s="6">
+      <c r="AT7" s="5">
         <v>59750</v>
       </c>
-      <c r="AU7" s="6">
+      <c r="AU7" s="5">
         <v>-9647000</v>
       </c>
-      <c r="AV7" s="6">
+      <c r="AV7" s="5">
         <v>-31507500</v>
       </c>
-      <c r="AW7" s="6">
+      <c r="AW7" s="5">
         <v>268250</v>
       </c>
-      <c r="AX7" s="6">
+      <c r="AX7" s="5">
         <v>-31775750</v>
       </c>
     </row>
@@ -1292,151 +1288,151 @@
       <c r="A8" s="1">
         <v>44227</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>71183000</v>
       </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
         <v>47110000</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>7134000</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>125427000</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>159855000</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>11994000</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>88393000</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>5673000</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>4982000</v>
       </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6">
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
         <v>2984000</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="5">
         <v>399308000</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="5">
         <v>1446000</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="5">
         <v>30195000</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="5">
         <v>57570000</v>
       </c>
-      <c r="R8" s="6">
-        <v>0</v>
-      </c>
-      <c r="S8" s="6">
-        <v>0</v>
-      </c>
-      <c r="T8" s="6">
+      <c r="R8" s="5">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5">
         <v>108814000</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="5">
         <v>15122000</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8" s="5">
         <v>7971000</v>
       </c>
-      <c r="W8" s="6">
-        <v>0</v>
-      </c>
-      <c r="X8" s="6">
+      <c r="W8" s="5">
+        <v>0</v>
+      </c>
+      <c r="X8" s="5">
         <v>2991000</v>
       </c>
-      <c r="Y8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="6">
+      <c r="Y8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="5">
         <v>1287000</v>
       </c>
-      <c r="AB8" s="6">
+      <c r="AB8" s="5">
         <v>291797000</v>
       </c>
-      <c r="AC8" s="6">
+      <c r="AC8" s="5">
         <v>745630000</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AD8" s="5">
         <v>1769000</v>
       </c>
-      <c r="AE8" s="6">
+      <c r="AE8" s="5">
         <v>-639905000</v>
       </c>
-      <c r="AF8" s="6">
+      <c r="AF8" s="5">
         <v>107511000</v>
       </c>
-      <c r="AG8" s="6">
+      <c r="AG8" s="5">
         <v>399308000</v>
       </c>
-      <c r="AH8" s="6">
+      <c r="AH8" s="5">
         <v>28292000</v>
       </c>
-      <c r="AI8" s="6">
+      <c r="AI8" s="5">
         <v>21845750</v>
       </c>
-      <c r="AJ8" s="6">
+      <c r="AJ8" s="5">
         <v>6446250</v>
       </c>
-      <c r="AK8" s="6">
+      <c r="AK8" s="5">
         <v>10956250</v>
       </c>
-      <c r="AL8" s="6">
+      <c r="AL8" s="5">
         <v>9317000</v>
       </c>
-      <c r="AM8" s="6">
+      <c r="AM8" s="5">
         <v>8033500</v>
       </c>
-      <c r="AN8" s="6">
+      <c r="AN8" s="5">
         <v>28306750</v>
       </c>
-      <c r="AO8" s="6">
+      <c r="AO8" s="5">
         <v>-21860500</v>
       </c>
-      <c r="AP8" s="6">
+      <c r="AP8" s="5">
         <v>168250</v>
       </c>
-      <c r="AQ8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="6">
+      <c r="AQ8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="5">
         <v>-2361750</v>
       </c>
-      <c r="AS8" s="6">
+      <c r="AS8" s="5">
         <v>-7513250</v>
       </c>
-      <c r="AT8" s="6">
+      <c r="AT8" s="5">
         <v>59750</v>
       </c>
-      <c r="AU8" s="6">
+      <c r="AU8" s="5">
         <v>-9647000</v>
       </c>
-      <c r="AV8" s="6">
+      <c r="AV8" s="5">
         <v>-31507500</v>
       </c>
-      <c r="AW8" s="6">
+      <c r="AW8" s="5">
         <v>268250</v>
       </c>
-      <c r="AX8" s="6">
+      <c r="AX8" s="5">
         <v>-31775750</v>
       </c>
     </row>
@@ -1444,87 +1440,87 @@
       <c r="A9" s="1">
         <v>44316</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
-      <c r="AH9" s="6">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5">
         <v>31957000</v>
       </c>
-      <c r="AI9" s="6">
+      <c r="AI9" s="5">
         <v>19126000</v>
       </c>
-      <c r="AJ9" s="6">
+      <c r="AJ9" s="5">
         <v>12831000</v>
       </c>
-      <c r="AK9" s="6">
+      <c r="AK9" s="5">
         <v>12130000</v>
       </c>
-      <c r="AL9" s="6">
+      <c r="AL9" s="5">
         <v>10653000</v>
       </c>
-      <c r="AM9" s="6">
+      <c r="AM9" s="5">
         <v>8315000</v>
       </c>
-      <c r="AN9" s="6">
+      <c r="AN9" s="5">
         <v>31098000</v>
       </c>
-      <c r="AO9" s="6">
+      <c r="AO9" s="5">
         <v>-18267000</v>
       </c>
-      <c r="AP9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="6">
+      <c r="AP9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="5">
         <v>-2527000</v>
       </c>
-      <c r="AS9" s="6">
+      <c r="AS9" s="5">
         <v>-8026000</v>
       </c>
-      <c r="AT9" s="6">
+      <c r="AT9" s="5">
         <v>-177000</v>
       </c>
-      <c r="AU9" s="6">
+      <c r="AU9" s="5">
         <v>-10730000</v>
       </c>
-      <c r="AV9" s="6">
+      <c r="AV9" s="5">
         <v>-28997000</v>
       </c>
-      <c r="AW9" s="6">
+      <c r="AW9" s="5">
         <v>258000</v>
       </c>
-      <c r="AX9" s="6">
+      <c r="AX9" s="5">
         <v>-29255000</v>
       </c>
     </row>
@@ -1532,87 +1528,87 @@
       <c r="A10" s="1">
         <v>44408</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="6">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5">
         <v>30406000</v>
       </c>
-      <c r="AI10" s="6">
+      <c r="AI10" s="5">
         <v>19820000</v>
       </c>
-      <c r="AJ10" s="6">
+      <c r="AJ10" s="5">
         <v>10586000</v>
       </c>
-      <c r="AK10" s="6">
+      <c r="AK10" s="5">
         <v>12432000</v>
       </c>
-      <c r="AL10" s="6">
+      <c r="AL10" s="5">
         <v>10597000</v>
       </c>
-      <c r="AM10" s="6">
+      <c r="AM10" s="5">
         <v>11824000</v>
       </c>
-      <c r="AN10" s="6">
+      <c r="AN10" s="5">
         <v>34853000</v>
       </c>
-      <c r="AO10" s="6">
+      <c r="AO10" s="5">
         <v>-24267000</v>
       </c>
-      <c r="AP10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="6">
+      <c r="AP10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="5">
         <v>-2611000</v>
       </c>
-      <c r="AS10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="6">
+      <c r="AS10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="5">
         <v>-84000</v>
       </c>
-      <c r="AU10" s="6">
+      <c r="AU10" s="5">
         <v>4074000</v>
       </c>
-      <c r="AV10" s="6">
+      <c r="AV10" s="5">
         <v>-20193000</v>
       </c>
-      <c r="AW10" s="6">
+      <c r="AW10" s="5">
         <v>170000</v>
       </c>
-      <c r="AX10" s="6">
+      <c r="AX10" s="5">
         <v>-20363000</v>
       </c>
     </row>
@@ -1620,87 +1616,87 @@
       <c r="A11" s="1">
         <v>44500</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
-      <c r="AH11" s="6">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5">
         <v>31700000</v>
       </c>
-      <c r="AI11" s="6">
+      <c r="AI11" s="5">
         <v>20811000</v>
       </c>
-      <c r="AJ11" s="6">
+      <c r="AJ11" s="5">
         <v>10889000</v>
       </c>
-      <c r="AK11" s="6">
+      <c r="AK11" s="5">
         <v>14959000</v>
       </c>
-      <c r="AL11" s="6">
+      <c r="AL11" s="5">
         <v>12441000</v>
       </c>
-      <c r="AM11" s="6">
+      <c r="AM11" s="5">
         <v>11800000</v>
       </c>
-      <c r="AN11" s="6">
+      <c r="AN11" s="5">
         <v>39200000</v>
       </c>
-      <c r="AO11" s="6">
+      <c r="AO11" s="5">
         <v>-28311000</v>
       </c>
-      <c r="AP11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="6">
+      <c r="AP11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="5">
         <v>8000</v>
       </c>
-      <c r="AR11" s="6">
+      <c r="AR11" s="5">
         <v>-2612000</v>
       </c>
-      <c r="AS11" s="6">
+      <c r="AS11" s="5">
         <v>-10172000</v>
       </c>
-      <c r="AT11" s="6">
+      <c r="AT11" s="5">
         <v>-60000</v>
       </c>
-      <c r="AU11" s="6">
+      <c r="AU11" s="5">
         <v>-12836000</v>
       </c>
-      <c r="AV11" s="6">
+      <c r="AV11" s="5">
         <v>-41147000</v>
       </c>
-      <c r="AW11" s="6">
+      <c r="AW11" s="5">
         <v>394000</v>
       </c>
-      <c r="AX11" s="6">
+      <c r="AX11" s="5">
         <v>-41541000</v>
       </c>
     </row>
@@ -1708,151 +1704,151 @@
       <c r="A12" s="1">
         <v>44592</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>490762000</v>
       </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
         <v>44373000</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>16385000</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>551520000</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>133280000</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>10768000</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>103219000</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <v>14197000</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="6">
         <v>5743000</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="6">
         <v>2714000</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="6">
         <v>821441000</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="6">
         <v>2850000</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="6">
         <v>48823000</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="6">
         <v>64233000</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="6">
         <v>16135000</v>
       </c>
-      <c r="S12" s="8" t="s">
+      <c r="S12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T12" s="6">
         <v>132041000</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="6">
         <v>3579000</v>
       </c>
-      <c r="V12" s="7">
+      <c r="V12" s="6">
         <v>12149000</v>
       </c>
-      <c r="W12" s="7">
+      <c r="W12" s="6">
         <v>23224000</v>
       </c>
-      <c r="X12" s="7">
+      <c r="X12" s="6">
         <v>798000</v>
       </c>
-      <c r="Y12" s="8" t="s">
+      <c r="Y12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Z12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="7">
+      <c r="Z12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="6">
         <v>1405000</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AB12" s="6">
         <v>173196000</v>
       </c>
-      <c r="AC12" s="7">
+      <c r="AC12" s="6">
         <v>1423151000</v>
       </c>
-      <c r="AD12" s="7">
+      <c r="AD12" s="6">
         <v>2096000</v>
       </c>
-      <c r="AE12" s="7">
+      <c r="AE12" s="6">
         <v>-777029000</v>
       </c>
-      <c r="AF12" s="7">
+      <c r="AF12" s="6">
         <v>648245000</v>
       </c>
-      <c r="AG12" s="7">
+      <c r="AG12" s="6">
         <v>821441000</v>
       </c>
-      <c r="AH12" s="6">
+      <c r="AH12" s="5">
         <v>37146000</v>
       </c>
-      <c r="AI12" s="6">
+      <c r="AI12" s="5">
         <v>23230000</v>
       </c>
-      <c r="AJ12" s="6">
+      <c r="AJ12" s="5">
         <v>13916000</v>
       </c>
-      <c r="AK12" s="6">
+      <c r="AK12" s="5">
         <v>27163000</v>
       </c>
-      <c r="AL12" s="6">
+      <c r="AL12" s="5">
         <v>19226000</v>
       </c>
-      <c r="AM12" s="6">
+      <c r="AM12" s="5">
         <v>24733000</v>
       </c>
-      <c r="AN12" s="6">
+      <c r="AN12" s="5">
         <v>71122000</v>
       </c>
-      <c r="AO12" s="6">
+      <c r="AO12" s="5">
         <v>-57206000</v>
       </c>
-      <c r="AP12" s="6">
+      <c r="AP12" s="5">
         <v>-1690000</v>
       </c>
-      <c r="AQ12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="6">
+      <c r="AQ12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="5">
         <v>-1022000</v>
       </c>
-      <c r="AS12" s="6">
+      <c r="AS12" s="5">
         <v>23924000</v>
       </c>
-      <c r="AT12" s="6">
+      <c r="AT12" s="5">
         <v>-1906000</v>
       </c>
-      <c r="AU12" s="6">
+      <c r="AU12" s="5">
         <v>12529000</v>
       </c>
-      <c r="AV12" s="6">
+      <c r="AV12" s="5">
         <v>-44677000</v>
       </c>
-      <c r="AW12" s="6">
+      <c r="AW12" s="5">
         <v>1288000</v>
       </c>
-      <c r="AX12" s="6">
+      <c r="AX12" s="5">
         <v>-45965000</v>
       </c>
     </row>
@@ -1860,151 +1856,151 @@
       <c r="A13" s="1">
         <v>44681</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>484489000</v>
       </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
         <v>24581000</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>18192000</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>527262000</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>125329000</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>11105000</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>103219000</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>13604000</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>5653000</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>7035000</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="5">
         <v>2787000</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="5">
         <v>795994000</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="5">
         <v>3168000</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="5">
         <v>43184000</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="5">
         <v>60672000</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="5">
         <v>15239000</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="5">
         <v>7188000</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13" s="5">
         <v>129451000</v>
       </c>
-      <c r="U13" s="6">
-        <v>0</v>
-      </c>
-      <c r="V13" s="6">
+      <c r="U13" s="5">
+        <v>0</v>
+      </c>
+      <c r="V13" s="5">
         <v>12199000</v>
       </c>
-      <c r="W13" s="6">
+      <c r="W13" s="5">
         <v>19948000</v>
       </c>
-      <c r="X13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="6">
+      <c r="X13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="5">
         <v>2271000</v>
       </c>
-      <c r="Z13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="6">
+      <c r="Z13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="5">
         <v>1419000</v>
       </c>
-      <c r="AB13" s="6">
+      <c r="AB13" s="5">
         <v>165288000</v>
       </c>
-      <c r="AC13" s="6">
+      <c r="AC13" s="5">
         <v>1450098000</v>
       </c>
-      <c r="AD13" s="6">
+      <c r="AD13" s="5">
         <v>2271000</v>
       </c>
-      <c r="AE13" s="6">
+      <c r="AE13" s="5">
         <v>-821690000</v>
       </c>
-      <c r="AF13" s="6">
+      <c r="AF13" s="5">
         <v>630706000</v>
       </c>
-      <c r="AG13" s="6">
+      <c r="AG13" s="5">
         <v>795994000</v>
       </c>
-      <c r="AH13" s="6">
+      <c r="AH13" s="5">
         <v>40127000</v>
       </c>
-      <c r="AI13" s="6">
+      <c r="AI13" s="5">
         <v>23628000</v>
       </c>
-      <c r="AJ13" s="6">
+      <c r="AJ13" s="5">
         <v>16499000</v>
       </c>
-      <c r="AK13" s="6">
+      <c r="AK13" s="5">
         <v>24750000</v>
       </c>
-      <c r="AL13" s="6">
+      <c r="AL13" s="5">
         <v>18855000</v>
       </c>
-      <c r="AM13" s="6">
+      <c r="AM13" s="5">
         <v>20608000</v>
       </c>
-      <c r="AN13" s="6">
+      <c r="AN13" s="5">
         <v>64213000</v>
       </c>
-      <c r="AO13" s="6">
+      <c r="AO13" s="5">
         <v>-47714000</v>
       </c>
-      <c r="AP13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="6">
+      <c r="AP13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="5">
         <v>3276000</v>
       </c>
-      <c r="AT13" s="6">
+      <c r="AT13" s="5">
         <v>392000</v>
       </c>
-      <c r="AU13" s="6">
+      <c r="AU13" s="5">
         <v>3668000</v>
       </c>
-      <c r="AV13" s="6">
+      <c r="AV13" s="5">
         <v>-44046000</v>
       </c>
-      <c r="AW13" s="6">
+      <c r="AW13" s="5">
         <v>314000</v>
       </c>
-      <c r="AX13" s="6">
+      <c r="AX13" s="5">
         <v>-44360000</v>
       </c>
     </row>
@@ -2012,87 +2008,87 @@
       <c r="A14" s="1">
         <v>44773</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5">
         <v>48450000</v>
       </c>
-      <c r="AI14" s="6">
+      <c r="AI14" s="5">
         <v>24977000</v>
       </c>
-      <c r="AJ14" s="6">
+      <c r="AJ14" s="5">
         <v>23473000</v>
       </c>
-      <c r="AK14" s="6">
+      <c r="AK14" s="5">
         <v>26737000</v>
       </c>
-      <c r="AL14" s="6">
+      <c r="AL14" s="5">
         <v>19483000</v>
       </c>
-      <c r="AM14" s="6">
+      <c r="AM14" s="5">
         <v>19893000</v>
       </c>
-      <c r="AN14" s="6">
+      <c r="AN14" s="5">
         <v>66113000</v>
       </c>
-      <c r="AO14" s="6">
+      <c r="AO14" s="5">
         <v>-42640000</v>
       </c>
-      <c r="AP14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="6">
+      <c r="AP14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="5">
         <v>1153000</v>
       </c>
-      <c r="AU14" s="6">
+      <c r="AU14" s="5">
         <v>3265000</v>
       </c>
-      <c r="AV14" s="6">
+      <c r="AV14" s="5">
         <v>-39375000</v>
       </c>
-      <c r="AW14" s="6">
+      <c r="AW14" s="5">
         <v>154000</v>
       </c>
-      <c r="AX14" s="6">
+      <c r="AX14" s="5">
         <v>-39529000</v>
       </c>
     </row>
@@ -2100,151 +2096,151 @@
       <c r="A15" s="1">
         <v>44865</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>199124000</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>226163000</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>29009000</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>26347000</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>480643000</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>115385000</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>11181000</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>103219000</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <v>12419000</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="6">
         <v>5163000</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <v>15806000</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="6">
         <v>3412000</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="6">
         <v>747228000</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="6">
         <v>2557000</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="6">
         <v>42629000</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="Q15" s="6">
         <v>47698000</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="6">
         <v>13446000</v>
       </c>
-      <c r="S15" s="7">
+      <c r="S15" s="6">
         <v>3538000</v>
       </c>
-      <c r="T15" s="7">
+      <c r="T15" s="6">
         <v>109868000</v>
       </c>
-      <c r="U15" s="7">
-        <v>0</v>
-      </c>
-      <c r="V15" s="7">
+      <c r="U15" s="6">
+        <v>0</v>
+      </c>
+      <c r="V15" s="6">
         <v>9853000</v>
       </c>
-      <c r="W15" s="7">
+      <c r="W15" s="6">
         <v>17855000</v>
       </c>
-      <c r="X15" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="7">
+      <c r="X15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="6">
         <v>14024000</v>
       </c>
-      <c r="Z15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="7">
+      <c r="Z15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="6">
         <v>1461000</v>
       </c>
-      <c r="AB15" s="7">
+      <c r="AB15" s="6">
         <v>153061000</v>
       </c>
-      <c r="AC15" s="7">
+      <c r="AC15" s="6">
         <v>1494652000</v>
       </c>
-      <c r="AD15" s="7">
+      <c r="AD15" s="6">
         <v>943000</v>
       </c>
-      <c r="AE15" s="7">
+      <c r="AE15" s="6">
         <v>-901455000</v>
       </c>
-      <c r="AF15" s="7">
+      <c r="AF15" s="6">
         <v>594167000</v>
       </c>
-      <c r="AG15" s="7">
+      <c r="AG15" s="6">
         <v>747228000</v>
       </c>
-      <c r="AH15" s="6">
+      <c r="AH15" s="5">
         <v>49704000</v>
       </c>
-      <c r="AI15" s="6">
+      <c r="AI15" s="5">
         <v>24728000</v>
       </c>
-      <c r="AJ15" s="6">
+      <c r="AJ15" s="5">
         <v>24976000</v>
       </c>
-      <c r="AK15" s="6">
+      <c r="AK15" s="5">
         <v>27598000</v>
       </c>
-      <c r="AL15" s="6">
+      <c r="AL15" s="5">
         <v>19383000</v>
       </c>
-      <c r="AM15" s="6">
+      <c r="AM15" s="5">
         <v>20627000</v>
       </c>
-      <c r="AN15" s="6">
+      <c r="AN15" s="5">
         <v>67608000</v>
       </c>
-      <c r="AO15" s="6">
+      <c r="AO15" s="5">
         <v>-42632000</v>
       </c>
-      <c r="AP15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="6">
+      <c r="AP15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="5">
         <v>2853000</v>
       </c>
-      <c r="AR15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="6">
+      <c r="AR15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="5">
         <v>-19000</v>
       </c>
-      <c r="AT15" s="6">
+      <c r="AT15" s="5">
         <v>1000</v>
       </c>
-      <c r="AU15" s="6">
+      <c r="AU15" s="5">
         <v>2835000</v>
       </c>
-      <c r="AV15" s="6">
+      <c r="AV15" s="5">
         <v>-39797000</v>
       </c>
-      <c r="AW15" s="6">
+      <c r="AW15" s="5">
         <v>439000</v>
       </c>
-      <c r="AX15" s="6">
+      <c r="AX15" s="5">
         <v>-40236000</v>
       </c>
     </row>
@@ -2252,151 +2248,151 @@
       <c r="A16" s="1">
         <v>44957</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>181892000</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>226868000</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>38952000</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>27943000</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>475655000</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>108091000</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <v>11417000</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>112748000</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>14831000</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="6">
         <v>5657000</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="6">
         <v>20403000</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="6">
         <v>3921000</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="6">
         <v>752723000</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="6">
         <v>6900000</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="6">
         <v>46022000</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="6">
         <v>51900000</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="6">
         <v>12550000</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S16" s="6">
         <v>4885000</v>
       </c>
-      <c r="T16" s="7">
+      <c r="T16" s="6">
         <v>122257000</v>
       </c>
-      <c r="U16" s="7">
+      <c r="U16" s="6">
         <v>2882000</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="6">
         <v>8679000</v>
       </c>
-      <c r="W16" s="7">
+      <c r="W16" s="6">
         <v>16670000</v>
       </c>
-      <c r="X16" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="7">
+      <c r="X16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="6">
         <v>17145000</v>
       </c>
-      <c r="Z16" s="7">
+      <c r="Z16" s="6">
         <v>7499000</v>
       </c>
-      <c r="AA16" s="7">
+      <c r="AA16" s="6">
         <v>1487000</v>
       </c>
-      <c r="AB16" s="7">
+      <c r="AB16" s="6">
         <v>176619000</v>
       </c>
-      <c r="AC16" s="7">
+      <c r="AC16" s="6">
         <v>1513102000</v>
       </c>
-      <c r="AD16" s="7">
+      <c r="AD16" s="6">
         <v>2271000</v>
       </c>
-      <c r="AE16" s="7">
+      <c r="AE16" s="6">
         <v>-939296000</v>
       </c>
-      <c r="AF16" s="7">
+      <c r="AF16" s="6">
         <v>576104000</v>
       </c>
-      <c r="AG16" s="7">
+      <c r="AG16" s="6">
         <v>752723000</v>
       </c>
-      <c r="AH16" s="6">
+      <c r="AH16" s="5">
         <v>52975000</v>
       </c>
-      <c r="AI16" s="6">
+      <c r="AI16" s="5">
         <v>23915000</v>
       </c>
-      <c r="AJ16" s="6">
+      <c r="AJ16" s="5">
         <v>29060000</v>
       </c>
-      <c r="AK16" s="6">
+      <c r="AK16" s="5">
         <v>31831000</v>
       </c>
-      <c r="AL16" s="6">
+      <c r="AL16" s="5">
         <v>20299000</v>
       </c>
-      <c r="AM16" s="6">
+      <c r="AM16" s="5">
         <v>19619000</v>
       </c>
-      <c r="AN16" s="6">
+      <c r="AN16" s="5">
         <v>71749000</v>
       </c>
-      <c r="AO16" s="6">
+      <c r="AO16" s="5">
         <v>-42689000</v>
       </c>
-      <c r="AP16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="6">
+      <c r="AP16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="5">
         <v>4819000</v>
       </c>
-      <c r="AR16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="6">
+      <c r="AR16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="5">
         <v>3297000</v>
       </c>
-      <c r="AT16" s="6">
+      <c r="AT16" s="5">
         <v>-1216000</v>
       </c>
-      <c r="AU16" s="6">
+      <c r="AU16" s="5">
         <v>4788000</v>
       </c>
-      <c r="AV16" s="6">
+      <c r="AV16" s="5">
         <v>-37901000</v>
       </c>
-      <c r="AW16" s="6">
+      <c r="AW16" s="5">
         <v>-60000</v>
       </c>
-      <c r="AX16" s="6">
+      <c r="AX16" s="5">
         <v>-37841000</v>
       </c>
     </row>
@@ -2404,151 +2400,151 @@
       <c r="A17" s="1">
         <v>45046</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>140763000</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>235415000</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>39072000</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>19275000</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>434525000</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>118193000</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>11878000</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>112748000</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>13999000</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="6">
         <v>5660000</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="6">
         <v>23697000</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="6">
         <v>2757000</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="6">
         <v>723457000</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="6">
         <v>14657000</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="6">
         <v>34432000</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="6">
         <v>44620000</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R17" s="6">
         <v>11653000</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="6">
         <v>6320000</v>
       </c>
-      <c r="T17" s="7">
+      <c r="T17" s="6">
         <v>111682000</v>
       </c>
-      <c r="U17" s="7">
+      <c r="U17" s="6">
         <v>2474000</v>
       </c>
-      <c r="V17" s="7">
+      <c r="V17" s="6">
         <v>10671000</v>
       </c>
-      <c r="W17" s="7">
+      <c r="W17" s="6">
         <v>10725000</v>
       </c>
-      <c r="X17" s="7">
+      <c r="X17" s="6">
         <v>19912000</v>
       </c>
-      <c r="Y17" s="7">
+      <c r="Y17" s="6">
         <v>7142000</v>
       </c>
-      <c r="Z17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="7">
+      <c r="Z17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="6">
         <v>1502000</v>
       </c>
-      <c r="AB17" s="7">
+      <c r="AB17" s="6">
         <v>164108000</v>
       </c>
-      <c r="AC17" s="7">
+      <c r="AC17" s="6">
         <v>1531380000</v>
       </c>
-      <c r="AD17" s="7">
+      <c r="AD17" s="6">
         <v>1682000</v>
       </c>
-      <c r="AE17" s="7">
+      <c r="AE17" s="6">
         <v>-973740000</v>
       </c>
-      <c r="AF17" s="7">
+      <c r="AF17" s="6">
         <v>559349000</v>
       </c>
-      <c r="AG17" s="7">
+      <c r="AG17" s="6">
         <v>723457000</v>
       </c>
-      <c r="AH17" s="6">
+      <c r="AH17" s="5">
         <v>52703000</v>
       </c>
-      <c r="AI17" s="6">
+      <c r="AI17" s="5">
         <v>24556000</v>
       </c>
-      <c r="AJ17" s="6">
+      <c r="AJ17" s="5">
         <v>28147000</v>
       </c>
-      <c r="AK17" s="6">
+      <c r="AK17" s="5">
         <v>28186000</v>
       </c>
-      <c r="AL17" s="6">
+      <c r="AL17" s="5">
         <v>23125000</v>
       </c>
-      <c r="AM17" s="6">
+      <c r="AM17" s="5">
         <v>21528000</v>
       </c>
-      <c r="AN17" s="6">
+      <c r="AN17" s="5">
         <v>72839000</v>
       </c>
-      <c r="AO17" s="6">
+      <c r="AO17" s="5">
         <v>-44692000</v>
       </c>
-      <c r="AP17" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="6">
+      <c r="AP17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="5">
         <v>4506000</v>
       </c>
-      <c r="AR17" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS17" s="6">
+      <c r="AR17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="5">
         <v>-5945000</v>
       </c>
-      <c r="AT17" s="6">
+      <c r="AT17" s="5">
         <v>104000</v>
       </c>
-      <c r="AU17" s="6">
+      <c r="AU17" s="5">
         <v>10555000</v>
       </c>
-      <c r="AV17" s="6">
+      <c r="AV17" s="5">
         <v>-34137000</v>
       </c>
-      <c r="AW17" s="6">
+      <c r="AW17" s="5">
         <v>307000</v>
       </c>
-      <c r="AX17" s="6">
+      <c r="AX17" s="5">
         <v>-34444000</v>
       </c>
     </row>
@@ -2556,151 +2552,151 @@
       <c r="A18" s="1">
         <v>45138</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>118808000</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>248979000</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>40349000</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>19725000</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>427861000</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>120193000</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>12992000</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <v>112750000</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <v>14867000</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>5707000</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <v>23485000</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="5">
         <v>2562000</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="5">
         <v>720417000</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="5">
         <v>3825000</v>
       </c>
-      <c r="P18" s="9">
+      <c r="P18" s="8">
         <v>37841000</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="Q18" s="8">
         <v>56575000</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18" s="5">
         <v>10757000</v>
       </c>
-      <c r="S18" s="6">
+      <c r="S18" s="5">
         <v>7261000</v>
       </c>
-      <c r="T18" s="6">
+      <c r="T18" s="5">
         <v>116259000</v>
       </c>
-      <c r="U18" s="9">
+      <c r="U18" s="8">
         <v>18186000</v>
       </c>
-      <c r="V18" s="9">
+      <c r="V18" s="8">
         <v>9605000</v>
       </c>
-      <c r="W18" s="6">
+      <c r="W18" s="5">
         <v>9499000</v>
       </c>
-      <c r="X18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="6">
+      <c r="X18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="5">
         <v>19139000</v>
       </c>
-      <c r="Z18" s="6">
+      <c r="Z18" s="5">
         <v>5926000</v>
       </c>
-      <c r="AA18" s="6">
+      <c r="AA18" s="5">
         <v>2235000</v>
       </c>
-      <c r="AB18" s="6">
+      <c r="AB18" s="5">
         <v>180849000</v>
       </c>
-      <c r="AC18" s="6">
+      <c r="AC18" s="5">
         <v>1549920000</v>
       </c>
-      <c r="AD18" s="6">
+      <c r="AD18" s="5">
         <v>1336000</v>
       </c>
-      <c r="AE18" s="6">
+      <c r="AE18" s="5">
         <v>-1011715000</v>
       </c>
-      <c r="AF18" s="6">
+      <c r="AF18" s="5">
         <v>539568000</v>
       </c>
-      <c r="AG18" s="6">
+      <c r="AG18" s="5">
         <v>720417000</v>
       </c>
-      <c r="AH18" s="6">
+      <c r="AH18" s="5">
         <v>53761000</v>
       </c>
-      <c r="AI18" s="6">
+      <c r="AI18" s="5">
         <v>27469000</v>
       </c>
-      <c r="AJ18" s="6">
+      <c r="AJ18" s="5">
         <v>26292000</v>
       </c>
-      <c r="AK18" s="6">
+      <c r="AK18" s="5">
         <v>26741000</v>
       </c>
-      <c r="AL18" s="6">
+      <c r="AL18" s="5">
         <v>22310000</v>
       </c>
-      <c r="AM18" s="6">
+      <c r="AM18" s="5">
         <v>20521000</v>
       </c>
-      <c r="AN18" s="6">
+      <c r="AN18" s="5">
         <v>69572000</v>
       </c>
-      <c r="AO18" s="6">
+      <c r="AO18" s="5">
         <v>-43280000</v>
       </c>
-      <c r="AP18" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="6">
+      <c r="AP18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="5">
         <v>3802000</v>
       </c>
-      <c r="AR18" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="6">
+      <c r="AR18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="5">
         <v>1226000</v>
       </c>
-      <c r="AT18" s="6">
+      <c r="AT18" s="5">
         <v>859000</v>
       </c>
-      <c r="AU18" s="6">
+      <c r="AU18" s="5">
         <v>5887000</v>
       </c>
-      <c r="AV18" s="6">
+      <c r="AV18" s="5">
         <v>-37393000</v>
       </c>
-      <c r="AW18" s="6">
+      <c r="AW18" s="5">
         <v>582000</v>
       </c>
-      <c r="AX18" s="6">
+      <c r="AX18" s="5">
         <v>-37975000</v>
       </c>
     </row>
@@ -2708,151 +2704,151 @@
       <c r="A19" s="1">
         <v>45230</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>101547000</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>213347000</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>45145000</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>19616000</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>387535000</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>114058000</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>14050000</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <v>135701000</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>27427000</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <v>10321000</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="5">
         <v>22091000</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="5">
         <v>2337000</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="5">
         <v>713520000</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="5">
         <v>4589000</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="5">
         <v>41961000</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19" s="5">
         <v>67228000</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19" s="5">
         <v>9860000</v>
       </c>
-      <c r="S19" s="6">
+      <c r="S19" s="5">
         <v>7500000</v>
       </c>
-      <c r="T19" s="6">
+      <c r="T19" s="5">
         <v>131138000</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="5">
         <v>7763000</v>
       </c>
-      <c r="V19" s="6">
+      <c r="V19" s="5">
         <v>8353000</v>
       </c>
-      <c r="W19" s="6">
+      <c r="W19" s="5">
         <v>2666000</v>
       </c>
-      <c r="X19" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="6">
+      <c r="X19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="5">
         <v>17321000</v>
       </c>
-      <c r="Z19" s="6">
+      <c r="Z19" s="5">
         <v>5588000</v>
       </c>
-      <c r="AA19" s="6">
+      <c r="AA19" s="5">
         <v>7093000</v>
       </c>
-      <c r="AB19" s="6">
+      <c r="AB19" s="5">
         <v>179922000</v>
       </c>
-      <c r="AC19" s="6">
+      <c r="AC19" s="5">
         <v>1583531000</v>
       </c>
-      <c r="AD19" s="6">
+      <c r="AD19" s="5">
         <v>-242000</v>
       </c>
-      <c r="AE19" s="6">
+      <c r="AE19" s="5">
         <v>-1049719000</v>
       </c>
-      <c r="AF19" s="6">
+      <c r="AF19" s="5">
         <v>533598000</v>
       </c>
-      <c r="AG19" s="6">
+      <c r="AG19" s="5">
         <v>713520000</v>
       </c>
-      <c r="AH19" s="6">
+      <c r="AH19" s="5">
         <v>55380000</v>
       </c>
-      <c r="AI19" s="6">
+      <c r="AI19" s="5">
         <v>29350000</v>
       </c>
-      <c r="AJ19" s="6">
+      <c r="AJ19" s="5">
         <v>26030000</v>
       </c>
-      <c r="AK19" s="6">
+      <c r="AK19" s="5">
         <v>33002000</v>
       </c>
-      <c r="AL19" s="6">
+      <c r="AL19" s="5">
         <v>20774000</v>
       </c>
-      <c r="AM19" s="6">
+      <c r="AM19" s="5">
         <v>20112000</v>
       </c>
-      <c r="AN19" s="6">
+      <c r="AN19" s="5">
         <v>73888000</v>
       </c>
-      <c r="AO19" s="6">
+      <c r="AO19" s="5">
         <v>-47858000</v>
       </c>
-      <c r="AP19" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="6">
+      <c r="AP19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="5">
         <v>3445000</v>
       </c>
-      <c r="AR19" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="6">
+      <c r="AR19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="5">
         <v>6833000</v>
       </c>
-      <c r="AT19" s="6">
+      <c r="AT19" s="5">
         <v>-69000</v>
       </c>
-      <c r="AU19" s="6">
+      <c r="AU19" s="5">
         <v>10209000</v>
       </c>
-      <c r="AV19" s="6">
+      <c r="AV19" s="5">
         <v>-37649000</v>
       </c>
-      <c r="AW19" s="6">
+      <c r="AW19" s="5">
         <v>355000</v>
       </c>
-      <c r="AX19" s="6">
+      <c r="AX19" s="5">
         <v>-38004000</v>
       </c>
     </row>
@@ -2860,151 +2856,151 @@
       <c r="A20" s="1">
         <v>45322</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>83866000</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>215041000</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>43320000</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>19564000</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>370151000</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <v>113429000</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="9">
         <v>14973000</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="9">
         <v>136256000</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="9">
         <v>32448000</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="9">
         <v>9972000</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="9">
         <v>22339000</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M20" s="9">
         <v>2429000</v>
       </c>
-      <c r="N20" s="10">
+      <c r="N20" s="9">
         <v>701997000</v>
       </c>
-      <c r="O20" s="10">
+      <c r="O20" s="9">
         <v>2601000</v>
       </c>
-      <c r="P20" s="10">
+      <c r="P20" s="9">
         <v>44779000</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="Q20" s="9">
         <v>72327000</v>
       </c>
-      <c r="R20" s="10">
+      <c r="R20" s="9">
         <v>8964000</v>
       </c>
-      <c r="S20" s="10">
+      <c r="S20" s="9">
         <v>7978000</v>
       </c>
-      <c r="T20" s="10">
+      <c r="T20" s="9">
         <v>136649000</v>
       </c>
-      <c r="U20" s="10">
+      <c r="U20" s="9">
         <v>5293000</v>
       </c>
-      <c r="V20" s="10">
+      <c r="V20" s="9">
         <v>7101000</v>
       </c>
-      <c r="W20" s="10">
+      <c r="W20" s="9">
         <v>2961000</v>
       </c>
-      <c r="X20" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="10">
+      <c r="X20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="9">
         <v>16952000</v>
       </c>
-      <c r="Z20" s="10">
+      <c r="Z20" s="9">
         <v>5885000</v>
       </c>
-      <c r="AA20" s="10">
+      <c r="AA20" s="9">
         <v>9138000</v>
       </c>
-      <c r="AB20" s="10">
+      <c r="AB20" s="9">
         <v>183979000</v>
       </c>
-      <c r="AC20" s="10">
+      <c r="AC20" s="9">
         <v>1596201000</v>
       </c>
-      <c r="AD20" s="10">
+      <c r="AD20" s="9">
         <v>1594000</v>
       </c>
-      <c r="AE20" s="10">
+      <c r="AE20" s="9">
         <v>-1079805000</v>
       </c>
-      <c r="AF20" s="10">
+      <c r="AF20" s="9">
         <v>518018000</v>
       </c>
-      <c r="AG20" s="10">
+      <c r="AG20" s="9">
         <v>701997000</v>
       </c>
-      <c r="AH20" s="6">
+      <c r="AH20" s="5">
         <v>220696000</v>
       </c>
-      <c r="AI20" s="6">
+      <c r="AI20" s="5">
         <v>107746000</v>
       </c>
-      <c r="AJ20" s="6">
+      <c r="AJ20" s="5">
         <v>112950000</v>
       </c>
-      <c r="AK20" s="6">
+      <c r="AK20" s="5">
         <v>116339000</v>
       </c>
-      <c r="AL20" s="6">
+      <c r="AL20" s="5">
         <v>86304000</v>
       </c>
-      <c r="AM20" s="6">
+      <c r="AM20" s="5">
         <v>80055000</v>
       </c>
-      <c r="AN20" s="6">
+      <c r="AN20" s="5">
         <v>282698000</v>
       </c>
-      <c r="AO20" s="6">
+      <c r="AO20" s="5">
         <v>-169748000</v>
       </c>
-      <c r="AP20" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="6">
+      <c r="AP20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="5">
         <v>15414000</v>
       </c>
-      <c r="AR20" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS20" s="6">
+      <c r="AR20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="5">
         <v>13709000</v>
       </c>
-      <c r="AT20" s="6">
+      <c r="AT20" s="5">
         <v>931000</v>
       </c>
-      <c r="AU20" s="6">
+      <c r="AU20" s="5">
         <v>30054000</v>
       </c>
-      <c r="AV20" s="6">
+      <c r="AV20" s="5">
         <v>-139694000</v>
       </c>
-      <c r="AW20" s="6">
+      <c r="AW20" s="5">
         <v>815000</v>
       </c>
-      <c r="AX20" s="6">
+      <c r="AX20" s="5">
         <v>-140509000</v>
       </c>
     </row>
@@ -3012,156 +3008,153 @@
       <c r="A21" s="1">
         <v>45412</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>107367000</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>168218000</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>38527000</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <v>23044000</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>345958000</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <v>111338000</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="9">
         <v>16066000</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="9">
         <v>137110000</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="9">
         <v>31403000</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="9">
         <v>9564000</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="9">
         <v>20966000</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M21" s="9">
         <v>2199000</v>
       </c>
-      <c r="N21" s="10">
+      <c r="N21" s="9">
         <v>674604000</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O21" s="9">
         <v>3131000</v>
       </c>
-      <c r="P21" s="10">
+      <c r="P21" s="9">
         <v>43361000</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="Q21" s="9">
         <v>63646000</v>
       </c>
-      <c r="R21" s="10">
+      <c r="R21" s="9">
         <v>8068000</v>
       </c>
-      <c r="S21" s="10">
+      <c r="S21" s="9">
         <v>8175000</v>
       </c>
-      <c r="T21" s="10">
+      <c r="T21" s="9">
         <v>126381000</v>
       </c>
-      <c r="U21" s="10">
+      <c r="U21" s="9">
         <v>13247000</v>
       </c>
-      <c r="V21" s="10">
+      <c r="V21" s="9">
         <v>9261000</v>
       </c>
-      <c r="W21" s="10">
+      <c r="W21" s="9">
         <v>1431000</v>
       </c>
-      <c r="X21" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="10">
+      <c r="X21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="9">
         <v>15207000</v>
       </c>
-      <c r="Z21" s="10">
+      <c r="Z21" s="9">
         <v>2915000</v>
       </c>
-      <c r="AA21" s="10">
+      <c r="AA21" s="9">
         <v>5837000</v>
       </c>
-      <c r="AB21" s="10">
+      <c r="AB21" s="9">
         <v>174279000</v>
       </c>
-      <c r="AC21" s="10">
+      <c r="AC21" s="9">
         <v>1608847000</v>
       </c>
-      <c r="AD21" s="10">
+      <c r="AD21" s="9">
         <v>548000</v>
       </c>
-      <c r="AE21" s="10">
+      <c r="AE21" s="9">
         <v>-1109098000</v>
       </c>
-      <c r="AF21" s="10">
+      <c r="AF21" s="9">
         <v>500325000</v>
       </c>
-      <c r="AG21" s="10">
+      <c r="AG21" s="9">
         <v>674604000</v>
       </c>
-      <c r="AH21" s="6">
+      <c r="AH21" s="5">
         <v>60440000</v>
       </c>
-      <c r="AI21" s="6">
+      <c r="AI21" s="5">
         <v>28757000</v>
       </c>
-      <c r="AJ21" s="6">
+      <c r="AJ21" s="5">
         <v>31683000</v>
       </c>
-      <c r="AK21" s="6">
+      <c r="AK21" s="5">
         <v>25589000</v>
       </c>
-      <c r="AL21" s="6">
+      <c r="AL21" s="5">
         <v>21485000</v>
       </c>
-      <c r="AM21" s="6">
+      <c r="AM21" s="5">
         <v>19180000</v>
       </c>
-      <c r="AN21" s="6">
+      <c r="AN21" s="5">
         <v>66254000</v>
       </c>
-      <c r="AO21" s="6">
+      <c r="AO21" s="5">
         <v>-34571000</v>
       </c>
-      <c r="AP21" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="6">
+      <c r="AP21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="5">
         <v>3107000</v>
       </c>
-      <c r="AR21" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS21" s="6">
+      <c r="AR21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="5">
         <v>1530000</v>
       </c>
-      <c r="AT21" s="6">
+      <c r="AT21" s="5">
         <v>1083000</v>
       </c>
-      <c r="AU21" s="6">
+      <c r="AU21" s="5">
         <v>5720000</v>
       </c>
-      <c r="AV21" s="6">
+      <c r="AV21" s="5">
         <v>-28851000</v>
       </c>
-      <c r="AW21" s="6">
+      <c r="AW21" s="5">
         <v>442000</v>
       </c>
-      <c r="AX21" s="6">
+      <c r="AX21" s="5">
         <v>-29293000</v>
       </c>
-    </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:AG19">

--- a/financial_data/planet.xlsx
+++ b/financial_data/planet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holly\space_econometrics\financial_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6932D11-E047-4C64-96C4-F225FDD16B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6208252B-8241-4C13-8C3F-7077B95E5A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="consolidated" sheetId="3" r:id="rId1"/>
+    <sheet name="key" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Cash and cash equivalents</t>
   </si>
@@ -149,9 +150,6 @@
     <t>Short-term investments</t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
     <t>Interest income</t>
   </si>
   <si>
@@ -186,6 +184,9 @@
   </si>
   <si>
     <t>Total Equity</t>
+  </si>
+  <si>
+    <t>interpolated</t>
   </si>
 </sst>
 </file>
@@ -224,12 +225,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -245,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -265,14 +272,18 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="42" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -557,9 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A537E283-6F73-4D72-9227-FEDBB5B10DFD}">
   <dimension ref="A1:AX21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -606,7 +615,7 @@
   <sheetData>
     <row r="1" spans="1:50" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -621,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -645,7 +654,7 @@
         <v>8</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>9</v>
@@ -663,7 +672,7 @@
         <v>33</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>11</v>
@@ -681,13 +690,13 @@
         <v>34</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC1" s="3" t="s">
         <v>17</v>
@@ -699,7 +708,7 @@
         <v>19</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG1" s="3" t="s">
         <v>20</v>
@@ -729,22 +738,22 @@
         <v>27</v>
       </c>
       <c r="AP1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AR1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="AS1" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AT1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU1" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="AV1" s="3" t="s">
         <v>29</v>
@@ -1437,41 +1446,130 @@
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="11">
         <v>44316</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
+      <c r="B9" s="10">
+        <f xml:space="preserve"> B$8 +(($A$9-$A$8)/($A$12-$A$8))*(B$12-B$8)</f>
+        <v>173491304.10958904</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
+        <f xml:space="preserve"> D$8 +(($A$9-$A$8)/($A$12-$A$8))*(D$12-D$8)</f>
+        <v>46442621.91780822</v>
+      </c>
+      <c r="E9" s="10">
+        <f xml:space="preserve"> E$8 +(($A$9-$A$8)/($A$12-$A$8))*(E$12-E$8)</f>
+        <v>9389723.2876712326</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" ref="F9:J9" si="0" xml:space="preserve"> F$8 +(($A$9-$A$8)/($A$12-$A$8))*(F$12-F$8)</f>
+        <v>229323649.31506848</v>
+      </c>
+      <c r="G9" s="10">
+        <f t="shared" si="0"/>
+        <v>153375068.49315068</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" si="0"/>
+        <v>11695057.534246575</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="0"/>
+        <v>92008106.849315062</v>
+      </c>
+      <c r="J9" s="10">
+        <f t="shared" si="0"/>
+        <v>7751454.7945205476</v>
+      </c>
+      <c r="K9" s="10">
+        <f xml:space="preserve"> K$8 +(($A$9-$A$8)/($A$12-$A$8))*(K$12-K$8)</f>
+        <v>5167558.9041095888</v>
+      </c>
+      <c r="L9" s="10">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
+        <f xml:space="preserve"> M$8 +(($A$9-$A$8)/($A$12-$A$8))*(M$12-M$8)</f>
+        <v>2918164.3835616438</v>
+      </c>
+      <c r="N9" s="10">
+        <f t="shared" ref="N9:X9" si="1" xml:space="preserve"> N$8 +(($A$9-$A$8)/($A$12-$A$8))*(N$12-N$8)</f>
+        <v>502239060.27397263</v>
+      </c>
+      <c r="O9" s="10">
+        <f t="shared" si="1"/>
+        <v>1788345.2054794519</v>
+      </c>
+      <c r="P9" s="10">
+        <f t="shared" si="1"/>
+        <v>34737169.8630137</v>
+      </c>
+      <c r="Q9" s="10">
+        <f t="shared" si="1"/>
+        <v>59194676.712328769</v>
+      </c>
+      <c r="R9" s="10">
+        <v>0</v>
+      </c>
+      <c r="S9" s="10">
+        <v>0</v>
+      </c>
+      <c r="T9" s="10">
+        <f t="shared" si="1"/>
+        <v>114477569.8630137</v>
+      </c>
+      <c r="U9" s="10">
+        <f t="shared" si="1"/>
+        <v>12307405.479452055</v>
+      </c>
+      <c r="V9" s="10">
+        <f t="shared" si="1"/>
+        <v>8989745.2054794524</v>
+      </c>
+      <c r="W9" s="10">
+        <v>0</v>
+      </c>
+      <c r="X9" s="10">
+        <f t="shared" si="1"/>
+        <v>2456268.493150685</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="10">
+        <f t="shared" ref="AA9:AG9" si="2" xml:space="preserve"> AA$8 +(($A$9-$A$8)/($A$12-$A$8))*(AA$12-AA$8)</f>
+        <v>1315772.602739726</v>
+      </c>
+      <c r="AB9" s="10">
+        <f t="shared" si="2"/>
+        <v>262877852.05479452</v>
+      </c>
+      <c r="AC9" s="10">
+        <f t="shared" si="2"/>
+        <v>910833750.68493152</v>
+      </c>
+      <c r="AD9" s="10">
+        <f t="shared" si="2"/>
+        <v>1848734.2465753425</v>
+      </c>
+      <c r="AE9" s="10">
+        <f t="shared" si="2"/>
+        <v>-673340715.06849313</v>
+      </c>
+      <c r="AF9" s="10">
+        <f t="shared" si="2"/>
+        <v>239361208.21917808</v>
+      </c>
+      <c r="AG9" s="10">
+        <f t="shared" si="2"/>
+        <v>502239060.27397263</v>
+      </c>
       <c r="AH9" s="5">
         <v>31957000</v>
       </c>
@@ -1525,41 +1623,130 @@
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="11">
         <v>44408</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
+      <c r="B10" s="10">
+        <f xml:space="preserve"> B9 +((A10-A9)/(A12-A9))*(B12-B9)</f>
+        <v>279248202.73972601</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
+        <f xml:space="preserve"> D$8 +(($A$10-$A$8)/($A$12-$A$8))*(D$12-D$8)</f>
+        <v>45752747.94520548</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" ref="E10:Q10" si="3" xml:space="preserve"> E$8 +(($A$10-$A$8)/($A$12-$A$8))*(E$12-E$8)</f>
+        <v>11721482.191780822</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="3"/>
+        <v>336722432.87671232</v>
+      </c>
+      <c r="G10" s="10">
+        <f t="shared" si="3"/>
+        <v>146676712.32876712</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="3"/>
+        <v>11386038.356164383</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="3"/>
+        <v>95745071.232876718</v>
+      </c>
+      <c r="J10" s="10">
+        <f t="shared" si="3"/>
+        <v>9899969.8630136997</v>
+      </c>
+      <c r="K10" s="10">
+        <f t="shared" si="3"/>
+        <v>5359372.6027397262</v>
+      </c>
+      <c r="L10" s="10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="10">
+        <f t="shared" si="3"/>
+        <v>2850109.5890410957</v>
+      </c>
+      <c r="N10" s="10">
+        <f t="shared" si="3"/>
+        <v>608639706.84931505</v>
+      </c>
+      <c r="O10" s="10">
+        <f t="shared" si="3"/>
+        <v>2142230.1369863013</v>
+      </c>
+      <c r="P10" s="10">
+        <f t="shared" si="3"/>
+        <v>39432446.575342461</v>
+      </c>
+      <c r="Q10" s="10">
+        <f t="shared" si="3"/>
+        <v>60874117.80821918</v>
+      </c>
+      <c r="R10" s="10">
+        <v>0</v>
+      </c>
+      <c r="S10" s="10">
+        <v>0</v>
+      </c>
+      <c r="T10" s="10">
+        <f t="shared" ref="T10:X10" si="4" xml:space="preserve"> T$8 +(($A$10-$A$8)/($A$12-$A$8))*(T$12-T$8)</f>
+        <v>120332046.57534246</v>
+      </c>
+      <c r="U10" s="10">
+        <f t="shared" si="4"/>
+        <v>9397936.98630137</v>
+      </c>
+      <c r="V10" s="10">
+        <f t="shared" si="4"/>
+        <v>10042830.136986302</v>
+      </c>
+      <c r="W10" s="10">
+        <v>0</v>
+      </c>
+      <c r="X10" s="10">
+        <f t="shared" si="4"/>
+        <v>1903512.3287671232</v>
+      </c>
+      <c r="Y10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="10">
+        <f t="shared" ref="AA10:AG10" si="5" xml:space="preserve"> AA$8 +(($A$10-$A$8)/($A$12-$A$8))*(AA$12-AA$8)</f>
+        <v>1345515.0684931506</v>
+      </c>
+      <c r="AB10" s="10">
+        <f t="shared" si="5"/>
+        <v>232983901.369863</v>
+      </c>
+      <c r="AC10" s="10">
+        <f t="shared" si="5"/>
+        <v>1081606167.1232877</v>
+      </c>
+      <c r="AD10" s="10">
+        <f t="shared" si="5"/>
+        <v>1931156.1643835616</v>
+      </c>
+      <c r="AE10" s="10">
+        <f t="shared" si="5"/>
+        <v>-707903476.71232879</v>
+      </c>
+      <c r="AF10" s="10">
+        <f t="shared" si="5"/>
+        <v>375655805.47945207</v>
+      </c>
+      <c r="AG10" s="10">
+        <f t="shared" si="5"/>
+        <v>608639706.84931505</v>
+      </c>
       <c r="AH10" s="5">
         <v>30406000</v>
       </c>
@@ -1613,41 +1800,130 @@
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="11">
         <v>44500</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
+      <c r="B11" s="10">
+        <f xml:space="preserve"> B10 +((A11-A10)/(A12-A10))*(B12-B10)</f>
+        <v>385005101.36986303</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
+        <f xml:space="preserve"> D$8 +(($A$11-$A$8)/($A$12-$A$8))*(D$12-D$8)</f>
+        <v>45062873.97260274</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" ref="E11:Q11" si="6" xml:space="preserve"> E$8 +(($A$11-$A$8)/($A$12-$A$8))*(E$12-E$8)</f>
+        <v>14053241.09589041</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="6"/>
+        <v>444121216.43835616</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="6"/>
+        <v>139978356.16438356</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="6"/>
+        <v>11077019.178082192</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="6"/>
+        <v>99482035.616438359</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" si="6"/>
+        <v>12048484.93150685</v>
+      </c>
+      <c r="K11" s="10">
+        <f t="shared" si="6"/>
+        <v>5551186.3013698626</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
+        <f t="shared" si="6"/>
+        <v>2782054.7945205481</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" si="6"/>
+        <v>715040353.42465758</v>
+      </c>
+      <c r="O11" s="10">
+        <f t="shared" si="6"/>
+        <v>2496115.0684931506</v>
+      </c>
+      <c r="P11" s="10">
+        <f t="shared" si="6"/>
+        <v>44127723.287671238</v>
+      </c>
+      <c r="Q11" s="10">
+        <f t="shared" si="6"/>
+        <v>62553558.90410959</v>
+      </c>
+      <c r="R11" s="10">
+        <v>0</v>
+      </c>
+      <c r="S11" s="10">
+        <v>0</v>
+      </c>
+      <c r="T11" s="10">
+        <f t="shared" ref="T11:X11" si="7" xml:space="preserve"> T$8 +(($A$11-$A$8)/($A$12-$A$8))*(T$12-T$8)</f>
+        <v>126186523.28767124</v>
+      </c>
+      <c r="U11" s="10">
+        <f t="shared" si="7"/>
+        <v>6488468.493150685</v>
+      </c>
+      <c r="V11" s="10">
+        <f t="shared" si="7"/>
+        <v>11095915.06849315</v>
+      </c>
+      <c r="W11" s="10">
+        <v>0</v>
+      </c>
+      <c r="X11" s="10">
+        <f t="shared" si="7"/>
+        <v>1350756.1643835616</v>
+      </c>
+      <c r="Y11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="10">
+        <f t="shared" ref="AA11:AG11" si="8" xml:space="preserve"> AA$8 +(($A$11-$A$8)/($A$12-$A$8))*(AA$12-AA$8)</f>
+        <v>1375257.5342465753</v>
+      </c>
+      <c r="AB11" s="10">
+        <f t="shared" si="8"/>
+        <v>203089950.68493152</v>
+      </c>
+      <c r="AC11" s="10">
+        <f t="shared" si="8"/>
+        <v>1252378583.5616438</v>
+      </c>
+      <c r="AD11" s="10">
+        <f t="shared" si="8"/>
+        <v>2013578.0821917809</v>
+      </c>
+      <c r="AE11" s="10">
+        <f t="shared" si="8"/>
+        <v>-742466238.35616446</v>
+      </c>
+      <c r="AF11" s="10">
+        <f t="shared" si="8"/>
+        <v>511950402.73972607</v>
+      </c>
+      <c r="AG11" s="10">
+        <f t="shared" si="8"/>
+        <v>715040353.42465758</v>
+      </c>
       <c r="AH11" s="5">
         <v>31700000</v>
       </c>
@@ -1707,7 +1983,7 @@
       <c r="B12" s="6">
         <v>490762000</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>0</v>
       </c>
       <c r="D12" s="6">
@@ -1734,8 +2010,8 @@
       <c r="K12" s="6">
         <v>5743000</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>37</v>
+      <c r="L12" s="5">
+        <v>0</v>
       </c>
       <c r="M12" s="6">
         <v>2714000</v>
@@ -1755,8 +2031,8 @@
       <c r="R12" s="6">
         <v>16135000</v>
       </c>
-      <c r="S12" s="7" t="s">
-        <v>37</v>
+      <c r="S12" s="5">
+        <v>0</v>
       </c>
       <c r="T12" s="6">
         <v>132041000</v>
@@ -1773,8 +2049,8 @@
       <c r="X12" s="6">
         <v>798000</v>
       </c>
-      <c r="Y12" s="7" t="s">
-        <v>37</v>
+      <c r="Y12" s="5">
+        <v>0</v>
       </c>
       <c r="Z12" s="6">
         <v>0</v>
@@ -2005,41 +2281,136 @@
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="11">
         <v>44773</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
+      <c r="B14" s="10">
+        <f xml:space="preserve"> B$13 + (($A$14-$A$13)/($A$15-$A$13))*(B$15-B$13)</f>
+        <v>341806500</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
+        <f xml:space="preserve"> D$13 + (($A$14-$A$13)/($A$15-$A$13))*(D$15-D$13)</f>
+        <v>26795000</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" ref="E14:AG14" si="9" xml:space="preserve"> E$13 + (($A$14-$A$13)/($A$15-$A$13))*(E$15-E$13)</f>
+        <v>22269500</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="9"/>
+        <v>503952500</v>
+      </c>
+      <c r="G14" s="10">
+        <f t="shared" si="9"/>
+        <v>120357000</v>
+      </c>
+      <c r="H14" s="10">
+        <f t="shared" si="9"/>
+        <v>11143000</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="9"/>
+        <v>103219000</v>
+      </c>
+      <c r="J14" s="10">
+        <f t="shared" si="9"/>
+        <v>13011500</v>
+      </c>
+      <c r="K14" s="10">
+        <f t="shared" si="9"/>
+        <v>5408000</v>
+      </c>
+      <c r="L14" s="10">
+        <f t="shared" si="9"/>
+        <v>11420500</v>
+      </c>
+      <c r="M14" s="10">
+        <f t="shared" si="9"/>
+        <v>3099500</v>
+      </c>
+      <c r="N14" s="10">
+        <f t="shared" si="9"/>
+        <v>771611000</v>
+      </c>
+      <c r="O14" s="10">
+        <f t="shared" si="9"/>
+        <v>2862500</v>
+      </c>
+      <c r="P14" s="10">
+        <f t="shared" si="9"/>
+        <v>42906500</v>
+      </c>
+      <c r="Q14" s="10">
+        <f t="shared" si="9"/>
+        <v>54185000</v>
+      </c>
+      <c r="R14" s="10">
+        <f t="shared" si="9"/>
+        <v>14342500</v>
+      </c>
+      <c r="S14" s="10">
+        <f t="shared" si="9"/>
+        <v>5363000</v>
+      </c>
+      <c r="T14" s="10">
+        <f t="shared" si="9"/>
+        <v>119659500</v>
+      </c>
+      <c r="U14" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="10">
+        <f t="shared" si="9"/>
+        <v>11026000</v>
+      </c>
+      <c r="W14" s="10">
+        <f t="shared" si="9"/>
+        <v>18901500</v>
+      </c>
+      <c r="X14" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="10">
+        <f t="shared" si="9"/>
+        <v>8147500</v>
+      </c>
+      <c r="Z14" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="10">
+        <f t="shared" si="9"/>
+        <v>1440000</v>
+      </c>
+      <c r="AB14" s="10">
+        <f t="shared" si="9"/>
+        <v>159174500</v>
+      </c>
+      <c r="AC14" s="10">
+        <f t="shared" si="9"/>
+        <v>1472375000</v>
+      </c>
+      <c r="AD14" s="10">
+        <f t="shared" si="9"/>
+        <v>1607000</v>
+      </c>
+      <c r="AE14" s="10">
+        <f t="shared" si="9"/>
+        <v>-861572500</v>
+      </c>
+      <c r="AF14" s="10">
+        <f t="shared" si="9"/>
+        <v>612436500</v>
+      </c>
+      <c r="AG14" s="10">
+        <f t="shared" si="9"/>
+        <v>771611000</v>
+      </c>
       <c r="AH14" s="5">
         <v>48450000</v>
       </c>
@@ -2594,10 +2965,10 @@
       <c r="O18" s="5">
         <v>3825000</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P18" s="7">
         <v>37841000</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q18" s="7">
         <v>56575000</v>
       </c>
       <c r="R18" s="5">
@@ -2609,10 +2980,10 @@
       <c r="T18" s="5">
         <v>116259000</v>
       </c>
-      <c r="U18" s="8">
+      <c r="U18" s="7">
         <v>18186000</v>
       </c>
-      <c r="V18" s="8">
+      <c r="V18" s="7">
         <v>9605000</v>
       </c>
       <c r="W18" s="5">
@@ -2856,100 +3227,100 @@
       <c r="A20" s="1">
         <v>45322</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>83866000</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>215041000</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>43320000</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>19564000</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>370151000</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>113429000</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>14973000</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="8">
         <v>136256000</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="8">
         <v>32448000</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="8">
         <v>9972000</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="8">
         <v>22339000</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="8">
         <v>2429000</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="8">
         <v>701997000</v>
       </c>
-      <c r="O20" s="9">
+      <c r="O20" s="8">
         <v>2601000</v>
       </c>
-      <c r="P20" s="9">
+      <c r="P20" s="8">
         <v>44779000</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="Q20" s="8">
         <v>72327000</v>
       </c>
-      <c r="R20" s="9">
+      <c r="R20" s="8">
         <v>8964000</v>
       </c>
-      <c r="S20" s="9">
+      <c r="S20" s="8">
         <v>7978000</v>
       </c>
-      <c r="T20" s="9">
+      <c r="T20" s="8">
         <v>136649000</v>
       </c>
-      <c r="U20" s="9">
+      <c r="U20" s="8">
         <v>5293000</v>
       </c>
-      <c r="V20" s="9">
+      <c r="V20" s="8">
         <v>7101000</v>
       </c>
-      <c r="W20" s="9">
+      <c r="W20" s="8">
         <v>2961000</v>
       </c>
-      <c r="X20" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="9">
+      <c r="X20" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="8">
         <v>16952000</v>
       </c>
-      <c r="Z20" s="9">
+      <c r="Z20" s="8">
         <v>5885000</v>
       </c>
-      <c r="AA20" s="9">
+      <c r="AA20" s="8">
         <v>9138000</v>
       </c>
-      <c r="AB20" s="9">
+      <c r="AB20" s="8">
         <v>183979000</v>
       </c>
-      <c r="AC20" s="9">
+      <c r="AC20" s="8">
         <v>1596201000</v>
       </c>
-      <c r="AD20" s="9">
+      <c r="AD20" s="8">
         <v>1594000</v>
       </c>
-      <c r="AE20" s="9">
+      <c r="AE20" s="8">
         <v>-1079805000</v>
       </c>
-      <c r="AF20" s="9">
+      <c r="AF20" s="8">
         <v>518018000</v>
       </c>
-      <c r="AG20" s="9">
+      <c r="AG20" s="8">
         <v>701997000</v>
       </c>
       <c r="AH20" s="5">
@@ -3008,100 +3379,100 @@
       <c r="A21" s="1">
         <v>45412</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>107367000</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>168218000</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>38527000</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>23044000</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>345958000</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>111338000</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>16066000</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <v>137110000</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="8">
         <v>31403000</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="8">
         <v>9564000</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="8">
         <v>20966000</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="8">
         <v>2199000</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="8">
         <v>674604000</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O21" s="8">
         <v>3131000</v>
       </c>
-      <c r="P21" s="9">
+      <c r="P21" s="8">
         <v>43361000</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="Q21" s="8">
         <v>63646000</v>
       </c>
-      <c r="R21" s="9">
+      <c r="R21" s="8">
         <v>8068000</v>
       </c>
-      <c r="S21" s="9">
+      <c r="S21" s="8">
         <v>8175000</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T21" s="8">
         <v>126381000</v>
       </c>
-      <c r="U21" s="9">
+      <c r="U21" s="8">
         <v>13247000</v>
       </c>
-      <c r="V21" s="9">
+      <c r="V21" s="8">
         <v>9261000</v>
       </c>
-      <c r="W21" s="9">
+      <c r="W21" s="8">
         <v>1431000</v>
       </c>
-      <c r="X21" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="9">
+      <c r="X21" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="8">
         <v>15207000</v>
       </c>
-      <c r="Z21" s="9">
+      <c r="Z21" s="8">
         <v>2915000</v>
       </c>
-      <c r="AA21" s="9">
+      <c r="AA21" s="8">
         <v>5837000</v>
       </c>
-      <c r="AB21" s="9">
+      <c r="AB21" s="8">
         <v>174279000</v>
       </c>
-      <c r="AC21" s="9">
+      <c r="AC21" s="8">
         <v>1608847000</v>
       </c>
-      <c r="AD21" s="9">
+      <c r="AD21" s="8">
         <v>548000</v>
       </c>
-      <c r="AE21" s="9">
+      <c r="AE21" s="8">
         <v>-1109098000</v>
       </c>
-      <c r="AF21" s="9">
+      <c r="AF21" s="8">
         <v>500325000</v>
       </c>
-      <c r="AG21" s="9">
+      <c r="AG21" s="8">
         <v>674604000</v>
       </c>
       <c r="AH21" s="5">
@@ -3163,4 +3534,25 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9840AC-F14A-4C58-BDF4-7D814B7753BE}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/financial_data/planet.xlsx
+++ b/financial_data/planet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holly\space_econometrics\financial_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6208252B-8241-4C13-8C3F-7077B95E5A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AEEBFC-EC99-4D0C-AFBD-1E28D9EA84C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -252,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -281,9 +281,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="42" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1446,69 +1443,55 @@
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="1">
         <v>44316</v>
       </c>
       <c r="B9" s="10">
-        <f xml:space="preserve"> B$8 +(($A$9-$A$8)/($A$12-$A$8))*(B$12-B$8)</f>
         <v>173491304.10958904</v>
       </c>
       <c r="C9" s="10">
         <v>0</v>
       </c>
       <c r="D9" s="10">
-        <f xml:space="preserve"> D$8 +(($A$9-$A$8)/($A$12-$A$8))*(D$12-D$8)</f>
         <v>46442621.91780822</v>
       </c>
       <c r="E9" s="10">
-        <f xml:space="preserve"> E$8 +(($A$9-$A$8)/($A$12-$A$8))*(E$12-E$8)</f>
         <v>9389723.2876712326</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" ref="F9:J9" si="0" xml:space="preserve"> F$8 +(($A$9-$A$8)/($A$12-$A$8))*(F$12-F$8)</f>
         <v>229323649.31506848</v>
       </c>
       <c r="G9" s="10">
-        <f t="shared" si="0"/>
         <v>153375068.49315068</v>
       </c>
       <c r="H9" s="10">
-        <f t="shared" si="0"/>
         <v>11695057.534246575</v>
       </c>
       <c r="I9" s="10">
-        <f t="shared" si="0"/>
         <v>92008106.849315062</v>
       </c>
       <c r="J9" s="10">
-        <f t="shared" si="0"/>
         <v>7751454.7945205476</v>
       </c>
       <c r="K9" s="10">
-        <f xml:space="preserve"> K$8 +(($A$9-$A$8)/($A$12-$A$8))*(K$12-K$8)</f>
         <v>5167558.9041095888</v>
       </c>
       <c r="L9" s="10">
         <v>0</v>
       </c>
       <c r="M9" s="10">
-        <f xml:space="preserve"> M$8 +(($A$9-$A$8)/($A$12-$A$8))*(M$12-M$8)</f>
         <v>2918164.3835616438</v>
       </c>
       <c r="N9" s="10">
-        <f t="shared" ref="N9:X9" si="1" xml:space="preserve"> N$8 +(($A$9-$A$8)/($A$12-$A$8))*(N$12-N$8)</f>
         <v>502239060.27397263</v>
       </c>
       <c r="O9" s="10">
-        <f t="shared" si="1"/>
         <v>1788345.2054794519</v>
       </c>
       <c r="P9" s="10">
-        <f t="shared" si="1"/>
         <v>34737169.8630137</v>
       </c>
       <c r="Q9" s="10">
-        <f t="shared" si="1"/>
         <v>59194676.712328769</v>
       </c>
       <c r="R9" s="10">
@@ -1518,22 +1501,18 @@
         <v>0</v>
       </c>
       <c r="T9" s="10">
-        <f t="shared" si="1"/>
         <v>114477569.8630137</v>
       </c>
       <c r="U9" s="10">
-        <f t="shared" si="1"/>
         <v>12307405.479452055</v>
       </c>
       <c r="V9" s="10">
-        <f t="shared" si="1"/>
         <v>8989745.2054794524</v>
       </c>
       <c r="W9" s="10">
         <v>0</v>
       </c>
       <c r="X9" s="10">
-        <f t="shared" si="1"/>
         <v>2456268.493150685</v>
       </c>
       <c r="Y9" s="10">
@@ -1543,31 +1522,24 @@
         <v>0</v>
       </c>
       <c r="AA9" s="10">
-        <f t="shared" ref="AA9:AG9" si="2" xml:space="preserve"> AA$8 +(($A$9-$A$8)/($A$12-$A$8))*(AA$12-AA$8)</f>
         <v>1315772.602739726</v>
       </c>
       <c r="AB9" s="10">
-        <f t="shared" si="2"/>
         <v>262877852.05479452</v>
       </c>
       <c r="AC9" s="10">
-        <f t="shared" si="2"/>
         <v>910833750.68493152</v>
       </c>
       <c r="AD9" s="10">
-        <f t="shared" si="2"/>
         <v>1848734.2465753425</v>
       </c>
       <c r="AE9" s="10">
-        <f t="shared" si="2"/>
         <v>-673340715.06849313</v>
       </c>
       <c r="AF9" s="10">
-        <f t="shared" si="2"/>
         <v>239361208.21917808</v>
       </c>
       <c r="AG9" s="10">
-        <f t="shared" si="2"/>
         <v>502239060.27397263</v>
       </c>
       <c r="AH9" s="5">
@@ -1623,69 +1595,55 @@
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="1">
         <v>44408</v>
       </c>
       <c r="B10" s="10">
-        <f xml:space="preserve"> B9 +((A10-A9)/(A12-A9))*(B12-B9)</f>
         <v>279248202.73972601</v>
       </c>
       <c r="C10" s="10">
         <v>0</v>
       </c>
       <c r="D10" s="10">
-        <f xml:space="preserve"> D$8 +(($A$10-$A$8)/($A$12-$A$8))*(D$12-D$8)</f>
         <v>45752747.94520548</v>
       </c>
       <c r="E10" s="10">
-        <f t="shared" ref="E10:Q10" si="3" xml:space="preserve"> E$8 +(($A$10-$A$8)/($A$12-$A$8))*(E$12-E$8)</f>
         <v>11721482.191780822</v>
       </c>
       <c r="F10" s="10">
-        <f t="shared" si="3"/>
         <v>336722432.87671232</v>
       </c>
       <c r="G10" s="10">
-        <f t="shared" si="3"/>
         <v>146676712.32876712</v>
       </c>
       <c r="H10" s="10">
-        <f t="shared" si="3"/>
         <v>11386038.356164383</v>
       </c>
       <c r="I10" s="10">
-        <f t="shared" si="3"/>
         <v>95745071.232876718</v>
       </c>
       <c r="J10" s="10">
-        <f t="shared" si="3"/>
         <v>9899969.8630136997</v>
       </c>
       <c r="K10" s="10">
-        <f t="shared" si="3"/>
         <v>5359372.6027397262</v>
       </c>
       <c r="L10" s="10">
         <v>0</v>
       </c>
       <c r="M10" s="10">
-        <f t="shared" si="3"/>
         <v>2850109.5890410957</v>
       </c>
       <c r="N10" s="10">
-        <f t="shared" si="3"/>
         <v>608639706.84931505</v>
       </c>
       <c r="O10" s="10">
-        <f t="shared" si="3"/>
         <v>2142230.1369863013</v>
       </c>
       <c r="P10" s="10">
-        <f t="shared" si="3"/>
         <v>39432446.575342461</v>
       </c>
       <c r="Q10" s="10">
-        <f t="shared" si="3"/>
         <v>60874117.80821918</v>
       </c>
       <c r="R10" s="10">
@@ -1695,22 +1653,18 @@
         <v>0</v>
       </c>
       <c r="T10" s="10">
-        <f t="shared" ref="T10:X10" si="4" xml:space="preserve"> T$8 +(($A$10-$A$8)/($A$12-$A$8))*(T$12-T$8)</f>
         <v>120332046.57534246</v>
       </c>
       <c r="U10" s="10">
-        <f t="shared" si="4"/>
         <v>9397936.98630137</v>
       </c>
       <c r="V10" s="10">
-        <f t="shared" si="4"/>
         <v>10042830.136986302</v>
       </c>
       <c r="W10" s="10">
         <v>0</v>
       </c>
       <c r="X10" s="10">
-        <f t="shared" si="4"/>
         <v>1903512.3287671232</v>
       </c>
       <c r="Y10" s="10">
@@ -1720,31 +1674,24 @@
         <v>0</v>
       </c>
       <c r="AA10" s="10">
-        <f t="shared" ref="AA10:AG10" si="5" xml:space="preserve"> AA$8 +(($A$10-$A$8)/($A$12-$A$8))*(AA$12-AA$8)</f>
         <v>1345515.0684931506</v>
       </c>
       <c r="AB10" s="10">
-        <f t="shared" si="5"/>
         <v>232983901.369863</v>
       </c>
       <c r="AC10" s="10">
-        <f t="shared" si="5"/>
         <v>1081606167.1232877</v>
       </c>
       <c r="AD10" s="10">
-        <f t="shared" si="5"/>
         <v>1931156.1643835616</v>
       </c>
       <c r="AE10" s="10">
-        <f t="shared" si="5"/>
         <v>-707903476.71232879</v>
       </c>
       <c r="AF10" s="10">
-        <f t="shared" si="5"/>
         <v>375655805.47945207</v>
       </c>
       <c r="AG10" s="10">
-        <f t="shared" si="5"/>
         <v>608639706.84931505</v>
       </c>
       <c r="AH10" s="5">
@@ -1800,69 +1747,55 @@
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="1">
         <v>44500</v>
       </c>
       <c r="B11" s="10">
-        <f xml:space="preserve"> B10 +((A11-A10)/(A12-A10))*(B12-B10)</f>
         <v>385005101.36986303</v>
       </c>
       <c r="C11" s="10">
         <v>0</v>
       </c>
       <c r="D11" s="10">
-        <f xml:space="preserve"> D$8 +(($A$11-$A$8)/($A$12-$A$8))*(D$12-D$8)</f>
         <v>45062873.97260274</v>
       </c>
       <c r="E11" s="10">
-        <f t="shared" ref="E11:Q11" si="6" xml:space="preserve"> E$8 +(($A$11-$A$8)/($A$12-$A$8))*(E$12-E$8)</f>
         <v>14053241.09589041</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" si="6"/>
         <v>444121216.43835616</v>
       </c>
       <c r="G11" s="10">
-        <f t="shared" si="6"/>
         <v>139978356.16438356</v>
       </c>
       <c r="H11" s="10">
-        <f t="shared" si="6"/>
         <v>11077019.178082192</v>
       </c>
       <c r="I11" s="10">
-        <f t="shared" si="6"/>
         <v>99482035.616438359</v>
       </c>
       <c r="J11" s="10">
-        <f t="shared" si="6"/>
         <v>12048484.93150685</v>
       </c>
       <c r="K11" s="10">
-        <f t="shared" si="6"/>
         <v>5551186.3013698626</v>
       </c>
       <c r="L11" s="10">
         <v>0</v>
       </c>
       <c r="M11" s="10">
-        <f t="shared" si="6"/>
         <v>2782054.7945205481</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" si="6"/>
         <v>715040353.42465758</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" si="6"/>
         <v>2496115.0684931506</v>
       </c>
       <c r="P11" s="10">
-        <f t="shared" si="6"/>
         <v>44127723.287671238</v>
       </c>
       <c r="Q11" s="10">
-        <f t="shared" si="6"/>
         <v>62553558.90410959</v>
       </c>
       <c r="R11" s="10">
@@ -1872,22 +1805,18 @@
         <v>0</v>
       </c>
       <c r="T11" s="10">
-        <f t="shared" ref="T11:X11" si="7" xml:space="preserve"> T$8 +(($A$11-$A$8)/($A$12-$A$8))*(T$12-T$8)</f>
         <v>126186523.28767124</v>
       </c>
       <c r="U11" s="10">
-        <f t="shared" si="7"/>
         <v>6488468.493150685</v>
       </c>
       <c r="V11" s="10">
-        <f t="shared" si="7"/>
         <v>11095915.06849315</v>
       </c>
       <c r="W11" s="10">
         <v>0</v>
       </c>
       <c r="X11" s="10">
-        <f t="shared" si="7"/>
         <v>1350756.1643835616</v>
       </c>
       <c r="Y11" s="10">
@@ -1897,31 +1826,24 @@
         <v>0</v>
       </c>
       <c r="AA11" s="10">
-        <f t="shared" ref="AA11:AG11" si="8" xml:space="preserve"> AA$8 +(($A$11-$A$8)/($A$12-$A$8))*(AA$12-AA$8)</f>
         <v>1375257.5342465753</v>
       </c>
       <c r="AB11" s="10">
-        <f t="shared" si="8"/>
         <v>203089950.68493152</v>
       </c>
       <c r="AC11" s="10">
-        <f t="shared" si="8"/>
         <v>1252378583.5616438</v>
       </c>
       <c r="AD11" s="10">
-        <f t="shared" si="8"/>
         <v>2013578.0821917809</v>
       </c>
       <c r="AE11" s="10">
-        <f t="shared" si="8"/>
         <v>-742466238.35616446</v>
       </c>
       <c r="AF11" s="10">
-        <f t="shared" si="8"/>
         <v>511950402.73972607</v>
       </c>
       <c r="AG11" s="10">
-        <f t="shared" si="8"/>
         <v>715040353.42465758</v>
       </c>
       <c r="AH11" s="5">
@@ -2281,134 +2203,103 @@
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="1">
         <v>44773</v>
       </c>
       <c r="B14" s="10">
-        <f xml:space="preserve"> B$13 + (($A$14-$A$13)/($A$15-$A$13))*(B$15-B$13)</f>
         <v>341806500</v>
       </c>
       <c r="C14" s="10">
         <v>0</v>
       </c>
       <c r="D14" s="10">
-        <f xml:space="preserve"> D$13 + (($A$14-$A$13)/($A$15-$A$13))*(D$15-D$13)</f>
         <v>26795000</v>
       </c>
       <c r="E14" s="10">
-        <f t="shared" ref="E14:AG14" si="9" xml:space="preserve"> E$13 + (($A$14-$A$13)/($A$15-$A$13))*(E$15-E$13)</f>
         <v>22269500</v>
       </c>
       <c r="F14" s="10">
-        <f t="shared" si="9"/>
         <v>503952500</v>
       </c>
       <c r="G14" s="10">
-        <f t="shared" si="9"/>
         <v>120357000</v>
       </c>
       <c r="H14" s="10">
-        <f t="shared" si="9"/>
         <v>11143000</v>
       </c>
       <c r="I14" s="10">
-        <f t="shared" si="9"/>
         <v>103219000</v>
       </c>
       <c r="J14" s="10">
-        <f t="shared" si="9"/>
         <v>13011500</v>
       </c>
       <c r="K14" s="10">
-        <f t="shared" si="9"/>
         <v>5408000</v>
       </c>
       <c r="L14" s="10">
-        <f t="shared" si="9"/>
         <v>11420500</v>
       </c>
       <c r="M14" s="10">
-        <f t="shared" si="9"/>
         <v>3099500</v>
       </c>
       <c r="N14" s="10">
-        <f t="shared" si="9"/>
         <v>771611000</v>
       </c>
       <c r="O14" s="10">
-        <f t="shared" si="9"/>
         <v>2862500</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" si="9"/>
         <v>42906500</v>
       </c>
       <c r="Q14" s="10">
-        <f t="shared" si="9"/>
         <v>54185000</v>
       </c>
       <c r="R14" s="10">
-        <f t="shared" si="9"/>
         <v>14342500</v>
       </c>
       <c r="S14" s="10">
-        <f t="shared" si="9"/>
         <v>5363000</v>
       </c>
       <c r="T14" s="10">
-        <f t="shared" si="9"/>
         <v>119659500</v>
       </c>
       <c r="U14" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V14" s="10">
-        <f t="shared" si="9"/>
         <v>11026000</v>
       </c>
       <c r="W14" s="10">
-        <f t="shared" si="9"/>
         <v>18901500</v>
       </c>
       <c r="X14" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y14" s="10">
-        <f t="shared" si="9"/>
         <v>8147500</v>
       </c>
       <c r="Z14" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA14" s="10">
-        <f t="shared" si="9"/>
         <v>1440000</v>
       </c>
       <c r="AB14" s="10">
-        <f t="shared" si="9"/>
         <v>159174500</v>
       </c>
       <c r="AC14" s="10">
-        <f t="shared" si="9"/>
         <v>1472375000</v>
       </c>
       <c r="AD14" s="10">
-        <f t="shared" si="9"/>
         <v>1607000</v>
       </c>
       <c r="AE14" s="10">
-        <f t="shared" si="9"/>
         <v>-861572500</v>
       </c>
       <c r="AF14" s="10">
-        <f t="shared" si="9"/>
         <v>612436500</v>
       </c>
       <c r="AG14" s="10">
-        <f t="shared" si="9"/>
         <v>771611000</v>
       </c>
       <c r="AH14" s="5">

--- a/financial_data/planet.xlsx
+++ b/financial_data/planet.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holly\space_econometrics\financial_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AEEBFC-EC99-4D0C-AFBD-1E28D9EA84C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A3D705-393A-4ADC-B5D5-EAA0CD5C95CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="consolidated" sheetId="3" r:id="rId1"/>
-    <sheet name="key" sheetId="4" r:id="rId2"/>
+    <sheet name="key" sheetId="4" r:id="rId1"/>
+    <sheet name="consolidated" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -252,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -261,9 +261,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -281,6 +278,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="42" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -562,6 +565,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9840AC-F14A-4C58-BDF4-7D814B7753BE}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A537E283-6F73-4D72-9227-FEDBB5B10DFD}">
   <dimension ref="A1:AX21"/>
   <sheetViews>
@@ -610,155 +634,155 @@
     <col min="50" max="50" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" s="11" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AR1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AT1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AU1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AV1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AW1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AX1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -798,55 +822,55 @@
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
-      <c r="AH2" s="5">
+      <c r="AH2" s="4">
         <v>23934000</v>
       </c>
-      <c r="AI2" s="5">
+      <c r="AI2" s="4">
         <v>25598250</v>
       </c>
-      <c r="AJ2" s="5">
+      <c r="AJ2" s="4">
         <v>-1664250</v>
       </c>
-      <c r="AK2" s="5">
+      <c r="AK2" s="4">
         <v>9467750</v>
       </c>
-      <c r="AL2" s="5">
+      <c r="AL2" s="4">
         <v>8728250</v>
       </c>
-      <c r="AM2" s="5">
+      <c r="AM2" s="4">
         <v>6754750</v>
       </c>
-      <c r="AN2" s="5">
+      <c r="AN2" s="4">
         <v>24950750</v>
       </c>
-      <c r="AO2" s="5">
+      <c r="AO2" s="4">
         <v>-26615000</v>
       </c>
-      <c r="AP2" s="5">
+      <c r="AP2" s="4">
         <v>-2882250</v>
       </c>
-      <c r="AQ2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="5">
+      <c r="AQ2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="4">
         <v>-1736500</v>
       </c>
-      <c r="AS2" s="5">
+      <c r="AS2" s="4">
         <v>51750</v>
       </c>
-      <c r="AT2" s="5">
+      <c r="AT2" s="4">
         <v>286000</v>
       </c>
-      <c r="AU2" s="5">
+      <c r="AU2" s="4">
         <v>-4281000</v>
       </c>
-      <c r="AV2" s="5">
+      <c r="AV2" s="4">
         <v>-30896000</v>
       </c>
-      <c r="AW2" s="5">
+      <c r="AW2" s="4">
         <v>32500</v>
       </c>
-      <c r="AX2" s="5">
+      <c r="AX2" s="4">
         <v>-30928500</v>
       </c>
     </row>
@@ -886,55 +910,55 @@
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
-      <c r="AH3" s="5">
+      <c r="AH3" s="4">
         <v>23934000</v>
       </c>
-      <c r="AI3" s="5">
+      <c r="AI3" s="4">
         <v>25598250</v>
       </c>
-      <c r="AJ3" s="5">
+      <c r="AJ3" s="4">
         <v>-1664250</v>
       </c>
-      <c r="AK3" s="5">
+      <c r="AK3" s="4">
         <v>9467750</v>
       </c>
-      <c r="AL3" s="5">
+      <c r="AL3" s="4">
         <v>8728250</v>
       </c>
-      <c r="AM3" s="5">
+      <c r="AM3" s="4">
         <v>6754750</v>
       </c>
-      <c r="AN3" s="5">
+      <c r="AN3" s="4">
         <v>24950750</v>
       </c>
-      <c r="AO3" s="5">
+      <c r="AO3" s="4">
         <v>-26615000</v>
       </c>
-      <c r="AP3" s="5">
+      <c r="AP3" s="4">
         <v>-2882250</v>
       </c>
-      <c r="AQ3" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="5">
+      <c r="AQ3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="4">
         <v>-1736500</v>
       </c>
-      <c r="AS3" s="5">
+      <c r="AS3" s="4">
         <v>51750</v>
       </c>
-      <c r="AT3" s="5">
+      <c r="AT3" s="4">
         <v>286000</v>
       </c>
-      <c r="AU3" s="5">
+      <c r="AU3" s="4">
         <v>-4281000</v>
       </c>
-      <c r="AV3" s="5">
+      <c r="AV3" s="4">
         <v>-30896000</v>
       </c>
-      <c r="AW3" s="5">
+      <c r="AW3" s="4">
         <v>32500</v>
       </c>
-      <c r="AX3" s="5">
+      <c r="AX3" s="4">
         <v>-30928500</v>
       </c>
     </row>
@@ -974,55 +998,55 @@
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
-      <c r="AH4" s="5">
+      <c r="AH4" s="4">
         <v>23934000</v>
       </c>
-      <c r="AI4" s="5">
+      <c r="AI4" s="4">
         <v>25598250</v>
       </c>
-      <c r="AJ4" s="5">
+      <c r="AJ4" s="4">
         <v>-1664250</v>
       </c>
-      <c r="AK4" s="5">
+      <c r="AK4" s="4">
         <v>9467750</v>
       </c>
-      <c r="AL4" s="5">
+      <c r="AL4" s="4">
         <v>8728250</v>
       </c>
-      <c r="AM4" s="5">
+      <c r="AM4" s="4">
         <v>6754750</v>
       </c>
-      <c r="AN4" s="5">
+      <c r="AN4" s="4">
         <v>24950750</v>
       </c>
-      <c r="AO4" s="5">
+      <c r="AO4" s="4">
         <v>-26615000</v>
       </c>
-      <c r="AP4" s="5">
+      <c r="AP4" s="4">
         <v>-2882250</v>
       </c>
-      <c r="AQ4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="5">
+      <c r="AQ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="4">
         <v>-1736500</v>
       </c>
-      <c r="AS4" s="5">
+      <c r="AS4" s="4">
         <v>51750</v>
       </c>
-      <c r="AT4" s="5">
+      <c r="AT4" s="4">
         <v>286000</v>
       </c>
-      <c r="AU4" s="5">
+      <c r="AU4" s="4">
         <v>-4281000</v>
       </c>
-      <c r="AV4" s="5">
+      <c r="AV4" s="4">
         <v>-30896000</v>
       </c>
-      <c r="AW4" s="5">
+      <c r="AW4" s="4">
         <v>32500</v>
       </c>
-      <c r="AX4" s="5">
+      <c r="AX4" s="4">
         <v>-30928500</v>
       </c>
     </row>
@@ -1062,55 +1086,55 @@
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
-      <c r="AH5" s="5">
+      <c r="AH5" s="4">
         <v>28292000</v>
       </c>
-      <c r="AI5" s="5">
+      <c r="AI5" s="4">
         <v>21845750</v>
       </c>
-      <c r="AJ5" s="5">
+      <c r="AJ5" s="4">
         <v>6446250</v>
       </c>
-      <c r="AK5" s="5">
+      <c r="AK5" s="4">
         <v>10956250</v>
       </c>
-      <c r="AL5" s="5">
+      <c r="AL5" s="4">
         <v>9317000</v>
       </c>
-      <c r="AM5" s="5">
+      <c r="AM5" s="4">
         <v>8033500</v>
       </c>
-      <c r="AN5" s="5">
+      <c r="AN5" s="4">
         <v>28306750</v>
       </c>
-      <c r="AO5" s="5">
+      <c r="AO5" s="4">
         <v>-21860500</v>
       </c>
-      <c r="AP5" s="5">
+      <c r="AP5" s="4">
         <v>168250</v>
       </c>
-      <c r="AQ5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="5">
+      <c r="AQ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="4">
         <v>-2361750</v>
       </c>
-      <c r="AS5" s="5">
+      <c r="AS5" s="4">
         <v>-7513250</v>
       </c>
-      <c r="AT5" s="5">
+      <c r="AT5" s="4">
         <v>59750</v>
       </c>
-      <c r="AU5" s="5">
+      <c r="AU5" s="4">
         <v>-9647000</v>
       </c>
-      <c r="AV5" s="5">
+      <c r="AV5" s="4">
         <v>-31507500</v>
       </c>
-      <c r="AW5" s="5">
+      <c r="AW5" s="4">
         <v>268250</v>
       </c>
-      <c r="AX5" s="5">
+      <c r="AX5" s="4">
         <v>-31775750</v>
       </c>
     </row>
@@ -1150,55 +1174,55 @@
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
-      <c r="AH6" s="5">
+      <c r="AH6" s="4">
         <v>28292000</v>
       </c>
-      <c r="AI6" s="5">
+      <c r="AI6" s="4">
         <v>21845750</v>
       </c>
-      <c r="AJ6" s="5">
+      <c r="AJ6" s="4">
         <v>6446250</v>
       </c>
-      <c r="AK6" s="5">
+      <c r="AK6" s="4">
         <v>10956250</v>
       </c>
-      <c r="AL6" s="5">
+      <c r="AL6" s="4">
         <v>9317000</v>
       </c>
-      <c r="AM6" s="5">
+      <c r="AM6" s="4">
         <v>8033500</v>
       </c>
-      <c r="AN6" s="5">
+      <c r="AN6" s="4">
         <v>28306750</v>
       </c>
-      <c r="AO6" s="5">
+      <c r="AO6" s="4">
         <v>-21860500</v>
       </c>
-      <c r="AP6" s="5">
+      <c r="AP6" s="4">
         <v>168250</v>
       </c>
-      <c r="AQ6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="5">
+      <c r="AQ6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="4">
         <v>-2361750</v>
       </c>
-      <c r="AS6" s="5">
+      <c r="AS6" s="4">
         <v>-7513250</v>
       </c>
-      <c r="AT6" s="5">
+      <c r="AT6" s="4">
         <v>59750</v>
       </c>
-      <c r="AU6" s="5">
+      <c r="AU6" s="4">
         <v>-9647000</v>
       </c>
-      <c r="AV6" s="5">
+      <c r="AV6" s="4">
         <v>-31507500</v>
       </c>
-      <c r="AW6" s="5">
+      <c r="AW6" s="4">
         <v>268250</v>
       </c>
-      <c r="AX6" s="5">
+      <c r="AX6" s="4">
         <v>-31775750</v>
       </c>
     </row>
@@ -1238,55 +1262,55 @@
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
-      <c r="AH7" s="5">
+      <c r="AH7" s="4">
         <v>28292000</v>
       </c>
-      <c r="AI7" s="5">
+      <c r="AI7" s="4">
         <v>21845750</v>
       </c>
-      <c r="AJ7" s="5">
+      <c r="AJ7" s="4">
         <v>6446250</v>
       </c>
-      <c r="AK7" s="5">
+      <c r="AK7" s="4">
         <v>10956250</v>
       </c>
-      <c r="AL7" s="5">
+      <c r="AL7" s="4">
         <v>9317000</v>
       </c>
-      <c r="AM7" s="5">
+      <c r="AM7" s="4">
         <v>8033500</v>
       </c>
-      <c r="AN7" s="5">
+      <c r="AN7" s="4">
         <v>28306750</v>
       </c>
-      <c r="AO7" s="5">
+      <c r="AO7" s="4">
         <v>-21860500</v>
       </c>
-      <c r="AP7" s="5">
+      <c r="AP7" s="4">
         <v>168250</v>
       </c>
-      <c r="AQ7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="5">
+      <c r="AQ7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="4">
         <v>-2361750</v>
       </c>
-      <c r="AS7" s="5">
+      <c r="AS7" s="4">
         <v>-7513250</v>
       </c>
-      <c r="AT7" s="5">
+      <c r="AT7" s="4">
         <v>59750</v>
       </c>
-      <c r="AU7" s="5">
+      <c r="AU7" s="4">
         <v>-9647000</v>
       </c>
-      <c r="AV7" s="5">
+      <c r="AV7" s="4">
         <v>-31507500</v>
       </c>
-      <c r="AW7" s="5">
+      <c r="AW7" s="4">
         <v>268250</v>
       </c>
-      <c r="AX7" s="5">
+      <c r="AX7" s="4">
         <v>-31775750</v>
       </c>
     </row>
@@ -1294,151 +1318,151 @@
       <c r="A8" s="1">
         <v>44227</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>71183000</v>
       </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
         <v>47110000</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>7134000</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>125427000</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>159855000</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>11994000</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>88393000</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>5673000</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>4982000</v>
       </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5">
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
         <v>2984000</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="4">
         <v>399308000</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="4">
         <v>1446000</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="4">
         <v>30195000</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="4">
         <v>57570000</v>
       </c>
-      <c r="R8" s="5">
-        <v>0</v>
-      </c>
-      <c r="S8" s="5">
-        <v>0</v>
-      </c>
-      <c r="T8" s="5">
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
         <v>108814000</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U8" s="4">
         <v>15122000</v>
       </c>
-      <c r="V8" s="5">
+      <c r="V8" s="4">
         <v>7971000</v>
       </c>
-      <c r="W8" s="5">
-        <v>0</v>
-      </c>
-      <c r="X8" s="5">
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
         <v>2991000</v>
       </c>
-      <c r="Y8" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="5">
+      <c r="Y8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="4">
         <v>1287000</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AB8" s="4">
         <v>291797000</v>
       </c>
-      <c r="AC8" s="5">
+      <c r="AC8" s="4">
         <v>745630000</v>
       </c>
-      <c r="AD8" s="5">
+      <c r="AD8" s="4">
         <v>1769000</v>
       </c>
-      <c r="AE8" s="5">
+      <c r="AE8" s="4">
         <v>-639905000</v>
       </c>
-      <c r="AF8" s="5">
+      <c r="AF8" s="4">
         <v>107511000</v>
       </c>
-      <c r="AG8" s="5">
+      <c r="AG8" s="4">
         <v>399308000</v>
       </c>
-      <c r="AH8" s="5">
+      <c r="AH8" s="4">
         <v>28292000</v>
       </c>
-      <c r="AI8" s="5">
+      <c r="AI8" s="4">
         <v>21845750</v>
       </c>
-      <c r="AJ8" s="5">
+      <c r="AJ8" s="4">
         <v>6446250</v>
       </c>
-      <c r="AK8" s="5">
+      <c r="AK8" s="4">
         <v>10956250</v>
       </c>
-      <c r="AL8" s="5">
+      <c r="AL8" s="4">
         <v>9317000</v>
       </c>
-      <c r="AM8" s="5">
+      <c r="AM8" s="4">
         <v>8033500</v>
       </c>
-      <c r="AN8" s="5">
+      <c r="AN8" s="4">
         <v>28306750</v>
       </c>
-      <c r="AO8" s="5">
+      <c r="AO8" s="4">
         <v>-21860500</v>
       </c>
-      <c r="AP8" s="5">
+      <c r="AP8" s="4">
         <v>168250</v>
       </c>
-      <c r="AQ8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="5">
+      <c r="AQ8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="4">
         <v>-2361750</v>
       </c>
-      <c r="AS8" s="5">
+      <c r="AS8" s="4">
         <v>-7513250</v>
       </c>
-      <c r="AT8" s="5">
+      <c r="AT8" s="4">
         <v>59750</v>
       </c>
-      <c r="AU8" s="5">
+      <c r="AU8" s="4">
         <v>-9647000</v>
       </c>
-      <c r="AV8" s="5">
+      <c r="AV8" s="4">
         <v>-31507500</v>
       </c>
-      <c r="AW8" s="5">
+      <c r="AW8" s="4">
         <v>268250</v>
       </c>
-      <c r="AX8" s="5">
+      <c r="AX8" s="4">
         <v>-31775750</v>
       </c>
     </row>
@@ -1446,151 +1470,151 @@
       <c r="A9" s="1">
         <v>44316</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>173491304.10958904</v>
       </c>
-      <c r="C9" s="10">
-        <v>0</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
         <v>46442621.91780822</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>9389723.2876712326</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>229323649.31506848</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>153375068.49315068</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>11695057.534246575</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <v>92008106.849315062</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>7751454.7945205476</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <v>5167558.9041095888</v>
       </c>
-      <c r="L9" s="10">
-        <v>0</v>
-      </c>
-      <c r="M9" s="10">
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
         <v>2918164.3835616438</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="9">
         <v>502239060.27397263</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="9">
         <v>1788345.2054794519</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="9">
         <v>34737169.8630137</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="9">
         <v>59194676.712328769</v>
       </c>
-      <c r="R9" s="10">
-        <v>0</v>
-      </c>
-      <c r="S9" s="10">
-        <v>0</v>
-      </c>
-      <c r="T9" s="10">
+      <c r="R9" s="9">
+        <v>0</v>
+      </c>
+      <c r="S9" s="9">
+        <v>0</v>
+      </c>
+      <c r="T9" s="9">
         <v>114477569.8630137</v>
       </c>
-      <c r="U9" s="10">
+      <c r="U9" s="9">
         <v>12307405.479452055</v>
       </c>
-      <c r="V9" s="10">
+      <c r="V9" s="9">
         <v>8989745.2054794524</v>
       </c>
-      <c r="W9" s="10">
-        <v>0</v>
-      </c>
-      <c r="X9" s="10">
+      <c r="W9" s="9">
+        <v>0</v>
+      </c>
+      <c r="X9" s="9">
         <v>2456268.493150685</v>
       </c>
-      <c r="Y9" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="10">
+      <c r="Y9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="9">
         <v>1315772.602739726</v>
       </c>
-      <c r="AB9" s="10">
+      <c r="AB9" s="9">
         <v>262877852.05479452</v>
       </c>
-      <c r="AC9" s="10">
+      <c r="AC9" s="9">
         <v>910833750.68493152</v>
       </c>
-      <c r="AD9" s="10">
+      <c r="AD9" s="9">
         <v>1848734.2465753425</v>
       </c>
-      <c r="AE9" s="10">
+      <c r="AE9" s="9">
         <v>-673340715.06849313</v>
       </c>
-      <c r="AF9" s="10">
+      <c r="AF9" s="9">
         <v>239361208.21917808</v>
       </c>
-      <c r="AG9" s="10">
+      <c r="AG9" s="9">
         <v>502239060.27397263</v>
       </c>
-      <c r="AH9" s="5">
+      <c r="AH9" s="4">
         <v>31957000</v>
       </c>
-      <c r="AI9" s="5">
+      <c r="AI9" s="4">
         <v>19126000</v>
       </c>
-      <c r="AJ9" s="5">
+      <c r="AJ9" s="4">
         <v>12831000</v>
       </c>
-      <c r="AK9" s="5">
+      <c r="AK9" s="4">
         <v>12130000</v>
       </c>
-      <c r="AL9" s="5">
+      <c r="AL9" s="4">
         <v>10653000</v>
       </c>
-      <c r="AM9" s="5">
+      <c r="AM9" s="4">
         <v>8315000</v>
       </c>
-      <c r="AN9" s="5">
+      <c r="AN9" s="4">
         <v>31098000</v>
       </c>
-      <c r="AO9" s="5">
+      <c r="AO9" s="4">
         <v>-18267000</v>
       </c>
-      <c r="AP9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="5">
+      <c r="AP9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="4">
         <v>-2527000</v>
       </c>
-      <c r="AS9" s="5">
+      <c r="AS9" s="4">
         <v>-8026000</v>
       </c>
-      <c r="AT9" s="5">
+      <c r="AT9" s="4">
         <v>-177000</v>
       </c>
-      <c r="AU9" s="5">
+      <c r="AU9" s="4">
         <v>-10730000</v>
       </c>
-      <c r="AV9" s="5">
+      <c r="AV9" s="4">
         <v>-28997000</v>
       </c>
-      <c r="AW9" s="5">
+      <c r="AW9" s="4">
         <v>258000</v>
       </c>
-      <c r="AX9" s="5">
+      <c r="AX9" s="4">
         <v>-29255000</v>
       </c>
     </row>
@@ -1598,151 +1622,151 @@
       <c r="A10" s="1">
         <v>44408</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>279248202.73972601</v>
       </c>
-      <c r="C10" s="10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="10">
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
         <v>45752747.94520548</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>11721482.191780822</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>336722432.87671232</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>146676712.32876712</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>11386038.356164383</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <v>95745071.232876718</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <v>9899969.8630136997</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <v>5359372.6027397262</v>
       </c>
-      <c r="L10" s="10">
-        <v>0</v>
-      </c>
-      <c r="M10" s="10">
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
         <v>2850109.5890410957</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="9">
         <v>608639706.84931505</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="9">
         <v>2142230.1369863013</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="9">
         <v>39432446.575342461</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="9">
         <v>60874117.80821918</v>
       </c>
-      <c r="R10" s="10">
-        <v>0</v>
-      </c>
-      <c r="S10" s="10">
-        <v>0</v>
-      </c>
-      <c r="T10" s="10">
+      <c r="R10" s="9">
+        <v>0</v>
+      </c>
+      <c r="S10" s="9">
+        <v>0</v>
+      </c>
+      <c r="T10" s="9">
         <v>120332046.57534246</v>
       </c>
-      <c r="U10" s="10">
+      <c r="U10" s="9">
         <v>9397936.98630137</v>
       </c>
-      <c r="V10" s="10">
+      <c r="V10" s="9">
         <v>10042830.136986302</v>
       </c>
-      <c r="W10" s="10">
-        <v>0</v>
-      </c>
-      <c r="X10" s="10">
+      <c r="W10" s="9">
+        <v>0</v>
+      </c>
+      <c r="X10" s="9">
         <v>1903512.3287671232</v>
       </c>
-      <c r="Y10" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="10">
+      <c r="Y10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="9">
         <v>1345515.0684931506</v>
       </c>
-      <c r="AB10" s="10">
+      <c r="AB10" s="9">
         <v>232983901.369863</v>
       </c>
-      <c r="AC10" s="10">
+      <c r="AC10" s="9">
         <v>1081606167.1232877</v>
       </c>
-      <c r="AD10" s="10">
+      <c r="AD10" s="9">
         <v>1931156.1643835616</v>
       </c>
-      <c r="AE10" s="10">
+      <c r="AE10" s="9">
         <v>-707903476.71232879</v>
       </c>
-      <c r="AF10" s="10">
+      <c r="AF10" s="9">
         <v>375655805.47945207</v>
       </c>
-      <c r="AG10" s="10">
+      <c r="AG10" s="9">
         <v>608639706.84931505</v>
       </c>
-      <c r="AH10" s="5">
+      <c r="AH10" s="4">
         <v>30406000</v>
       </c>
-      <c r="AI10" s="5">
+      <c r="AI10" s="4">
         <v>19820000</v>
       </c>
-      <c r="AJ10" s="5">
+      <c r="AJ10" s="4">
         <v>10586000</v>
       </c>
-      <c r="AK10" s="5">
+      <c r="AK10" s="4">
         <v>12432000</v>
       </c>
-      <c r="AL10" s="5">
+      <c r="AL10" s="4">
         <v>10597000</v>
       </c>
-      <c r="AM10" s="5">
+      <c r="AM10" s="4">
         <v>11824000</v>
       </c>
-      <c r="AN10" s="5">
+      <c r="AN10" s="4">
         <v>34853000</v>
       </c>
-      <c r="AO10" s="5">
+      <c r="AO10" s="4">
         <v>-24267000</v>
       </c>
-      <c r="AP10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="5">
+      <c r="AP10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="4">
         <v>-2611000</v>
       </c>
-      <c r="AS10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="5">
+      <c r="AS10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="4">
         <v>-84000</v>
       </c>
-      <c r="AU10" s="5">
+      <c r="AU10" s="4">
         <v>4074000</v>
       </c>
-      <c r="AV10" s="5">
+      <c r="AV10" s="4">
         <v>-20193000</v>
       </c>
-      <c r="AW10" s="5">
+      <c r="AW10" s="4">
         <v>170000</v>
       </c>
-      <c r="AX10" s="5">
+      <c r="AX10" s="4">
         <v>-20363000</v>
       </c>
     </row>
@@ -1750,151 +1774,151 @@
       <c r="A11" s="1">
         <v>44500</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>385005101.36986303</v>
       </c>
-      <c r="C11" s="10">
-        <v>0</v>
-      </c>
-      <c r="D11" s="10">
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
         <v>45062873.97260274</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>14053241.09589041</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>444121216.43835616</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>139978356.16438356</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>11077019.178082192</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <v>99482035.616438359</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <v>12048484.93150685</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <v>5551186.3013698626</v>
       </c>
-      <c r="L11" s="10">
-        <v>0</v>
-      </c>
-      <c r="M11" s="10">
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
         <v>2782054.7945205481</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="9">
         <v>715040353.42465758</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="9">
         <v>2496115.0684931506</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="9">
         <v>44127723.287671238</v>
       </c>
-      <c r="Q11" s="10">
-        <v>62553558.90410959</v>
-      </c>
-      <c r="R11" s="10">
-        <v>0</v>
-      </c>
-      <c r="S11" s="10">
-        <v>0</v>
-      </c>
-      <c r="T11" s="10">
+      <c r="Q11" s="9">
+        <v>62553558.904109597</v>
+      </c>
+      <c r="R11" s="9">
+        <v>0</v>
+      </c>
+      <c r="S11" s="9">
+        <v>0</v>
+      </c>
+      <c r="T11" s="9">
         <v>126186523.28767124</v>
       </c>
-      <c r="U11" s="10">
+      <c r="U11" s="9">
         <v>6488468.493150685</v>
       </c>
-      <c r="V11" s="10">
+      <c r="V11" s="9">
         <v>11095915.06849315</v>
       </c>
-      <c r="W11" s="10">
-        <v>0</v>
-      </c>
-      <c r="X11" s="10">
+      <c r="W11" s="9">
+        <v>0</v>
+      </c>
+      <c r="X11" s="9">
         <v>1350756.1643835616</v>
       </c>
-      <c r="Y11" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="10">
+      <c r="Y11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="9">
         <v>1375257.5342465753</v>
       </c>
-      <c r="AB11" s="10">
+      <c r="AB11" s="9">
         <v>203089950.68493152</v>
       </c>
-      <c r="AC11" s="10">
+      <c r="AC11" s="9">
         <v>1252378583.5616438</v>
       </c>
-      <c r="AD11" s="10">
+      <c r="AD11" s="9">
         <v>2013578.0821917809</v>
       </c>
-      <c r="AE11" s="10">
+      <c r="AE11" s="9">
         <v>-742466238.35616446</v>
       </c>
-      <c r="AF11" s="10">
+      <c r="AF11" s="9">
         <v>511950402.73972607</v>
       </c>
-      <c r="AG11" s="10">
+      <c r="AG11" s="9">
         <v>715040353.42465758</v>
       </c>
-      <c r="AH11" s="5">
+      <c r="AH11" s="4">
         <v>31700000</v>
       </c>
-      <c r="AI11" s="5">
+      <c r="AI11" s="4">
         <v>20811000</v>
       </c>
-      <c r="AJ11" s="5">
+      <c r="AJ11" s="4">
         <v>10889000</v>
       </c>
-      <c r="AK11" s="5">
+      <c r="AK11" s="4">
         <v>14959000</v>
       </c>
-      <c r="AL11" s="5">
+      <c r="AL11" s="4">
         <v>12441000</v>
       </c>
-      <c r="AM11" s="5">
+      <c r="AM11" s="4">
         <v>11800000</v>
       </c>
-      <c r="AN11" s="5">
+      <c r="AN11" s="4">
         <v>39200000</v>
       </c>
-      <c r="AO11" s="5">
+      <c r="AO11" s="4">
         <v>-28311000</v>
       </c>
-      <c r="AP11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="5">
+      <c r="AP11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="4">
         <v>8000</v>
       </c>
-      <c r="AR11" s="5">
+      <c r="AR11" s="4">
         <v>-2612000</v>
       </c>
-      <c r="AS11" s="5">
+      <c r="AS11" s="4">
         <v>-10172000</v>
       </c>
-      <c r="AT11" s="5">
+      <c r="AT11" s="4">
         <v>-60000</v>
       </c>
-      <c r="AU11" s="5">
+      <c r="AU11" s="4">
         <v>-12836000</v>
       </c>
-      <c r="AV11" s="5">
+      <c r="AV11" s="4">
         <v>-41147000</v>
       </c>
-      <c r="AW11" s="5">
+      <c r="AW11" s="4">
         <v>394000</v>
       </c>
-      <c r="AX11" s="5">
+      <c r="AX11" s="4">
         <v>-41541000</v>
       </c>
     </row>
@@ -1902,151 +1926,151 @@
       <c r="A12" s="1">
         <v>44592</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>490762000</v>
       </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
         <v>44373000</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>16385000</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>551520000</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>133280000</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>10768000</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>103219000</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>14197000</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>5743000</v>
       </c>
-      <c r="L12" s="5">
-        <v>0</v>
-      </c>
-      <c r="M12" s="6">
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
         <v>2714000</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="5">
         <v>821441000</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="5">
         <v>2850000</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="5">
         <v>48823000</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="5">
         <v>64233000</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="5">
         <v>16135000</v>
       </c>
-      <c r="S12" s="5">
-        <v>0</v>
-      </c>
-      <c r="T12" s="6">
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="5">
         <v>132041000</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="5">
         <v>3579000</v>
       </c>
-      <c r="V12" s="6">
+      <c r="V12" s="5">
         <v>12149000</v>
       </c>
-      <c r="W12" s="6">
+      <c r="W12" s="5">
         <v>23224000</v>
       </c>
-      <c r="X12" s="6">
+      <c r="X12" s="5">
         <v>798000</v>
       </c>
-      <c r="Y12" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="6">
+      <c r="Y12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="5">
         <v>1405000</v>
       </c>
-      <c r="AB12" s="6">
+      <c r="AB12" s="5">
         <v>173196000</v>
       </c>
-      <c r="AC12" s="6">
+      <c r="AC12" s="5">
         <v>1423151000</v>
       </c>
-      <c r="AD12" s="6">
+      <c r="AD12" s="5">
         <v>2096000</v>
       </c>
-      <c r="AE12" s="6">
+      <c r="AE12" s="5">
         <v>-777029000</v>
       </c>
-      <c r="AF12" s="6">
+      <c r="AF12" s="5">
         <v>648245000</v>
       </c>
-      <c r="AG12" s="6">
+      <c r="AG12" s="5">
         <v>821441000</v>
       </c>
-      <c r="AH12" s="5">
+      <c r="AH12" s="4">
         <v>37146000</v>
       </c>
-      <c r="AI12" s="5">
+      <c r="AI12" s="4">
         <v>23230000</v>
       </c>
-      <c r="AJ12" s="5">
+      <c r="AJ12" s="4">
         <v>13916000</v>
       </c>
-      <c r="AK12" s="5">
+      <c r="AK12" s="4">
         <v>27163000</v>
       </c>
-      <c r="AL12" s="5">
+      <c r="AL12" s="4">
         <v>19226000</v>
       </c>
-      <c r="AM12" s="5">
+      <c r="AM12" s="4">
         <v>24733000</v>
       </c>
-      <c r="AN12" s="5">
+      <c r="AN12" s="4">
         <v>71122000</v>
       </c>
-      <c r="AO12" s="5">
+      <c r="AO12" s="4">
         <v>-57206000</v>
       </c>
-      <c r="AP12" s="5">
+      <c r="AP12" s="4">
         <v>-1690000</v>
       </c>
-      <c r="AQ12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="5">
+      <c r="AQ12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="4">
         <v>-1022000</v>
       </c>
-      <c r="AS12" s="5">
+      <c r="AS12" s="4">
         <v>23924000</v>
       </c>
-      <c r="AT12" s="5">
+      <c r="AT12" s="4">
         <v>-1906000</v>
       </c>
-      <c r="AU12" s="5">
+      <c r="AU12" s="4">
         <v>12529000</v>
       </c>
-      <c r="AV12" s="5">
+      <c r="AV12" s="4">
         <v>-44677000</v>
       </c>
-      <c r="AW12" s="5">
+      <c r="AW12" s="4">
         <v>1288000</v>
       </c>
-      <c r="AX12" s="5">
+      <c r="AX12" s="4">
         <v>-45965000</v>
       </c>
     </row>
@@ -2054,151 +2078,151 @@
       <c r="A13" s="1">
         <v>44681</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>484489000</v>
       </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
         <v>24581000</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>18192000</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>527262000</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>125329000</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>11105000</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>103219000</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>13604000</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <v>5653000</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <v>7035000</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="4">
         <v>2787000</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="4">
         <v>795994000</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="4">
         <v>3168000</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="4">
         <v>43184000</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="4">
         <v>60672000</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="4">
         <v>15239000</v>
       </c>
-      <c r="S13" s="5">
+      <c r="S13" s="4">
         <v>7188000</v>
       </c>
-      <c r="T13" s="5">
+      <c r="T13" s="4">
         <v>129451000</v>
       </c>
-      <c r="U13" s="5">
-        <v>0</v>
-      </c>
-      <c r="V13" s="5">
+      <c r="U13" s="4">
+        <v>0</v>
+      </c>
+      <c r="V13" s="4">
         <v>12199000</v>
       </c>
-      <c r="W13" s="5">
+      <c r="W13" s="4">
         <v>19948000</v>
       </c>
-      <c r="X13" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="5">
+      <c r="X13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="4">
         <v>2271000</v>
       </c>
-      <c r="Z13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="5">
+      <c r="Z13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="4">
         <v>1419000</v>
       </c>
-      <c r="AB13" s="5">
+      <c r="AB13" s="4">
         <v>165288000</v>
       </c>
-      <c r="AC13" s="5">
+      <c r="AC13" s="4">
         <v>1450098000</v>
       </c>
-      <c r="AD13" s="5">
+      <c r="AD13" s="4">
         <v>2271000</v>
       </c>
-      <c r="AE13" s="5">
+      <c r="AE13" s="4">
         <v>-821690000</v>
       </c>
-      <c r="AF13" s="5">
+      <c r="AF13" s="4">
         <v>630706000</v>
       </c>
-      <c r="AG13" s="5">
+      <c r="AG13" s="4">
         <v>795994000</v>
       </c>
-      <c r="AH13" s="5">
+      <c r="AH13" s="4">
         <v>40127000</v>
       </c>
-      <c r="AI13" s="5">
+      <c r="AI13" s="4">
         <v>23628000</v>
       </c>
-      <c r="AJ13" s="5">
+      <c r="AJ13" s="4">
         <v>16499000</v>
       </c>
-      <c r="AK13" s="5">
+      <c r="AK13" s="4">
         <v>24750000</v>
       </c>
-      <c r="AL13" s="5">
+      <c r="AL13" s="4">
         <v>18855000</v>
       </c>
-      <c r="AM13" s="5">
+      <c r="AM13" s="4">
         <v>20608000</v>
       </c>
-      <c r="AN13" s="5">
+      <c r="AN13" s="4">
         <v>64213000</v>
       </c>
-      <c r="AO13" s="5">
+      <c r="AO13" s="4">
         <v>-47714000</v>
       </c>
-      <c r="AP13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="5">
+      <c r="AP13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="4">
         <v>3276000</v>
       </c>
-      <c r="AT13" s="5">
+      <c r="AT13" s="4">
         <v>392000</v>
       </c>
-      <c r="AU13" s="5">
+      <c r="AU13" s="4">
         <v>3668000</v>
       </c>
-      <c r="AV13" s="5">
+      <c r="AV13" s="4">
         <v>-44046000</v>
       </c>
-      <c r="AW13" s="5">
+      <c r="AW13" s="4">
         <v>314000</v>
       </c>
-      <c r="AX13" s="5">
+      <c r="AX13" s="4">
         <v>-44360000</v>
       </c>
     </row>
@@ -2206,151 +2230,151 @@
       <c r="A14" s="1">
         <v>44773</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>341806500</v>
       </c>
-      <c r="C14" s="10">
-        <v>0</v>
-      </c>
-      <c r="D14" s="10">
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
         <v>26795000</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>22269500</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>503952500</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>120357000</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>11143000</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <v>103219000</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <v>13011500</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="9">
         <v>5408000</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="9">
         <v>11420500</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="9">
         <v>3099500</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="9">
         <v>771611000</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="9">
         <v>2862500</v>
       </c>
-      <c r="P14" s="10">
+      <c r="P14" s="9">
         <v>42906500</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="9">
         <v>54185000</v>
       </c>
-      <c r="R14" s="10">
+      <c r="R14" s="9">
         <v>14342500</v>
       </c>
-      <c r="S14" s="10">
+      <c r="S14" s="9">
         <v>5363000</v>
       </c>
-      <c r="T14" s="10">
+      <c r="T14" s="9">
         <v>119659500</v>
       </c>
-      <c r="U14" s="10">
-        <v>0</v>
-      </c>
-      <c r="V14" s="10">
+      <c r="U14" s="9">
+        <v>0</v>
+      </c>
+      <c r="V14" s="9">
         <v>11026000</v>
       </c>
-      <c r="W14" s="10">
+      <c r="W14" s="9">
         <v>18901500</v>
       </c>
-      <c r="X14" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="10">
+      <c r="X14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="9">
         <v>8147500</v>
       </c>
-      <c r="Z14" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="10">
+      <c r="Z14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="9">
         <v>1440000</v>
       </c>
-      <c r="AB14" s="10">
+      <c r="AB14" s="9">
         <v>159174500</v>
       </c>
-      <c r="AC14" s="10">
+      <c r="AC14" s="9">
         <v>1472375000</v>
       </c>
-      <c r="AD14" s="10">
+      <c r="AD14" s="9">
         <v>1607000</v>
       </c>
-      <c r="AE14" s="10">
+      <c r="AE14" s="9">
         <v>-861572500</v>
       </c>
-      <c r="AF14" s="10">
+      <c r="AF14" s="9">
         <v>612436500</v>
       </c>
-      <c r="AG14" s="10">
+      <c r="AG14" s="9">
         <v>771611000</v>
       </c>
-      <c r="AH14" s="5">
+      <c r="AH14" s="4">
         <v>48450000</v>
       </c>
-      <c r="AI14" s="5">
+      <c r="AI14" s="4">
         <v>24977000</v>
       </c>
-      <c r="AJ14" s="5">
+      <c r="AJ14" s="4">
         <v>23473000</v>
       </c>
-      <c r="AK14" s="5">
+      <c r="AK14" s="4">
         <v>26737000</v>
       </c>
-      <c r="AL14" s="5">
+      <c r="AL14" s="4">
         <v>19483000</v>
       </c>
-      <c r="AM14" s="5">
+      <c r="AM14" s="4">
         <v>19893000</v>
       </c>
-      <c r="AN14" s="5">
+      <c r="AN14" s="4">
         <v>66113000</v>
       </c>
-      <c r="AO14" s="5">
+      <c r="AO14" s="4">
         <v>-42640000</v>
       </c>
-      <c r="AP14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="5">
+      <c r="AP14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="4">
         <v>1153000</v>
       </c>
-      <c r="AU14" s="5">
+      <c r="AU14" s="4">
         <v>3265000</v>
       </c>
-      <c r="AV14" s="5">
+      <c r="AV14" s="4">
         <v>-39375000</v>
       </c>
-      <c r="AW14" s="5">
+      <c r="AW14" s="4">
         <v>154000</v>
       </c>
-      <c r="AX14" s="5">
+      <c r="AX14" s="4">
         <v>-39529000</v>
       </c>
     </row>
@@ -2358,151 +2382,151 @@
       <c r="A15" s="1">
         <v>44865</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>199124000</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>226163000</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>29009000</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>26347000</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>480643000</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>115385000</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>11181000</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <v>103219000</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>12419000</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>5163000</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
         <v>15806000</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="5">
         <v>3412000</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="5">
         <v>747228000</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="5">
         <v>2557000</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="5">
         <v>42629000</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="5">
         <v>47698000</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" s="5">
         <v>13446000</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="5">
         <v>3538000</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15" s="5">
         <v>109868000</v>
       </c>
-      <c r="U15" s="6">
-        <v>0</v>
-      </c>
-      <c r="V15" s="6">
+      <c r="U15" s="5">
+        <v>0</v>
+      </c>
+      <c r="V15" s="5">
         <v>9853000</v>
       </c>
-      <c r="W15" s="6">
+      <c r="W15" s="5">
         <v>17855000</v>
       </c>
-      <c r="X15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="6">
+      <c r="X15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="5">
         <v>14024000</v>
       </c>
-      <c r="Z15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="6">
+      <c r="Z15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="5">
         <v>1461000</v>
       </c>
-      <c r="AB15" s="6">
+      <c r="AB15" s="5">
         <v>153061000</v>
       </c>
-      <c r="AC15" s="6">
+      <c r="AC15" s="5">
         <v>1494652000</v>
       </c>
-      <c r="AD15" s="6">
+      <c r="AD15" s="5">
         <v>943000</v>
       </c>
-      <c r="AE15" s="6">
+      <c r="AE15" s="5">
         <v>-901455000</v>
       </c>
-      <c r="AF15" s="6">
+      <c r="AF15" s="5">
         <v>594167000</v>
       </c>
-      <c r="AG15" s="6">
+      <c r="AG15" s="5">
         <v>747228000</v>
       </c>
-      <c r="AH15" s="5">
+      <c r="AH15" s="4">
         <v>49704000</v>
       </c>
-      <c r="AI15" s="5">
+      <c r="AI15" s="4">
         <v>24728000</v>
       </c>
-      <c r="AJ15" s="5">
+      <c r="AJ15" s="4">
         <v>24976000</v>
       </c>
-      <c r="AK15" s="5">
+      <c r="AK15" s="4">
         <v>27598000</v>
       </c>
-      <c r="AL15" s="5">
+      <c r="AL15" s="4">
         <v>19383000</v>
       </c>
-      <c r="AM15" s="5">
+      <c r="AM15" s="4">
         <v>20627000</v>
       </c>
-      <c r="AN15" s="5">
+      <c r="AN15" s="4">
         <v>67608000</v>
       </c>
-      <c r="AO15" s="5">
+      <c r="AO15" s="4">
         <v>-42632000</v>
       </c>
-      <c r="AP15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="5">
+      <c r="AP15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="4">
         <v>2853000</v>
       </c>
-      <c r="AR15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="5">
+      <c r="AR15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="4">
         <v>-19000</v>
       </c>
-      <c r="AT15" s="5">
+      <c r="AT15" s="4">
         <v>1000</v>
       </c>
-      <c r="AU15" s="5">
+      <c r="AU15" s="4">
         <v>2835000</v>
       </c>
-      <c r="AV15" s="5">
+      <c r="AV15" s="4">
         <v>-39797000</v>
       </c>
-      <c r="AW15" s="5">
+      <c r="AW15" s="4">
         <v>439000</v>
       </c>
-      <c r="AX15" s="5">
+      <c r="AX15" s="4">
         <v>-40236000</v>
       </c>
     </row>
@@ -2510,151 +2534,151 @@
       <c r="A16" s="1">
         <v>44957</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>181892000</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>226868000</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>38952000</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>27943000</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>475655000</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>108091000</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>11417000</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <v>112748000</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <v>14831000</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>5657000</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
         <v>20403000</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="5">
         <v>3921000</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="5">
         <v>752723000</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="5">
         <v>6900000</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="5">
         <v>46022000</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="5">
         <v>51900000</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16" s="5">
         <v>12550000</v>
       </c>
-      <c r="S16" s="6">
+      <c r="S16" s="5">
         <v>4885000</v>
       </c>
-      <c r="T16" s="6">
+      <c r="T16" s="5">
         <v>122257000</v>
       </c>
-      <c r="U16" s="6">
+      <c r="U16" s="5">
         <v>2882000</v>
       </c>
-      <c r="V16" s="6">
+      <c r="V16" s="5">
         <v>8679000</v>
       </c>
-      <c r="W16" s="6">
+      <c r="W16" s="5">
         <v>16670000</v>
       </c>
-      <c r="X16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="6">
+      <c r="X16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="5">
         <v>17145000</v>
       </c>
-      <c r="Z16" s="6">
+      <c r="Z16" s="5">
         <v>7499000</v>
       </c>
-      <c r="AA16" s="6">
+      <c r="AA16" s="5">
         <v>1487000</v>
       </c>
-      <c r="AB16" s="6">
+      <c r="AB16" s="5">
         <v>176619000</v>
       </c>
-      <c r="AC16" s="6">
+      <c r="AC16" s="5">
         <v>1513102000</v>
       </c>
-      <c r="AD16" s="6">
+      <c r="AD16" s="5">
         <v>2271000</v>
       </c>
-      <c r="AE16" s="6">
+      <c r="AE16" s="5">
         <v>-939296000</v>
       </c>
-      <c r="AF16" s="6">
+      <c r="AF16" s="5">
         <v>576104000</v>
       </c>
-      <c r="AG16" s="6">
+      <c r="AG16" s="5">
         <v>752723000</v>
       </c>
-      <c r="AH16" s="5">
+      <c r="AH16" s="4">
         <v>52975000</v>
       </c>
-      <c r="AI16" s="5">
+      <c r="AI16" s="4">
         <v>23915000</v>
       </c>
-      <c r="AJ16" s="5">
+      <c r="AJ16" s="4">
         <v>29060000</v>
       </c>
-      <c r="AK16" s="5">
+      <c r="AK16" s="4">
         <v>31831000</v>
       </c>
-      <c r="AL16" s="5">
+      <c r="AL16" s="4">
         <v>20299000</v>
       </c>
-      <c r="AM16" s="5">
+      <c r="AM16" s="4">
         <v>19619000</v>
       </c>
-      <c r="AN16" s="5">
+      <c r="AN16" s="4">
         <v>71749000</v>
       </c>
-      <c r="AO16" s="5">
+      <c r="AO16" s="4">
         <v>-42689000</v>
       </c>
-      <c r="AP16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="5">
+      <c r="AP16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="4">
         <v>4819000</v>
       </c>
-      <c r="AR16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="5">
+      <c r="AR16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="4">
         <v>3297000</v>
       </c>
-      <c r="AT16" s="5">
+      <c r="AT16" s="4">
         <v>-1216000</v>
       </c>
-      <c r="AU16" s="5">
+      <c r="AU16" s="4">
         <v>4788000</v>
       </c>
-      <c r="AV16" s="5">
+      <c r="AV16" s="4">
         <v>-37901000</v>
       </c>
-      <c r="AW16" s="5">
+      <c r="AW16" s="4">
         <v>-60000</v>
       </c>
-      <c r="AX16" s="5">
+      <c r="AX16" s="4">
         <v>-37841000</v>
       </c>
     </row>
@@ -2662,151 +2686,151 @@
       <c r="A17" s="1">
         <v>45046</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>140763000</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>235415000</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>39072000</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>19275000</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>434525000</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>118193000</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>11878000</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <v>112748000</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>13999000</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <v>5660000</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
         <v>23697000</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="5">
         <v>2757000</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="5">
         <v>723457000</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="5">
         <v>14657000</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="5">
         <v>34432000</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17" s="5">
         <v>44620000</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="5">
         <v>11653000</v>
       </c>
-      <c r="S17" s="6">
+      <c r="S17" s="5">
         <v>6320000</v>
       </c>
-      <c r="T17" s="6">
+      <c r="T17" s="5">
         <v>111682000</v>
       </c>
-      <c r="U17" s="6">
+      <c r="U17" s="5">
         <v>2474000</v>
       </c>
-      <c r="V17" s="6">
+      <c r="V17" s="5">
         <v>10671000</v>
       </c>
-      <c r="W17" s="6">
+      <c r="W17" s="5">
         <v>10725000</v>
       </c>
-      <c r="X17" s="6">
+      <c r="X17" s="5">
         <v>19912000</v>
       </c>
-      <c r="Y17" s="6">
+      <c r="Y17" s="5">
         <v>7142000</v>
       </c>
-      <c r="Z17" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="6">
+      <c r="Z17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="5">
         <v>1502000</v>
       </c>
-      <c r="AB17" s="6">
+      <c r="AB17" s="5">
         <v>164108000</v>
       </c>
-      <c r="AC17" s="6">
+      <c r="AC17" s="5">
         <v>1531380000</v>
       </c>
-      <c r="AD17" s="6">
+      <c r="AD17" s="5">
         <v>1682000</v>
       </c>
-      <c r="AE17" s="6">
+      <c r="AE17" s="5">
         <v>-973740000</v>
       </c>
-      <c r="AF17" s="6">
+      <c r="AF17" s="5">
         <v>559349000</v>
       </c>
-      <c r="AG17" s="6">
+      <c r="AG17" s="5">
         <v>723457000</v>
       </c>
-      <c r="AH17" s="5">
+      <c r="AH17" s="4">
         <v>52703000</v>
       </c>
-      <c r="AI17" s="5">
+      <c r="AI17" s="4">
         <v>24556000</v>
       </c>
-      <c r="AJ17" s="5">
+      <c r="AJ17" s="4">
         <v>28147000</v>
       </c>
-      <c r="AK17" s="5">
+      <c r="AK17" s="4">
         <v>28186000</v>
       </c>
-      <c r="AL17" s="5">
+      <c r="AL17" s="4">
         <v>23125000</v>
       </c>
-      <c r="AM17" s="5">
+      <c r="AM17" s="4">
         <v>21528000</v>
       </c>
-      <c r="AN17" s="5">
+      <c r="AN17" s="4">
         <v>72839000</v>
       </c>
-      <c r="AO17" s="5">
+      <c r="AO17" s="4">
         <v>-44692000</v>
       </c>
-      <c r="AP17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="5">
+      <c r="AP17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="4">
         <v>4506000</v>
       </c>
-      <c r="AR17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS17" s="5">
+      <c r="AR17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="4">
         <v>-5945000</v>
       </c>
-      <c r="AT17" s="5">
+      <c r="AT17" s="4">
         <v>104000</v>
       </c>
-      <c r="AU17" s="5">
+      <c r="AU17" s="4">
         <v>10555000</v>
       </c>
-      <c r="AV17" s="5">
+      <c r="AV17" s="4">
         <v>-34137000</v>
       </c>
-      <c r="AW17" s="5">
+      <c r="AW17" s="4">
         <v>307000</v>
       </c>
-      <c r="AX17" s="5">
+      <c r="AX17" s="4">
         <v>-34444000</v>
       </c>
     </row>
@@ -2814,151 +2838,151 @@
       <c r="A18" s="1">
         <v>45138</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>118808000</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>248979000</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>40349000</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>19725000</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>427861000</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>120193000</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>12992000</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>112750000</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>14867000</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="4">
         <v>5707000</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <v>23485000</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="4">
         <v>2562000</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="4">
         <v>720417000</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="4">
         <v>3825000</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="6">
         <v>37841000</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="6">
         <v>56575000</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="4">
         <v>10757000</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="4">
         <v>7261000</v>
       </c>
-      <c r="T18" s="5">
+      <c r="T18" s="4">
         <v>116259000</v>
       </c>
-      <c r="U18" s="7">
+      <c r="U18" s="6">
         <v>18186000</v>
       </c>
-      <c r="V18" s="7">
+      <c r="V18" s="6">
         <v>9605000</v>
       </c>
-      <c r="W18" s="5">
+      <c r="W18" s="4">
         <v>9499000</v>
       </c>
-      <c r="X18" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="5">
+      <c r="X18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="4">
         <v>19139000</v>
       </c>
-      <c r="Z18" s="5">
+      <c r="Z18" s="4">
         <v>5926000</v>
       </c>
-      <c r="AA18" s="5">
+      <c r="AA18" s="4">
         <v>2235000</v>
       </c>
-      <c r="AB18" s="5">
+      <c r="AB18" s="4">
         <v>180849000</v>
       </c>
-      <c r="AC18" s="5">
+      <c r="AC18" s="4">
         <v>1549920000</v>
       </c>
-      <c r="AD18" s="5">
+      <c r="AD18" s="4">
         <v>1336000</v>
       </c>
-      <c r="AE18" s="5">
+      <c r="AE18" s="4">
         <v>-1011715000</v>
       </c>
-      <c r="AF18" s="5">
+      <c r="AF18" s="4">
         <v>539568000</v>
       </c>
-      <c r="AG18" s="5">
+      <c r="AG18" s="4">
         <v>720417000</v>
       </c>
-      <c r="AH18" s="5">
+      <c r="AH18" s="4">
         <v>53761000</v>
       </c>
-      <c r="AI18" s="5">
+      <c r="AI18" s="4">
         <v>27469000</v>
       </c>
-      <c r="AJ18" s="5">
+      <c r="AJ18" s="4">
         <v>26292000</v>
       </c>
-      <c r="AK18" s="5">
+      <c r="AK18" s="4">
         <v>26741000</v>
       </c>
-      <c r="AL18" s="5">
+      <c r="AL18" s="4">
         <v>22310000</v>
       </c>
-      <c r="AM18" s="5">
+      <c r="AM18" s="4">
         <v>20521000</v>
       </c>
-      <c r="AN18" s="5">
+      <c r="AN18" s="4">
         <v>69572000</v>
       </c>
-      <c r="AO18" s="5">
+      <c r="AO18" s="4">
         <v>-43280000</v>
       </c>
-      <c r="AP18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="5">
+      <c r="AP18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="4">
         <v>3802000</v>
       </c>
-      <c r="AR18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="5">
+      <c r="AR18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="4">
         <v>1226000</v>
       </c>
-      <c r="AT18" s="5">
+      <c r="AT18" s="4">
         <v>859000</v>
       </c>
-      <c r="AU18" s="5">
+      <c r="AU18" s="4">
         <v>5887000</v>
       </c>
-      <c r="AV18" s="5">
+      <c r="AV18" s="4">
         <v>-37393000</v>
       </c>
-      <c r="AW18" s="5">
+      <c r="AW18" s="4">
         <v>582000</v>
       </c>
-      <c r="AX18" s="5">
+      <c r="AX18" s="4">
         <v>-37975000</v>
       </c>
     </row>
@@ -2966,151 +2990,151 @@
       <c r="A19" s="1">
         <v>45230</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>101547000</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>213347000</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>45145000</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>19616000</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>387535000</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>114058000</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>14050000</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <v>135701000</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>27427000</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="4">
         <v>10321000</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <v>22091000</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="4">
         <v>2337000</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="4">
         <v>713520000</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="4">
         <v>4589000</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" s="4">
         <v>41961000</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Q19" s="4">
         <v>67228000</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="4">
         <v>9860000</v>
       </c>
-      <c r="S19" s="5">
+      <c r="S19" s="4">
         <v>7500000</v>
       </c>
-      <c r="T19" s="5">
+      <c r="T19" s="4">
         <v>131138000</v>
       </c>
-      <c r="U19" s="5">
+      <c r="U19" s="4">
         <v>7763000</v>
       </c>
-      <c r="V19" s="5">
+      <c r="V19" s="4">
         <v>8353000</v>
       </c>
-      <c r="W19" s="5">
+      <c r="W19" s="4">
         <v>2666000</v>
       </c>
-      <c r="X19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="5">
+      <c r="X19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="4">
         <v>17321000</v>
       </c>
-      <c r="Z19" s="5">
+      <c r="Z19" s="4">
         <v>5588000</v>
       </c>
-      <c r="AA19" s="5">
+      <c r="AA19" s="4">
         <v>7093000</v>
       </c>
-      <c r="AB19" s="5">
+      <c r="AB19" s="4">
         <v>179922000</v>
       </c>
-      <c r="AC19" s="5">
+      <c r="AC19" s="4">
         <v>1583531000</v>
       </c>
-      <c r="AD19" s="5">
+      <c r="AD19" s="4">
         <v>-242000</v>
       </c>
-      <c r="AE19" s="5">
+      <c r="AE19" s="4">
         <v>-1049719000</v>
       </c>
-      <c r="AF19" s="5">
+      <c r="AF19" s="4">
         <v>533598000</v>
       </c>
-      <c r="AG19" s="5">
+      <c r="AG19" s="4">
         <v>713520000</v>
       </c>
-      <c r="AH19" s="5">
+      <c r="AH19" s="4">
         <v>55380000</v>
       </c>
-      <c r="AI19" s="5">
+      <c r="AI19" s="4">
         <v>29350000</v>
       </c>
-      <c r="AJ19" s="5">
+      <c r="AJ19" s="4">
         <v>26030000</v>
       </c>
-      <c r="AK19" s="5">
+      <c r="AK19" s="4">
         <v>33002000</v>
       </c>
-      <c r="AL19" s="5">
+      <c r="AL19" s="4">
         <v>20774000</v>
       </c>
-      <c r="AM19" s="5">
+      <c r="AM19" s="4">
         <v>20112000</v>
       </c>
-      <c r="AN19" s="5">
+      <c r="AN19" s="4">
         <v>73888000</v>
       </c>
-      <c r="AO19" s="5">
+      <c r="AO19" s="4">
         <v>-47858000</v>
       </c>
-      <c r="AP19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="5">
+      <c r="AP19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="4">
         <v>3445000</v>
       </c>
-      <c r="AR19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="5">
+      <c r="AR19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="4">
         <v>6833000</v>
       </c>
-      <c r="AT19" s="5">
+      <c r="AT19" s="4">
         <v>-69000</v>
       </c>
-      <c r="AU19" s="5">
+      <c r="AU19" s="4">
         <v>10209000</v>
       </c>
-      <c r="AV19" s="5">
+      <c r="AV19" s="4">
         <v>-37649000</v>
       </c>
-      <c r="AW19" s="5">
+      <c r="AW19" s="4">
         <v>355000</v>
       </c>
-      <c r="AX19" s="5">
+      <c r="AX19" s="4">
         <v>-38004000</v>
       </c>
     </row>
@@ -3118,151 +3142,151 @@
       <c r="A20" s="1">
         <v>45322</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>83866000</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>215041000</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>43320000</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <v>19564000</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>370151000</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <v>113429000</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="7">
         <v>14973000</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <v>136256000</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="7">
         <v>32448000</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="7">
         <v>9972000</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="7">
         <v>22339000</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="7">
         <v>2429000</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="7">
         <v>701997000</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="7">
         <v>2601000</v>
       </c>
-      <c r="P20" s="8">
+      <c r="P20" s="7">
         <v>44779000</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="Q20" s="7">
         <v>72327000</v>
       </c>
-      <c r="R20" s="8">
+      <c r="R20" s="7">
         <v>8964000</v>
       </c>
-      <c r="S20" s="8">
+      <c r="S20" s="7">
         <v>7978000</v>
       </c>
-      <c r="T20" s="8">
+      <c r="T20" s="7">
         <v>136649000</v>
       </c>
-      <c r="U20" s="8">
+      <c r="U20" s="7">
         <v>5293000</v>
       </c>
-      <c r="V20" s="8">
+      <c r="V20" s="7">
         <v>7101000</v>
       </c>
-      <c r="W20" s="8">
+      <c r="W20" s="7">
         <v>2961000</v>
       </c>
-      <c r="X20" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="8">
+      <c r="X20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="7">
         <v>16952000</v>
       </c>
-      <c r="Z20" s="8">
+      <c r="Z20" s="7">
         <v>5885000</v>
       </c>
-      <c r="AA20" s="8">
+      <c r="AA20" s="7">
         <v>9138000</v>
       </c>
-      <c r="AB20" s="8">
+      <c r="AB20" s="7">
         <v>183979000</v>
       </c>
-      <c r="AC20" s="8">
+      <c r="AC20" s="7">
         <v>1596201000</v>
       </c>
-      <c r="AD20" s="8">
+      <c r="AD20" s="7">
         <v>1594000</v>
       </c>
-      <c r="AE20" s="8">
+      <c r="AE20" s="7">
         <v>-1079805000</v>
       </c>
-      <c r="AF20" s="8">
+      <c r="AF20" s="7">
         <v>518018000</v>
       </c>
-      <c r="AG20" s="8">
+      <c r="AG20" s="7">
         <v>701997000</v>
       </c>
-      <c r="AH20" s="5">
+      <c r="AH20" s="4">
         <v>220696000</v>
       </c>
-      <c r="AI20" s="5">
+      <c r="AI20" s="4">
         <v>107746000</v>
       </c>
-      <c r="AJ20" s="5">
+      <c r="AJ20" s="4">
         <v>112950000</v>
       </c>
-      <c r="AK20" s="5">
+      <c r="AK20" s="4">
         <v>116339000</v>
       </c>
-      <c r="AL20" s="5">
+      <c r="AL20" s="4">
         <v>86304000</v>
       </c>
-      <c r="AM20" s="5">
+      <c r="AM20" s="4">
         <v>80055000</v>
       </c>
-      <c r="AN20" s="5">
+      <c r="AN20" s="4">
         <v>282698000</v>
       </c>
-      <c r="AO20" s="5">
+      <c r="AO20" s="4">
         <v>-169748000</v>
       </c>
-      <c r="AP20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="5">
+      <c r="AP20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="4">
         <v>15414000</v>
       </c>
-      <c r="AR20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS20" s="5">
+      <c r="AR20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="4">
         <v>13709000</v>
       </c>
-      <c r="AT20" s="5">
+      <c r="AT20" s="4">
         <v>931000</v>
       </c>
-      <c r="AU20" s="5">
+      <c r="AU20" s="4">
         <v>30054000</v>
       </c>
-      <c r="AV20" s="5">
+      <c r="AV20" s="4">
         <v>-139694000</v>
       </c>
-      <c r="AW20" s="5">
+      <c r="AW20" s="4">
         <v>815000</v>
       </c>
-      <c r="AX20" s="5">
+      <c r="AX20" s="4">
         <v>-140509000</v>
       </c>
     </row>
@@ -3270,151 +3294,151 @@
       <c r="A21" s="1">
         <v>45412</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>107367000</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>168218000</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>38527000</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>23044000</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>345958000</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="7">
         <v>111338000</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="7">
         <v>16066000</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="7">
         <v>137110000</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="7">
         <v>31403000</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="7">
         <v>9564000</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="7">
         <v>20966000</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="7">
         <v>2199000</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="7">
         <v>674604000</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="7">
         <v>3131000</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P21" s="7">
         <v>43361000</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="Q21" s="7">
         <v>63646000</v>
       </c>
-      <c r="R21" s="8">
+      <c r="R21" s="7">
         <v>8068000</v>
       </c>
-      <c r="S21" s="8">
+      <c r="S21" s="7">
         <v>8175000</v>
       </c>
-      <c r="T21" s="8">
+      <c r="T21" s="7">
         <v>126381000</v>
       </c>
-      <c r="U21" s="8">
+      <c r="U21" s="7">
         <v>13247000</v>
       </c>
-      <c r="V21" s="8">
+      <c r="V21" s="7">
         <v>9261000</v>
       </c>
-      <c r="W21" s="8">
+      <c r="W21" s="7">
         <v>1431000</v>
       </c>
-      <c r="X21" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="8">
+      <c r="X21" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="7">
         <v>15207000</v>
       </c>
-      <c r="Z21" s="8">
+      <c r="Z21" s="7">
         <v>2915000</v>
       </c>
-      <c r="AA21" s="8">
+      <c r="AA21" s="7">
         <v>5837000</v>
       </c>
-      <c r="AB21" s="8">
+      <c r="AB21" s="7">
         <v>174279000</v>
       </c>
-      <c r="AC21" s="8">
+      <c r="AC21" s="7">
         <v>1608847000</v>
       </c>
-      <c r="AD21" s="8">
+      <c r="AD21" s="7">
         <v>548000</v>
       </c>
-      <c r="AE21" s="8">
+      <c r="AE21" s="7">
         <v>-1109098000</v>
       </c>
-      <c r="AF21" s="8">
+      <c r="AF21" s="7">
         <v>500325000</v>
       </c>
-      <c r="AG21" s="8">
+      <c r="AG21" s="7">
         <v>674604000</v>
       </c>
-      <c r="AH21" s="5">
+      <c r="AH21" s="4">
         <v>60440000</v>
       </c>
-      <c r="AI21" s="5">
+      <c r="AI21" s="4">
         <v>28757000</v>
       </c>
-      <c r="AJ21" s="5">
+      <c r="AJ21" s="4">
         <v>31683000</v>
       </c>
-      <c r="AK21" s="5">
+      <c r="AK21" s="4">
         <v>25589000</v>
       </c>
-      <c r="AL21" s="5">
+      <c r="AL21" s="4">
         <v>21485000</v>
       </c>
-      <c r="AM21" s="5">
+      <c r="AM21" s="4">
         <v>19180000</v>
       </c>
-      <c r="AN21" s="5">
+      <c r="AN21" s="4">
         <v>66254000</v>
       </c>
-      <c r="AO21" s="5">
+      <c r="AO21" s="4">
         <v>-34571000</v>
       </c>
-      <c r="AP21" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="5">
+      <c r="AP21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="4">
         <v>3107000</v>
       </c>
-      <c r="AR21" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS21" s="5">
+      <c r="AR21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="4">
         <v>1530000</v>
       </c>
-      <c r="AT21" s="5">
+      <c r="AT21" s="4">
         <v>1083000</v>
       </c>
-      <c r="AU21" s="5">
+      <c r="AU21" s="4">
         <v>5720000</v>
       </c>
-      <c r="AV21" s="5">
+      <c r="AV21" s="4">
         <v>-28851000</v>
       </c>
-      <c r="AW21" s="5">
+      <c r="AW21" s="4">
         <v>442000</v>
       </c>
-      <c r="AX21" s="5">
+      <c r="AX21" s="4">
         <v>-29293000</v>
       </c>
     </row>
@@ -3425,25 +3449,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9840AC-F14A-4C58-BDF4-7D814B7753BE}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/financial_data/planet.xlsx
+++ b/financial_data/planet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holly\space_econometrics\financial_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22028\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A3D705-393A-4ADC-B5D5-EAA0CD5C95CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188C91CE-511D-4804-A12E-A9FD36098FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5055" yWindow="270" windowWidth="10605" windowHeight="15630" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="key" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>Cash and cash equivalents</t>
   </si>
@@ -187,29 +187,33 @@
   </si>
   <si>
     <t>interpolated</t>
+  </si>
+  <si>
+    <t>Total Launch Satellites</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -223,6 +227,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -250,11 +261,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -263,20 +274,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="42" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -285,10 +296,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="通貨 [0.00]" xfId="1" builtinId="4"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -572,225 +586,234 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="8"/>
       <c r="B1" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A537E283-6F73-4D72-9227-FEDBB5B10DFD}">
-  <dimension ref="A1:AX21"/>
+  <dimension ref="A1:AY21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="37" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="14" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="35" max="38" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="14" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="11" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" s="11" customFormat="1" ht="57" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AS1" s="10" t="s">
+      <c r="AT1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>43677</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="12">
+        <v>370</v>
+      </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -822,63 +845,66 @@
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
-      <c r="AH2" s="4">
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="4">
         <v>23934000</v>
       </c>
-      <c r="AI2" s="4">
+      <c r="AJ2" s="4">
         <v>25598250</v>
       </c>
-      <c r="AJ2" s="4">
+      <c r="AK2" s="4">
         <v>-1664250</v>
       </c>
-      <c r="AK2" s="4">
+      <c r="AL2" s="4">
         <v>9467750</v>
       </c>
-      <c r="AL2" s="4">
+      <c r="AM2" s="4">
         <v>8728250</v>
       </c>
-      <c r="AM2" s="4">
+      <c r="AN2" s="4">
         <v>6754750</v>
       </c>
-      <c r="AN2" s="4">
+      <c r="AO2" s="4">
         <v>24950750</v>
       </c>
-      <c r="AO2" s="4">
+      <c r="AP2" s="4">
         <v>-26615000</v>
       </c>
-      <c r="AP2" s="4">
+      <c r="AQ2" s="4">
         <v>-2882250</v>
       </c>
-      <c r="AQ2" s="4">
-        <v>0</v>
-      </c>
       <c r="AR2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="4">
         <v>-1736500</v>
       </c>
-      <c r="AS2" s="4">
+      <c r="AT2" s="4">
         <v>51750</v>
       </c>
-      <c r="AT2" s="4">
+      <c r="AU2" s="4">
         <v>286000</v>
       </c>
-      <c r="AU2" s="4">
+      <c r="AV2" s="4">
         <v>-4281000</v>
       </c>
-      <c r="AV2" s="4">
+      <c r="AW2" s="4">
         <v>-30896000</v>
       </c>
-      <c r="AW2" s="4">
+      <c r="AX2" s="4">
         <v>32500</v>
       </c>
-      <c r="AX2" s="4">
+      <c r="AY2" s="4">
         <v>-30928500</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>43769</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="12">
+        <v>370</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -910,63 +936,66 @@
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
-      <c r="AH3" s="4">
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="4">
         <v>23934000</v>
       </c>
-      <c r="AI3" s="4">
+      <c r="AJ3" s="4">
         <v>25598250</v>
       </c>
-      <c r="AJ3" s="4">
+      <c r="AK3" s="4">
         <v>-1664250</v>
       </c>
-      <c r="AK3" s="4">
+      <c r="AL3" s="4">
         <v>9467750</v>
       </c>
-      <c r="AL3" s="4">
+      <c r="AM3" s="4">
         <v>8728250</v>
       </c>
-      <c r="AM3" s="4">
+      <c r="AN3" s="4">
         <v>6754750</v>
       </c>
-      <c r="AN3" s="4">
+      <c r="AO3" s="4">
         <v>24950750</v>
       </c>
-      <c r="AO3" s="4">
+      <c r="AP3" s="4">
         <v>-26615000</v>
       </c>
-      <c r="AP3" s="4">
+      <c r="AQ3" s="4">
         <v>-2882250</v>
       </c>
-      <c r="AQ3" s="4">
-        <v>0</v>
-      </c>
       <c r="AR3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="4">
         <v>-1736500</v>
       </c>
-      <c r="AS3" s="4">
+      <c r="AT3" s="4">
         <v>51750</v>
       </c>
-      <c r="AT3" s="4">
+      <c r="AU3" s="4">
         <v>286000</v>
       </c>
-      <c r="AU3" s="4">
+      <c r="AV3" s="4">
         <v>-4281000</v>
       </c>
-      <c r="AV3" s="4">
+      <c r="AW3" s="4">
         <v>-30896000</v>
       </c>
-      <c r="AW3" s="4">
+      <c r="AX3" s="4">
         <v>32500</v>
       </c>
-      <c r="AX3" s="4">
+      <c r="AY3" s="4">
         <v>-30928500</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>43861</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="12">
+        <v>382</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -998,63 +1027,66 @@
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
-      <c r="AH4" s="4">
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="4">
         <v>23934000</v>
       </c>
-      <c r="AI4" s="4">
+      <c r="AJ4" s="4">
         <v>25598250</v>
       </c>
-      <c r="AJ4" s="4">
+      <c r="AK4" s="4">
         <v>-1664250</v>
       </c>
-      <c r="AK4" s="4">
+      <c r="AL4" s="4">
         <v>9467750</v>
       </c>
-      <c r="AL4" s="4">
+      <c r="AM4" s="4">
         <v>8728250</v>
       </c>
-      <c r="AM4" s="4">
+      <c r="AN4" s="4">
         <v>6754750</v>
       </c>
-      <c r="AN4" s="4">
+      <c r="AO4" s="4">
         <v>24950750</v>
       </c>
-      <c r="AO4" s="4">
+      <c r="AP4" s="4">
         <v>-26615000</v>
       </c>
-      <c r="AP4" s="4">
+      <c r="AQ4" s="4">
         <v>-2882250</v>
       </c>
-      <c r="AQ4" s="4">
-        <v>0</v>
-      </c>
       <c r="AR4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="4">
         <v>-1736500</v>
       </c>
-      <c r="AS4" s="4">
+      <c r="AT4" s="4">
         <v>51750</v>
       </c>
-      <c r="AT4" s="4">
+      <c r="AU4" s="4">
         <v>286000</v>
       </c>
-      <c r="AU4" s="4">
+      <c r="AV4" s="4">
         <v>-4281000</v>
       </c>
-      <c r="AV4" s="4">
+      <c r="AW4" s="4">
         <v>-30896000</v>
       </c>
-      <c r="AW4" s="4">
+      <c r="AX4" s="4">
         <v>32500</v>
       </c>
-      <c r="AX4" s="4">
+      <c r="AY4" s="4">
         <v>-30928500</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>43951</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="12">
+        <v>382</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1086,63 +1118,66 @@
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
-      <c r="AH5" s="4">
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="4">
         <v>28292000</v>
       </c>
-      <c r="AI5" s="4">
+      <c r="AJ5" s="4">
         <v>21845750</v>
       </c>
-      <c r="AJ5" s="4">
+      <c r="AK5" s="4">
         <v>6446250</v>
       </c>
-      <c r="AK5" s="4">
+      <c r="AL5" s="4">
         <v>10956250</v>
       </c>
-      <c r="AL5" s="4">
+      <c r="AM5" s="4">
         <v>9317000</v>
       </c>
-      <c r="AM5" s="4">
+      <c r="AN5" s="4">
         <v>8033500</v>
       </c>
-      <c r="AN5" s="4">
+      <c r="AO5" s="4">
         <v>28306750</v>
       </c>
-      <c r="AO5" s="4">
+      <c r="AP5" s="4">
         <v>-21860500</v>
       </c>
-      <c r="AP5" s="4">
+      <c r="AQ5" s="4">
         <v>168250</v>
       </c>
-      <c r="AQ5" s="4">
-        <v>0</v>
-      </c>
       <c r="AR5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="4">
         <v>-2361750</v>
       </c>
-      <c r="AS5" s="4">
+      <c r="AT5" s="4">
         <v>-7513250</v>
       </c>
-      <c r="AT5" s="4">
+      <c r="AU5" s="4">
         <v>59750</v>
       </c>
-      <c r="AU5" s="4">
+      <c r="AV5" s="4">
         <v>-9647000</v>
       </c>
-      <c r="AV5" s="4">
+      <c r="AW5" s="4">
         <v>-31507500</v>
       </c>
-      <c r="AW5" s="4">
+      <c r="AX5" s="4">
         <v>268250</v>
       </c>
-      <c r="AX5" s="4">
+      <c r="AY5" s="4">
         <v>-31775750</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>44043</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="12">
+        <v>387</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1174,63 +1209,66 @@
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
-      <c r="AH6" s="4">
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="4">
         <v>28292000</v>
       </c>
-      <c r="AI6" s="4">
+      <c r="AJ6" s="4">
         <v>21845750</v>
       </c>
-      <c r="AJ6" s="4">
+      <c r="AK6" s="4">
         <v>6446250</v>
       </c>
-      <c r="AK6" s="4">
+      <c r="AL6" s="4">
         <v>10956250</v>
       </c>
-      <c r="AL6" s="4">
+      <c r="AM6" s="4">
         <v>9317000</v>
       </c>
-      <c r="AM6" s="4">
+      <c r="AN6" s="4">
         <v>8033500</v>
       </c>
-      <c r="AN6" s="4">
+      <c r="AO6" s="4">
         <v>28306750</v>
       </c>
-      <c r="AO6" s="4">
+      <c r="AP6" s="4">
         <v>-21860500</v>
       </c>
-      <c r="AP6" s="4">
+      <c r="AQ6" s="4">
         <v>168250</v>
       </c>
-      <c r="AQ6" s="4">
-        <v>0</v>
-      </c>
       <c r="AR6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="4">
         <v>-2361750</v>
       </c>
-      <c r="AS6" s="4">
+      <c r="AT6" s="4">
         <v>-7513250</v>
       </c>
-      <c r="AT6" s="4">
+      <c r="AU6" s="4">
         <v>59750</v>
       </c>
-      <c r="AU6" s="4">
+      <c r="AV6" s="4">
         <v>-9647000</v>
       </c>
-      <c r="AV6" s="4">
+      <c r="AW6" s="4">
         <v>-31507500</v>
       </c>
-      <c r="AW6" s="4">
+      <c r="AX6" s="4">
         <v>268250</v>
       </c>
-      <c r="AX6" s="4">
+      <c r="AY6" s="4">
         <v>-31775750</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>44135</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="12">
+        <v>422</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1262,945 +1300,961 @@
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
-      <c r="AH7" s="4">
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="4">
         <v>28292000</v>
       </c>
-      <c r="AI7" s="4">
+      <c r="AJ7" s="4">
         <v>21845750</v>
       </c>
-      <c r="AJ7" s="4">
+      <c r="AK7" s="4">
         <v>6446250</v>
       </c>
-      <c r="AK7" s="4">
+      <c r="AL7" s="4">
         <v>10956250</v>
       </c>
-      <c r="AL7" s="4">
+      <c r="AM7" s="4">
         <v>9317000</v>
       </c>
-      <c r="AM7" s="4">
+      <c r="AN7" s="4">
         <v>8033500</v>
       </c>
-      <c r="AN7" s="4">
+      <c r="AO7" s="4">
         <v>28306750</v>
       </c>
-      <c r="AO7" s="4">
+      <c r="AP7" s="4">
         <v>-21860500</v>
       </c>
-      <c r="AP7" s="4">
+      <c r="AQ7" s="4">
         <v>168250</v>
       </c>
-      <c r="AQ7" s="4">
-        <v>0</v>
-      </c>
       <c r="AR7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="4">
         <v>-2361750</v>
       </c>
-      <c r="AS7" s="4">
+      <c r="AT7" s="4">
         <v>-7513250</v>
       </c>
-      <c r="AT7" s="4">
+      <c r="AU7" s="4">
         <v>59750</v>
       </c>
-      <c r="AU7" s="4">
+      <c r="AV7" s="4">
         <v>-9647000</v>
       </c>
-      <c r="AV7" s="4">
+      <c r="AW7" s="4">
         <v>-31507500</v>
       </c>
-      <c r="AW7" s="4">
+      <c r="AX7" s="4">
         <v>268250</v>
       </c>
-      <c r="AX7" s="4">
+      <c r="AY7" s="4">
         <v>-31775750</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>44227</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="12">
+        <v>470</v>
+      </c>
+      <c r="C8" s="4">
         <v>71183000</v>
       </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
       <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
         <v>47110000</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>7134000</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>125427000</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>159855000</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>11994000</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>88393000</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>5673000</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>4982000</v>
       </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
       <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
         <v>2984000</v>
       </c>
-      <c r="N8" s="4">
+      <c r="O8" s="4">
         <v>399308000</v>
       </c>
-      <c r="O8" s="4">
+      <c r="P8" s="4">
         <v>1446000</v>
       </c>
-      <c r="P8" s="4">
+      <c r="Q8" s="4">
         <v>30195000</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="R8" s="4">
         <v>57570000</v>
       </c>
-      <c r="R8" s="4">
-        <v>0</v>
-      </c>
       <c r="S8" s="4">
         <v>0</v>
       </c>
       <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
         <v>108814000</v>
       </c>
-      <c r="U8" s="4">
+      <c r="V8" s="4">
         <v>15122000</v>
       </c>
-      <c r="V8" s="4">
+      <c r="W8" s="4">
         <v>7971000</v>
       </c>
-      <c r="W8" s="4">
-        <v>0</v>
-      </c>
       <c r="X8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4">
         <v>2991000</v>
       </c>
-      <c r="Y8" s="4">
-        <v>0</v>
-      </c>
       <c r="Z8" s="4">
         <v>0</v>
       </c>
       <c r="AA8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="4">
         <v>1287000</v>
       </c>
-      <c r="AB8" s="4">
+      <c r="AC8" s="4">
         <v>291797000</v>
       </c>
-      <c r="AC8" s="4">
+      <c r="AD8" s="4">
         <v>745630000</v>
       </c>
-      <c r="AD8" s="4">
+      <c r="AE8" s="4">
         <v>1769000</v>
       </c>
-      <c r="AE8" s="4">
+      <c r="AF8" s="4">
         <v>-639905000</v>
       </c>
-      <c r="AF8" s="4">
+      <c r="AG8" s="4">
         <v>107511000</v>
       </c>
-      <c r="AG8" s="4">
+      <c r="AH8" s="4">
         <v>399308000</v>
       </c>
-      <c r="AH8" s="4">
+      <c r="AI8" s="4">
         <v>28292000</v>
       </c>
-      <c r="AI8" s="4">
+      <c r="AJ8" s="4">
         <v>21845750</v>
       </c>
-      <c r="AJ8" s="4">
+      <c r="AK8" s="4">
         <v>6446250</v>
       </c>
-      <c r="AK8" s="4">
+      <c r="AL8" s="4">
         <v>10956250</v>
       </c>
-      <c r="AL8" s="4">
+      <c r="AM8" s="4">
         <v>9317000</v>
       </c>
-      <c r="AM8" s="4">
+      <c r="AN8" s="4">
         <v>8033500</v>
       </c>
-      <c r="AN8" s="4">
+      <c r="AO8" s="4">
         <v>28306750</v>
       </c>
-      <c r="AO8" s="4">
+      <c r="AP8" s="4">
         <v>-21860500</v>
       </c>
-      <c r="AP8" s="4">
+      <c r="AQ8" s="4">
         <v>168250</v>
       </c>
-      <c r="AQ8" s="4">
-        <v>0</v>
-      </c>
       <c r="AR8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="4">
         <v>-2361750</v>
       </c>
-      <c r="AS8" s="4">
+      <c r="AT8" s="4">
         <v>-7513250</v>
       </c>
-      <c r="AT8" s="4">
+      <c r="AU8" s="4">
         <v>59750</v>
       </c>
-      <c r="AU8" s="4">
+      <c r="AV8" s="4">
         <v>-9647000</v>
       </c>
-      <c r="AV8" s="4">
+      <c r="AW8" s="4">
         <v>-31507500</v>
       </c>
-      <c r="AW8" s="4">
+      <c r="AX8" s="4">
         <v>268250</v>
       </c>
-      <c r="AX8" s="4">
+      <c r="AY8" s="4">
         <v>-31775750</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>44316</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="12">
+        <v>470</v>
+      </c>
+      <c r="C9" s="9">
         <v>173491304.10958904</v>
       </c>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
       <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
         <v>46442621.91780822</v>
       </c>
-      <c r="E9" s="9">
+      <c r="F9" s="9">
         <v>9389723.2876712326</v>
       </c>
-      <c r="F9" s="9">
+      <c r="G9" s="9">
         <v>229323649.31506848</v>
       </c>
-      <c r="G9" s="9">
+      <c r="H9" s="9">
         <v>153375068.49315068</v>
       </c>
-      <c r="H9" s="9">
+      <c r="I9" s="9">
         <v>11695057.534246575</v>
       </c>
-      <c r="I9" s="9">
+      <c r="J9" s="9">
         <v>92008106.849315062</v>
       </c>
-      <c r="J9" s="9">
+      <c r="K9" s="9">
         <v>7751454.7945205476</v>
       </c>
-      <c r="K9" s="9">
+      <c r="L9" s="9">
         <v>5167558.9041095888</v>
       </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
       <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
         <v>2918164.3835616438</v>
       </c>
-      <c r="N9" s="9">
+      <c r="O9" s="9">
         <v>502239060.27397263</v>
       </c>
-      <c r="O9" s="9">
+      <c r="P9" s="9">
         <v>1788345.2054794519</v>
       </c>
-      <c r="P9" s="9">
+      <c r="Q9" s="9">
         <v>34737169.8630137</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="R9" s="9">
         <v>59194676.712328769</v>
       </c>
-      <c r="R9" s="9">
-        <v>0</v>
-      </c>
       <c r="S9" s="9">
         <v>0</v>
       </c>
       <c r="T9" s="9">
+        <v>0</v>
+      </c>
+      <c r="U9" s="9">
         <v>114477569.8630137</v>
       </c>
-      <c r="U9" s="9">
+      <c r="V9" s="9">
         <v>12307405.479452055</v>
       </c>
-      <c r="V9" s="9">
+      <c r="W9" s="9">
         <v>8989745.2054794524</v>
       </c>
-      <c r="W9" s="9">
-        <v>0</v>
-      </c>
       <c r="X9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="9">
         <v>2456268.493150685</v>
       </c>
-      <c r="Y9" s="9">
-        <v>0</v>
-      </c>
       <c r="Z9" s="9">
         <v>0</v>
       </c>
       <c r="AA9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="9">
         <v>1315772.602739726</v>
       </c>
-      <c r="AB9" s="9">
+      <c r="AC9" s="9">
         <v>262877852.05479452</v>
       </c>
-      <c r="AC9" s="9">
+      <c r="AD9" s="9">
         <v>910833750.68493152</v>
       </c>
-      <c r="AD9" s="9">
+      <c r="AE9" s="9">
         <v>1848734.2465753425</v>
       </c>
-      <c r="AE9" s="9">
+      <c r="AF9" s="9">
         <v>-673340715.06849313</v>
       </c>
-      <c r="AF9" s="9">
+      <c r="AG9" s="9">
         <v>239361208.21917808</v>
       </c>
-      <c r="AG9" s="9">
+      <c r="AH9" s="9">
         <v>502239060.27397263</v>
       </c>
-      <c r="AH9" s="4">
+      <c r="AI9" s="4">
         <v>31957000</v>
       </c>
-      <c r="AI9" s="4">
+      <c r="AJ9" s="4">
         <v>19126000</v>
       </c>
-      <c r="AJ9" s="4">
+      <c r="AK9" s="4">
         <v>12831000</v>
       </c>
-      <c r="AK9" s="4">
+      <c r="AL9" s="4">
         <v>12130000</v>
       </c>
-      <c r="AL9" s="4">
+      <c r="AM9" s="4">
         <v>10653000</v>
       </c>
-      <c r="AM9" s="4">
+      <c r="AN9" s="4">
         <v>8315000</v>
       </c>
-      <c r="AN9" s="4">
+      <c r="AO9" s="4">
         <v>31098000</v>
       </c>
-      <c r="AO9" s="4">
+      <c r="AP9" s="4">
         <v>-18267000</v>
       </c>
-      <c r="AP9" s="4">
-        <v>0</v>
-      </c>
       <c r="AQ9" s="4">
         <v>0</v>
       </c>
       <c r="AR9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="4">
         <v>-2527000</v>
       </c>
-      <c r="AS9" s="4">
+      <c r="AT9" s="4">
         <v>-8026000</v>
       </c>
-      <c r="AT9" s="4">
+      <c r="AU9" s="4">
         <v>-177000</v>
       </c>
-      <c r="AU9" s="4">
+      <c r="AV9" s="4">
         <v>-10730000</v>
       </c>
-      <c r="AV9" s="4">
+      <c r="AW9" s="4">
         <v>-28997000</v>
       </c>
-      <c r="AW9" s="4">
+      <c r="AX9" s="4">
         <v>258000</v>
       </c>
-      <c r="AX9" s="4">
+      <c r="AY9" s="4">
         <v>-29255000</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>44408</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="12">
+        <v>470</v>
+      </c>
+      <c r="C10" s="9">
         <v>279248202.73972601</v>
       </c>
-      <c r="C10" s="9">
-        <v>0</v>
-      </c>
       <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
         <v>45752747.94520548</v>
       </c>
-      <c r="E10" s="9">
+      <c r="F10" s="9">
         <v>11721482.191780822</v>
       </c>
-      <c r="F10" s="9">
+      <c r="G10" s="9">
         <v>336722432.87671232</v>
       </c>
-      <c r="G10" s="9">
+      <c r="H10" s="9">
         <v>146676712.32876712</v>
       </c>
-      <c r="H10" s="9">
+      <c r="I10" s="9">
         <v>11386038.356164383</v>
       </c>
-      <c r="I10" s="9">
+      <c r="J10" s="9">
         <v>95745071.232876718</v>
       </c>
-      <c r="J10" s="9">
+      <c r="K10" s="9">
         <v>9899969.8630136997</v>
       </c>
-      <c r="K10" s="9">
+      <c r="L10" s="9">
         <v>5359372.6027397262</v>
       </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
       <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
         <v>2850109.5890410957</v>
       </c>
-      <c r="N10" s="9">
+      <c r="O10" s="9">
         <v>608639706.84931505</v>
       </c>
-      <c r="O10" s="9">
+      <c r="P10" s="9">
         <v>2142230.1369863013</v>
       </c>
-      <c r="P10" s="9">
+      <c r="Q10" s="9">
         <v>39432446.575342461</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="R10" s="9">
         <v>60874117.80821918</v>
       </c>
-      <c r="R10" s="9">
-        <v>0</v>
-      </c>
       <c r="S10" s="9">
         <v>0</v>
       </c>
       <c r="T10" s="9">
+        <v>0</v>
+      </c>
+      <c r="U10" s="9">
         <v>120332046.57534246</v>
       </c>
-      <c r="U10" s="9">
+      <c r="V10" s="9">
         <v>9397936.98630137</v>
       </c>
-      <c r="V10" s="9">
+      <c r="W10" s="9">
         <v>10042830.136986302</v>
       </c>
-      <c r="W10" s="9">
-        <v>0</v>
-      </c>
       <c r="X10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="9">
         <v>1903512.3287671232</v>
       </c>
-      <c r="Y10" s="9">
-        <v>0</v>
-      </c>
       <c r="Z10" s="9">
         <v>0</v>
       </c>
       <c r="AA10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="9">
         <v>1345515.0684931506</v>
       </c>
-      <c r="AB10" s="9">
+      <c r="AC10" s="9">
         <v>232983901.369863</v>
       </c>
-      <c r="AC10" s="9">
+      <c r="AD10" s="9">
         <v>1081606167.1232877</v>
       </c>
-      <c r="AD10" s="9">
+      <c r="AE10" s="9">
         <v>1931156.1643835616</v>
       </c>
-      <c r="AE10" s="9">
+      <c r="AF10" s="9">
         <v>-707903476.71232879</v>
       </c>
-      <c r="AF10" s="9">
+      <c r="AG10" s="9">
         <v>375655805.47945207</v>
       </c>
-      <c r="AG10" s="9">
+      <c r="AH10" s="9">
         <v>608639706.84931505</v>
       </c>
-      <c r="AH10" s="4">
+      <c r="AI10" s="4">
         <v>30406000</v>
       </c>
-      <c r="AI10" s="4">
+      <c r="AJ10" s="4">
         <v>19820000</v>
       </c>
-      <c r="AJ10" s="4">
+      <c r="AK10" s="4">
         <v>10586000</v>
       </c>
-      <c r="AK10" s="4">
+      <c r="AL10" s="4">
         <v>12432000</v>
       </c>
-      <c r="AL10" s="4">
+      <c r="AM10" s="4">
         <v>10597000</v>
       </c>
-      <c r="AM10" s="4">
+      <c r="AN10" s="4">
         <v>11824000</v>
       </c>
-      <c r="AN10" s="4">
+      <c r="AO10" s="4">
         <v>34853000</v>
       </c>
-      <c r="AO10" s="4">
+      <c r="AP10" s="4">
         <v>-24267000</v>
       </c>
-      <c r="AP10" s="4">
-        <v>0</v>
-      </c>
       <c r="AQ10" s="4">
         <v>0</v>
       </c>
       <c r="AR10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="4">
         <v>-2611000</v>
       </c>
-      <c r="AS10" s="4">
-        <v>0</v>
-      </c>
       <c r="AT10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="4">
         <v>-84000</v>
       </c>
-      <c r="AU10" s="4">
+      <c r="AV10" s="4">
         <v>4074000</v>
       </c>
-      <c r="AV10" s="4">
+      <c r="AW10" s="4">
         <v>-20193000</v>
       </c>
-      <c r="AW10" s="4">
+      <c r="AX10" s="4">
         <v>170000</v>
       </c>
-      <c r="AX10" s="4">
+      <c r="AY10" s="4">
         <v>-20363000</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>44500</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="12">
+        <v>470</v>
+      </c>
+      <c r="C11" s="9">
         <v>385005101.36986303</v>
       </c>
-      <c r="C11" s="9">
-        <v>0</v>
-      </c>
       <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
         <v>45062873.97260274</v>
       </c>
-      <c r="E11" s="9">
+      <c r="F11" s="9">
         <v>14053241.09589041</v>
       </c>
-      <c r="F11" s="9">
+      <c r="G11" s="9">
         <v>444121216.43835616</v>
       </c>
-      <c r="G11" s="9">
+      <c r="H11" s="9">
         <v>139978356.16438356</v>
       </c>
-      <c r="H11" s="9">
+      <c r="I11" s="9">
         <v>11077019.178082192</v>
       </c>
-      <c r="I11" s="9">
+      <c r="J11" s="9">
         <v>99482035.616438359</v>
       </c>
-      <c r="J11" s="9">
+      <c r="K11" s="9">
         <v>12048484.93150685</v>
       </c>
-      <c r="K11" s="9">
+      <c r="L11" s="9">
         <v>5551186.3013698626</v>
       </c>
-      <c r="L11" s="9">
-        <v>0</v>
-      </c>
       <c r="M11" s="9">
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
         <v>2782054.7945205481</v>
       </c>
-      <c r="N11" s="9">
+      <c r="O11" s="9">
         <v>715040353.42465758</v>
       </c>
-      <c r="O11" s="9">
+      <c r="P11" s="9">
         <v>2496115.0684931506</v>
       </c>
-      <c r="P11" s="9">
+      <c r="Q11" s="9">
         <v>44127723.287671238</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="R11" s="9">
         <v>62553558.904109597</v>
       </c>
-      <c r="R11" s="9">
-        <v>0</v>
-      </c>
       <c r="S11" s="9">
         <v>0</v>
       </c>
       <c r="T11" s="9">
+        <v>0</v>
+      </c>
+      <c r="U11" s="9">
         <v>126186523.28767124</v>
       </c>
-      <c r="U11" s="9">
+      <c r="V11" s="9">
         <v>6488468.493150685</v>
       </c>
-      <c r="V11" s="9">
+      <c r="W11" s="9">
         <v>11095915.06849315</v>
       </c>
-      <c r="W11" s="9">
-        <v>0</v>
-      </c>
       <c r="X11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="9">
         <v>1350756.1643835616</v>
       </c>
-      <c r="Y11" s="9">
-        <v>0</v>
-      </c>
       <c r="Z11" s="9">
         <v>0</v>
       </c>
       <c r="AA11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="9">
         <v>1375257.5342465753</v>
       </c>
-      <c r="AB11" s="9">
+      <c r="AC11" s="9">
         <v>203089950.68493152</v>
       </c>
-      <c r="AC11" s="9">
+      <c r="AD11" s="9">
         <v>1252378583.5616438</v>
       </c>
-      <c r="AD11" s="9">
+      <c r="AE11" s="9">
         <v>2013578.0821917809</v>
       </c>
-      <c r="AE11" s="9">
+      <c r="AF11" s="9">
         <v>-742466238.35616446</v>
       </c>
-      <c r="AF11" s="9">
+      <c r="AG11" s="9">
         <v>511950402.73972607</v>
       </c>
-      <c r="AG11" s="9">
+      <c r="AH11" s="9">
         <v>715040353.42465758</v>
       </c>
-      <c r="AH11" s="4">
+      <c r="AI11" s="4">
         <v>31700000</v>
       </c>
-      <c r="AI11" s="4">
+      <c r="AJ11" s="4">
         <v>20811000</v>
       </c>
-      <c r="AJ11" s="4">
+      <c r="AK11" s="4">
         <v>10889000</v>
       </c>
-      <c r="AK11" s="4">
+      <c r="AL11" s="4">
         <v>14959000</v>
       </c>
-      <c r="AL11" s="4">
+      <c r="AM11" s="4">
         <v>12441000</v>
       </c>
-      <c r="AM11" s="4">
+      <c r="AN11" s="4">
         <v>11800000</v>
       </c>
-      <c r="AN11" s="4">
+      <c r="AO11" s="4">
         <v>39200000</v>
       </c>
-      <c r="AO11" s="4">
+      <c r="AP11" s="4">
         <v>-28311000</v>
       </c>
-      <c r="AP11" s="4">
-        <v>0</v>
-      </c>
       <c r="AQ11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="4">
         <v>8000</v>
       </c>
-      <c r="AR11" s="4">
+      <c r="AS11" s="4">
         <v>-2612000</v>
       </c>
-      <c r="AS11" s="4">
+      <c r="AT11" s="4">
         <v>-10172000</v>
       </c>
-      <c r="AT11" s="4">
+      <c r="AU11" s="4">
         <v>-60000</v>
       </c>
-      <c r="AU11" s="4">
+      <c r="AV11" s="4">
         <v>-12836000</v>
       </c>
-      <c r="AV11" s="4">
+      <c r="AW11" s="4">
         <v>-41147000</v>
       </c>
-      <c r="AW11" s="4">
+      <c r="AX11" s="4">
         <v>394000</v>
       </c>
-      <c r="AX11" s="4">
+      <c r="AY11" s="4">
         <v>-41541000</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>44592</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="12">
+        <v>514</v>
+      </c>
+      <c r="C12" s="5">
         <v>490762000</v>
       </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
         <v>44373000</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="5">
         <v>16385000</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>551520000</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="5">
         <v>133280000</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5">
         <v>10768000</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J12" s="5">
         <v>103219000</v>
       </c>
-      <c r="J12" s="5">
+      <c r="K12" s="5">
         <v>14197000</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L12" s="5">
         <v>5743000</v>
       </c>
-      <c r="L12" s="4">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
         <v>2714000</v>
       </c>
-      <c r="N12" s="5">
+      <c r="O12" s="5">
         <v>821441000</v>
       </c>
-      <c r="O12" s="5">
+      <c r="P12" s="5">
         <v>2850000</v>
       </c>
-      <c r="P12" s="5">
+      <c r="Q12" s="5">
         <v>48823000</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="R12" s="5">
         <v>64233000</v>
       </c>
-      <c r="R12" s="5">
+      <c r="S12" s="5">
         <v>16135000</v>
       </c>
-      <c r="S12" s="4">
-        <v>0</v>
-      </c>
-      <c r="T12" s="5">
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="5">
         <v>132041000</v>
       </c>
-      <c r="U12" s="5">
+      <c r="V12" s="5">
         <v>3579000</v>
       </c>
-      <c r="V12" s="5">
+      <c r="W12" s="5">
         <v>12149000</v>
       </c>
-      <c r="W12" s="5">
+      <c r="X12" s="5">
         <v>23224000</v>
       </c>
-      <c r="X12" s="5">
+      <c r="Y12" s="5">
         <v>798000</v>
       </c>
-      <c r="Y12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="5">
+      <c r="Z12" s="4">
         <v>0</v>
       </c>
       <c r="AA12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="5">
         <v>1405000</v>
       </c>
-      <c r="AB12" s="5">
+      <c r="AC12" s="5">
         <v>173196000</v>
       </c>
-      <c r="AC12" s="5">
+      <c r="AD12" s="5">
         <v>1423151000</v>
       </c>
-      <c r="AD12" s="5">
+      <c r="AE12" s="5">
         <v>2096000</v>
       </c>
-      <c r="AE12" s="5">
+      <c r="AF12" s="5">
         <v>-777029000</v>
       </c>
-      <c r="AF12" s="5">
+      <c r="AG12" s="5">
         <v>648245000</v>
       </c>
-      <c r="AG12" s="5">
+      <c r="AH12" s="5">
         <v>821441000</v>
       </c>
-      <c r="AH12" s="4">
+      <c r="AI12" s="4">
         <v>37146000</v>
       </c>
-      <c r="AI12" s="4">
+      <c r="AJ12" s="4">
         <v>23230000</v>
       </c>
-      <c r="AJ12" s="4">
+      <c r="AK12" s="4">
         <v>13916000</v>
       </c>
-      <c r="AK12" s="4">
+      <c r="AL12" s="4">
         <v>27163000</v>
       </c>
-      <c r="AL12" s="4">
+      <c r="AM12" s="4">
         <v>19226000</v>
       </c>
-      <c r="AM12" s="4">
+      <c r="AN12" s="4">
         <v>24733000</v>
       </c>
-      <c r="AN12" s="4">
+      <c r="AO12" s="4">
         <v>71122000</v>
       </c>
-      <c r="AO12" s="4">
+      <c r="AP12" s="4">
         <v>-57206000</v>
       </c>
-      <c r="AP12" s="4">
+      <c r="AQ12" s="4">
         <v>-1690000</v>
       </c>
-      <c r="AQ12" s="4">
-        <v>0</v>
-      </c>
       <c r="AR12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="4">
         <v>-1022000</v>
       </c>
-      <c r="AS12" s="4">
+      <c r="AT12" s="4">
         <v>23924000</v>
       </c>
-      <c r="AT12" s="4">
+      <c r="AU12" s="4">
         <v>-1906000</v>
       </c>
-      <c r="AU12" s="4">
+      <c r="AV12" s="4">
         <v>12529000</v>
       </c>
-      <c r="AV12" s="4">
+      <c r="AW12" s="4">
         <v>-44677000</v>
       </c>
-      <c r="AW12" s="4">
+      <c r="AX12" s="4">
         <v>1288000</v>
       </c>
-      <c r="AX12" s="4">
+      <c r="AY12" s="4">
         <v>-45965000</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>44681</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="12">
+        <v>514</v>
+      </c>
+      <c r="C13" s="4">
         <v>484489000</v>
       </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
       <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
         <v>24581000</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>18192000</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>527262000</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>125329000</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>11105000</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>103219000</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>13604000</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>5653000</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>7035000</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="4">
         <v>2787000</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <v>795994000</v>
       </c>
-      <c r="O13" s="4">
+      <c r="P13" s="4">
         <v>3168000</v>
       </c>
-      <c r="P13" s="4">
+      <c r="Q13" s="4">
         <v>43184000</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="R13" s="4">
         <v>60672000</v>
       </c>
-      <c r="R13" s="4">
+      <c r="S13" s="4">
         <v>15239000</v>
       </c>
-      <c r="S13" s="4">
+      <c r="T13" s="4">
         <v>7188000</v>
       </c>
-      <c r="T13" s="4">
+      <c r="U13" s="4">
         <v>129451000</v>
       </c>
-      <c r="U13" s="4">
-        <v>0</v>
-      </c>
       <c r="V13" s="4">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4">
         <v>12199000</v>
       </c>
-      <c r="W13" s="4">
+      <c r="X13" s="4">
         <v>19948000</v>
       </c>
-      <c r="X13" s="4">
-        <v>0</v>
-      </c>
       <c r="Y13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="4">
         <v>2271000</v>
       </c>
-      <c r="Z13" s="4">
-        <v>0</v>
-      </c>
       <c r="AA13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="4">
         <v>1419000</v>
       </c>
-      <c r="AB13" s="4">
+      <c r="AC13" s="4">
         <v>165288000</v>
       </c>
-      <c r="AC13" s="4">
+      <c r="AD13" s="4">
         <v>1450098000</v>
       </c>
-      <c r="AD13" s="4">
+      <c r="AE13" s="4">
         <v>2271000</v>
       </c>
-      <c r="AE13" s="4">
+      <c r="AF13" s="4">
         <v>-821690000</v>
       </c>
-      <c r="AF13" s="4">
+      <c r="AG13" s="4">
         <v>630706000</v>
       </c>
-      <c r="AG13" s="4">
+      <c r="AH13" s="4">
         <v>795994000</v>
       </c>
-      <c r="AH13" s="4">
+      <c r="AI13" s="4">
         <v>40127000</v>
       </c>
-      <c r="AI13" s="4">
+      <c r="AJ13" s="4">
         <v>23628000</v>
       </c>
-      <c r="AJ13" s="4">
+      <c r="AK13" s="4">
         <v>16499000</v>
       </c>
-      <c r="AK13" s="4">
+      <c r="AL13" s="4">
         <v>24750000</v>
       </c>
-      <c r="AL13" s="4">
+      <c r="AM13" s="4">
         <v>18855000</v>
       </c>
-      <c r="AM13" s="4">
+      <c r="AN13" s="4">
         <v>20608000</v>
       </c>
-      <c r="AN13" s="4">
+      <c r="AO13" s="4">
         <v>64213000</v>
       </c>
-      <c r="AO13" s="4">
+      <c r="AP13" s="4">
         <v>-47714000</v>
       </c>
-      <c r="AP13" s="4">
-        <v>0</v>
-      </c>
       <c r="AQ13" s="4">
         <v>0</v>
       </c>
@@ -2208,151 +2262,154 @@
         <v>0</v>
       </c>
       <c r="AS13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="4">
         <v>3276000</v>
       </c>
-      <c r="AT13" s="4">
+      <c r="AU13" s="4">
         <v>392000</v>
       </c>
-      <c r="AU13" s="4">
+      <c r="AV13" s="4">
         <v>3668000</v>
       </c>
-      <c r="AV13" s="4">
+      <c r="AW13" s="4">
         <v>-44046000</v>
       </c>
-      <c r="AW13" s="4">
+      <c r="AX13" s="4">
         <v>314000</v>
       </c>
-      <c r="AX13" s="4">
+      <c r="AY13" s="4">
         <v>-44360000</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>44773</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="12">
+        <v>514</v>
+      </c>
+      <c r="C14" s="9">
         <v>341806500</v>
       </c>
-      <c r="C14" s="9">
-        <v>0</v>
-      </c>
       <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
         <v>26795000</v>
       </c>
-      <c r="E14" s="9">
+      <c r="F14" s="9">
         <v>22269500</v>
       </c>
-      <c r="F14" s="9">
+      <c r="G14" s="9">
         <v>503952500</v>
       </c>
-      <c r="G14" s="9">
+      <c r="H14" s="9">
         <v>120357000</v>
       </c>
-      <c r="H14" s="9">
+      <c r="I14" s="9">
         <v>11143000</v>
       </c>
-      <c r="I14" s="9">
+      <c r="J14" s="9">
         <v>103219000</v>
       </c>
-      <c r="J14" s="9">
+      <c r="K14" s="9">
         <v>13011500</v>
       </c>
-      <c r="K14" s="9">
+      <c r="L14" s="9">
         <v>5408000</v>
       </c>
-      <c r="L14" s="9">
+      <c r="M14" s="9">
         <v>11420500</v>
       </c>
-      <c r="M14" s="9">
+      <c r="N14" s="9">
         <v>3099500</v>
       </c>
-      <c r="N14" s="9">
+      <c r="O14" s="9">
         <v>771611000</v>
       </c>
-      <c r="O14" s="9">
+      <c r="P14" s="9">
         <v>2862500</v>
       </c>
-      <c r="P14" s="9">
+      <c r="Q14" s="9">
         <v>42906500</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="R14" s="9">
         <v>54185000</v>
       </c>
-      <c r="R14" s="9">
+      <c r="S14" s="9">
         <v>14342500</v>
       </c>
-      <c r="S14" s="9">
+      <c r="T14" s="9">
         <v>5363000</v>
       </c>
-      <c r="T14" s="9">
+      <c r="U14" s="9">
         <v>119659500</v>
       </c>
-      <c r="U14" s="9">
-        <v>0</v>
-      </c>
       <c r="V14" s="9">
+        <v>0</v>
+      </c>
+      <c r="W14" s="9">
         <v>11026000</v>
       </c>
-      <c r="W14" s="9">
+      <c r="X14" s="9">
         <v>18901500</v>
       </c>
-      <c r="X14" s="9">
-        <v>0</v>
-      </c>
       <c r="Y14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="9">
         <v>8147500</v>
       </c>
-      <c r="Z14" s="9">
-        <v>0</v>
-      </c>
       <c r="AA14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="9">
         <v>1440000</v>
       </c>
-      <c r="AB14" s="9">
+      <c r="AC14" s="9">
         <v>159174500</v>
       </c>
-      <c r="AC14" s="9">
+      <c r="AD14" s="9">
         <v>1472375000</v>
       </c>
-      <c r="AD14" s="9">
+      <c r="AE14" s="9">
         <v>1607000</v>
       </c>
-      <c r="AE14" s="9">
+      <c r="AF14" s="9">
         <v>-861572500</v>
       </c>
-      <c r="AF14" s="9">
+      <c r="AG14" s="9">
         <v>612436500</v>
       </c>
-      <c r="AG14" s="9">
+      <c r="AH14" s="9">
         <v>771611000</v>
       </c>
-      <c r="AH14" s="4">
+      <c r="AI14" s="4">
         <v>48450000</v>
       </c>
-      <c r="AI14" s="4">
+      <c r="AJ14" s="4">
         <v>24977000</v>
       </c>
-      <c r="AJ14" s="4">
+      <c r="AK14" s="4">
         <v>23473000</v>
       </c>
-      <c r="AK14" s="4">
+      <c r="AL14" s="4">
         <v>26737000</v>
       </c>
-      <c r="AL14" s="4">
+      <c r="AM14" s="4">
         <v>19483000</v>
       </c>
-      <c r="AM14" s="4">
+      <c r="AN14" s="4">
         <v>19893000</v>
       </c>
-      <c r="AN14" s="4">
+      <c r="AO14" s="4">
         <v>66113000</v>
       </c>
-      <c r="AO14" s="4">
+      <c r="AP14" s="4">
         <v>-42640000</v>
       </c>
-      <c r="AP14" s="4">
-        <v>0</v>
-      </c>
       <c r="AQ14" s="4">
         <v>0</v>
       </c>
@@ -2363,1089 +2420,1114 @@
         <v>0</v>
       </c>
       <c r="AT14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="4">
         <v>1153000</v>
       </c>
-      <c r="AU14" s="4">
+      <c r="AV14" s="4">
         <v>3265000</v>
       </c>
-      <c r="AV14" s="4">
+      <c r="AW14" s="4">
         <v>-39375000</v>
       </c>
-      <c r="AW14" s="4">
+      <c r="AX14" s="4">
         <v>154000</v>
       </c>
-      <c r="AX14" s="4">
+      <c r="AY14" s="4">
         <v>-39529000</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>44865</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="12">
+        <v>514</v>
+      </c>
+      <c r="C15" s="5">
         <v>199124000</v>
       </c>
-      <c r="C15" s="5">
+      <c r="D15" s="5">
         <v>226163000</v>
       </c>
-      <c r="D15" s="5">
+      <c r="E15" s="5">
         <v>29009000</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F15" s="5">
         <v>26347000</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="5">
         <v>480643000</v>
       </c>
-      <c r="G15" s="5">
+      <c r="H15" s="5">
         <v>115385000</v>
       </c>
-      <c r="H15" s="5">
+      <c r="I15" s="5">
         <v>11181000</v>
       </c>
-      <c r="I15" s="5">
+      <c r="J15" s="5">
         <v>103219000</v>
       </c>
-      <c r="J15" s="5">
+      <c r="K15" s="5">
         <v>12419000</v>
       </c>
-      <c r="K15" s="5">
+      <c r="L15" s="5">
         <v>5163000</v>
       </c>
-      <c r="L15" s="5">
+      <c r="M15" s="5">
         <v>15806000</v>
       </c>
-      <c r="M15" s="5">
+      <c r="N15" s="5">
         <v>3412000</v>
       </c>
-      <c r="N15" s="5">
+      <c r="O15" s="5">
         <v>747228000</v>
       </c>
-      <c r="O15" s="5">
+      <c r="P15" s="5">
         <v>2557000</v>
       </c>
-      <c r="P15" s="5">
+      <c r="Q15" s="5">
         <v>42629000</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="R15" s="5">
         <v>47698000</v>
       </c>
-      <c r="R15" s="5">
+      <c r="S15" s="5">
         <v>13446000</v>
       </c>
-      <c r="S15" s="5">
+      <c r="T15" s="5">
         <v>3538000</v>
       </c>
-      <c r="T15" s="5">
+      <c r="U15" s="5">
         <v>109868000</v>
       </c>
-      <c r="U15" s="5">
-        <v>0</v>
-      </c>
       <c r="V15" s="5">
+        <v>0</v>
+      </c>
+      <c r="W15" s="5">
         <v>9853000</v>
       </c>
-      <c r="W15" s="5">
+      <c r="X15" s="5">
         <v>17855000</v>
       </c>
-      <c r="X15" s="5">
-        <v>0</v>
-      </c>
       <c r="Y15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="5">
         <v>14024000</v>
       </c>
-      <c r="Z15" s="5">
-        <v>0</v>
-      </c>
       <c r="AA15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="5">
         <v>1461000</v>
       </c>
-      <c r="AB15" s="5">
+      <c r="AC15" s="5">
         <v>153061000</v>
       </c>
-      <c r="AC15" s="5">
+      <c r="AD15" s="5">
         <v>1494652000</v>
       </c>
-      <c r="AD15" s="5">
+      <c r="AE15" s="5">
         <v>943000</v>
       </c>
-      <c r="AE15" s="5">
+      <c r="AF15" s="5">
         <v>-901455000</v>
       </c>
-      <c r="AF15" s="5">
+      <c r="AG15" s="5">
         <v>594167000</v>
       </c>
-      <c r="AG15" s="5">
+      <c r="AH15" s="5">
         <v>747228000</v>
       </c>
-      <c r="AH15" s="4">
+      <c r="AI15" s="4">
         <v>49704000</v>
       </c>
-      <c r="AI15" s="4">
+      <c r="AJ15" s="4">
         <v>24728000</v>
       </c>
-      <c r="AJ15" s="4">
+      <c r="AK15" s="4">
         <v>24976000</v>
       </c>
-      <c r="AK15" s="4">
+      <c r="AL15" s="4">
         <v>27598000</v>
       </c>
-      <c r="AL15" s="4">
+      <c r="AM15" s="4">
         <v>19383000</v>
       </c>
-      <c r="AM15" s="4">
+      <c r="AN15" s="4">
         <v>20627000</v>
       </c>
-      <c r="AN15" s="4">
+      <c r="AO15" s="4">
         <v>67608000</v>
       </c>
-      <c r="AO15" s="4">
+      <c r="AP15" s="4">
         <v>-42632000</v>
       </c>
-      <c r="AP15" s="4">
-        <v>0</v>
-      </c>
       <c r="AQ15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="4">
         <v>2853000</v>
       </c>
-      <c r="AR15" s="4">
-        <v>0</v>
-      </c>
       <c r="AS15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="4">
         <v>-19000</v>
       </c>
-      <c r="AT15" s="4">
+      <c r="AU15" s="4">
         <v>1000</v>
       </c>
-      <c r="AU15" s="4">
+      <c r="AV15" s="4">
         <v>2835000</v>
       </c>
-      <c r="AV15" s="4">
+      <c r="AW15" s="4">
         <v>-39797000</v>
       </c>
-      <c r="AW15" s="4">
+      <c r="AX15" s="4">
         <v>439000</v>
       </c>
-      <c r="AX15" s="4">
+      <c r="AY15" s="4">
         <v>-40236000</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>44957</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="12">
+        <v>550</v>
+      </c>
+      <c r="C16" s="5">
         <v>181892000</v>
       </c>
-      <c r="C16" s="5">
+      <c r="D16" s="5">
         <v>226868000</v>
       </c>
-      <c r="D16" s="5">
+      <c r="E16" s="5">
         <v>38952000</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F16" s="5">
         <v>27943000</v>
       </c>
-      <c r="F16" s="5">
+      <c r="G16" s="5">
         <v>475655000</v>
       </c>
-      <c r="G16" s="5">
+      <c r="H16" s="5">
         <v>108091000</v>
       </c>
-      <c r="H16" s="5">
+      <c r="I16" s="5">
         <v>11417000</v>
       </c>
-      <c r="I16" s="5">
+      <c r="J16" s="5">
         <v>112748000</v>
       </c>
-      <c r="J16" s="5">
+      <c r="K16" s="5">
         <v>14831000</v>
       </c>
-      <c r="K16" s="5">
+      <c r="L16" s="5">
         <v>5657000</v>
       </c>
-      <c r="L16" s="5">
+      <c r="M16" s="5">
         <v>20403000</v>
       </c>
-      <c r="M16" s="5">
+      <c r="N16" s="5">
         <v>3921000</v>
       </c>
-      <c r="N16" s="5">
+      <c r="O16" s="5">
         <v>752723000</v>
       </c>
-      <c r="O16" s="5">
+      <c r="P16" s="5">
         <v>6900000</v>
       </c>
-      <c r="P16" s="5">
+      <c r="Q16" s="5">
         <v>46022000</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="R16" s="5">
         <v>51900000</v>
       </c>
-      <c r="R16" s="5">
+      <c r="S16" s="5">
         <v>12550000</v>
       </c>
-      <c r="S16" s="5">
+      <c r="T16" s="5">
         <v>4885000</v>
       </c>
-      <c r="T16" s="5">
+      <c r="U16" s="5">
         <v>122257000</v>
       </c>
-      <c r="U16" s="5">
+      <c r="V16" s="5">
         <v>2882000</v>
       </c>
-      <c r="V16" s="5">
+      <c r="W16" s="5">
         <v>8679000</v>
       </c>
-      <c r="W16" s="5">
+      <c r="X16" s="5">
         <v>16670000</v>
       </c>
-      <c r="X16" s="5">
-        <v>0</v>
-      </c>
       <c r="Y16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="5">
         <v>17145000</v>
       </c>
-      <c r="Z16" s="5">
+      <c r="AA16" s="5">
         <v>7499000</v>
       </c>
-      <c r="AA16" s="5">
+      <c r="AB16" s="5">
         <v>1487000</v>
       </c>
-      <c r="AB16" s="5">
+      <c r="AC16" s="5">
         <v>176619000</v>
       </c>
-      <c r="AC16" s="5">
+      <c r="AD16" s="5">
         <v>1513102000</v>
       </c>
-      <c r="AD16" s="5">
+      <c r="AE16" s="5">
         <v>2271000</v>
       </c>
-      <c r="AE16" s="5">
+      <c r="AF16" s="5">
         <v>-939296000</v>
       </c>
-      <c r="AF16" s="5">
+      <c r="AG16" s="5">
         <v>576104000</v>
       </c>
-      <c r="AG16" s="5">
+      <c r="AH16" s="5">
         <v>752723000</v>
       </c>
-      <c r="AH16" s="4">
+      <c r="AI16" s="4">
         <v>52975000</v>
       </c>
-      <c r="AI16" s="4">
+      <c r="AJ16" s="4">
         <v>23915000</v>
       </c>
-      <c r="AJ16" s="4">
+      <c r="AK16" s="4">
         <v>29060000</v>
       </c>
-      <c r="AK16" s="4">
+      <c r="AL16" s="4">
         <v>31831000</v>
       </c>
-      <c r="AL16" s="4">
+      <c r="AM16" s="4">
         <v>20299000</v>
       </c>
-      <c r="AM16" s="4">
+      <c r="AN16" s="4">
         <v>19619000</v>
       </c>
-      <c r="AN16" s="4">
+      <c r="AO16" s="4">
         <v>71749000</v>
       </c>
-      <c r="AO16" s="4">
+      <c r="AP16" s="4">
         <v>-42689000</v>
       </c>
-      <c r="AP16" s="4">
-        <v>0</v>
-      </c>
       <c r="AQ16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="4">
         <v>4819000</v>
       </c>
-      <c r="AR16" s="4">
-        <v>0</v>
-      </c>
       <c r="AS16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="4">
         <v>3297000</v>
       </c>
-      <c r="AT16" s="4">
+      <c r="AU16" s="4">
         <v>-1216000</v>
       </c>
-      <c r="AU16" s="4">
+      <c r="AV16" s="4">
         <v>4788000</v>
       </c>
-      <c r="AV16" s="4">
+      <c r="AW16" s="4">
         <v>-37901000</v>
       </c>
-      <c r="AW16" s="4">
+      <c r="AX16" s="4">
         <v>-60000</v>
       </c>
-      <c r="AX16" s="4">
+      <c r="AY16" s="4">
         <v>-37841000</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>45046</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="12">
+        <v>550</v>
+      </c>
+      <c r="C17" s="5">
         <v>140763000</v>
       </c>
-      <c r="C17" s="5">
+      <c r="D17" s="5">
         <v>235415000</v>
       </c>
-      <c r="D17" s="5">
+      <c r="E17" s="5">
         <v>39072000</v>
       </c>
-      <c r="E17" s="5">
+      <c r="F17" s="5">
         <v>19275000</v>
       </c>
-      <c r="F17" s="5">
+      <c r="G17" s="5">
         <v>434525000</v>
       </c>
-      <c r="G17" s="5">
+      <c r="H17" s="5">
         <v>118193000</v>
       </c>
-      <c r="H17" s="5">
+      <c r="I17" s="5">
         <v>11878000</v>
       </c>
-      <c r="I17" s="5">
+      <c r="J17" s="5">
         <v>112748000</v>
       </c>
-      <c r="J17" s="5">
+      <c r="K17" s="5">
         <v>13999000</v>
       </c>
-      <c r="K17" s="5">
+      <c r="L17" s="5">
         <v>5660000</v>
       </c>
-      <c r="L17" s="5">
+      <c r="M17" s="5">
         <v>23697000</v>
       </c>
-      <c r="M17" s="5">
+      <c r="N17" s="5">
         <v>2757000</v>
       </c>
-      <c r="N17" s="5">
+      <c r="O17" s="5">
         <v>723457000</v>
       </c>
-      <c r="O17" s="5">
+      <c r="P17" s="5">
         <v>14657000</v>
       </c>
-      <c r="P17" s="5">
+      <c r="Q17" s="5">
         <v>34432000</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="R17" s="5">
         <v>44620000</v>
       </c>
-      <c r="R17" s="5">
+      <c r="S17" s="5">
         <v>11653000</v>
       </c>
-      <c r="S17" s="5">
+      <c r="T17" s="5">
         <v>6320000</v>
       </c>
-      <c r="T17" s="5">
+      <c r="U17" s="5">
         <v>111682000</v>
       </c>
-      <c r="U17" s="5">
+      <c r="V17" s="5">
         <v>2474000</v>
       </c>
-      <c r="V17" s="5">
+      <c r="W17" s="5">
         <v>10671000</v>
       </c>
-      <c r="W17" s="5">
+      <c r="X17" s="5">
         <v>10725000</v>
       </c>
-      <c r="X17" s="5">
+      <c r="Y17" s="5">
         <v>19912000</v>
       </c>
-      <c r="Y17" s="5">
+      <c r="Z17" s="5">
         <v>7142000</v>
       </c>
-      <c r="Z17" s="5">
-        <v>0</v>
-      </c>
       <c r="AA17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="5">
         <v>1502000</v>
       </c>
-      <c r="AB17" s="5">
+      <c r="AC17" s="5">
         <v>164108000</v>
       </c>
-      <c r="AC17" s="5">
+      <c r="AD17" s="5">
         <v>1531380000</v>
       </c>
-      <c r="AD17" s="5">
+      <c r="AE17" s="5">
         <v>1682000</v>
       </c>
-      <c r="AE17" s="5">
+      <c r="AF17" s="5">
         <v>-973740000</v>
       </c>
-      <c r="AF17" s="5">
+      <c r="AG17" s="5">
         <v>559349000</v>
       </c>
-      <c r="AG17" s="5">
+      <c r="AH17" s="5">
         <v>723457000</v>
       </c>
-      <c r="AH17" s="4">
+      <c r="AI17" s="4">
         <v>52703000</v>
       </c>
-      <c r="AI17" s="4">
+      <c r="AJ17" s="4">
         <v>24556000</v>
       </c>
-      <c r="AJ17" s="4">
+      <c r="AK17" s="4">
         <v>28147000</v>
       </c>
-      <c r="AK17" s="4">
+      <c r="AL17" s="4">
         <v>28186000</v>
       </c>
-      <c r="AL17" s="4">
+      <c r="AM17" s="4">
         <v>23125000</v>
       </c>
-      <c r="AM17" s="4">
+      <c r="AN17" s="4">
         <v>21528000</v>
       </c>
-      <c r="AN17" s="4">
+      <c r="AO17" s="4">
         <v>72839000</v>
       </c>
-      <c r="AO17" s="4">
+      <c r="AP17" s="4">
         <v>-44692000</v>
       </c>
-      <c r="AP17" s="4">
-        <v>0</v>
-      </c>
       <c r="AQ17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="4">
         <v>4506000</v>
       </c>
-      <c r="AR17" s="4">
-        <v>0</v>
-      </c>
       <c r="AS17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="4">
         <v>-5945000</v>
       </c>
-      <c r="AT17" s="4">
+      <c r="AU17" s="4">
         <v>104000</v>
       </c>
-      <c r="AU17" s="4">
+      <c r="AV17" s="4">
         <v>10555000</v>
       </c>
-      <c r="AV17" s="4">
+      <c r="AW17" s="4">
         <v>-34137000</v>
       </c>
-      <c r="AW17" s="4">
+      <c r="AX17" s="4">
         <v>307000</v>
       </c>
-      <c r="AX17" s="4">
+      <c r="AY17" s="4">
         <v>-34444000</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>45138</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="12">
+        <v>550</v>
+      </c>
+      <c r="C18" s="4">
         <v>118808000</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
         <v>248979000</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>40349000</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>19725000</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>427861000</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>120193000</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>12992000</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>112750000</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>14867000</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>5707000</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
         <v>23485000</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N18" s="4">
         <v>2562000</v>
       </c>
-      <c r="N18" s="4">
+      <c r="O18" s="4">
         <v>720417000</v>
       </c>
-      <c r="O18" s="4">
+      <c r="P18" s="4">
         <v>3825000</v>
       </c>
-      <c r="P18" s="6">
+      <c r="Q18" s="6">
         <v>37841000</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="R18" s="6">
         <v>56575000</v>
       </c>
-      <c r="R18" s="4">
+      <c r="S18" s="4">
         <v>10757000</v>
       </c>
-      <c r="S18" s="4">
+      <c r="T18" s="4">
         <v>7261000</v>
       </c>
-      <c r="T18" s="4">
+      <c r="U18" s="4">
         <v>116259000</v>
       </c>
-      <c r="U18" s="6">
+      <c r="V18" s="6">
         <v>18186000</v>
       </c>
-      <c r="V18" s="6">
+      <c r="W18" s="6">
         <v>9605000</v>
       </c>
-      <c r="W18" s="4">
+      <c r="X18" s="4">
         <v>9499000</v>
       </c>
-      <c r="X18" s="4">
-        <v>0</v>
-      </c>
       <c r="Y18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="4">
         <v>19139000</v>
       </c>
-      <c r="Z18" s="4">
+      <c r="AA18" s="4">
         <v>5926000</v>
       </c>
-      <c r="AA18" s="4">
+      <c r="AB18" s="4">
         <v>2235000</v>
       </c>
-      <c r="AB18" s="4">
+      <c r="AC18" s="4">
         <v>180849000</v>
       </c>
-      <c r="AC18" s="4">
+      <c r="AD18" s="4">
         <v>1549920000</v>
       </c>
-      <c r="AD18" s="4">
+      <c r="AE18" s="4">
         <v>1336000</v>
       </c>
-      <c r="AE18" s="4">
+      <c r="AF18" s="4">
         <v>-1011715000</v>
       </c>
-      <c r="AF18" s="4">
+      <c r="AG18" s="4">
         <v>539568000</v>
       </c>
-      <c r="AG18" s="4">
+      <c r="AH18" s="4">
         <v>720417000</v>
       </c>
-      <c r="AH18" s="4">
+      <c r="AI18" s="4">
         <v>53761000</v>
       </c>
-      <c r="AI18" s="4">
+      <c r="AJ18" s="4">
         <v>27469000</v>
       </c>
-      <c r="AJ18" s="4">
+      <c r="AK18" s="4">
         <v>26292000</v>
       </c>
-      <c r="AK18" s="4">
+      <c r="AL18" s="4">
         <v>26741000</v>
       </c>
-      <c r="AL18" s="4">
+      <c r="AM18" s="4">
         <v>22310000</v>
       </c>
-      <c r="AM18" s="4">
+      <c r="AN18" s="4">
         <v>20521000</v>
       </c>
-      <c r="AN18" s="4">
+      <c r="AO18" s="4">
         <v>69572000</v>
       </c>
-      <c r="AO18" s="4">
+      <c r="AP18" s="4">
         <v>-43280000</v>
       </c>
-      <c r="AP18" s="4">
-        <v>0</v>
-      </c>
       <c r="AQ18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="4">
         <v>3802000</v>
       </c>
-      <c r="AR18" s="4">
-        <v>0</v>
-      </c>
       <c r="AS18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="4">
         <v>1226000</v>
       </c>
-      <c r="AT18" s="4">
+      <c r="AU18" s="4">
         <v>859000</v>
       </c>
-      <c r="AU18" s="4">
+      <c r="AV18" s="4">
         <v>5887000</v>
       </c>
-      <c r="AV18" s="4">
+      <c r="AW18" s="4">
         <v>-37393000</v>
       </c>
-      <c r="AW18" s="4">
+      <c r="AX18" s="4">
         <v>582000</v>
       </c>
-      <c r="AX18" s="4">
+      <c r="AY18" s="4">
         <v>-37975000</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>45230</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="12">
+        <v>586</v>
+      </c>
+      <c r="C19" s="4">
         <v>101547000</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D19" s="4">
         <v>213347000</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E19" s="4">
         <v>45145000</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <v>19616000</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>387535000</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>114058000</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>14050000</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>135701000</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>27427000</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>10321000</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
         <v>22091000</v>
       </c>
-      <c r="M19" s="4">
+      <c r="N19" s="4">
         <v>2337000</v>
       </c>
-      <c r="N19" s="4">
+      <c r="O19" s="4">
         <v>713520000</v>
       </c>
-      <c r="O19" s="4">
+      <c r="P19" s="4">
         <v>4589000</v>
       </c>
-      <c r="P19" s="4">
+      <c r="Q19" s="4">
         <v>41961000</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="R19" s="4">
         <v>67228000</v>
       </c>
-      <c r="R19" s="4">
+      <c r="S19" s="4">
         <v>9860000</v>
       </c>
-      <c r="S19" s="4">
+      <c r="T19" s="4">
         <v>7500000</v>
       </c>
-      <c r="T19" s="4">
+      <c r="U19" s="4">
         <v>131138000</v>
       </c>
-      <c r="U19" s="4">
+      <c r="V19" s="4">
         <v>7763000</v>
       </c>
-      <c r="V19" s="4">
+      <c r="W19" s="4">
         <v>8353000</v>
       </c>
-      <c r="W19" s="4">
+      <c r="X19" s="4">
         <v>2666000</v>
       </c>
-      <c r="X19" s="4">
-        <v>0</v>
-      </c>
       <c r="Y19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="4">
         <v>17321000</v>
       </c>
-      <c r="Z19" s="4">
+      <c r="AA19" s="4">
         <v>5588000</v>
       </c>
-      <c r="AA19" s="4">
+      <c r="AB19" s="4">
         <v>7093000</v>
       </c>
-      <c r="AB19" s="4">
+      <c r="AC19" s="4">
         <v>179922000</v>
       </c>
-      <c r="AC19" s="4">
+      <c r="AD19" s="4">
         <v>1583531000</v>
       </c>
-      <c r="AD19" s="4">
+      <c r="AE19" s="4">
         <v>-242000</v>
       </c>
-      <c r="AE19" s="4">
+      <c r="AF19" s="4">
         <v>-1049719000</v>
       </c>
-      <c r="AF19" s="4">
+      <c r="AG19" s="4">
         <v>533598000</v>
       </c>
-      <c r="AG19" s="4">
+      <c r="AH19" s="4">
         <v>713520000</v>
       </c>
-      <c r="AH19" s="4">
+      <c r="AI19" s="4">
         <v>55380000</v>
       </c>
-      <c r="AI19" s="4">
+      <c r="AJ19" s="4">
         <v>29350000</v>
       </c>
-      <c r="AJ19" s="4">
+      <c r="AK19" s="4">
         <v>26030000</v>
       </c>
-      <c r="AK19" s="4">
+      <c r="AL19" s="4">
         <v>33002000</v>
       </c>
-      <c r="AL19" s="4">
+      <c r="AM19" s="4">
         <v>20774000</v>
       </c>
-      <c r="AM19" s="4">
+      <c r="AN19" s="4">
         <v>20112000</v>
       </c>
-      <c r="AN19" s="4">
+      <c r="AO19" s="4">
         <v>73888000</v>
       </c>
-      <c r="AO19" s="4">
+      <c r="AP19" s="4">
         <v>-47858000</v>
       </c>
-      <c r="AP19" s="4">
-        <v>0</v>
-      </c>
       <c r="AQ19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="4">
         <v>3445000</v>
       </c>
-      <c r="AR19" s="4">
-        <v>0</v>
-      </c>
       <c r="AS19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="4">
         <v>6833000</v>
       </c>
-      <c r="AT19" s="4">
+      <c r="AU19" s="4">
         <v>-69000</v>
       </c>
-      <c r="AU19" s="4">
+      <c r="AV19" s="4">
         <v>10209000</v>
       </c>
-      <c r="AV19" s="4">
+      <c r="AW19" s="4">
         <v>-37649000</v>
       </c>
-      <c r="AW19" s="4">
+      <c r="AX19" s="4">
         <v>355000</v>
       </c>
-      <c r="AX19" s="4">
+      <c r="AY19" s="4">
         <v>-38004000</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>45322</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="12">
+        <v>586</v>
+      </c>
+      <c r="C20" s="7">
         <v>83866000</v>
       </c>
-      <c r="C20" s="7">
+      <c r="D20" s="7">
         <v>215041000</v>
       </c>
-      <c r="D20" s="7">
+      <c r="E20" s="7">
         <v>43320000</v>
       </c>
-      <c r="E20" s="7">
+      <c r="F20" s="7">
         <v>19564000</v>
       </c>
-      <c r="F20" s="7">
+      <c r="G20" s="7">
         <v>370151000</v>
       </c>
-      <c r="G20" s="7">
+      <c r="H20" s="7">
         <v>113429000</v>
       </c>
-      <c r="H20" s="7">
+      <c r="I20" s="7">
         <v>14973000</v>
       </c>
-      <c r="I20" s="7">
+      <c r="J20" s="7">
         <v>136256000</v>
       </c>
-      <c r="J20" s="7">
+      <c r="K20" s="7">
         <v>32448000</v>
       </c>
-      <c r="K20" s="7">
+      <c r="L20" s="7">
         <v>9972000</v>
       </c>
-      <c r="L20" s="7">
+      <c r="M20" s="7">
         <v>22339000</v>
       </c>
-      <c r="M20" s="7">
+      <c r="N20" s="7">
         <v>2429000</v>
       </c>
-      <c r="N20" s="7">
+      <c r="O20" s="7">
         <v>701997000</v>
       </c>
-      <c r="O20" s="7">
+      <c r="P20" s="7">
         <v>2601000</v>
       </c>
-      <c r="P20" s="7">
+      <c r="Q20" s="7">
         <v>44779000</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="R20" s="7">
         <v>72327000</v>
       </c>
-      <c r="R20" s="7">
+      <c r="S20" s="7">
         <v>8964000</v>
       </c>
-      <c r="S20" s="7">
+      <c r="T20" s="7">
         <v>7978000</v>
       </c>
-      <c r="T20" s="7">
+      <c r="U20" s="7">
         <v>136649000</v>
       </c>
-      <c r="U20" s="7">
+      <c r="V20" s="7">
         <v>5293000</v>
       </c>
-      <c r="V20" s="7">
+      <c r="W20" s="7">
         <v>7101000</v>
       </c>
-      <c r="W20" s="7">
+      <c r="X20" s="7">
         <v>2961000</v>
       </c>
-      <c r="X20" s="7">
-        <v>0</v>
-      </c>
       <c r="Y20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="7">
         <v>16952000</v>
       </c>
-      <c r="Z20" s="7">
+      <c r="AA20" s="7">
         <v>5885000</v>
       </c>
-      <c r="AA20" s="7">
+      <c r="AB20" s="7">
         <v>9138000</v>
       </c>
-      <c r="AB20" s="7">
+      <c r="AC20" s="7">
         <v>183979000</v>
       </c>
-      <c r="AC20" s="7">
+      <c r="AD20" s="7">
         <v>1596201000</v>
       </c>
-      <c r="AD20" s="7">
+      <c r="AE20" s="7">
         <v>1594000</v>
       </c>
-      <c r="AE20" s="7">
+      <c r="AF20" s="7">
         <v>-1079805000</v>
       </c>
-      <c r="AF20" s="7">
+      <c r="AG20" s="7">
         <v>518018000</v>
       </c>
-      <c r="AG20" s="7">
+      <c r="AH20" s="7">
         <v>701997000</v>
       </c>
-      <c r="AH20" s="4">
+      <c r="AI20" s="4">
         <v>220696000</v>
       </c>
-      <c r="AI20" s="4">
+      <c r="AJ20" s="4">
         <v>107746000</v>
       </c>
-      <c r="AJ20" s="4">
+      <c r="AK20" s="4">
         <v>112950000</v>
       </c>
-      <c r="AK20" s="4">
+      <c r="AL20" s="4">
         <v>116339000</v>
       </c>
-      <c r="AL20" s="4">
+      <c r="AM20" s="4">
         <v>86304000</v>
       </c>
-      <c r="AM20" s="4">
+      <c r="AN20" s="4">
         <v>80055000</v>
       </c>
-      <c r="AN20" s="4">
+      <c r="AO20" s="4">
         <v>282698000</v>
       </c>
-      <c r="AO20" s="4">
+      <c r="AP20" s="4">
         <v>-169748000</v>
       </c>
-      <c r="AP20" s="4">
-        <v>0</v>
-      </c>
       <c r="AQ20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="4">
         <v>15414000</v>
       </c>
-      <c r="AR20" s="4">
-        <v>0</v>
-      </c>
       <c r="AS20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="4">
         <v>13709000</v>
       </c>
-      <c r="AT20" s="4">
+      <c r="AU20" s="4">
         <v>931000</v>
       </c>
-      <c r="AU20" s="4">
+      <c r="AV20" s="4">
         <v>30054000</v>
       </c>
-      <c r="AV20" s="4">
+      <c r="AW20" s="4">
         <v>-139694000</v>
       </c>
-      <c r="AW20" s="4">
+      <c r="AX20" s="4">
         <v>815000</v>
       </c>
-      <c r="AX20" s="4">
+      <c r="AY20" s="4">
         <v>-140509000</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>45412</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="12">
+        <v>586</v>
+      </c>
+      <c r="C21" s="7">
         <v>107367000</v>
       </c>
-      <c r="C21" s="7">
+      <c r="D21" s="7">
         <v>168218000</v>
       </c>
-      <c r="D21" s="7">
+      <c r="E21" s="7">
         <v>38527000</v>
       </c>
-      <c r="E21" s="7">
+      <c r="F21" s="7">
         <v>23044000</v>
       </c>
-      <c r="F21" s="7">
+      <c r="G21" s="7">
         <v>345958000</v>
       </c>
-      <c r="G21" s="7">
+      <c r="H21" s="7">
         <v>111338000</v>
       </c>
-      <c r="H21" s="7">
+      <c r="I21" s="7">
         <v>16066000</v>
       </c>
-      <c r="I21" s="7">
+      <c r="J21" s="7">
         <v>137110000</v>
       </c>
-      <c r="J21" s="7">
+      <c r="K21" s="7">
         <v>31403000</v>
       </c>
-      <c r="K21" s="7">
+      <c r="L21" s="7">
         <v>9564000</v>
       </c>
-      <c r="L21" s="7">
+      <c r="M21" s="7">
         <v>20966000</v>
       </c>
-      <c r="M21" s="7">
+      <c r="N21" s="7">
         <v>2199000</v>
       </c>
-      <c r="N21" s="7">
+      <c r="O21" s="7">
         <v>674604000</v>
       </c>
-      <c r="O21" s="7">
+      <c r="P21" s="7">
         <v>3131000</v>
       </c>
-      <c r="P21" s="7">
+      <c r="Q21" s="7">
         <v>43361000</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="R21" s="7">
         <v>63646000</v>
       </c>
-      <c r="R21" s="7">
+      <c r="S21" s="7">
         <v>8068000</v>
       </c>
-      <c r="S21" s="7">
+      <c r="T21" s="7">
         <v>8175000</v>
       </c>
-      <c r="T21" s="7">
+      <c r="U21" s="7">
         <v>126381000</v>
       </c>
-      <c r="U21" s="7">
+      <c r="V21" s="7">
         <v>13247000</v>
       </c>
-      <c r="V21" s="7">
+      <c r="W21" s="7">
         <v>9261000</v>
       </c>
-      <c r="W21" s="7">
+      <c r="X21" s="7">
         <v>1431000</v>
       </c>
-      <c r="X21" s="7">
-        <v>0</v>
-      </c>
       <c r="Y21" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="7">
         <v>15207000</v>
       </c>
-      <c r="Z21" s="7">
+      <c r="AA21" s="7">
         <v>2915000</v>
       </c>
-      <c r="AA21" s="7">
+      <c r="AB21" s="7">
         <v>5837000</v>
       </c>
-      <c r="AB21" s="7">
+      <c r="AC21" s="7">
         <v>174279000</v>
       </c>
-      <c r="AC21" s="7">
+      <c r="AD21" s="7">
         <v>1608847000</v>
       </c>
-      <c r="AD21" s="7">
+      <c r="AE21" s="7">
         <v>548000</v>
       </c>
-      <c r="AE21" s="7">
+      <c r="AF21" s="7">
         <v>-1109098000</v>
       </c>
-      <c r="AF21" s="7">
+      <c r="AG21" s="7">
         <v>500325000</v>
       </c>
-      <c r="AG21" s="7">
+      <c r="AH21" s="7">
         <v>674604000</v>
       </c>
-      <c r="AH21" s="4">
+      <c r="AI21" s="4">
         <v>60440000</v>
       </c>
-      <c r="AI21" s="4">
+      <c r="AJ21" s="4">
         <v>28757000</v>
       </c>
-      <c r="AJ21" s="4">
+      <c r="AK21" s="4">
         <v>31683000</v>
       </c>
-      <c r="AK21" s="4">
+      <c r="AL21" s="4">
         <v>25589000</v>
       </c>
-      <c r="AL21" s="4">
+      <c r="AM21" s="4">
         <v>21485000</v>
       </c>
-      <c r="AM21" s="4">
+      <c r="AN21" s="4">
         <v>19180000</v>
       </c>
-      <c r="AN21" s="4">
+      <c r="AO21" s="4">
         <v>66254000</v>
       </c>
-      <c r="AO21" s="4">
+      <c r="AP21" s="4">
         <v>-34571000</v>
       </c>
-      <c r="AP21" s="4">
-        <v>0</v>
-      </c>
       <c r="AQ21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="4">
         <v>3107000</v>
       </c>
-      <c r="AR21" s="4">
-        <v>0</v>
-      </c>
       <c r="AS21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="4">
         <v>1530000</v>
       </c>
-      <c r="AT21" s="4">
+      <c r="AU21" s="4">
         <v>1083000</v>
       </c>
-      <c r="AU21" s="4">
+      <c r="AV21" s="4">
         <v>5720000</v>
       </c>
-      <c r="AV21" s="4">
+      <c r="AW21" s="4">
         <v>-28851000</v>
       </c>
-      <c r="AW21" s="4">
+      <c r="AX21" s="4">
         <v>442000</v>
       </c>
-      <c r="AX21" s="4">
+      <c r="AY21" s="4">
         <v>-29293000</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:AG19">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:AH19">
     <sortCondition ref="A13:A19"/>
   </sortState>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/financial_data/planet.xlsx
+++ b/financial_data/planet.xlsx
@@ -164,7 +164,7 @@
     <t>Provision for income taxes</t>
   </si>
   <si>
-    <t>Net loss</t>
+    <t>Net Loss</t>
   </si>
   <si>
     <t>interpolated</t>
@@ -178,7 +178,7 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="165" formatCode="$#,##0_);($#,##0)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,19 +188,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -252,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -266,16 +260,10 @@
     <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -287,7 +275,7 @@
     <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -604,13 +592,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11" t="s">
         <v>50</v>
       </c>
     </row>
@@ -630,57 +618,57 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="11" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="11" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="11" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="11" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="11" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="11" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="11" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="11" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="11" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="11" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="11" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="11" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="11" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="11" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="11" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="11" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="11" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="11" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="11" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="11" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="11" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="11" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="11" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="11" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="11" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="11" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="11" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="11" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="11" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="41" max="41" style="11" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="42" max="42" style="11" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="43" max="43" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="44" max="44" style="11" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="45" max="45" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="46" max="46" style="11" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="47" max="47" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="48" max="48" style="11" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="49" max="49" style="11" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="50" max="50" style="11" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="51" max="51" style="11" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="9" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="9" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="9" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="9" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="9" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="9" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="9" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="9" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="9" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="9" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="9" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="9" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="9" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="9" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="9" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="9" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="9" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="9" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="9" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="9" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="9" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="9" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="9" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="9" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="9" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="9" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="9" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="9" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="9" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="9" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="9" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="40" max="40" style="9" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="41" max="41" style="9" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="42" max="42" style="9" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="43" max="43" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="44" max="44" style="9" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="45" max="45" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="46" max="46" style="9" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="47" max="47" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="48" max="48" style="9" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="49" max="49" style="9" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="50" max="50" style="9" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="51" max="51" style="9" width="15.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="71.25" customFormat="1" s="1">
@@ -819,7 +807,7 @@
       <c r="AS1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AT1" s="4" t="s">
         <v>44</v>
       </c>
       <c r="AU1" s="4" t="s">
@@ -877,55 +865,55 @@
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
-      <c r="AI2" s="6">
+      <c r="AI2" s="5">
         <v>23934000</v>
       </c>
-      <c r="AJ2" s="6">
+      <c r="AJ2" s="5">
         <v>25598250</v>
       </c>
-      <c r="AK2" s="6">
+      <c r="AK2" s="5">
         <v>-1664250</v>
       </c>
-      <c r="AL2" s="6">
+      <c r="AL2" s="5">
         <v>9467750</v>
       </c>
-      <c r="AM2" s="6">
+      <c r="AM2" s="5">
         <v>8728250</v>
       </c>
-      <c r="AN2" s="6">
+      <c r="AN2" s="5">
         <v>6754750</v>
       </c>
-      <c r="AO2" s="6">
+      <c r="AO2" s="5">
         <v>24950750</v>
       </c>
-      <c r="AP2" s="6">
+      <c r="AP2" s="5">
         <v>-26615000</v>
       </c>
-      <c r="AQ2" s="6">
+      <c r="AQ2" s="5">
         <v>-2882250</v>
       </c>
-      <c r="AR2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="6">
+      <c r="AR2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="5">
         <v>-1736500</v>
       </c>
-      <c r="AT2" s="6">
+      <c r="AT2" s="5">
         <v>51750</v>
       </c>
-      <c r="AU2" s="6">
+      <c r="AU2" s="5">
         <v>286000</v>
       </c>
-      <c r="AV2" s="6">
+      <c r="AV2" s="5">
         <v>-4281000</v>
       </c>
-      <c r="AW2" s="6">
+      <c r="AW2" s="5">
         <v>-30896000</v>
       </c>
-      <c r="AX2" s="6">
+      <c r="AX2" s="5">
         <v>32500</v>
       </c>
-      <c r="AY2" s="6">
+      <c r="AY2" s="5">
         <v>-30928500</v>
       </c>
     </row>
@@ -968,55 +956,55 @@
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
-      <c r="AI3" s="6">
+      <c r="AI3" s="5">
         <v>23934000</v>
       </c>
-      <c r="AJ3" s="6">
+      <c r="AJ3" s="5">
         <v>25598250</v>
       </c>
-      <c r="AK3" s="6">
+      <c r="AK3" s="5">
         <v>-1664250</v>
       </c>
-      <c r="AL3" s="6">
+      <c r="AL3" s="5">
         <v>9467750</v>
       </c>
-      <c r="AM3" s="6">
+      <c r="AM3" s="5">
         <v>8728250</v>
       </c>
-      <c r="AN3" s="6">
+      <c r="AN3" s="5">
         <v>6754750</v>
       </c>
-      <c r="AO3" s="6">
+      <c r="AO3" s="5">
         <v>24950750</v>
       </c>
-      <c r="AP3" s="6">
+      <c r="AP3" s="5">
         <v>-26615000</v>
       </c>
-      <c r="AQ3" s="6">
+      <c r="AQ3" s="5">
         <v>-2882250</v>
       </c>
-      <c r="AR3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="6">
+      <c r="AR3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="5">
         <v>-1736500</v>
       </c>
-      <c r="AT3" s="6">
+      <c r="AT3" s="5">
         <v>51750</v>
       </c>
-      <c r="AU3" s="6">
+      <c r="AU3" s="5">
         <v>286000</v>
       </c>
-      <c r="AV3" s="6">
+      <c r="AV3" s="5">
         <v>-4281000</v>
       </c>
-      <c r="AW3" s="6">
+      <c r="AW3" s="5">
         <v>-30896000</v>
       </c>
-      <c r="AX3" s="6">
+      <c r="AX3" s="5">
         <v>32500</v>
       </c>
-      <c r="AY3" s="6">
+      <c r="AY3" s="5">
         <v>-30928500</v>
       </c>
     </row>
@@ -1059,55 +1047,55 @@
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
-      <c r="AI4" s="6">
+      <c r="AI4" s="5">
         <v>23934000</v>
       </c>
-      <c r="AJ4" s="6">
+      <c r="AJ4" s="5">
         <v>25598250</v>
       </c>
-      <c r="AK4" s="6">
+      <c r="AK4" s="5">
         <v>-1664250</v>
       </c>
-      <c r="AL4" s="6">
+      <c r="AL4" s="5">
         <v>9467750</v>
       </c>
-      <c r="AM4" s="6">
+      <c r="AM4" s="5">
         <v>8728250</v>
       </c>
-      <c r="AN4" s="6">
+      <c r="AN4" s="5">
         <v>6754750</v>
       </c>
-      <c r="AO4" s="6">
+      <c r="AO4" s="5">
         <v>24950750</v>
       </c>
-      <c r="AP4" s="6">
+      <c r="AP4" s="5">
         <v>-26615000</v>
       </c>
-      <c r="AQ4" s="6">
+      <c r="AQ4" s="5">
         <v>-2882250</v>
       </c>
-      <c r="AR4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="6">
+      <c r="AR4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="5">
         <v>-1736500</v>
       </c>
-      <c r="AT4" s="6">
+      <c r="AT4" s="5">
         <v>51750</v>
       </c>
-      <c r="AU4" s="6">
+      <c r="AU4" s="5">
         <v>286000</v>
       </c>
-      <c r="AV4" s="6">
+      <c r="AV4" s="5">
         <v>-4281000</v>
       </c>
-      <c r="AW4" s="6">
+      <c r="AW4" s="5">
         <v>-30896000</v>
       </c>
-      <c r="AX4" s="6">
+      <c r="AX4" s="5">
         <v>32500</v>
       </c>
-      <c r="AY4" s="6">
+      <c r="AY4" s="5">
         <v>-30928500</v>
       </c>
     </row>
@@ -1150,55 +1138,55 @@
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
-      <c r="AI5" s="6">
+      <c r="AI5" s="5">
         <v>28292000</v>
       </c>
-      <c r="AJ5" s="6">
+      <c r="AJ5" s="5">
         <v>21845750</v>
       </c>
-      <c r="AK5" s="6">
+      <c r="AK5" s="5">
         <v>6446250</v>
       </c>
-      <c r="AL5" s="6">
+      <c r="AL5" s="5">
         <v>10956250</v>
       </c>
-      <c r="AM5" s="6">
+      <c r="AM5" s="5">
         <v>9317000</v>
       </c>
-      <c r="AN5" s="6">
+      <c r="AN5" s="5">
         <v>8033500</v>
       </c>
-      <c r="AO5" s="6">
+      <c r="AO5" s="5">
         <v>28306750</v>
       </c>
-      <c r="AP5" s="6">
+      <c r="AP5" s="5">
         <v>-21860500</v>
       </c>
-      <c r="AQ5" s="6">
+      <c r="AQ5" s="5">
         <v>168250</v>
       </c>
-      <c r="AR5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="6">
+      <c r="AR5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="5">
         <v>-2361750</v>
       </c>
-      <c r="AT5" s="6">
+      <c r="AT5" s="5">
         <v>-7513250</v>
       </c>
-      <c r="AU5" s="6">
+      <c r="AU5" s="5">
         <v>59750</v>
       </c>
-      <c r="AV5" s="6">
+      <c r="AV5" s="5">
         <v>-9647000</v>
       </c>
-      <c r="AW5" s="6">
+      <c r="AW5" s="5">
         <v>-31507500</v>
       </c>
-      <c r="AX5" s="6">
+      <c r="AX5" s="5">
         <v>268250</v>
       </c>
-      <c r="AY5" s="6">
+      <c r="AY5" s="5">
         <v>-31775750</v>
       </c>
     </row>
@@ -1241,55 +1229,55 @@
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
-      <c r="AI6" s="6">
+      <c r="AI6" s="5">
         <v>28292000</v>
       </c>
-      <c r="AJ6" s="6">
+      <c r="AJ6" s="5">
         <v>21845750</v>
       </c>
-      <c r="AK6" s="6">
+      <c r="AK6" s="5">
         <v>6446250</v>
       </c>
-      <c r="AL6" s="6">
+      <c r="AL6" s="5">
         <v>10956250</v>
       </c>
-      <c r="AM6" s="6">
+      <c r="AM6" s="5">
         <v>9317000</v>
       </c>
-      <c r="AN6" s="6">
+      <c r="AN6" s="5">
         <v>8033500</v>
       </c>
-      <c r="AO6" s="6">
+      <c r="AO6" s="5">
         <v>28306750</v>
       </c>
-      <c r="AP6" s="6">
+      <c r="AP6" s="5">
         <v>-21860500</v>
       </c>
-      <c r="AQ6" s="6">
+      <c r="AQ6" s="5">
         <v>168250</v>
       </c>
-      <c r="AR6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="6">
+      <c r="AR6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="5">
         <v>-2361750</v>
       </c>
-      <c r="AT6" s="6">
+      <c r="AT6" s="5">
         <v>-7513250</v>
       </c>
-      <c r="AU6" s="6">
+      <c r="AU6" s="5">
         <v>59750</v>
       </c>
-      <c r="AV6" s="6">
+      <c r="AV6" s="5">
         <v>-9647000</v>
       </c>
-      <c r="AW6" s="6">
+      <c r="AW6" s="5">
         <v>-31507500</v>
       </c>
-      <c r="AX6" s="6">
+      <c r="AX6" s="5">
         <v>268250</v>
       </c>
-      <c r="AY6" s="6">
+      <c r="AY6" s="5">
         <v>-31775750</v>
       </c>
     </row>
@@ -1332,55 +1320,55 @@
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
-      <c r="AI7" s="6">
+      <c r="AI7" s="5">
         <v>28292000</v>
       </c>
-      <c r="AJ7" s="6">
+      <c r="AJ7" s="5">
         <v>21845750</v>
       </c>
-      <c r="AK7" s="6">
+      <c r="AK7" s="5">
         <v>6446250</v>
       </c>
-      <c r="AL7" s="6">
+      <c r="AL7" s="5">
         <v>10956250</v>
       </c>
-      <c r="AM7" s="6">
+      <c r="AM7" s="5">
         <v>9317000</v>
       </c>
-      <c r="AN7" s="6">
+      <c r="AN7" s="5">
         <v>8033500</v>
       </c>
-      <c r="AO7" s="6">
+      <c r="AO7" s="5">
         <v>28306750</v>
       </c>
-      <c r="AP7" s="6">
+      <c r="AP7" s="5">
         <v>-21860500</v>
       </c>
-      <c r="AQ7" s="6">
+      <c r="AQ7" s="5">
         <v>168250</v>
       </c>
-      <c r="AR7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="6">
+      <c r="AR7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="5">
         <v>-2361750</v>
       </c>
-      <c r="AT7" s="6">
+      <c r="AT7" s="5">
         <v>-7513250</v>
       </c>
-      <c r="AU7" s="6">
+      <c r="AU7" s="5">
         <v>59750</v>
       </c>
-      <c r="AV7" s="6">
+      <c r="AV7" s="5">
         <v>-9647000</v>
       </c>
-      <c r="AW7" s="6">
+      <c r="AW7" s="5">
         <v>-31507500</v>
       </c>
-      <c r="AX7" s="6">
+      <c r="AX7" s="5">
         <v>268250</v>
       </c>
-      <c r="AY7" s="6">
+      <c r="AY7" s="5">
         <v>-31775750</v>
       </c>
     </row>
@@ -1391,151 +1379,151 @@
       <c r="B8" s="3">
         <v>470</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>71183000</v>
       </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
         <v>47110000</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>7134000</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>125427000</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>159855000</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>11994000</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>88393000</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>5673000</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>4982000</v>
       </c>
-      <c r="M8" s="6">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6">
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
         <v>2984000</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="5">
         <v>399308000</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="5">
         <v>1446000</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="5">
         <v>30195000</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="5">
         <v>57570000</v>
       </c>
-      <c r="S8" s="6">
-        <v>0</v>
-      </c>
-      <c r="T8" s="6">
-        <v>0</v>
-      </c>
-      <c r="U8" s="6">
+      <c r="S8" s="5">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5">
+        <v>0</v>
+      </c>
+      <c r="U8" s="5">
         <v>108814000</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8" s="5">
         <v>15122000</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8" s="5">
         <v>7971000</v>
       </c>
-      <c r="X8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="6">
+      <c r="X8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5">
         <v>2991000</v>
       </c>
-      <c r="Z8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="6">
+      <c r="Z8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="5">
         <v>1287000</v>
       </c>
-      <c r="AC8" s="6">
+      <c r="AC8" s="5">
         <v>291797000</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AD8" s="5">
         <v>745630000</v>
       </c>
-      <c r="AE8" s="6">
+      <c r="AE8" s="5">
         <v>1769000</v>
       </c>
-      <c r="AF8" s="6">
+      <c r="AF8" s="5">
         <v>-639905000</v>
       </c>
-      <c r="AG8" s="6">
+      <c r="AG8" s="5">
         <v>107511000</v>
       </c>
-      <c r="AH8" s="6">
+      <c r="AH8" s="5">
         <v>399308000</v>
       </c>
-      <c r="AI8" s="6">
+      <c r="AI8" s="5">
         <v>28292000</v>
       </c>
-      <c r="AJ8" s="6">
+      <c r="AJ8" s="5">
         <v>21845750</v>
       </c>
-      <c r="AK8" s="6">
+      <c r="AK8" s="5">
         <v>6446250</v>
       </c>
-      <c r="AL8" s="6">
+      <c r="AL8" s="5">
         <v>10956250</v>
       </c>
-      <c r="AM8" s="6">
+      <c r="AM8" s="5">
         <v>9317000</v>
       </c>
-      <c r="AN8" s="6">
+      <c r="AN8" s="5">
         <v>8033500</v>
       </c>
-      <c r="AO8" s="6">
+      <c r="AO8" s="5">
         <v>28306750</v>
       </c>
-      <c r="AP8" s="6">
+      <c r="AP8" s="5">
         <v>-21860500</v>
       </c>
-      <c r="AQ8" s="6">
+      <c r="AQ8" s="5">
         <v>168250</v>
       </c>
-      <c r="AR8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="6">
+      <c r="AR8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="5">
         <v>-2361750</v>
       </c>
-      <c r="AT8" s="6">
+      <c r="AT8" s="5">
         <v>-7513250</v>
       </c>
-      <c r="AU8" s="6">
+      <c r="AU8" s="5">
         <v>59750</v>
       </c>
-      <c r="AV8" s="6">
+      <c r="AV8" s="5">
         <v>-9647000</v>
       </c>
-      <c r="AW8" s="6">
+      <c r="AW8" s="5">
         <v>-31507500</v>
       </c>
-      <c r="AX8" s="6">
+      <c r="AX8" s="5">
         <v>268250</v>
       </c>
-      <c r="AY8" s="6">
+      <c r="AY8" s="5">
         <v>-31775750</v>
       </c>
     </row>
@@ -1546,151 +1534,151 @@
       <c r="B9" s="3">
         <v>470</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>173491304.10958904</v>
       </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
         <v>46442621.91780822</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>9389723.287671233</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>229323649.31506848</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>153375068.49315068</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>11695057.534246575</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>92008106.84931506</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <v>7751454.794520548</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <v>5167558.904109589</v>
       </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
         <v>2918164.383561644</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="6">
         <v>502239060.27397263</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="6">
         <v>1788345.205479452</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="6">
         <v>34737169.8630137</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="6">
         <v>59194676.71232877</v>
       </c>
-      <c r="S9" s="7">
-        <v>0</v>
-      </c>
-      <c r="T9" s="7">
-        <v>0</v>
-      </c>
-      <c r="U9" s="7">
+      <c r="S9" s="6">
+        <v>0</v>
+      </c>
+      <c r="T9" s="6">
+        <v>0</v>
+      </c>
+      <c r="U9" s="6">
         <v>114477569.8630137</v>
       </c>
-      <c r="V9" s="7">
+      <c r="V9" s="6">
         <v>12307405.479452055</v>
       </c>
-      <c r="W9" s="7">
+      <c r="W9" s="6">
         <v>8989745.205479452</v>
       </c>
-      <c r="X9" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="7">
+      <c r="X9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="6">
         <v>2456268.493150685</v>
       </c>
-      <c r="Z9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="7">
+      <c r="Z9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="6">
         <v>1315772.602739726</v>
       </c>
-      <c r="AC9" s="7">
+      <c r="AC9" s="6">
         <v>262877852.05479452</v>
       </c>
-      <c r="AD9" s="7">
+      <c r="AD9" s="6">
         <v>910833750.6849315</v>
       </c>
-      <c r="AE9" s="7">
+      <c r="AE9" s="6">
         <v>1848734.2465753425</v>
       </c>
-      <c r="AF9" s="7">
+      <c r="AF9" s="6">
         <v>-673340715.0684931</v>
       </c>
-      <c r="AG9" s="7">
+      <c r="AG9" s="6">
         <v>239361208.21917808</v>
       </c>
-      <c r="AH9" s="7">
+      <c r="AH9" s="6">
         <v>502239060.27397263</v>
       </c>
-      <c r="AI9" s="6">
+      <c r="AI9" s="5">
         <v>31957000</v>
       </c>
-      <c r="AJ9" s="6">
+      <c r="AJ9" s="5">
         <v>19126000</v>
       </c>
-      <c r="AK9" s="6">
+      <c r="AK9" s="5">
         <v>12831000</v>
       </c>
-      <c r="AL9" s="6">
+      <c r="AL9" s="5">
         <v>12130000</v>
       </c>
-      <c r="AM9" s="6">
+      <c r="AM9" s="5">
         <v>10653000</v>
       </c>
-      <c r="AN9" s="6">
+      <c r="AN9" s="5">
         <v>8315000</v>
       </c>
-      <c r="AO9" s="6">
+      <c r="AO9" s="5">
         <v>31098000</v>
       </c>
-      <c r="AP9" s="6">
+      <c r="AP9" s="5">
         <v>-18267000</v>
       </c>
-      <c r="AQ9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="6">
+      <c r="AQ9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="5">
         <v>-2527000</v>
       </c>
-      <c r="AT9" s="6">
+      <c r="AT9" s="5">
         <v>-8026000</v>
       </c>
-      <c r="AU9" s="6">
+      <c r="AU9" s="5">
         <v>-177000</v>
       </c>
-      <c r="AV9" s="6">
+      <c r="AV9" s="5">
         <v>-10730000</v>
       </c>
-      <c r="AW9" s="6">
+      <c r="AW9" s="5">
         <v>-28997000</v>
       </c>
-      <c r="AX9" s="6">
+      <c r="AX9" s="5">
         <v>258000</v>
       </c>
-      <c r="AY9" s="6">
+      <c r="AY9" s="5">
         <v>-29255000</v>
       </c>
     </row>
@@ -1701,151 +1689,151 @@
       <c r="B10" s="3">
         <v>470</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>279248202.739726</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
         <v>45752747.94520548</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>11721482.191780822</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>336722432.8767123</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>146676712.32876712</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>11386038.356164383</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>95745071.23287672</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="6">
         <v>9899969.8630137</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="6">
         <v>5359372.602739726</v>
       </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
         <v>2850109.5890410957</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="6">
         <v>608639706.849315</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="6">
         <v>2142230.1369863013</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="6">
         <v>39432446.57534246</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="6">
         <v>60874117.80821918</v>
       </c>
-      <c r="S10" s="7">
-        <v>0</v>
-      </c>
-      <c r="T10" s="7">
-        <v>0</v>
-      </c>
-      <c r="U10" s="7">
+      <c r="S10" s="6">
+        <v>0</v>
+      </c>
+      <c r="T10" s="6">
+        <v>0</v>
+      </c>
+      <c r="U10" s="6">
         <v>120332046.57534246</v>
       </c>
-      <c r="V10" s="7">
+      <c r="V10" s="6">
         <v>9397936.98630137</v>
       </c>
-      <c r="W10" s="7">
+      <c r="W10" s="6">
         <v>10042830.136986302</v>
       </c>
-      <c r="X10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="7">
+      <c r="X10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="6">
         <v>1903512.3287671232</v>
       </c>
-      <c r="Z10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="7">
+      <c r="Z10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="6">
         <v>1345515.0684931506</v>
       </c>
-      <c r="AC10" s="7">
+      <c r="AC10" s="6">
         <v>232983901.369863</v>
       </c>
-      <c r="AD10" s="7">
+      <c r="AD10" s="6">
         <v>1081606167.1232877</v>
       </c>
-      <c r="AE10" s="7">
+      <c r="AE10" s="6">
         <v>1931156.1643835616</v>
       </c>
-      <c r="AF10" s="7">
+      <c r="AF10" s="6">
         <v>-707903476.7123288</v>
       </c>
-      <c r="AG10" s="7">
+      <c r="AG10" s="6">
         <v>375655805.4794521</v>
       </c>
-      <c r="AH10" s="7">
+      <c r="AH10" s="6">
         <v>608639706.849315</v>
       </c>
-      <c r="AI10" s="6">
+      <c r="AI10" s="5">
         <v>30406000</v>
       </c>
-      <c r="AJ10" s="6">
+      <c r="AJ10" s="5">
         <v>19820000</v>
       </c>
-      <c r="AK10" s="6">
+      <c r="AK10" s="5">
         <v>10586000</v>
       </c>
-      <c r="AL10" s="6">
+      <c r="AL10" s="5">
         <v>12432000</v>
       </c>
-      <c r="AM10" s="6">
+      <c r="AM10" s="5">
         <v>10597000</v>
       </c>
-      <c r="AN10" s="6">
+      <c r="AN10" s="5">
         <v>11824000</v>
       </c>
-      <c r="AO10" s="6">
+      <c r="AO10" s="5">
         <v>34853000</v>
       </c>
-      <c r="AP10" s="6">
+      <c r="AP10" s="5">
         <v>-24267000</v>
       </c>
-      <c r="AQ10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="6">
+      <c r="AQ10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="5">
         <v>-2611000</v>
       </c>
-      <c r="AT10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="6">
+      <c r="AT10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="5">
         <v>-84000</v>
       </c>
-      <c r="AV10" s="6">
+      <c r="AV10" s="5">
         <v>4074000</v>
       </c>
-      <c r="AW10" s="6">
+      <c r="AW10" s="5">
         <v>-20193000</v>
       </c>
-      <c r="AX10" s="6">
+      <c r="AX10" s="5">
         <v>170000</v>
       </c>
-      <c r="AY10" s="6">
+      <c r="AY10" s="5">
         <v>-20363000</v>
       </c>
     </row>
@@ -1856,151 +1844,151 @@
       <c r="B11" s="3">
         <v>470</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>385005101.36986303</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
         <v>45062873.97260274</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>14053241.09589041</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>444121216.43835616</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>139978356.16438356</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>11077019.178082192</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>99482035.61643836</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <v>12048484.93150685</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <v>5551186.301369863</v>
       </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
         <v>2782054.794520548</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="6">
         <v>715040353.4246576</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="6">
         <v>2496115.0684931506</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="6">
         <v>44127723.28767124</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="6">
         <v>62553558.9041096</v>
       </c>
-      <c r="S11" s="7">
-        <v>0</v>
-      </c>
-      <c r="T11" s="7">
-        <v>0</v>
-      </c>
-      <c r="U11" s="7">
+      <c r="S11" s="6">
+        <v>0</v>
+      </c>
+      <c r="T11" s="6">
+        <v>0</v>
+      </c>
+      <c r="U11" s="6">
         <v>126186523.28767124</v>
       </c>
-      <c r="V11" s="7">
+      <c r="V11" s="6">
         <v>6488468.493150685</v>
       </c>
-      <c r="W11" s="7">
+      <c r="W11" s="6">
         <v>11095915.06849315</v>
       </c>
-      <c r="X11" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="7">
+      <c r="X11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="6">
         <v>1350756.1643835616</v>
       </c>
-      <c r="Z11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="7">
+      <c r="Z11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="6">
         <v>1375257.5342465753</v>
       </c>
-      <c r="AC11" s="7">
+      <c r="AC11" s="6">
         <v>203089950.68493152</v>
       </c>
-      <c r="AD11" s="7">
+      <c r="AD11" s="6">
         <v>1252378583.5616438</v>
       </c>
-      <c r="AE11" s="7">
+      <c r="AE11" s="6">
         <v>2013578.082191781</v>
       </c>
-      <c r="AF11" s="7">
+      <c r="AF11" s="6">
         <v>-742466238.3561645</v>
       </c>
-      <c r="AG11" s="7">
+      <c r="AG11" s="6">
         <v>511950402.73972607</v>
       </c>
-      <c r="AH11" s="7">
+      <c r="AH11" s="6">
         <v>715040353.4246576</v>
       </c>
-      <c r="AI11" s="6">
+      <c r="AI11" s="5">
         <v>31700000</v>
       </c>
-      <c r="AJ11" s="6">
+      <c r="AJ11" s="5">
         <v>20811000</v>
       </c>
-      <c r="AK11" s="6">
+      <c r="AK11" s="5">
         <v>10889000</v>
       </c>
-      <c r="AL11" s="6">
+      <c r="AL11" s="5">
         <v>14959000</v>
       </c>
-      <c r="AM11" s="6">
+      <c r="AM11" s="5">
         <v>12441000</v>
       </c>
-      <c r="AN11" s="6">
+      <c r="AN11" s="5">
         <v>11800000</v>
       </c>
-      <c r="AO11" s="6">
+      <c r="AO11" s="5">
         <v>39200000</v>
       </c>
-      <c r="AP11" s="6">
+      <c r="AP11" s="5">
         <v>-28311000</v>
       </c>
-      <c r="AQ11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="6">
+      <c r="AQ11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="5">
         <v>8000</v>
       </c>
-      <c r="AS11" s="6">
+      <c r="AS11" s="5">
         <v>-2612000</v>
       </c>
-      <c r="AT11" s="6">
+      <c r="AT11" s="5">
         <v>-10172000</v>
       </c>
-      <c r="AU11" s="6">
+      <c r="AU11" s="5">
         <v>-60000</v>
       </c>
-      <c r="AV11" s="6">
+      <c r="AV11" s="5">
         <v>-12836000</v>
       </c>
-      <c r="AW11" s="6">
+      <c r="AW11" s="5">
         <v>-41147000</v>
       </c>
-      <c r="AX11" s="6">
+      <c r="AX11" s="5">
         <v>394000</v>
       </c>
-      <c r="AY11" s="6">
+      <c r="AY11" s="5">
         <v>-41541000</v>
       </c>
     </row>
@@ -2011,151 +1999,151 @@
       <c r="B12" s="3">
         <v>514</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="5">
         <v>490762000</v>
       </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
         <v>44373000</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="5">
         <v>16385000</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="5">
         <v>551520000</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="5">
         <v>133280000</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="5">
         <v>10768000</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="5">
         <v>103219000</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="5">
         <v>14197000</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="5">
         <v>5743000</v>
       </c>
-      <c r="M12" s="6">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8">
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
         <v>2714000</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="5">
         <v>821441000</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="5">
         <v>2850000</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="5">
         <v>48823000</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="5">
         <v>64233000</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S12" s="5">
         <v>16135000</v>
       </c>
-      <c r="T12" s="6">
-        <v>0</v>
-      </c>
-      <c r="U12" s="8">
+      <c r="T12" s="5">
+        <v>0</v>
+      </c>
+      <c r="U12" s="5">
         <v>132041000</v>
       </c>
-      <c r="V12" s="8">
+      <c r="V12" s="5">
         <v>3579000</v>
       </c>
-      <c r="W12" s="8">
+      <c r="W12" s="5">
         <v>12149000</v>
       </c>
-      <c r="X12" s="8">
+      <c r="X12" s="5">
         <v>23224000</v>
       </c>
-      <c r="Y12" s="8">
+      <c r="Y12" s="5">
         <v>798000</v>
       </c>
-      <c r="Z12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="8">
+      <c r="Z12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="5">
         <v>1405000</v>
       </c>
-      <c r="AC12" s="8">
+      <c r="AC12" s="5">
         <v>173196000</v>
       </c>
-      <c r="AD12" s="8">
+      <c r="AD12" s="5">
         <v>1423151000</v>
       </c>
-      <c r="AE12" s="8">
+      <c r="AE12" s="5">
         <v>2096000</v>
       </c>
-      <c r="AF12" s="8">
+      <c r="AF12" s="5">
         <v>-777029000</v>
       </c>
-      <c r="AG12" s="8">
+      <c r="AG12" s="5">
         <v>648245000</v>
       </c>
-      <c r="AH12" s="8">
+      <c r="AH12" s="5">
         <v>821441000</v>
       </c>
-      <c r="AI12" s="6">
+      <c r="AI12" s="5">
         <v>37146000</v>
       </c>
-      <c r="AJ12" s="6">
+      <c r="AJ12" s="5">
         <v>23230000</v>
       </c>
-      <c r="AK12" s="6">
+      <c r="AK12" s="5">
         <v>13916000</v>
       </c>
-      <c r="AL12" s="6">
+      <c r="AL12" s="5">
         <v>27163000</v>
       </c>
-      <c r="AM12" s="6">
+      <c r="AM12" s="5">
         <v>19226000</v>
       </c>
-      <c r="AN12" s="6">
+      <c r="AN12" s="5">
         <v>24733000</v>
       </c>
-      <c r="AO12" s="6">
+      <c r="AO12" s="5">
         <v>71122000</v>
       </c>
-      <c r="AP12" s="6">
+      <c r="AP12" s="5">
         <v>-57206000</v>
       </c>
-      <c r="AQ12" s="6">
+      <c r="AQ12" s="5">
         <v>-1690000</v>
       </c>
-      <c r="AR12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="6">
+      <c r="AR12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="5">
         <v>-1022000</v>
       </c>
-      <c r="AT12" s="6">
+      <c r="AT12" s="5">
         <v>23924000</v>
       </c>
-      <c r="AU12" s="6">
+      <c r="AU12" s="5">
         <v>-1906000</v>
       </c>
-      <c r="AV12" s="6">
+      <c r="AV12" s="5">
         <v>12529000</v>
       </c>
-      <c r="AW12" s="6">
+      <c r="AW12" s="5">
         <v>-44677000</v>
       </c>
-      <c r="AX12" s="6">
+      <c r="AX12" s="5">
         <v>1288000</v>
       </c>
-      <c r="AY12" s="6">
+      <c r="AY12" s="5">
         <v>-45965000</v>
       </c>
     </row>
@@ -2166,151 +2154,151 @@
       <c r="B13" s="3">
         <v>514</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>484489000</v>
       </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
         <v>24581000</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>18192000</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>527262000</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>125329000</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>11105000</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>103219000</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>13604000</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>5653000</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="5">
         <v>7035000</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="5">
         <v>2787000</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="5">
         <v>795994000</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="5">
         <v>3168000</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="5">
         <v>43184000</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="5">
         <v>60672000</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="5">
         <v>15239000</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13" s="5">
         <v>7188000</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="5">
         <v>129451000</v>
       </c>
-      <c r="V13" s="6">
-        <v>0</v>
-      </c>
-      <c r="W13" s="6">
+      <c r="V13" s="5">
+        <v>0</v>
+      </c>
+      <c r="W13" s="5">
         <v>12199000</v>
       </c>
-      <c r="X13" s="6">
+      <c r="X13" s="5">
         <v>19948000</v>
       </c>
-      <c r="Y13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="6">
+      <c r="Y13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="5">
         <v>2271000</v>
       </c>
-      <c r="AA13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="6">
+      <c r="AA13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="5">
         <v>1419000</v>
       </c>
-      <c r="AC13" s="6">
+      <c r="AC13" s="5">
         <v>165288000</v>
       </c>
-      <c r="AD13" s="6">
+      <c r="AD13" s="5">
         <v>1450098000</v>
       </c>
-      <c r="AE13" s="6">
+      <c r="AE13" s="5">
         <v>2271000</v>
       </c>
-      <c r="AF13" s="6">
+      <c r="AF13" s="5">
         <v>-821690000</v>
       </c>
-      <c r="AG13" s="6">
+      <c r="AG13" s="5">
         <v>630706000</v>
       </c>
-      <c r="AH13" s="6">
+      <c r="AH13" s="5">
         <v>795994000</v>
       </c>
-      <c r="AI13" s="6">
+      <c r="AI13" s="5">
         <v>40127000</v>
       </c>
-      <c r="AJ13" s="6">
+      <c r="AJ13" s="5">
         <v>23628000</v>
       </c>
-      <c r="AK13" s="6">
+      <c r="AK13" s="5">
         <v>16499000</v>
       </c>
-      <c r="AL13" s="6">
+      <c r="AL13" s="5">
         <v>24750000</v>
       </c>
-      <c r="AM13" s="6">
+      <c r="AM13" s="5">
         <v>18855000</v>
       </c>
-      <c r="AN13" s="6">
+      <c r="AN13" s="5">
         <v>20608000</v>
       </c>
-      <c r="AO13" s="6">
+      <c r="AO13" s="5">
         <v>64213000</v>
       </c>
-      <c r="AP13" s="6">
+      <c r="AP13" s="5">
         <v>-47714000</v>
       </c>
-      <c r="AQ13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="6">
+      <c r="AQ13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="5">
         <v>3276000</v>
       </c>
-      <c r="AU13" s="6">
+      <c r="AU13" s="5">
         <v>392000</v>
       </c>
-      <c r="AV13" s="6">
+      <c r="AV13" s="5">
         <v>3668000</v>
       </c>
-      <c r="AW13" s="6">
+      <c r="AW13" s="5">
         <v>-44046000</v>
       </c>
-      <c r="AX13" s="6">
+      <c r="AX13" s="5">
         <v>314000</v>
       </c>
-      <c r="AY13" s="6">
+      <c r="AY13" s="5">
         <v>-44360000</v>
       </c>
     </row>
@@ -2321,151 +2309,151 @@
       <c r="B14" s="3">
         <v>514</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>341806500</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
         <v>26795000</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>22269500</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>503952500</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>120357000</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>11143000</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>103219000</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <v>13011500</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="6">
         <v>5408000</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="6">
         <v>11420500</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="6">
         <v>3099500</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="6">
         <v>771611000</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="6">
         <v>2862500</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="6">
         <v>42906500</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="6">
         <v>54185000</v>
       </c>
-      <c r="S14" s="7">
+      <c r="S14" s="6">
         <v>14342500</v>
       </c>
-      <c r="T14" s="7">
+      <c r="T14" s="6">
         <v>5363000</v>
       </c>
-      <c r="U14" s="7">
+      <c r="U14" s="6">
         <v>119659500</v>
       </c>
-      <c r="V14" s="7">
-        <v>0</v>
-      </c>
-      <c r="W14" s="7">
+      <c r="V14" s="6">
+        <v>0</v>
+      </c>
+      <c r="W14" s="6">
         <v>11026000</v>
       </c>
-      <c r="X14" s="7">
+      <c r="X14" s="6">
         <v>18901500</v>
       </c>
-      <c r="Y14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="7">
+      <c r="Y14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="6">
         <v>8147500</v>
       </c>
-      <c r="AA14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="7">
+      <c r="AA14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="6">
         <v>1440000</v>
       </c>
-      <c r="AC14" s="7">
+      <c r="AC14" s="6">
         <v>159174500</v>
       </c>
-      <c r="AD14" s="7">
+      <c r="AD14" s="6">
         <v>1472375000</v>
       </c>
-      <c r="AE14" s="7">
+      <c r="AE14" s="6">
         <v>1607000</v>
       </c>
-      <c r="AF14" s="7">
+      <c r="AF14" s="6">
         <v>-861572500</v>
       </c>
-      <c r="AG14" s="7">
+      <c r="AG14" s="6">
         <v>612436500</v>
       </c>
-      <c r="AH14" s="7">
+      <c r="AH14" s="6">
         <v>771611000</v>
       </c>
-      <c r="AI14" s="6">
+      <c r="AI14" s="5">
         <v>48450000</v>
       </c>
-      <c r="AJ14" s="6">
+      <c r="AJ14" s="5">
         <v>24977000</v>
       </c>
-      <c r="AK14" s="6">
+      <c r="AK14" s="5">
         <v>23473000</v>
       </c>
-      <c r="AL14" s="6">
+      <c r="AL14" s="5">
         <v>26737000</v>
       </c>
-      <c r="AM14" s="6">
+      <c r="AM14" s="5">
         <v>19483000</v>
       </c>
-      <c r="AN14" s="6">
+      <c r="AN14" s="5">
         <v>19893000</v>
       </c>
-      <c r="AO14" s="6">
+      <c r="AO14" s="5">
         <v>66113000</v>
       </c>
-      <c r="AP14" s="6">
+      <c r="AP14" s="5">
         <v>-42640000</v>
       </c>
-      <c r="AQ14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AU14" s="6">
+      <c r="AQ14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="5">
         <v>1153000</v>
       </c>
-      <c r="AV14" s="6">
+      <c r="AV14" s="5">
         <v>3265000</v>
       </c>
-      <c r="AW14" s="6">
+      <c r="AW14" s="5">
         <v>-39375000</v>
       </c>
-      <c r="AX14" s="6">
+      <c r="AX14" s="5">
         <v>154000</v>
       </c>
-      <c r="AY14" s="6">
+      <c r="AY14" s="5">
         <v>-39529000</v>
       </c>
     </row>
@@ -2476,151 +2464,151 @@
       <c r="B15" s="3">
         <v>514</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="5">
         <v>199124000</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="5">
         <v>226163000</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="5">
         <v>29009000</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="5">
         <v>26347000</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="5">
         <v>480643000</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="5">
         <v>115385000</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="5">
         <v>11181000</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="5">
         <v>103219000</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="5">
         <v>12419000</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="5">
         <v>5163000</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="5">
         <v>15806000</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="5">
         <v>3412000</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="5">
         <v>747228000</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="5">
         <v>2557000</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="5">
         <v>42629000</v>
       </c>
-      <c r="R15" s="8">
+      <c r="R15" s="5">
         <v>47698000</v>
       </c>
-      <c r="S15" s="8">
+      <c r="S15" s="5">
         <v>13446000</v>
       </c>
-      <c r="T15" s="8">
+      <c r="T15" s="5">
         <v>3538000</v>
       </c>
-      <c r="U15" s="8">
+      <c r="U15" s="5">
         <v>109868000</v>
       </c>
-      <c r="V15" s="8">
-        <v>0</v>
-      </c>
-      <c r="W15" s="8">
+      <c r="V15" s="5">
+        <v>0</v>
+      </c>
+      <c r="W15" s="5">
         <v>9853000</v>
       </c>
-      <c r="X15" s="8">
+      <c r="X15" s="5">
         <v>17855000</v>
       </c>
-      <c r="Y15" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="8">
+      <c r="Y15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="5">
         <v>14024000</v>
       </c>
-      <c r="AA15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="8">
+      <c r="AA15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="5">
         <v>1461000</v>
       </c>
-      <c r="AC15" s="8">
+      <c r="AC15" s="5">
         <v>153061000</v>
       </c>
-      <c r="AD15" s="8">
+      <c r="AD15" s="5">
         <v>1494652000</v>
       </c>
-      <c r="AE15" s="8">
+      <c r="AE15" s="5">
         <v>943000</v>
       </c>
-      <c r="AF15" s="8">
+      <c r="AF15" s="5">
         <v>-901455000</v>
       </c>
-      <c r="AG15" s="8">
+      <c r="AG15" s="5">
         <v>594167000</v>
       </c>
-      <c r="AH15" s="8">
+      <c r="AH15" s="5">
         <v>747228000</v>
       </c>
-      <c r="AI15" s="6">
+      <c r="AI15" s="5">
         <v>49704000</v>
       </c>
-      <c r="AJ15" s="6">
+      <c r="AJ15" s="5">
         <v>24728000</v>
       </c>
-      <c r="AK15" s="6">
+      <c r="AK15" s="5">
         <v>24976000</v>
       </c>
-      <c r="AL15" s="6">
+      <c r="AL15" s="5">
         <v>27598000</v>
       </c>
-      <c r="AM15" s="6">
+      <c r="AM15" s="5">
         <v>19383000</v>
       </c>
-      <c r="AN15" s="6">
+      <c r="AN15" s="5">
         <v>20627000</v>
       </c>
-      <c r="AO15" s="6">
+      <c r="AO15" s="5">
         <v>67608000</v>
       </c>
-      <c r="AP15" s="6">
+      <c r="AP15" s="5">
         <v>-42632000</v>
       </c>
-      <c r="AQ15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="6">
+      <c r="AQ15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="5">
         <v>2853000</v>
       </c>
-      <c r="AS15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="6">
+      <c r="AS15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="5">
         <v>-19000</v>
       </c>
-      <c r="AU15" s="6">
+      <c r="AU15" s="5">
         <v>1000</v>
       </c>
-      <c r="AV15" s="6">
+      <c r="AV15" s="5">
         <v>2835000</v>
       </c>
-      <c r="AW15" s="6">
+      <c r="AW15" s="5">
         <v>-39797000</v>
       </c>
-      <c r="AX15" s="6">
+      <c r="AX15" s="5">
         <v>439000</v>
       </c>
-      <c r="AY15" s="6">
+      <c r="AY15" s="5">
         <v>-40236000</v>
       </c>
     </row>
@@ -2631,151 +2619,151 @@
       <c r="B16" s="3">
         <v>550</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="5">
         <v>181892000</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="5">
         <v>226868000</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="5">
         <v>38952000</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="5">
         <v>27943000</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="5">
         <v>475655000</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="5">
         <v>108091000</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="5">
         <v>11417000</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="5">
         <v>112748000</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="5">
         <v>14831000</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="5">
         <v>5657000</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="5">
         <v>20403000</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="5">
         <v>3921000</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="5">
         <v>752723000</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="5">
         <v>6900000</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q16" s="5">
         <v>46022000</v>
       </c>
-      <c r="R16" s="8">
+      <c r="R16" s="5">
         <v>51900000</v>
       </c>
-      <c r="S16" s="8">
+      <c r="S16" s="5">
         <v>12550000</v>
       </c>
-      <c r="T16" s="8">
+      <c r="T16" s="5">
         <v>4885000</v>
       </c>
-      <c r="U16" s="8">
+      <c r="U16" s="5">
         <v>122257000</v>
       </c>
-      <c r="V16" s="8">
+      <c r="V16" s="5">
         <v>2882000</v>
       </c>
-      <c r="W16" s="8">
+      <c r="W16" s="5">
         <v>8679000</v>
       </c>
-      <c r="X16" s="8">
+      <c r="X16" s="5">
         <v>16670000</v>
       </c>
-      <c r="Y16" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="8">
+      <c r="Y16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="5">
         <v>17145000</v>
       </c>
-      <c r="AA16" s="8">
+      <c r="AA16" s="5">
         <v>7499000</v>
       </c>
-      <c r="AB16" s="8">
+      <c r="AB16" s="5">
         <v>1487000</v>
       </c>
-      <c r="AC16" s="8">
+      <c r="AC16" s="5">
         <v>176619000</v>
       </c>
-      <c r="AD16" s="8">
+      <c r="AD16" s="5">
         <v>1513102000</v>
       </c>
-      <c r="AE16" s="8">
+      <c r="AE16" s="5">
         <v>2271000</v>
       </c>
-      <c r="AF16" s="8">
+      <c r="AF16" s="5">
         <v>-939296000</v>
       </c>
-      <c r="AG16" s="8">
+      <c r="AG16" s="5">
         <v>576104000</v>
       </c>
-      <c r="AH16" s="8">
+      <c r="AH16" s="5">
         <v>752723000</v>
       </c>
-      <c r="AI16" s="6">
+      <c r="AI16" s="5">
         <v>52975000</v>
       </c>
-      <c r="AJ16" s="6">
+      <c r="AJ16" s="5">
         <v>23915000</v>
       </c>
-      <c r="AK16" s="6">
+      <c r="AK16" s="5">
         <v>29060000</v>
       </c>
-      <c r="AL16" s="6">
+      <c r="AL16" s="5">
         <v>31831000</v>
       </c>
-      <c r="AM16" s="6">
+      <c r="AM16" s="5">
         <v>20299000</v>
       </c>
-      <c r="AN16" s="6">
+      <c r="AN16" s="5">
         <v>19619000</v>
       </c>
-      <c r="AO16" s="6">
+      <c r="AO16" s="5">
         <v>71749000</v>
       </c>
-      <c r="AP16" s="6">
+      <c r="AP16" s="5">
         <v>-42689000</v>
       </c>
-      <c r="AQ16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="6">
+      <c r="AQ16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="5">
         <v>4819000</v>
       </c>
-      <c r="AS16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="6">
+      <c r="AS16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="5">
         <v>3297000</v>
       </c>
-      <c r="AU16" s="6">
+      <c r="AU16" s="5">
         <v>-1216000</v>
       </c>
-      <c r="AV16" s="6">
+      <c r="AV16" s="5">
         <v>4788000</v>
       </c>
-      <c r="AW16" s="6">
+      <c r="AW16" s="5">
         <v>-37901000</v>
       </c>
-      <c r="AX16" s="6">
+      <c r="AX16" s="5">
         <v>-60000</v>
       </c>
-      <c r="AY16" s="6">
+      <c r="AY16" s="5">
         <v>-37841000</v>
       </c>
     </row>
@@ -2786,151 +2774,151 @@
       <c r="B17" s="3">
         <v>550</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="5">
         <v>140763000</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="5">
         <v>235415000</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="5">
         <v>39072000</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="5">
         <v>19275000</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="5">
         <v>434525000</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="5">
         <v>118193000</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="5">
         <v>11878000</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="5">
         <v>112748000</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="5">
         <v>13999000</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="5">
         <v>5660000</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="5">
         <v>23697000</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="5">
         <v>2757000</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="5">
         <v>723457000</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="5">
         <v>14657000</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q17" s="5">
         <v>34432000</v>
       </c>
-      <c r="R17" s="8">
+      <c r="R17" s="5">
         <v>44620000</v>
       </c>
-      <c r="S17" s="8">
+      <c r="S17" s="5">
         <v>11653000</v>
       </c>
-      <c r="T17" s="8">
+      <c r="T17" s="5">
         <v>6320000</v>
       </c>
-      <c r="U17" s="8">
+      <c r="U17" s="5">
         <v>111682000</v>
       </c>
-      <c r="V17" s="8">
+      <c r="V17" s="5">
         <v>2474000</v>
       </c>
-      <c r="W17" s="8">
+      <c r="W17" s="5">
         <v>10671000</v>
       </c>
-      <c r="X17" s="8">
+      <c r="X17" s="5">
         <v>10725000</v>
       </c>
-      <c r="Y17" s="8">
+      <c r="Y17" s="5">
         <v>19912000</v>
       </c>
-      <c r="Z17" s="8">
+      <c r="Z17" s="5">
         <v>7142000</v>
       </c>
-      <c r="AA17" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="8">
+      <c r="AA17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="5">
         <v>1502000</v>
       </c>
-      <c r="AC17" s="8">
+      <c r="AC17" s="5">
         <v>164108000</v>
       </c>
-      <c r="AD17" s="8">
+      <c r="AD17" s="5">
         <v>1531380000</v>
       </c>
-      <c r="AE17" s="8">
+      <c r="AE17" s="5">
         <v>1682000</v>
       </c>
-      <c r="AF17" s="8">
+      <c r="AF17" s="5">
         <v>-973740000</v>
       </c>
-      <c r="AG17" s="8">
+      <c r="AG17" s="5">
         <v>559349000</v>
       </c>
-      <c r="AH17" s="8">
+      <c r="AH17" s="5">
         <v>723457000</v>
       </c>
-      <c r="AI17" s="6">
+      <c r="AI17" s="5">
         <v>52703000</v>
       </c>
-      <c r="AJ17" s="6">
+      <c r="AJ17" s="5">
         <v>24556000</v>
       </c>
-      <c r="AK17" s="6">
+      <c r="AK17" s="5">
         <v>28147000</v>
       </c>
-      <c r="AL17" s="6">
+      <c r="AL17" s="5">
         <v>28186000</v>
       </c>
-      <c r="AM17" s="6">
+      <c r="AM17" s="5">
         <v>23125000</v>
       </c>
-      <c r="AN17" s="6">
+      <c r="AN17" s="5">
         <v>21528000</v>
       </c>
-      <c r="AO17" s="6">
+      <c r="AO17" s="5">
         <v>72839000</v>
       </c>
-      <c r="AP17" s="6">
+      <c r="AP17" s="5">
         <v>-44692000</v>
       </c>
-      <c r="AQ17" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR17" s="6">
+      <c r="AQ17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="5">
         <v>4506000</v>
       </c>
-      <c r="AS17" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="6">
+      <c r="AS17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="5">
         <v>-5945000</v>
       </c>
-      <c r="AU17" s="6">
+      <c r="AU17" s="5">
         <v>104000</v>
       </c>
-      <c r="AV17" s="6">
+      <c r="AV17" s="5">
         <v>10555000</v>
       </c>
-      <c r="AW17" s="6">
+      <c r="AW17" s="5">
         <v>-34137000</v>
       </c>
-      <c r="AX17" s="6">
+      <c r="AX17" s="5">
         <v>307000</v>
       </c>
-      <c r="AY17" s="6">
+      <c r="AY17" s="5">
         <v>-34444000</v>
       </c>
     </row>
@@ -2941,46 +2929,46 @@
       <c r="B18" s="3">
         <v>550</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>118808000</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>248979000</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>40349000</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>19725000</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>427861000</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>120193000</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <v>12992000</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <v>112750000</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>14867000</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <v>5707000</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="5">
         <v>23485000</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="5">
         <v>2562000</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="5">
         <v>720417000</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="5">
         <v>3825000</v>
       </c>
       <c r="Q18" s="4">
@@ -2989,13 +2977,13 @@
       <c r="R18" s="4">
         <v>56575000</v>
       </c>
-      <c r="S18" s="6">
+      <c r="S18" s="5">
         <v>10757000</v>
       </c>
-      <c r="T18" s="6">
+      <c r="T18" s="5">
         <v>7261000</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U18" s="5">
         <v>116259000</v>
       </c>
       <c r="V18" s="4">
@@ -3004,88 +2992,88 @@
       <c r="W18" s="4">
         <v>9605000</v>
       </c>
-      <c r="X18" s="6">
+      <c r="X18" s="5">
         <v>9499000</v>
       </c>
-      <c r="Y18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="6">
+      <c r="Y18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="5">
         <v>19139000</v>
       </c>
-      <c r="AA18" s="6">
+      <c r="AA18" s="5">
         <v>5926000</v>
       </c>
-      <c r="AB18" s="6">
+      <c r="AB18" s="5">
         <v>2235000</v>
       </c>
-      <c r="AC18" s="6">
+      <c r="AC18" s="5">
         <v>180849000</v>
       </c>
-      <c r="AD18" s="6">
+      <c r="AD18" s="5">
         <v>1549920000</v>
       </c>
-      <c r="AE18" s="6">
+      <c r="AE18" s="5">
         <v>1336000</v>
       </c>
-      <c r="AF18" s="6">
+      <c r="AF18" s="5">
         <v>-1011715000</v>
       </c>
-      <c r="AG18" s="6">
+      <c r="AG18" s="5">
         <v>539568000</v>
       </c>
-      <c r="AH18" s="6">
+      <c r="AH18" s="5">
         <v>720417000</v>
       </c>
-      <c r="AI18" s="6">
+      <c r="AI18" s="5">
         <v>53761000</v>
       </c>
-      <c r="AJ18" s="6">
+      <c r="AJ18" s="5">
         <v>27469000</v>
       </c>
-      <c r="AK18" s="6">
+      <c r="AK18" s="5">
         <v>26292000</v>
       </c>
-      <c r="AL18" s="6">
+      <c r="AL18" s="5">
         <v>26741000</v>
       </c>
-      <c r="AM18" s="6">
+      <c r="AM18" s="5">
         <v>22310000</v>
       </c>
-      <c r="AN18" s="6">
+      <c r="AN18" s="5">
         <v>20521000</v>
       </c>
-      <c r="AO18" s="6">
+      <c r="AO18" s="5">
         <v>69572000</v>
       </c>
-      <c r="AP18" s="6">
+      <c r="AP18" s="5">
         <v>-43280000</v>
       </c>
-      <c r="AQ18" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="6">
+      <c r="AQ18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="5">
         <v>3802000</v>
       </c>
-      <c r="AS18" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="6">
+      <c r="AS18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="5">
         <v>1226000</v>
       </c>
-      <c r="AU18" s="6">
+      <c r="AU18" s="5">
         <v>859000</v>
       </c>
-      <c r="AV18" s="6">
+      <c r="AV18" s="5">
         <v>5887000</v>
       </c>
-      <c r="AW18" s="6">
+      <c r="AW18" s="5">
         <v>-37393000</v>
       </c>
-      <c r="AX18" s="6">
+      <c r="AX18" s="5">
         <v>582000</v>
       </c>
-      <c r="AY18" s="6">
+      <c r="AY18" s="5">
         <v>-37975000</v>
       </c>
     </row>
@@ -3096,151 +3084,151 @@
       <c r="B19" s="3">
         <v>586</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>101547000</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>213347000</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>45145000</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>19616000</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>387535000</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>114058000</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <v>14050000</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>135701000</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <v>27427000</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="5">
         <v>10321000</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="5">
         <v>22091000</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="5">
         <v>2337000</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="5">
         <v>713520000</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="5">
         <v>4589000</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19" s="5">
         <v>41961000</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19" s="5">
         <v>67228000</v>
       </c>
-      <c r="S19" s="6">
+      <c r="S19" s="5">
         <v>9860000</v>
       </c>
-      <c r="T19" s="6">
+      <c r="T19" s="5">
         <v>7500000</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="5">
         <v>131138000</v>
       </c>
-      <c r="V19" s="6">
+      <c r="V19" s="5">
         <v>7763000</v>
       </c>
-      <c r="W19" s="6">
+      <c r="W19" s="5">
         <v>8353000</v>
       </c>
-      <c r="X19" s="6">
+      <c r="X19" s="5">
         <v>2666000</v>
       </c>
-      <c r="Y19" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="6">
+      <c r="Y19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="5">
         <v>17321000</v>
       </c>
-      <c r="AA19" s="6">
+      <c r="AA19" s="5">
         <v>5588000</v>
       </c>
-      <c r="AB19" s="6">
+      <c r="AB19" s="5">
         <v>7093000</v>
       </c>
-      <c r="AC19" s="6">
+      <c r="AC19" s="5">
         <v>179922000</v>
       </c>
-      <c r="AD19" s="6">
+      <c r="AD19" s="5">
         <v>1583531000</v>
       </c>
-      <c r="AE19" s="6">
+      <c r="AE19" s="5">
         <v>-242000</v>
       </c>
-      <c r="AF19" s="6">
+      <c r="AF19" s="5">
         <v>-1049719000</v>
       </c>
-      <c r="AG19" s="6">
+      <c r="AG19" s="5">
         <v>533598000</v>
       </c>
-      <c r="AH19" s="6">
+      <c r="AH19" s="5">
         <v>713520000</v>
       </c>
-      <c r="AI19" s="6">
+      <c r="AI19" s="5">
         <v>55380000</v>
       </c>
-      <c r="AJ19" s="6">
+      <c r="AJ19" s="5">
         <v>29350000</v>
       </c>
-      <c r="AK19" s="6">
+      <c r="AK19" s="5">
         <v>26030000</v>
       </c>
-      <c r="AL19" s="6">
+      <c r="AL19" s="5">
         <v>33002000</v>
       </c>
-      <c r="AM19" s="6">
+      <c r="AM19" s="5">
         <v>20774000</v>
       </c>
-      <c r="AN19" s="6">
+      <c r="AN19" s="5">
         <v>20112000</v>
       </c>
-      <c r="AO19" s="6">
+      <c r="AO19" s="5">
         <v>73888000</v>
       </c>
-      <c r="AP19" s="6">
+      <c r="AP19" s="5">
         <v>-47858000</v>
       </c>
-      <c r="AQ19" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="6">
+      <c r="AQ19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="5">
         <v>3445000</v>
       </c>
-      <c r="AS19" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="6">
+      <c r="AS19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="5">
         <v>6833000</v>
       </c>
-      <c r="AU19" s="6">
+      <c r="AU19" s="5">
         <v>-69000</v>
       </c>
-      <c r="AV19" s="6">
+      <c r="AV19" s="5">
         <v>10209000</v>
       </c>
-      <c r="AW19" s="6">
+      <c r="AW19" s="5">
         <v>-37649000</v>
       </c>
-      <c r="AX19" s="6">
+      <c r="AX19" s="5">
         <v>355000</v>
       </c>
-      <c r="AY19" s="6">
+      <c r="AY19" s="5">
         <v>-38004000</v>
       </c>
     </row>
@@ -3251,151 +3239,151 @@
       <c r="B20" s="3">
         <v>586</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="5">
         <v>83866000</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="5">
         <v>215041000</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="5">
         <v>43320000</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="5">
         <v>19564000</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="5">
         <v>370151000</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="5">
         <v>113429000</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="5">
         <v>14973000</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="5">
         <v>136256000</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="5">
         <v>32448000</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="5">
         <v>9972000</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="5">
         <v>22339000</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="5">
         <v>2429000</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="5">
         <v>701997000</v>
       </c>
-      <c r="P20" s="8">
+      <c r="P20" s="5">
         <v>2601000</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="Q20" s="5">
         <v>44779000</v>
       </c>
-      <c r="R20" s="8">
+      <c r="R20" s="5">
         <v>72327000</v>
       </c>
-      <c r="S20" s="8">
+      <c r="S20" s="5">
         <v>8964000</v>
       </c>
-      <c r="T20" s="8">
+      <c r="T20" s="5">
         <v>7978000</v>
       </c>
-      <c r="U20" s="8">
+      <c r="U20" s="5">
         <v>136649000</v>
       </c>
-      <c r="V20" s="8">
+      <c r="V20" s="5">
         <v>5293000</v>
       </c>
-      <c r="W20" s="8">
+      <c r="W20" s="5">
         <v>7101000</v>
       </c>
-      <c r="X20" s="8">
+      <c r="X20" s="5">
         <v>2961000</v>
       </c>
-      <c r="Y20" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="8">
+      <c r="Y20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="5">
         <v>16952000</v>
       </c>
-      <c r="AA20" s="8">
+      <c r="AA20" s="5">
         <v>5885000</v>
       </c>
-      <c r="AB20" s="8">
+      <c r="AB20" s="5">
         <v>9138000</v>
       </c>
-      <c r="AC20" s="8">
+      <c r="AC20" s="5">
         <v>183979000</v>
       </c>
-      <c r="AD20" s="8">
+      <c r="AD20" s="5">
         <v>1596201000</v>
       </c>
-      <c r="AE20" s="8">
+      <c r="AE20" s="5">
         <v>1594000</v>
       </c>
-      <c r="AF20" s="8">
+      <c r="AF20" s="5">
         <v>-1079805000</v>
       </c>
-      <c r="AG20" s="8">
+      <c r="AG20" s="5">
         <v>518018000</v>
       </c>
-      <c r="AH20" s="8">
+      <c r="AH20" s="5">
         <v>701997000</v>
       </c>
-      <c r="AI20" s="6">
+      <c r="AI20" s="5">
         <v>220696000</v>
       </c>
-      <c r="AJ20" s="6">
+      <c r="AJ20" s="5">
         <v>107746000</v>
       </c>
-      <c r="AK20" s="6">
+      <c r="AK20" s="5">
         <v>112950000</v>
       </c>
-      <c r="AL20" s="6">
+      <c r="AL20" s="5">
         <v>116339000</v>
       </c>
-      <c r="AM20" s="6">
+      <c r="AM20" s="5">
         <v>86304000</v>
       </c>
-      <c r="AN20" s="6">
+      <c r="AN20" s="5">
         <v>80055000</v>
       </c>
-      <c r="AO20" s="6">
+      <c r="AO20" s="5">
         <v>282698000</v>
       </c>
-      <c r="AP20" s="6">
+      <c r="AP20" s="5">
         <v>-169748000</v>
       </c>
-      <c r="AQ20" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR20" s="6">
+      <c r="AQ20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="5">
         <v>15414000</v>
       </c>
-      <c r="AS20" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT20" s="6">
+      <c r="AS20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="5">
         <v>13709000</v>
       </c>
-      <c r="AU20" s="6">
+      <c r="AU20" s="5">
         <v>931000</v>
       </c>
-      <c r="AV20" s="6">
+      <c r="AV20" s="5">
         <v>30054000</v>
       </c>
-      <c r="AW20" s="6">
+      <c r="AW20" s="5">
         <v>-139694000</v>
       </c>
-      <c r="AX20" s="6">
+      <c r="AX20" s="5">
         <v>815000</v>
       </c>
-      <c r="AY20" s="6">
+      <c r="AY20" s="5">
         <v>-140509000</v>
       </c>
     </row>
@@ -3406,151 +3394,151 @@
       <c r="B21" s="3">
         <v>586</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="5">
         <v>107367000</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="5">
         <v>168218000</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="5">
         <v>38527000</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="5">
         <v>23044000</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="5">
         <v>345958000</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="5">
         <v>111338000</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="5">
         <v>16066000</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="5">
         <v>137110000</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="5">
         <v>31403000</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="5">
         <v>9564000</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="5">
         <v>20966000</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="5">
         <v>2199000</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="5">
         <v>674604000</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P21" s="5">
         <v>3131000</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="Q21" s="5">
         <v>43361000</v>
       </c>
-      <c r="R21" s="8">
+      <c r="R21" s="5">
         <v>63646000</v>
       </c>
-      <c r="S21" s="8">
+      <c r="S21" s="5">
         <v>8068000</v>
       </c>
-      <c r="T21" s="8">
+      <c r="T21" s="5">
         <v>8175000</v>
       </c>
-      <c r="U21" s="8">
+      <c r="U21" s="5">
         <v>126381000</v>
       </c>
-      <c r="V21" s="8">
+      <c r="V21" s="5">
         <v>13247000</v>
       </c>
-      <c r="W21" s="8">
+      <c r="W21" s="5">
         <v>9261000</v>
       </c>
-      <c r="X21" s="8">
+      <c r="X21" s="5">
         <v>1431000</v>
       </c>
-      <c r="Y21" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="8">
+      <c r="Y21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="5">
         <v>15207000</v>
       </c>
-      <c r="AA21" s="8">
+      <c r="AA21" s="5">
         <v>2915000</v>
       </c>
-      <c r="AB21" s="8">
+      <c r="AB21" s="5">
         <v>5837000</v>
       </c>
-      <c r="AC21" s="8">
+      <c r="AC21" s="5">
         <v>174279000</v>
       </c>
-      <c r="AD21" s="8">
+      <c r="AD21" s="5">
         <v>1608847000</v>
       </c>
-      <c r="AE21" s="8">
+      <c r="AE21" s="5">
         <v>548000</v>
       </c>
-      <c r="AF21" s="8">
+      <c r="AF21" s="5">
         <v>-1109098000</v>
       </c>
-      <c r="AG21" s="8">
+      <c r="AG21" s="5">
         <v>500325000</v>
       </c>
-      <c r="AH21" s="8">
+      <c r="AH21" s="5">
         <v>674604000</v>
       </c>
-      <c r="AI21" s="6">
+      <c r="AI21" s="5">
         <v>60440000</v>
       </c>
-      <c r="AJ21" s="6">
+      <c r="AJ21" s="5">
         <v>28757000</v>
       </c>
-      <c r="AK21" s="6">
+      <c r="AK21" s="5">
         <v>31683000</v>
       </c>
-      <c r="AL21" s="6">
+      <c r="AL21" s="5">
         <v>25589000</v>
       </c>
-      <c r="AM21" s="6">
+      <c r="AM21" s="5">
         <v>21485000</v>
       </c>
-      <c r="AN21" s="6">
+      <c r="AN21" s="5">
         <v>19180000</v>
       </c>
-      <c r="AO21" s="6">
+      <c r="AO21" s="5">
         <v>66254000</v>
       </c>
-      <c r="AP21" s="6">
+      <c r="AP21" s="5">
         <v>-34571000</v>
       </c>
-      <c r="AQ21" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="6">
+      <c r="AQ21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="5">
         <v>3107000</v>
       </c>
-      <c r="AS21" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="6">
+      <c r="AS21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="5">
         <v>1530000</v>
       </c>
-      <c r="AU21" s="6">
+      <c r="AU21" s="5">
         <v>1083000</v>
       </c>
-      <c r="AV21" s="6">
+      <c r="AV21" s="5">
         <v>5720000</v>
       </c>
-      <c r="AW21" s="6">
+      <c r="AW21" s="5">
         <v>-28851000</v>
       </c>
-      <c r="AX21" s="6">
+      <c r="AX21" s="5">
         <v>442000</v>
       </c>
-      <c r="AY21" s="6">
+      <c r="AY21" s="5">
         <v>-29293000</v>
       </c>
     </row>

--- a/financial_data/planet.xlsx
+++ b/financial_data/planet.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinten/Desktop/untitled folder 3/space_econometrics/financial_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9EEE5D-4825-6A4E-B234-5C7F048F6779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="460" yWindow="500" windowWidth="18200" windowHeight="8500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="key"/>
-    <sheet r:id="rId2" sheetId="2" name="consolidated"/>
+    <sheet name="key" sheetId="1" r:id="rId1"/>
+    <sheet name="consolidated" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Quarter</t>
   </si>
@@ -168,17 +174,33 @@
   </si>
   <si>
     <t>interpolated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjusted EBITDA </t>
+  </si>
+  <si>
+    <t>Cash flow from operating activities</t>
+  </si>
+  <si>
+    <t>Cash flow from investing activities</t>
+  </si>
+  <si>
+    <t>Cash flow from financing activities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depreciation and amortization </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="$#,##0_);($#,##0)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="166" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +220,32 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF141414"/>
+      <name val="ArialMT"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF585555"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -208,7 +256,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -229,16 +277,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -246,53 +294,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -303,10 +358,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -344,71 +399,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,7 +491,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -459,11 +514,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -472,13 +527,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -488,7 +543,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -497,7 +552,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -506,7 +561,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -514,10 +569,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -582,7 +637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -590,15 +645,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="10"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -608,236 +662,243 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AY21"/>
+  <dimension ref="A1:BD21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="7" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="9" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="9" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="9" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="9" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="9" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="9" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="9" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="9" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="9" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="9" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="9" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="9" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="9" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="9" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="9" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="9" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="9" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="9" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="9" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="9" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="9" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="9" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="9" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="9" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="9" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="9" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="9" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="9" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="9" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="9" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="41" max="41" style="9" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="42" max="42" style="9" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="43" max="43" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="44" max="44" style="9" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="45" max="45" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="46" max="46" style="9" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="47" max="47" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="48" max="48" style="9" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="49" max="49" style="9" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="50" max="50" style="9" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="51" max="51" style="9" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="15.1640625" customWidth="1"/>
+    <col min="8" max="9" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="15.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="15.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="14.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="40" max="43" width="15.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="14" style="9" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14" style="9" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.83203125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="71.25" customFormat="1" s="1">
+    <row r="1" spans="1:56" s="1" customFormat="1" ht="71.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="32.25">
+    <row r="2" spans="1:56" ht="32.25" customHeight="1">
       <c r="A2" s="2">
         <v>43677</v>
       </c>
       <c r="B2" s="3">
         <v>370</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -865,70 +926,75 @@
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
-      <c r="AI2" s="5">
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="5">
         <v>23934000</v>
       </c>
-      <c r="AJ2" s="5">
+      <c r="AO2" s="5">
         <v>25598250</v>
       </c>
-      <c r="AK2" s="5">
+      <c r="AP2" s="5">
         <v>-1664250</v>
       </c>
-      <c r="AL2" s="5">
+      <c r="AQ2" s="5">
         <v>9467750</v>
       </c>
-      <c r="AM2" s="5">
+      <c r="AR2" s="5">
         <v>8728250</v>
       </c>
-      <c r="AN2" s="5">
+      <c r="AS2" s="5">
         <v>6754750</v>
       </c>
-      <c r="AO2" s="5">
+      <c r="AT2" s="5">
         <v>24950750</v>
       </c>
-      <c r="AP2" s="5">
+      <c r="AU2" s="5">
         <v>-26615000</v>
       </c>
-      <c r="AQ2" s="5">
+      <c r="AV2" s="5">
         <v>-2882250</v>
       </c>
-      <c r="AR2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="5">
+      <c r="AW2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="5">
         <v>-1736500</v>
       </c>
-      <c r="AT2" s="5">
+      <c r="AY2" s="5">
         <v>51750</v>
       </c>
-      <c r="AU2" s="5">
+      <c r="AZ2" s="5">
         <v>286000</v>
       </c>
-      <c r="AV2" s="5">
+      <c r="BA2" s="5">
         <v>-4281000</v>
       </c>
-      <c r="AW2" s="5">
+      <c r="BB2" s="5">
         <v>-30896000</v>
       </c>
-      <c r="AX2" s="5">
+      <c r="BC2" s="5">
         <v>32500</v>
       </c>
-      <c r="AY2" s="5">
+      <c r="BD2" s="5">
         <v>-30928500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="32.25">
+    <row r="3" spans="1:56" ht="32.25" customHeight="1">
       <c r="A3" s="2">
         <v>43769</v>
       </c>
       <c r="B3" s="3">
         <v>370</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -956,70 +1022,75 @@
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
-      <c r="AI3" s="5">
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="5">
         <v>23934000</v>
       </c>
-      <c r="AJ3" s="5">
+      <c r="AO3" s="5">
         <v>25598250</v>
       </c>
-      <c r="AK3" s="5">
+      <c r="AP3" s="5">
         <v>-1664250</v>
       </c>
-      <c r="AL3" s="5">
+      <c r="AQ3" s="5">
         <v>9467750</v>
       </c>
-      <c r="AM3" s="5">
+      <c r="AR3" s="5">
         <v>8728250</v>
       </c>
-      <c r="AN3" s="5">
+      <c r="AS3" s="5">
         <v>6754750</v>
       </c>
-      <c r="AO3" s="5">
+      <c r="AT3" s="5">
         <v>24950750</v>
       </c>
-      <c r="AP3" s="5">
+      <c r="AU3" s="5">
         <v>-26615000</v>
       </c>
-      <c r="AQ3" s="5">
+      <c r="AV3" s="5">
         <v>-2882250</v>
       </c>
-      <c r="AR3" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="5">
+      <c r="AW3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="5">
         <v>-1736500</v>
       </c>
-      <c r="AT3" s="5">
+      <c r="AY3" s="5">
         <v>51750</v>
       </c>
-      <c r="AU3" s="5">
+      <c r="AZ3" s="5">
         <v>286000</v>
       </c>
-      <c r="AV3" s="5">
+      <c r="BA3" s="5">
         <v>-4281000</v>
       </c>
-      <c r="AW3" s="5">
+      <c r="BB3" s="5">
         <v>-30896000</v>
       </c>
-      <c r="AX3" s="5">
+      <c r="BC3" s="5">
         <v>32500</v>
       </c>
-      <c r="AY3" s="5">
+      <c r="BD3" s="5">
         <v>-30928500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="32.25">
+    <row r="4" spans="1:56" ht="32.25" customHeight="1">
       <c r="A4" s="2">
         <v>43861</v>
       </c>
       <c r="B4" s="3">
         <v>382</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -1047,70 +1118,75 @@
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
-      <c r="AI4" s="5">
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="5">
         <v>23934000</v>
       </c>
-      <c r="AJ4" s="5">
+      <c r="AO4" s="5">
         <v>25598250</v>
       </c>
-      <c r="AK4" s="5">
+      <c r="AP4" s="5">
         <v>-1664250</v>
       </c>
-      <c r="AL4" s="5">
+      <c r="AQ4" s="5">
         <v>9467750</v>
       </c>
-      <c r="AM4" s="5">
+      <c r="AR4" s="5">
         <v>8728250</v>
       </c>
-      <c r="AN4" s="5">
+      <c r="AS4" s="5">
         <v>6754750</v>
       </c>
-      <c r="AO4" s="5">
+      <c r="AT4" s="5">
         <v>24950750</v>
       </c>
-      <c r="AP4" s="5">
+      <c r="AU4" s="5">
         <v>-26615000</v>
       </c>
-      <c r="AQ4" s="5">
+      <c r="AV4" s="5">
         <v>-2882250</v>
       </c>
-      <c r="AR4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="5">
+      <c r="AW4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="5">
         <v>-1736500</v>
       </c>
-      <c r="AT4" s="5">
+      <c r="AY4" s="5">
         <v>51750</v>
       </c>
-      <c r="AU4" s="5">
+      <c r="AZ4" s="5">
         <v>286000</v>
       </c>
-      <c r="AV4" s="5">
+      <c r="BA4" s="5">
         <v>-4281000</v>
       </c>
-      <c r="AW4" s="5">
+      <c r="BB4" s="5">
         <v>-30896000</v>
       </c>
-      <c r="AX4" s="5">
+      <c r="BC4" s="5">
         <v>32500</v>
       </c>
-      <c r="AY4" s="5">
+      <c r="BD4" s="5">
         <v>-30928500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="32.25">
+    <row r="5" spans="1:56" ht="32.25" customHeight="1">
       <c r="A5" s="2">
         <v>43951</v>
       </c>
       <c r="B5" s="3">
         <v>382</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -1138,70 +1214,75 @@
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
-      <c r="AI5" s="5">
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="5">
         <v>28292000</v>
       </c>
-      <c r="AJ5" s="5">
+      <c r="AO5" s="5">
         <v>21845750</v>
       </c>
-      <c r="AK5" s="5">
+      <c r="AP5" s="5">
         <v>6446250</v>
       </c>
-      <c r="AL5" s="5">
+      <c r="AQ5" s="5">
         <v>10956250</v>
       </c>
-      <c r="AM5" s="5">
+      <c r="AR5" s="5">
         <v>9317000</v>
       </c>
-      <c r="AN5" s="5">
+      <c r="AS5" s="5">
         <v>8033500</v>
       </c>
-      <c r="AO5" s="5">
+      <c r="AT5" s="5">
         <v>28306750</v>
       </c>
-      <c r="AP5" s="5">
+      <c r="AU5" s="5">
         <v>-21860500</v>
       </c>
-      <c r="AQ5" s="5">
+      <c r="AV5" s="5">
         <v>168250</v>
       </c>
-      <c r="AR5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="5">
+      <c r="AW5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="5">
         <v>-2361750</v>
       </c>
-      <c r="AT5" s="5">
+      <c r="AY5" s="5">
         <v>-7513250</v>
       </c>
-      <c r="AU5" s="5">
+      <c r="AZ5" s="5">
         <v>59750</v>
       </c>
-      <c r="AV5" s="5">
+      <c r="BA5" s="5">
         <v>-9647000</v>
       </c>
-      <c r="AW5" s="5">
+      <c r="BB5" s="5">
         <v>-31507500</v>
       </c>
-      <c r="AX5" s="5">
+      <c r="BC5" s="5">
         <v>268250</v>
       </c>
-      <c r="AY5" s="5">
+      <c r="BD5" s="5">
         <v>-31775750</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="32.25">
+    <row r="6" spans="1:56" ht="32.25" customHeight="1">
       <c r="A6" s="2">
         <v>44043</v>
       </c>
       <c r="B6" s="3">
         <v>387</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1229,70 +1310,75 @@
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
-      <c r="AI6" s="5">
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="5">
         <v>28292000</v>
       </c>
-      <c r="AJ6" s="5">
+      <c r="AO6" s="5">
         <v>21845750</v>
       </c>
-      <c r="AK6" s="5">
+      <c r="AP6" s="5">
         <v>6446250</v>
       </c>
-      <c r="AL6" s="5">
+      <c r="AQ6" s="5">
         <v>10956250</v>
       </c>
-      <c r="AM6" s="5">
+      <c r="AR6" s="5">
         <v>9317000</v>
       </c>
-      <c r="AN6" s="5">
+      <c r="AS6" s="5">
         <v>8033500</v>
       </c>
-      <c r="AO6" s="5">
+      <c r="AT6" s="5">
         <v>28306750</v>
       </c>
-      <c r="AP6" s="5">
+      <c r="AU6" s="5">
         <v>-21860500</v>
       </c>
-      <c r="AQ6" s="5">
+      <c r="AV6" s="5">
         <v>168250</v>
       </c>
-      <c r="AR6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="5">
+      <c r="AW6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="5">
         <v>-2361750</v>
       </c>
-      <c r="AT6" s="5">
+      <c r="AY6" s="5">
         <v>-7513250</v>
       </c>
-      <c r="AU6" s="5">
+      <c r="AZ6" s="5">
         <v>59750</v>
       </c>
-      <c r="AV6" s="5">
+      <c r="BA6" s="5">
         <v>-9647000</v>
       </c>
-      <c r="AW6" s="5">
+      <c r="BB6" s="5">
         <v>-31507500</v>
       </c>
-      <c r="AX6" s="5">
+      <c r="BC6" s="5">
         <v>268250</v>
       </c>
-      <c r="AY6" s="5">
+      <c r="BD6" s="5">
         <v>-31775750</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="32.25">
+    <row r="7" spans="1:56" ht="32.25" customHeight="1">
       <c r="A7" s="2">
         <v>44135</v>
       </c>
       <c r="B7" s="3">
         <v>422</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -1320,2225 +1406,2336 @@
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
-      <c r="AI7" s="5">
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="5">
         <v>28292000</v>
       </c>
-      <c r="AJ7" s="5">
+      <c r="AO7" s="5">
         <v>21845750</v>
       </c>
-      <c r="AK7" s="5">
+      <c r="AP7" s="5">
         <v>6446250</v>
       </c>
-      <c r="AL7" s="5">
+      <c r="AQ7" s="5">
         <v>10956250</v>
       </c>
-      <c r="AM7" s="5">
+      <c r="AR7" s="5">
         <v>9317000</v>
       </c>
-      <c r="AN7" s="5">
+      <c r="AS7" s="5">
         <v>8033500</v>
       </c>
-      <c r="AO7" s="5">
+      <c r="AT7" s="5">
         <v>28306750</v>
       </c>
-      <c r="AP7" s="5">
+      <c r="AU7" s="5">
         <v>-21860500</v>
       </c>
-      <c r="AQ7" s="5">
+      <c r="AV7" s="5">
         <v>168250</v>
       </c>
-      <c r="AR7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="5">
+      <c r="AW7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="5">
         <v>-2361750</v>
       </c>
-      <c r="AT7" s="5">
+      <c r="AY7" s="5">
         <v>-7513250</v>
       </c>
-      <c r="AU7" s="5">
+      <c r="AZ7" s="5">
         <v>59750</v>
       </c>
-      <c r="AV7" s="5">
+      <c r="BA7" s="5">
         <v>-9647000</v>
       </c>
-      <c r="AW7" s="5">
+      <c r="BB7" s="5">
         <v>-31507500</v>
       </c>
-      <c r="AX7" s="5">
+      <c r="BC7" s="5">
         <v>268250</v>
       </c>
-      <c r="AY7" s="5">
+      <c r="BD7" s="5">
         <v>-31775750</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="32.25">
+    <row r="8" spans="1:56" ht="32.25" customHeight="1">
       <c r="A8" s="2">
         <v>44227</v>
       </c>
       <c r="B8" s="3">
         <v>470</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="15">
+        <v>-11218</v>
+      </c>
+      <c r="D8" s="15">
+        <v>-4027</v>
+      </c>
+      <c r="E8" s="15">
+        <v>-30800</v>
+      </c>
+      <c r="F8" s="15">
+        <v>83940</v>
+      </c>
+      <c r="G8" s="15">
+        <v>62212</v>
+      </c>
+      <c r="H8" s="5">
         <v>71183000</v>
       </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
         <v>47110000</v>
       </c>
-      <c r="F8" s="5">
+      <c r="K8" s="5">
         <v>7134000</v>
       </c>
-      <c r="G8" s="5">
+      <c r="L8" s="5">
         <v>125427000</v>
       </c>
-      <c r="H8" s="5">
+      <c r="M8" s="5">
         <v>159855000</v>
       </c>
-      <c r="I8" s="5">
+      <c r="N8" s="5">
         <v>11994000</v>
       </c>
-      <c r="J8" s="5">
+      <c r="O8" s="5">
         <v>88393000</v>
       </c>
-      <c r="K8" s="5">
+      <c r="P8" s="5">
         <v>5673000</v>
       </c>
-      <c r="L8" s="5">
+      <c r="Q8" s="5">
         <v>4982000</v>
       </c>
-      <c r="M8" s="5">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5">
+      <c r="R8" s="5">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5">
         <v>2984000</v>
       </c>
-      <c r="O8" s="5">
+      <c r="T8" s="5">
         <v>399308000</v>
       </c>
-      <c r="P8" s="5">
+      <c r="U8" s="5">
         <v>1446000</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="V8" s="5">
         <v>30195000</v>
       </c>
-      <c r="R8" s="5">
+      <c r="W8" s="5">
         <v>57570000</v>
       </c>
-      <c r="S8" s="5">
-        <v>0</v>
-      </c>
-      <c r="T8" s="5">
-        <v>0</v>
-      </c>
-      <c r="U8" s="5">
+      <c r="X8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="5">
         <v>108814000</v>
       </c>
-      <c r="V8" s="5">
+      <c r="AA8" s="5">
         <v>15122000</v>
       </c>
-      <c r="W8" s="5">
+      <c r="AB8" s="5">
         <v>7971000</v>
       </c>
-      <c r="X8" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="5">
+      <c r="AC8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="5">
         <v>2991000</v>
       </c>
-      <c r="Z8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="5">
+      <c r="AE8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="5">
         <v>1287000</v>
       </c>
-      <c r="AC8" s="5">
+      <c r="AH8" s="5">
         <v>291797000</v>
       </c>
-      <c r="AD8" s="5">
+      <c r="AI8" s="5">
         <v>745630000</v>
       </c>
-      <c r="AE8" s="5">
+      <c r="AJ8" s="5">
         <v>1769000</v>
       </c>
-      <c r="AF8" s="5">
+      <c r="AK8" s="5">
         <v>-639905000</v>
       </c>
-      <c r="AG8" s="5">
+      <c r="AL8" s="5">
         <v>107511000</v>
       </c>
-      <c r="AH8" s="5">
+      <c r="AM8" s="5">
         <v>399308000</v>
       </c>
-      <c r="AI8" s="5">
+      <c r="AN8" s="5">
         <v>28292000</v>
       </c>
-      <c r="AJ8" s="5">
+      <c r="AO8" s="5">
         <v>21845750</v>
       </c>
-      <c r="AK8" s="5">
+      <c r="AP8" s="5">
         <v>6446250</v>
       </c>
-      <c r="AL8" s="5">
+      <c r="AQ8" s="5">
         <v>10956250</v>
       </c>
-      <c r="AM8" s="5">
+      <c r="AR8" s="5">
         <v>9317000</v>
       </c>
-      <c r="AN8" s="5">
+      <c r="AS8" s="5">
         <v>8033500</v>
       </c>
-      <c r="AO8" s="5">
+      <c r="AT8" s="5">
         <v>28306750</v>
       </c>
-      <c r="AP8" s="5">
+      <c r="AU8" s="5">
         <v>-21860500</v>
       </c>
-      <c r="AQ8" s="5">
+      <c r="AV8" s="5">
         <v>168250</v>
       </c>
-      <c r="AR8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="5">
+      <c r="AW8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="5">
         <v>-2361750</v>
       </c>
-      <c r="AT8" s="5">
+      <c r="AY8" s="5">
         <v>-7513250</v>
       </c>
-      <c r="AU8" s="5">
+      <c r="AZ8" s="5">
         <v>59750</v>
       </c>
-      <c r="AV8" s="5">
+      <c r="BA8" s="5">
         <v>-9647000</v>
       </c>
-      <c r="AW8" s="5">
+      <c r="BB8" s="5">
         <v>-31507500</v>
       </c>
-      <c r="AX8" s="5">
+      <c r="BC8" s="5">
         <v>268250</v>
       </c>
-      <c r="AY8" s="5">
+      <c r="BD8" s="5">
         <v>-31775750</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="32.25">
+    <row r="9" spans="1:56" ht="32.25" customHeight="1">
       <c r="A9" s="2">
         <v>44316</v>
       </c>
       <c r="B9" s="3">
         <v>470</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
         <v>173491304.10958904</v>
       </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
         <v>46442621.91780822</v>
       </c>
-      <c r="F9" s="6">
-        <v>9389723.287671233</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="K9" s="6">
+        <v>9389723.2876712326</v>
+      </c>
+      <c r="L9" s="6">
         <v>229323649.31506848</v>
       </c>
-      <c r="H9" s="6">
+      <c r="M9" s="6">
         <v>153375068.49315068</v>
       </c>
-      <c r="I9" s="6">
+      <c r="N9" s="6">
         <v>11695057.534246575</v>
       </c>
-      <c r="J9" s="6">
-        <v>92008106.84931506</v>
-      </c>
-      <c r="K9" s="6">
-        <v>7751454.794520548</v>
-      </c>
-      <c r="L9" s="6">
-        <v>5167558.904109589</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6">
-        <v>2918164.383561644</v>
-      </c>
       <c r="O9" s="6">
+        <v>92008106.849315062</v>
+      </c>
+      <c r="P9" s="6">
+        <v>7751454.7945205476</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>5167558.9041095888</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0</v>
+      </c>
+      <c r="S9" s="6">
+        <v>2918164.3835616438</v>
+      </c>
+      <c r="T9" s="6">
         <v>502239060.27397263</v>
       </c>
-      <c r="P9" s="6">
-        <v>1788345.205479452</v>
-      </c>
-      <c r="Q9" s="6">
+      <c r="U9" s="6">
+        <v>1788345.2054794519</v>
+      </c>
+      <c r="V9" s="6">
         <v>34737169.8630137</v>
       </c>
-      <c r="R9" s="6">
-        <v>59194676.71232877</v>
-      </c>
-      <c r="S9" s="6">
-        <v>0</v>
-      </c>
-      <c r="T9" s="6">
-        <v>0</v>
-      </c>
-      <c r="U9" s="6">
+      <c r="W9" s="6">
+        <v>59194676.712328769</v>
+      </c>
+      <c r="X9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="6">
         <v>114477569.8630137</v>
       </c>
-      <c r="V9" s="6">
+      <c r="AA9" s="6">
         <v>12307405.479452055</v>
       </c>
-      <c r="W9" s="6">
-        <v>8989745.205479452</v>
-      </c>
-      <c r="X9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="6">
+      <c r="AB9" s="6">
+        <v>8989745.2054794524</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="6">
         <v>2456268.493150685</v>
       </c>
-      <c r="Z9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="6">
+      <c r="AE9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="6">
         <v>1315772.602739726</v>
       </c>
-      <c r="AC9" s="6">
+      <c r="AH9" s="6">
         <v>262877852.05479452</v>
       </c>
-      <c r="AD9" s="6">
-        <v>910833750.6849315</v>
-      </c>
-      <c r="AE9" s="6">
+      <c r="AI9" s="6">
+        <v>910833750.68493152</v>
+      </c>
+      <c r="AJ9" s="6">
         <v>1848734.2465753425</v>
       </c>
-      <c r="AF9" s="6">
-        <v>-673340715.0684931</v>
-      </c>
-      <c r="AG9" s="6">
+      <c r="AK9" s="6">
+        <v>-673340715.06849313</v>
+      </c>
+      <c r="AL9" s="6">
         <v>239361208.21917808</v>
       </c>
-      <c r="AH9" s="6">
+      <c r="AM9" s="6">
         <v>502239060.27397263</v>
       </c>
-      <c r="AI9" s="5">
+      <c r="AN9" s="5">
         <v>31957000</v>
       </c>
-      <c r="AJ9" s="5">
+      <c r="AO9" s="5">
         <v>19126000</v>
       </c>
-      <c r="AK9" s="5">
+      <c r="AP9" s="5">
         <v>12831000</v>
       </c>
-      <c r="AL9" s="5">
+      <c r="AQ9" s="5">
         <v>12130000</v>
       </c>
-      <c r="AM9" s="5">
+      <c r="AR9" s="5">
         <v>10653000</v>
       </c>
-      <c r="AN9" s="5">
+      <c r="AS9" s="5">
         <v>8315000</v>
       </c>
-      <c r="AO9" s="5">
+      <c r="AT9" s="5">
         <v>31098000</v>
       </c>
-      <c r="AP9" s="5">
+      <c r="AU9" s="5">
         <v>-18267000</v>
       </c>
-      <c r="AQ9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="5">
+      <c r="AV9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="5">
         <v>-2527000</v>
       </c>
-      <c r="AT9" s="5">
+      <c r="AY9" s="5">
         <v>-8026000</v>
       </c>
-      <c r="AU9" s="5">
+      <c r="AZ9" s="5">
         <v>-177000</v>
       </c>
-      <c r="AV9" s="5">
+      <c r="BA9" s="5">
         <v>-10730000</v>
       </c>
-      <c r="AW9" s="5">
+      <c r="BB9" s="5">
         <v>-28997000</v>
       </c>
-      <c r="AX9" s="5">
+      <c r="BC9" s="5">
         <v>258000</v>
       </c>
-      <c r="AY9" s="5">
+      <c r="BD9" s="5">
         <v>-29255000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="32.25">
+    <row r="10" spans="1:56" ht="32.25" customHeight="1">
       <c r="A10" s="2">
         <v>44408</v>
       </c>
       <c r="B10" s="3">
         <v>470</v>
       </c>
-      <c r="C10" s="6">
-        <v>279248202.739726</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="6">
+        <v>279248202.73972601</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
         <v>45752747.94520548</v>
       </c>
-      <c r="F10" s="6">
+      <c r="K10" s="6">
         <v>11721482.191780822</v>
       </c>
-      <c r="G10" s="6">
-        <v>336722432.8767123</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="L10" s="6">
+        <v>336722432.87671232</v>
+      </c>
+      <c r="M10" s="6">
         <v>146676712.32876712</v>
       </c>
-      <c r="I10" s="6">
+      <c r="N10" s="6">
         <v>11386038.356164383</v>
       </c>
-      <c r="J10" s="6">
-        <v>95745071.23287672</v>
-      </c>
-      <c r="K10" s="6">
-        <v>9899969.8630137</v>
-      </c>
-      <c r="L10" s="6">
-        <v>5359372.602739726</v>
-      </c>
-      <c r="M10" s="6">
-        <v>0</v>
-      </c>
-      <c r="N10" s="6">
+      <c r="O10" s="6">
+        <v>95745071.232876718</v>
+      </c>
+      <c r="P10" s="6">
+        <v>9899969.8630136997</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>5359372.6027397262</v>
+      </c>
+      <c r="R10" s="6">
+        <v>0</v>
+      </c>
+      <c r="S10" s="6">
         <v>2850109.5890410957</v>
       </c>
-      <c r="O10" s="6">
-        <v>608639706.849315</v>
-      </c>
-      <c r="P10" s="6">
+      <c r="T10" s="6">
+        <v>608639706.84931505</v>
+      </c>
+      <c r="U10" s="6">
         <v>2142230.1369863013</v>
       </c>
-      <c r="Q10" s="6">
-        <v>39432446.57534246</v>
-      </c>
-      <c r="R10" s="6">
+      <c r="V10" s="6">
+        <v>39432446.575342461</v>
+      </c>
+      <c r="W10" s="6">
         <v>60874117.80821918</v>
       </c>
-      <c r="S10" s="6">
-        <v>0</v>
-      </c>
-      <c r="T10" s="6">
-        <v>0</v>
-      </c>
-      <c r="U10" s="6">
+      <c r="X10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="6">
         <v>120332046.57534246</v>
       </c>
-      <c r="V10" s="6">
+      <c r="AA10" s="6">
         <v>9397936.98630137</v>
       </c>
-      <c r="W10" s="6">
+      <c r="AB10" s="6">
         <v>10042830.136986302</v>
       </c>
-      <c r="X10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="6">
+      <c r="AC10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="6">
         <v>1903512.3287671232</v>
       </c>
-      <c r="Z10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="6">
+      <c r="AE10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="6">
         <v>1345515.0684931506</v>
       </c>
-      <c r="AC10" s="6">
+      <c r="AH10" s="6">
         <v>232983901.369863</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AI10" s="6">
         <v>1081606167.1232877</v>
       </c>
-      <c r="AE10" s="6">
+      <c r="AJ10" s="6">
         <v>1931156.1643835616</v>
       </c>
-      <c r="AF10" s="6">
-        <v>-707903476.7123288</v>
-      </c>
-      <c r="AG10" s="6">
-        <v>375655805.4794521</v>
-      </c>
-      <c r="AH10" s="6">
-        <v>608639706.849315</v>
-      </c>
-      <c r="AI10" s="5">
+      <c r="AK10" s="6">
+        <v>-707903476.71232879</v>
+      </c>
+      <c r="AL10" s="6">
+        <v>375655805.47945207</v>
+      </c>
+      <c r="AM10" s="6">
+        <v>608639706.84931505</v>
+      </c>
+      <c r="AN10" s="5">
         <v>30406000</v>
       </c>
-      <c r="AJ10" s="5">
+      <c r="AO10" s="5">
         <v>19820000</v>
       </c>
-      <c r="AK10" s="5">
+      <c r="AP10" s="5">
         <v>10586000</v>
       </c>
-      <c r="AL10" s="5">
+      <c r="AQ10" s="5">
         <v>12432000</v>
       </c>
-      <c r="AM10" s="5">
+      <c r="AR10" s="5">
         <v>10597000</v>
       </c>
-      <c r="AN10" s="5">
+      <c r="AS10" s="5">
         <v>11824000</v>
       </c>
-      <c r="AO10" s="5">
+      <c r="AT10" s="5">
         <v>34853000</v>
       </c>
-      <c r="AP10" s="5">
+      <c r="AU10" s="5">
         <v>-24267000</v>
       </c>
-      <c r="AQ10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="5">
+      <c r="AV10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="5">
         <v>-2611000</v>
       </c>
-      <c r="AT10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="5">
+      <c r="AY10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="5">
         <v>-84000</v>
       </c>
-      <c r="AV10" s="5">
+      <c r="BA10" s="5">
         <v>4074000</v>
       </c>
-      <c r="AW10" s="5">
+      <c r="BB10" s="5">
         <v>-20193000</v>
       </c>
-      <c r="AX10" s="5">
+      <c r="BC10" s="5">
         <v>170000</v>
       </c>
-      <c r="AY10" s="5">
+      <c r="BD10" s="5">
         <v>-20363000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="32.25">
+    <row r="11" spans="1:56" ht="32.25" customHeight="1">
       <c r="A11" s="2">
         <v>44500</v>
       </c>
       <c r="B11" s="3">
         <v>470</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="6">
         <v>385005101.36986303</v>
       </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
         <v>45062873.97260274</v>
       </c>
-      <c r="F11" s="6">
+      <c r="K11" s="6">
         <v>14053241.09589041</v>
       </c>
-      <c r="G11" s="6">
+      <c r="L11" s="6">
         <v>444121216.43835616</v>
       </c>
-      <c r="H11" s="6">
+      <c r="M11" s="6">
         <v>139978356.16438356</v>
       </c>
-      <c r="I11" s="6">
+      <c r="N11" s="6">
         <v>11077019.178082192</v>
       </c>
-      <c r="J11" s="6">
-        <v>99482035.61643836</v>
-      </c>
-      <c r="K11" s="6">
+      <c r="O11" s="6">
+        <v>99482035.616438359</v>
+      </c>
+      <c r="P11" s="6">
         <v>12048484.93150685</v>
       </c>
-      <c r="L11" s="6">
-        <v>5551186.301369863</v>
-      </c>
-      <c r="M11" s="6">
-        <v>0</v>
-      </c>
-      <c r="N11" s="6">
-        <v>2782054.794520548</v>
-      </c>
-      <c r="O11" s="6">
-        <v>715040353.4246576</v>
-      </c>
-      <c r="P11" s="6">
+      <c r="Q11" s="6">
+        <v>5551186.3013698626</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0</v>
+      </c>
+      <c r="S11" s="6">
+        <v>2782054.7945205481</v>
+      </c>
+      <c r="T11" s="6">
+        <v>715040353.42465758</v>
+      </c>
+      <c r="U11" s="6">
         <v>2496115.0684931506</v>
       </c>
-      <c r="Q11" s="6">
-        <v>44127723.28767124</v>
-      </c>
-      <c r="R11" s="6">
-        <v>62553558.9041096</v>
-      </c>
-      <c r="S11" s="6">
-        <v>0</v>
-      </c>
-      <c r="T11" s="6">
-        <v>0</v>
-      </c>
-      <c r="U11" s="6">
+      <c r="V11" s="6">
+        <v>44127723.287671238</v>
+      </c>
+      <c r="W11" s="6">
+        <v>62553558.904109597</v>
+      </c>
+      <c r="X11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="6">
         <v>126186523.28767124</v>
       </c>
-      <c r="V11" s="6">
+      <c r="AA11" s="6">
         <v>6488468.493150685</v>
       </c>
-      <c r="W11" s="6">
+      <c r="AB11" s="6">
         <v>11095915.06849315</v>
       </c>
-      <c r="X11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="6">
+      <c r="AC11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="6">
         <v>1350756.1643835616</v>
       </c>
-      <c r="Z11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="6">
+      <c r="AE11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="6">
         <v>1375257.5342465753</v>
       </c>
-      <c r="AC11" s="6">
+      <c r="AH11" s="6">
         <v>203089950.68493152</v>
       </c>
-      <c r="AD11" s="6">
+      <c r="AI11" s="6">
         <v>1252378583.5616438</v>
       </c>
-      <c r="AE11" s="6">
-        <v>2013578.082191781</v>
-      </c>
-      <c r="AF11" s="6">
-        <v>-742466238.3561645</v>
-      </c>
-      <c r="AG11" s="6">
+      <c r="AJ11" s="6">
+        <v>2013578.0821917809</v>
+      </c>
+      <c r="AK11" s="6">
+        <v>-742466238.35616446</v>
+      </c>
+      <c r="AL11" s="6">
         <v>511950402.73972607</v>
       </c>
-      <c r="AH11" s="6">
-        <v>715040353.4246576</v>
-      </c>
-      <c r="AI11" s="5">
+      <c r="AM11" s="6">
+        <v>715040353.42465758</v>
+      </c>
+      <c r="AN11" s="5">
         <v>31700000</v>
       </c>
-      <c r="AJ11" s="5">
+      <c r="AO11" s="5">
         <v>20811000</v>
       </c>
-      <c r="AK11" s="5">
+      <c r="AP11" s="5">
         <v>10889000</v>
       </c>
-      <c r="AL11" s="5">
+      <c r="AQ11" s="5">
         <v>14959000</v>
       </c>
-      <c r="AM11" s="5">
+      <c r="AR11" s="5">
         <v>12441000</v>
       </c>
-      <c r="AN11" s="5">
+      <c r="AS11" s="5">
         <v>11800000</v>
       </c>
-      <c r="AO11" s="5">
+      <c r="AT11" s="5">
         <v>39200000</v>
       </c>
-      <c r="AP11" s="5">
+      <c r="AU11" s="5">
         <v>-28311000</v>
       </c>
-      <c r="AQ11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="5">
+      <c r="AV11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="5">
         <v>8000</v>
       </c>
-      <c r="AS11" s="5">
+      <c r="AX11" s="5">
         <v>-2612000</v>
       </c>
-      <c r="AT11" s="5">
+      <c r="AY11" s="5">
         <v>-10172000</v>
       </c>
-      <c r="AU11" s="5">
+      <c r="AZ11" s="5">
         <v>-60000</v>
       </c>
-      <c r="AV11" s="5">
+      <c r="BA11" s="5">
         <v>-12836000</v>
       </c>
-      <c r="AW11" s="5">
+      <c r="BB11" s="5">
         <v>-41147000</v>
       </c>
-      <c r="AX11" s="5">
+      <c r="BC11" s="5">
         <v>394000</v>
       </c>
-      <c r="AY11" s="5">
+      <c r="BD11" s="5">
         <v>-41541000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="32.25">
+    <row r="12" spans="1:56" ht="32.25" customHeight="1">
       <c r="A12" s="2">
         <v>44592</v>
       </c>
       <c r="B12" s="3">
         <v>514</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="15">
+        <v>-41052</v>
+      </c>
+      <c r="D12" s="15">
+        <v>-42211</v>
+      </c>
+      <c r="E12" s="15">
+        <v>-25149</v>
+      </c>
+      <c r="F12" s="15">
+        <v>489184</v>
+      </c>
+      <c r="G12" s="15">
+        <v>45043</v>
+      </c>
+      <c r="H12" s="5">
         <v>490762000</v>
       </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
         <v>44373000</v>
       </c>
-      <c r="F12" s="5">
+      <c r="K12" s="5">
         <v>16385000</v>
       </c>
-      <c r="G12" s="5">
+      <c r="L12" s="5">
         <v>551520000</v>
       </c>
-      <c r="H12" s="5">
+      <c r="M12" s="5">
         <v>133280000</v>
       </c>
-      <c r="I12" s="5">
+      <c r="N12" s="5">
         <v>10768000</v>
       </c>
-      <c r="J12" s="5">
+      <c r="O12" s="5">
         <v>103219000</v>
       </c>
-      <c r="K12" s="5">
+      <c r="P12" s="5">
         <v>14197000</v>
       </c>
-      <c r="L12" s="5">
+      <c r="Q12" s="5">
         <v>5743000</v>
       </c>
-      <c r="M12" s="5">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5">
+      <c r="R12" s="5">
+        <v>0</v>
+      </c>
+      <c r="S12" s="5">
         <v>2714000</v>
       </c>
-      <c r="O12" s="5">
+      <c r="T12" s="5">
         <v>821441000</v>
       </c>
-      <c r="P12" s="5">
+      <c r="U12" s="5">
         <v>2850000</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="V12" s="5">
         <v>48823000</v>
       </c>
-      <c r="R12" s="5">
+      <c r="W12" s="5">
         <v>64233000</v>
       </c>
-      <c r="S12" s="5">
+      <c r="X12" s="5">
         <v>16135000</v>
       </c>
-      <c r="T12" s="5">
-        <v>0</v>
-      </c>
-      <c r="U12" s="5">
+      <c r="Y12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="5">
         <v>132041000</v>
       </c>
-      <c r="V12" s="5">
+      <c r="AA12" s="5">
         <v>3579000</v>
       </c>
-      <c r="W12" s="5">
+      <c r="AB12" s="5">
         <v>12149000</v>
       </c>
-      <c r="X12" s="5">
+      <c r="AC12" s="5">
         <v>23224000</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="AD12" s="5">
         <v>798000</v>
       </c>
-      <c r="Z12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="5">
+      <c r="AE12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="5">
         <v>1405000</v>
       </c>
-      <c r="AC12" s="5">
+      <c r="AH12" s="5">
         <v>173196000</v>
       </c>
-      <c r="AD12" s="5">
+      <c r="AI12" s="5">
         <v>1423151000</v>
       </c>
-      <c r="AE12" s="5">
+      <c r="AJ12" s="5">
         <v>2096000</v>
       </c>
-      <c r="AF12" s="5">
+      <c r="AK12" s="5">
         <v>-777029000</v>
       </c>
-      <c r="AG12" s="5">
+      <c r="AL12" s="5">
         <v>648245000</v>
       </c>
-      <c r="AH12" s="5">
+      <c r="AM12" s="5">
         <v>821441000</v>
       </c>
-      <c r="AI12" s="5">
+      <c r="AN12" s="5">
         <v>37146000</v>
       </c>
-      <c r="AJ12" s="5">
+      <c r="AO12" s="5">
         <v>23230000</v>
       </c>
-      <c r="AK12" s="5">
+      <c r="AP12" s="5">
         <v>13916000</v>
       </c>
-      <c r="AL12" s="5">
+      <c r="AQ12" s="5">
         <v>27163000</v>
       </c>
-      <c r="AM12" s="5">
+      <c r="AR12" s="5">
         <v>19226000</v>
       </c>
-      <c r="AN12" s="5">
+      <c r="AS12" s="5">
         <v>24733000</v>
       </c>
-      <c r="AO12" s="5">
+      <c r="AT12" s="5">
         <v>71122000</v>
       </c>
-      <c r="AP12" s="5">
+      <c r="AU12" s="5">
         <v>-57206000</v>
       </c>
-      <c r="AQ12" s="5">
+      <c r="AV12" s="5">
         <v>-1690000</v>
       </c>
-      <c r="AR12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="5">
+      <c r="AW12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="5">
         <v>-1022000</v>
       </c>
-      <c r="AT12" s="5">
+      <c r="AY12" s="5">
         <v>23924000</v>
       </c>
-      <c r="AU12" s="5">
+      <c r="AZ12" s="5">
         <v>-1906000</v>
       </c>
-      <c r="AV12" s="5">
+      <c r="BA12" s="5">
         <v>12529000</v>
       </c>
-      <c r="AW12" s="5">
+      <c r="BB12" s="5">
         <v>-44677000</v>
       </c>
-      <c r="AX12" s="5">
+      <c r="BC12" s="5">
         <v>1288000</v>
       </c>
-      <c r="AY12" s="5">
+      <c r="BD12" s="5">
         <v>-45965000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="32.25">
+    <row r="13" spans="1:56" ht="32.25" customHeight="1">
       <c r="A13" s="2">
         <v>44681</v>
       </c>
       <c r="B13" s="3">
         <v>514</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="5">
         <v>484489000</v>
       </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
         <v>24581000</v>
       </c>
-      <c r="F13" s="5">
+      <c r="K13" s="5">
         <v>18192000</v>
       </c>
-      <c r="G13" s="5">
+      <c r="L13" s="5">
         <v>527262000</v>
       </c>
-      <c r="H13" s="5">
+      <c r="M13" s="5">
         <v>125329000</v>
       </c>
-      <c r="I13" s="5">
+      <c r="N13" s="5">
         <v>11105000</v>
       </c>
-      <c r="J13" s="5">
+      <c r="O13" s="5">
         <v>103219000</v>
       </c>
-      <c r="K13" s="5">
+      <c r="P13" s="5">
         <v>13604000</v>
       </c>
-      <c r="L13" s="5">
+      <c r="Q13" s="5">
         <v>5653000</v>
       </c>
-      <c r="M13" s="5">
+      <c r="R13" s="5">
         <v>7035000</v>
       </c>
-      <c r="N13" s="5">
+      <c r="S13" s="5">
         <v>2787000</v>
       </c>
-      <c r="O13" s="5">
+      <c r="T13" s="5">
         <v>795994000</v>
       </c>
-      <c r="P13" s="5">
+      <c r="U13" s="5">
         <v>3168000</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="V13" s="5">
         <v>43184000</v>
       </c>
-      <c r="R13" s="5">
+      <c r="W13" s="5">
         <v>60672000</v>
       </c>
-      <c r="S13" s="5">
+      <c r="X13" s="5">
         <v>15239000</v>
       </c>
-      <c r="T13" s="5">
+      <c r="Y13" s="5">
         <v>7188000</v>
       </c>
-      <c r="U13" s="5">
+      <c r="Z13" s="5">
         <v>129451000</v>
       </c>
-      <c r="V13" s="5">
-        <v>0</v>
-      </c>
-      <c r="W13" s="5">
+      <c r="AA13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="5">
         <v>12199000</v>
       </c>
-      <c r="X13" s="5">
+      <c r="AC13" s="5">
         <v>19948000</v>
       </c>
-      <c r="Y13" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="5">
-        <v>2271000</v>
-      </c>
-      <c r="AA13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="5">
-        <v>1419000</v>
-      </c>
-      <c r="AC13" s="5">
-        <v>165288000</v>
-      </c>
       <c r="AD13" s="5">
-        <v>1450098000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="5">
         <v>2271000</v>
       </c>
       <c r="AF13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="5">
+        <v>1419000</v>
+      </c>
+      <c r="AH13" s="5">
+        <v>165288000</v>
+      </c>
+      <c r="AI13" s="5">
+        <v>1450098000</v>
+      </c>
+      <c r="AJ13" s="5">
+        <v>2271000</v>
+      </c>
+      <c r="AK13" s="5">
         <v>-821690000</v>
       </c>
-      <c r="AG13" s="5">
+      <c r="AL13" s="5">
         <v>630706000</v>
       </c>
-      <c r="AH13" s="5">
+      <c r="AM13" s="5">
         <v>795994000</v>
       </c>
-      <c r="AI13" s="5">
+      <c r="AN13" s="5">
         <v>40127000</v>
       </c>
-      <c r="AJ13" s="5">
+      <c r="AO13" s="5">
         <v>23628000</v>
       </c>
-      <c r="AK13" s="5">
+      <c r="AP13" s="5">
         <v>16499000</v>
       </c>
-      <c r="AL13" s="5">
+      <c r="AQ13" s="5">
         <v>24750000</v>
       </c>
-      <c r="AM13" s="5">
+      <c r="AR13" s="5">
         <v>18855000</v>
       </c>
-      <c r="AN13" s="5">
+      <c r="AS13" s="5">
         <v>20608000</v>
       </c>
-      <c r="AO13" s="5">
+      <c r="AT13" s="5">
         <v>64213000</v>
       </c>
-      <c r="AP13" s="5">
+      <c r="AU13" s="5">
         <v>-47714000</v>
       </c>
-      <c r="AQ13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="5">
+      <c r="AV13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="5">
         <v>3276000</v>
       </c>
-      <c r="AU13" s="5">
+      <c r="AZ13" s="5">
         <v>392000</v>
       </c>
-      <c r="AV13" s="5">
+      <c r="BA13" s="5">
         <v>3668000</v>
       </c>
-      <c r="AW13" s="5">
+      <c r="BB13" s="5">
         <v>-44046000</v>
       </c>
-      <c r="AX13" s="5">
+      <c r="BC13" s="5">
         <v>314000</v>
       </c>
-      <c r="AY13" s="5">
+      <c r="BD13" s="5">
         <v>-44360000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="32.25">
+    <row r="14" spans="1:56" ht="32.25" customHeight="1">
       <c r="A14" s="2">
         <v>44773</v>
       </c>
       <c r="B14" s="3">
         <v>514</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="6">
         <v>341806500</v>
       </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
         <v>26795000</v>
       </c>
-      <c r="F14" s="6">
+      <c r="K14" s="6">
         <v>22269500</v>
       </c>
-      <c r="G14" s="6">
+      <c r="L14" s="6">
         <v>503952500</v>
       </c>
-      <c r="H14" s="6">
+      <c r="M14" s="6">
         <v>120357000</v>
       </c>
-      <c r="I14" s="6">
+      <c r="N14" s="6">
         <v>11143000</v>
       </c>
-      <c r="J14" s="6">
+      <c r="O14" s="6">
         <v>103219000</v>
       </c>
-      <c r="K14" s="6">
+      <c r="P14" s="6">
         <v>13011500</v>
       </c>
-      <c r="L14" s="6">
+      <c r="Q14" s="6">
         <v>5408000</v>
       </c>
-      <c r="M14" s="6">
+      <c r="R14" s="6">
         <v>11420500</v>
       </c>
-      <c r="N14" s="6">
+      <c r="S14" s="6">
         <v>3099500</v>
       </c>
-      <c r="O14" s="6">
+      <c r="T14" s="6">
         <v>771611000</v>
       </c>
-      <c r="P14" s="6">
+      <c r="U14" s="6">
         <v>2862500</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="V14" s="6">
         <v>42906500</v>
       </c>
-      <c r="R14" s="6">
+      <c r="W14" s="6">
         <v>54185000</v>
       </c>
-      <c r="S14" s="6">
+      <c r="X14" s="6">
         <v>14342500</v>
       </c>
-      <c r="T14" s="6">
+      <c r="Y14" s="6">
         <v>5363000</v>
       </c>
-      <c r="U14" s="6">
+      <c r="Z14" s="6">
         <v>119659500</v>
       </c>
-      <c r="V14" s="6">
-        <v>0</v>
-      </c>
-      <c r="W14" s="6">
+      <c r="AA14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="6">
         <v>11026000</v>
       </c>
-      <c r="X14" s="6">
+      <c r="AC14" s="6">
         <v>18901500</v>
       </c>
-      <c r="Y14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="6">
+      <c r="AD14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="6">
         <v>8147500</v>
       </c>
-      <c r="AA14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="6">
+      <c r="AF14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="6">
         <v>1440000</v>
       </c>
-      <c r="AC14" s="6">
+      <c r="AH14" s="6">
         <v>159174500</v>
       </c>
-      <c r="AD14" s="6">
+      <c r="AI14" s="6">
         <v>1472375000</v>
       </c>
-      <c r="AE14" s="6">
+      <c r="AJ14" s="6">
         <v>1607000</v>
       </c>
-      <c r="AF14" s="6">
+      <c r="AK14" s="6">
         <v>-861572500</v>
       </c>
-      <c r="AG14" s="6">
+      <c r="AL14" s="6">
         <v>612436500</v>
       </c>
-      <c r="AH14" s="6">
+      <c r="AM14" s="6">
         <v>771611000</v>
       </c>
-      <c r="AI14" s="5">
+      <c r="AN14" s="5">
         <v>48450000</v>
       </c>
-      <c r="AJ14" s="5">
+      <c r="AO14" s="5">
         <v>24977000</v>
       </c>
-      <c r="AK14" s="5">
+      <c r="AP14" s="5">
         <v>23473000</v>
       </c>
-      <c r="AL14" s="5">
+      <c r="AQ14" s="5">
         <v>26737000</v>
       </c>
-      <c r="AM14" s="5">
+      <c r="AR14" s="5">
         <v>19483000</v>
       </c>
-      <c r="AN14" s="5">
+      <c r="AS14" s="5">
         <v>19893000</v>
       </c>
-      <c r="AO14" s="5">
+      <c r="AT14" s="5">
         <v>66113000</v>
       </c>
-      <c r="AP14" s="5">
+      <c r="AU14" s="5">
         <v>-42640000</v>
       </c>
-      <c r="AQ14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU14" s="5">
+      <c r="AV14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="5">
         <v>1153000</v>
       </c>
-      <c r="AV14" s="5">
+      <c r="BA14" s="5">
         <v>3265000</v>
       </c>
-      <c r="AW14" s="5">
+      <c r="BB14" s="5">
         <v>-39375000</v>
       </c>
-      <c r="AX14" s="5">
+      <c r="BC14" s="5">
         <v>154000</v>
       </c>
-      <c r="AY14" s="5">
+      <c r="BD14" s="5">
         <v>-39529000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="32.25">
+    <row r="15" spans="1:56" ht="32.25" customHeight="1">
       <c r="A15" s="2">
         <v>44865</v>
       </c>
       <c r="B15" s="3">
         <v>514</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="H15" s="5">
         <v>199124000</v>
       </c>
-      <c r="D15" s="5">
+      <c r="I15" s="5">
         <v>226163000</v>
       </c>
-      <c r="E15" s="5">
+      <c r="J15" s="5">
         <v>29009000</v>
       </c>
-      <c r="F15" s="5">
+      <c r="K15" s="5">
         <v>26347000</v>
       </c>
-      <c r="G15" s="5">
+      <c r="L15" s="5">
         <v>480643000</v>
       </c>
-      <c r="H15" s="5">
+      <c r="M15" s="5">
         <v>115385000</v>
       </c>
-      <c r="I15" s="5">
+      <c r="N15" s="5">
         <v>11181000</v>
       </c>
-      <c r="J15" s="5">
+      <c r="O15" s="5">
         <v>103219000</v>
       </c>
-      <c r="K15" s="5">
+      <c r="P15" s="5">
         <v>12419000</v>
       </c>
-      <c r="L15" s="5">
+      <c r="Q15" s="5">
         <v>5163000</v>
       </c>
-      <c r="M15" s="5">
+      <c r="R15" s="5">
         <v>15806000</v>
       </c>
-      <c r="N15" s="5">
+      <c r="S15" s="5">
         <v>3412000</v>
       </c>
-      <c r="O15" s="5">
+      <c r="T15" s="5">
         <v>747228000</v>
       </c>
-      <c r="P15" s="5">
+      <c r="U15" s="5">
         <v>2557000</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="V15" s="5">
         <v>42629000</v>
       </c>
-      <c r="R15" s="5">
+      <c r="W15" s="5">
         <v>47698000</v>
       </c>
-      <c r="S15" s="5">
+      <c r="X15" s="5">
         <v>13446000</v>
       </c>
-      <c r="T15" s="5">
+      <c r="Y15" s="5">
         <v>3538000</v>
       </c>
-      <c r="U15" s="5">
+      <c r="Z15" s="5">
         <v>109868000</v>
       </c>
-      <c r="V15" s="5">
-        <v>0</v>
-      </c>
-      <c r="W15" s="5">
+      <c r="AA15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="5">
         <v>9853000</v>
       </c>
-      <c r="X15" s="5">
+      <c r="AC15" s="5">
         <v>17855000</v>
       </c>
-      <c r="Y15" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="5">
+      <c r="AD15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="5">
         <v>14024000</v>
       </c>
-      <c r="AA15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="5">
+      <c r="AF15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="5">
         <v>1461000</v>
       </c>
-      <c r="AC15" s="5">
+      <c r="AH15" s="5">
         <v>153061000</v>
       </c>
-      <c r="AD15" s="5">
+      <c r="AI15" s="5">
         <v>1494652000</v>
       </c>
-      <c r="AE15" s="5">
+      <c r="AJ15" s="5">
         <v>943000</v>
       </c>
-      <c r="AF15" s="5">
+      <c r="AK15" s="5">
         <v>-901455000</v>
       </c>
-      <c r="AG15" s="5">
+      <c r="AL15" s="5">
         <v>594167000</v>
       </c>
-      <c r="AH15" s="5">
+      <c r="AM15" s="5">
         <v>747228000</v>
       </c>
-      <c r="AI15" s="5">
+      <c r="AN15" s="5">
         <v>49704000</v>
       </c>
-      <c r="AJ15" s="5">
+      <c r="AO15" s="5">
         <v>24728000</v>
       </c>
-      <c r="AK15" s="5">
+      <c r="AP15" s="5">
         <v>24976000</v>
       </c>
-      <c r="AL15" s="5">
+      <c r="AQ15" s="5">
         <v>27598000</v>
       </c>
-      <c r="AM15" s="5">
+      <c r="AR15" s="5">
         <v>19383000</v>
       </c>
-      <c r="AN15" s="5">
+      <c r="AS15" s="5">
         <v>20627000</v>
       </c>
-      <c r="AO15" s="5">
+      <c r="AT15" s="5">
         <v>67608000</v>
       </c>
-      <c r="AP15" s="5">
+      <c r="AU15" s="5">
         <v>-42632000</v>
       </c>
-      <c r="AQ15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="5">
+      <c r="AV15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="5">
         <v>2853000</v>
       </c>
-      <c r="AS15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="5">
+      <c r="AX15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="5">
         <v>-19000</v>
       </c>
-      <c r="AU15" s="5">
+      <c r="AZ15" s="5">
         <v>1000</v>
       </c>
-      <c r="AV15" s="5">
+      <c r="BA15" s="5">
         <v>2835000</v>
       </c>
-      <c r="AW15" s="5">
+      <c r="BB15" s="5">
         <v>-39797000</v>
       </c>
-      <c r="AX15" s="5">
+      <c r="BC15" s="5">
         <v>439000</v>
       </c>
-      <c r="AY15" s="5">
+      <c r="BD15" s="5">
         <v>-40236000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="32.25">
+    <row r="16" spans="1:56" ht="32.25" customHeight="1">
       <c r="A16" s="2">
         <v>44957</v>
       </c>
       <c r="B16" s="3">
         <v>550</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="14">
+        <v>-56801</v>
+      </c>
+      <c r="D16" s="14">
+        <v>-73933</v>
+      </c>
+      <c r="E16" s="14">
+        <v>-242263</v>
+      </c>
+      <c r="F16" s="14">
+        <v>-308738</v>
+      </c>
+      <c r="G16" s="14">
+        <v>43330</v>
+      </c>
+      <c r="H16" s="5">
         <v>181892000</v>
       </c>
-      <c r="D16" s="5">
+      <c r="I16" s="5">
         <v>226868000</v>
       </c>
-      <c r="E16" s="5">
+      <c r="J16" s="5">
         <v>38952000</v>
       </c>
-      <c r="F16" s="5">
+      <c r="K16" s="5">
         <v>27943000</v>
       </c>
-      <c r="G16" s="5">
+      <c r="L16" s="5">
         <v>475655000</v>
       </c>
-      <c r="H16" s="5">
+      <c r="M16" s="5">
         <v>108091000</v>
       </c>
-      <c r="I16" s="5">
+      <c r="N16" s="5">
         <v>11417000</v>
       </c>
-      <c r="J16" s="5">
+      <c r="O16" s="5">
         <v>112748000</v>
       </c>
-      <c r="K16" s="5">
+      <c r="P16" s="5">
         <v>14831000</v>
       </c>
-      <c r="L16" s="5">
+      <c r="Q16" s="5">
         <v>5657000</v>
       </c>
-      <c r="M16" s="5">
+      <c r="R16" s="5">
         <v>20403000</v>
       </c>
-      <c r="N16" s="5">
+      <c r="S16" s="5">
         <v>3921000</v>
       </c>
-      <c r="O16" s="5">
+      <c r="T16" s="5">
         <v>752723000</v>
       </c>
-      <c r="P16" s="5">
+      <c r="U16" s="5">
         <v>6900000</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="V16" s="5">
         <v>46022000</v>
       </c>
-      <c r="R16" s="5">
+      <c r="W16" s="5">
         <v>51900000</v>
       </c>
-      <c r="S16" s="5">
+      <c r="X16" s="5">
         <v>12550000</v>
       </c>
-      <c r="T16" s="5">
+      <c r="Y16" s="5">
         <v>4885000</v>
       </c>
-      <c r="U16" s="5">
+      <c r="Z16" s="5">
         <v>122257000</v>
       </c>
-      <c r="V16" s="5">
+      <c r="AA16" s="5">
         <v>2882000</v>
       </c>
-      <c r="W16" s="5">
+      <c r="AB16" s="5">
         <v>8679000</v>
       </c>
-      <c r="X16" s="5">
+      <c r="AC16" s="5">
         <v>16670000</v>
       </c>
-      <c r="Y16" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="5">
+      <c r="AD16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="5">
         <v>17145000</v>
       </c>
-      <c r="AA16" s="5">
+      <c r="AF16" s="5">
         <v>7499000</v>
       </c>
-      <c r="AB16" s="5">
+      <c r="AG16" s="5">
         <v>1487000</v>
       </c>
-      <c r="AC16" s="5">
+      <c r="AH16" s="5">
         <v>176619000</v>
       </c>
-      <c r="AD16" s="5">
+      <c r="AI16" s="5">
         <v>1513102000</v>
       </c>
-      <c r="AE16" s="5">
+      <c r="AJ16" s="5">
         <v>2271000</v>
       </c>
-      <c r="AF16" s="5">
+      <c r="AK16" s="5">
         <v>-939296000</v>
       </c>
-      <c r="AG16" s="5">
+      <c r="AL16" s="5">
         <v>576104000</v>
       </c>
-      <c r="AH16" s="5">
+      <c r="AM16" s="5">
         <v>752723000</v>
       </c>
-      <c r="AI16" s="5">
+      <c r="AN16" s="5">
         <v>52975000</v>
       </c>
-      <c r="AJ16" s="5">
+      <c r="AO16" s="5">
         <v>23915000</v>
       </c>
-      <c r="AK16" s="5">
+      <c r="AP16" s="5">
         <v>29060000</v>
       </c>
-      <c r="AL16" s="5">
+      <c r="AQ16" s="5">
         <v>31831000</v>
       </c>
-      <c r="AM16" s="5">
+      <c r="AR16" s="5">
         <v>20299000</v>
       </c>
-      <c r="AN16" s="5">
+      <c r="AS16" s="5">
         <v>19619000</v>
       </c>
-      <c r="AO16" s="5">
+      <c r="AT16" s="5">
         <v>71749000</v>
       </c>
-      <c r="AP16" s="5">
+      <c r="AU16" s="5">
         <v>-42689000</v>
       </c>
-      <c r="AQ16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="5">
+      <c r="AV16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="5">
         <v>4819000</v>
       </c>
-      <c r="AS16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="5">
+      <c r="AX16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="5">
         <v>3297000</v>
       </c>
-      <c r="AU16" s="5">
+      <c r="AZ16" s="5">
         <v>-1216000</v>
       </c>
-      <c r="AV16" s="5">
+      <c r="BA16" s="5">
         <v>4788000</v>
       </c>
-      <c r="AW16" s="5">
+      <c r="BB16" s="5">
         <v>-37901000</v>
       </c>
-      <c r="AX16" s="5">
+      <c r="BC16" s="5">
         <v>-60000</v>
       </c>
-      <c r="AY16" s="5">
+      <c r="BD16" s="5">
         <v>-37841000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="32.25">
+    <row r="17" spans="1:56" ht="32.25" customHeight="1">
       <c r="A17" s="2">
         <v>45046</v>
       </c>
       <c r="B17" s="3">
         <v>550</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="5">
         <v>140763000</v>
       </c>
-      <c r="D17" s="5">
+      <c r="I17" s="5">
         <v>235415000</v>
       </c>
-      <c r="E17" s="5">
+      <c r="J17" s="5">
         <v>39072000</v>
       </c>
-      <c r="F17" s="5">
+      <c r="K17" s="5">
         <v>19275000</v>
       </c>
-      <c r="G17" s="5">
+      <c r="L17" s="5">
         <v>434525000</v>
       </c>
-      <c r="H17" s="5">
+      <c r="M17" s="5">
         <v>118193000</v>
       </c>
-      <c r="I17" s="5">
+      <c r="N17" s="5">
         <v>11878000</v>
       </c>
-      <c r="J17" s="5">
+      <c r="O17" s="5">
         <v>112748000</v>
       </c>
-      <c r="K17" s="5">
+      <c r="P17" s="5">
         <v>13999000</v>
       </c>
-      <c r="L17" s="5">
+      <c r="Q17" s="5">
         <v>5660000</v>
       </c>
-      <c r="M17" s="5">
+      <c r="R17" s="5">
         <v>23697000</v>
       </c>
-      <c r="N17" s="5">
+      <c r="S17" s="5">
         <v>2757000</v>
       </c>
-      <c r="O17" s="5">
+      <c r="T17" s="5">
         <v>723457000</v>
       </c>
-      <c r="P17" s="5">
+      <c r="U17" s="5">
         <v>14657000</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="V17" s="5">
         <v>34432000</v>
       </c>
-      <c r="R17" s="5">
+      <c r="W17" s="5">
         <v>44620000</v>
       </c>
-      <c r="S17" s="5">
+      <c r="X17" s="5">
         <v>11653000</v>
       </c>
-      <c r="T17" s="5">
+      <c r="Y17" s="5">
         <v>6320000</v>
       </c>
-      <c r="U17" s="5">
+      <c r="Z17" s="5">
         <v>111682000</v>
       </c>
-      <c r="V17" s="5">
+      <c r="AA17" s="5">
         <v>2474000</v>
       </c>
-      <c r="W17" s="5">
+      <c r="AB17" s="5">
         <v>10671000</v>
       </c>
-      <c r="X17" s="5">
+      <c r="AC17" s="5">
         <v>10725000</v>
       </c>
-      <c r="Y17" s="5">
+      <c r="AD17" s="5">
         <v>19912000</v>
       </c>
-      <c r="Z17" s="5">
+      <c r="AE17" s="5">
         <v>7142000</v>
       </c>
-      <c r="AA17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="5">
+      <c r="AF17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="5">
         <v>1502000</v>
       </c>
-      <c r="AC17" s="5">
+      <c r="AH17" s="5">
         <v>164108000</v>
       </c>
-      <c r="AD17" s="5">
+      <c r="AI17" s="5">
         <v>1531380000</v>
       </c>
-      <c r="AE17" s="5">
+      <c r="AJ17" s="5">
         <v>1682000</v>
       </c>
-      <c r="AF17" s="5">
+      <c r="AK17" s="5">
         <v>-973740000</v>
       </c>
-      <c r="AG17" s="5">
+      <c r="AL17" s="5">
         <v>559349000</v>
       </c>
-      <c r="AH17" s="5">
+      <c r="AM17" s="5">
         <v>723457000</v>
       </c>
-      <c r="AI17" s="5">
+      <c r="AN17" s="5">
         <v>52703000</v>
       </c>
-      <c r="AJ17" s="5">
+      <c r="AO17" s="5">
         <v>24556000</v>
       </c>
-      <c r="AK17" s="5">
+      <c r="AP17" s="5">
         <v>28147000</v>
       </c>
-      <c r="AL17" s="5">
+      <c r="AQ17" s="5">
         <v>28186000</v>
       </c>
-      <c r="AM17" s="5">
+      <c r="AR17" s="5">
         <v>23125000</v>
       </c>
-      <c r="AN17" s="5">
+      <c r="AS17" s="5">
         <v>21528000</v>
       </c>
-      <c r="AO17" s="5">
+      <c r="AT17" s="5">
         <v>72839000</v>
       </c>
-      <c r="AP17" s="5">
+      <c r="AU17" s="5">
         <v>-44692000</v>
       </c>
-      <c r="AQ17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR17" s="5">
+      <c r="AV17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="5">
         <v>4506000</v>
       </c>
-      <c r="AS17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="5">
+      <c r="AX17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="5">
         <v>-5945000</v>
       </c>
-      <c r="AU17" s="5">
+      <c r="AZ17" s="5">
         <v>104000</v>
       </c>
-      <c r="AV17" s="5">
+      <c r="BA17" s="5">
         <v>10555000</v>
       </c>
-      <c r="AW17" s="5">
+      <c r="BB17" s="5">
         <v>-34137000</v>
       </c>
-      <c r="AX17" s="5">
+      <c r="BC17" s="5">
         <v>307000</v>
       </c>
-      <c r="AY17" s="5">
+      <c r="BD17" s="5">
         <v>-34444000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="32.25">
+    <row r="18" spans="1:56" ht="32.25" customHeight="1">
       <c r="A18" s="2">
         <v>45138</v>
       </c>
       <c r="B18" s="3">
         <v>550</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="5">
         <v>118808000</v>
       </c>
-      <c r="D18" s="5">
+      <c r="I18" s="5">
         <v>248979000</v>
       </c>
-      <c r="E18" s="5">
+      <c r="J18" s="5">
         <v>40349000</v>
       </c>
-      <c r="F18" s="5">
+      <c r="K18" s="5">
         <v>19725000</v>
       </c>
-      <c r="G18" s="5">
+      <c r="L18" s="5">
         <v>427861000</v>
       </c>
-      <c r="H18" s="5">
+      <c r="M18" s="5">
         <v>120193000</v>
       </c>
-      <c r="I18" s="5">
+      <c r="N18" s="5">
         <v>12992000</v>
       </c>
-      <c r="J18" s="5">
+      <c r="O18" s="5">
         <v>112750000</v>
       </c>
-      <c r="K18" s="5">
+      <c r="P18" s="5">
         <v>14867000</v>
       </c>
-      <c r="L18" s="5">
+      <c r="Q18" s="5">
         <v>5707000</v>
       </c>
-      <c r="M18" s="5">
+      <c r="R18" s="5">
         <v>23485000</v>
       </c>
-      <c r="N18" s="5">
+      <c r="S18" s="5">
         <v>2562000</v>
       </c>
-      <c r="O18" s="5">
+      <c r="T18" s="5">
         <v>720417000</v>
       </c>
-      <c r="P18" s="5">
+      <c r="U18" s="5">
         <v>3825000</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="V18" s="4">
         <v>37841000</v>
       </c>
-      <c r="R18" s="4">
+      <c r="W18" s="4">
         <v>56575000</v>
       </c>
-      <c r="S18" s="5">
+      <c r="X18" s="5">
         <v>10757000</v>
       </c>
-      <c r="T18" s="5">
+      <c r="Y18" s="5">
         <v>7261000</v>
       </c>
-      <c r="U18" s="5">
+      <c r="Z18" s="5">
         <v>116259000</v>
       </c>
-      <c r="V18" s="4">
+      <c r="AA18" s="4">
         <v>18186000</v>
       </c>
-      <c r="W18" s="4">
+      <c r="AB18" s="4">
         <v>9605000</v>
       </c>
-      <c r="X18" s="5">
+      <c r="AC18" s="5">
         <v>9499000</v>
       </c>
-      <c r="Y18" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="5">
+      <c r="AD18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="5">
         <v>19139000</v>
       </c>
-      <c r="AA18" s="5">
+      <c r="AF18" s="5">
         <v>5926000</v>
       </c>
-      <c r="AB18" s="5">
+      <c r="AG18" s="5">
         <v>2235000</v>
       </c>
-      <c r="AC18" s="5">
+      <c r="AH18" s="5">
         <v>180849000</v>
       </c>
-      <c r="AD18" s="5">
+      <c r="AI18" s="5">
         <v>1549920000</v>
       </c>
-      <c r="AE18" s="5">
+      <c r="AJ18" s="5">
         <v>1336000</v>
       </c>
-      <c r="AF18" s="5">
+      <c r="AK18" s="5">
         <v>-1011715000</v>
       </c>
-      <c r="AG18" s="5">
+      <c r="AL18" s="5">
         <v>539568000</v>
       </c>
-      <c r="AH18" s="5">
+      <c r="AM18" s="5">
         <v>720417000</v>
       </c>
-      <c r="AI18" s="5">
+      <c r="AN18" s="5">
         <v>53761000</v>
       </c>
-      <c r="AJ18" s="5">
+      <c r="AO18" s="5">
         <v>27469000</v>
       </c>
-      <c r="AK18" s="5">
+      <c r="AP18" s="5">
         <v>26292000</v>
       </c>
-      <c r="AL18" s="5">
+      <c r="AQ18" s="5">
         <v>26741000</v>
       </c>
-      <c r="AM18" s="5">
+      <c r="AR18" s="5">
         <v>22310000</v>
       </c>
-      <c r="AN18" s="5">
+      <c r="AS18" s="5">
         <v>20521000</v>
       </c>
-      <c r="AO18" s="5">
+      <c r="AT18" s="5">
         <v>69572000</v>
       </c>
-      <c r="AP18" s="5">
+      <c r="AU18" s="5">
         <v>-43280000</v>
       </c>
-      <c r="AQ18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="5">
+      <c r="AV18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="5">
         <v>3802000</v>
       </c>
-      <c r="AS18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="5">
+      <c r="AX18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="5">
         <v>1226000</v>
       </c>
-      <c r="AU18" s="5">
+      <c r="AZ18" s="5">
         <v>859000</v>
       </c>
-      <c r="AV18" s="5">
+      <c r="BA18" s="5">
         <v>5887000</v>
       </c>
-      <c r="AW18" s="5">
+      <c r="BB18" s="5">
         <v>-37393000</v>
       </c>
-      <c r="AX18" s="5">
+      <c r="BC18" s="5">
         <v>582000</v>
       </c>
-      <c r="AY18" s="5">
+      <c r="BD18" s="5">
         <v>-37975000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="32.25">
+    <row r="19" spans="1:56" ht="32.25" customHeight="1">
       <c r="A19" s="2">
         <v>45230</v>
       </c>
       <c r="B19" s="3">
         <v>586</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="5">
         <v>101547000</v>
       </c>
-      <c r="D19" s="5">
+      <c r="I19" s="5">
         <v>213347000</v>
       </c>
-      <c r="E19" s="5">
+      <c r="J19" s="5">
         <v>45145000</v>
       </c>
-      <c r="F19" s="5">
+      <c r="K19" s="5">
         <v>19616000</v>
       </c>
-      <c r="G19" s="5">
+      <c r="L19" s="5">
         <v>387535000</v>
       </c>
-      <c r="H19" s="5">
+      <c r="M19" s="5">
         <v>114058000</v>
       </c>
-      <c r="I19" s="5">
+      <c r="N19" s="5">
         <v>14050000</v>
       </c>
-      <c r="J19" s="5">
+      <c r="O19" s="5">
         <v>135701000</v>
       </c>
-      <c r="K19" s="5">
+      <c r="P19" s="5">
         <v>27427000</v>
       </c>
-      <c r="L19" s="5">
+      <c r="Q19" s="5">
         <v>10321000</v>
       </c>
-      <c r="M19" s="5">
+      <c r="R19" s="5">
         <v>22091000</v>
       </c>
-      <c r="N19" s="5">
+      <c r="S19" s="5">
         <v>2337000</v>
       </c>
-      <c r="O19" s="5">
+      <c r="T19" s="5">
         <v>713520000</v>
       </c>
-      <c r="P19" s="5">
+      <c r="U19" s="5">
         <v>4589000</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="V19" s="5">
         <v>41961000</v>
       </c>
-      <c r="R19" s="5">
+      <c r="W19" s="5">
         <v>67228000</v>
       </c>
-      <c r="S19" s="5">
+      <c r="X19" s="5">
         <v>9860000</v>
       </c>
-      <c r="T19" s="5">
+      <c r="Y19" s="5">
         <v>7500000</v>
       </c>
-      <c r="U19" s="5">
+      <c r="Z19" s="5">
         <v>131138000</v>
       </c>
-      <c r="V19" s="5">
+      <c r="AA19" s="5">
         <v>7763000</v>
       </c>
-      <c r="W19" s="5">
+      <c r="AB19" s="5">
         <v>8353000</v>
       </c>
-      <c r="X19" s="5">
+      <c r="AC19" s="5">
         <v>2666000</v>
       </c>
-      <c r="Y19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="5">
+      <c r="AD19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="5">
         <v>17321000</v>
       </c>
-      <c r="AA19" s="5">
+      <c r="AF19" s="5">
         <v>5588000</v>
       </c>
-      <c r="AB19" s="5">
+      <c r="AG19" s="5">
         <v>7093000</v>
       </c>
-      <c r="AC19" s="5">
+      <c r="AH19" s="5">
         <v>179922000</v>
       </c>
-      <c r="AD19" s="5">
+      <c r="AI19" s="5">
         <v>1583531000</v>
       </c>
-      <c r="AE19" s="5">
+      <c r="AJ19" s="5">
         <v>-242000</v>
       </c>
-      <c r="AF19" s="5">
+      <c r="AK19" s="5">
         <v>-1049719000</v>
       </c>
-      <c r="AG19" s="5">
+      <c r="AL19" s="5">
         <v>533598000</v>
       </c>
-      <c r="AH19" s="5">
+      <c r="AM19" s="5">
         <v>713520000</v>
       </c>
-      <c r="AI19" s="5">
+      <c r="AN19" s="5">
         <v>55380000</v>
       </c>
-      <c r="AJ19" s="5">
+      <c r="AO19" s="5">
         <v>29350000</v>
       </c>
-      <c r="AK19" s="5">
+      <c r="AP19" s="5">
         <v>26030000</v>
       </c>
-      <c r="AL19" s="5">
+      <c r="AQ19" s="5">
         <v>33002000</v>
       </c>
-      <c r="AM19" s="5">
+      <c r="AR19" s="5">
         <v>20774000</v>
       </c>
-      <c r="AN19" s="5">
+      <c r="AS19" s="5">
         <v>20112000</v>
       </c>
-      <c r="AO19" s="5">
+      <c r="AT19" s="5">
         <v>73888000</v>
       </c>
-      <c r="AP19" s="5">
+      <c r="AU19" s="5">
         <v>-47858000</v>
       </c>
-      <c r="AQ19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="5">
+      <c r="AV19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="5">
         <v>3445000</v>
       </c>
-      <c r="AS19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="5">
+      <c r="AX19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="5">
         <v>6833000</v>
       </c>
-      <c r="AU19" s="5">
+      <c r="AZ19" s="5">
         <v>-69000</v>
       </c>
-      <c r="AV19" s="5">
+      <c r="BA19" s="5">
         <v>10209000</v>
       </c>
-      <c r="AW19" s="5">
+      <c r="BB19" s="5">
         <v>-37649000</v>
       </c>
-      <c r="AX19" s="5">
+      <c r="BC19" s="5">
         <v>355000</v>
       </c>
-      <c r="AY19" s="5">
+      <c r="BD19" s="5">
         <v>-38004000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="32.25">
+    <row r="20" spans="1:56" ht="32.25" customHeight="1">
       <c r="A20" s="2">
         <v>45322</v>
       </c>
       <c r="B20" s="3">
         <v>586</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="14">
+        <v>-55284</v>
+      </c>
+      <c r="D20" s="14">
+        <v>-50711</v>
+      </c>
+      <c r="E20" s="14">
+        <v>-33586</v>
+      </c>
+      <c r="F20" s="14">
+        <v>-85878</v>
+      </c>
+      <c r="G20" s="16">
+        <v>47639</v>
+      </c>
+      <c r="H20" s="5">
         <v>83866000</v>
       </c>
-      <c r="D20" s="5">
+      <c r="I20" s="5">
         <v>215041000</v>
       </c>
-      <c r="E20" s="5">
+      <c r="J20" s="5">
         <v>43320000</v>
       </c>
-      <c r="F20" s="5">
+      <c r="K20" s="5">
         <v>19564000</v>
       </c>
-      <c r="G20" s="5">
+      <c r="L20" s="5">
         <v>370151000</v>
       </c>
-      <c r="H20" s="5">
+      <c r="M20" s="5">
         <v>113429000</v>
       </c>
-      <c r="I20" s="5">
+      <c r="N20" s="5">
         <v>14973000</v>
       </c>
-      <c r="J20" s="5">
+      <c r="O20" s="5">
         <v>136256000</v>
       </c>
-      <c r="K20" s="5">
+      <c r="P20" s="5">
         <v>32448000</v>
       </c>
-      <c r="L20" s="5">
+      <c r="Q20" s="5">
         <v>9972000</v>
       </c>
-      <c r="M20" s="5">
+      <c r="R20" s="5">
         <v>22339000</v>
       </c>
-      <c r="N20" s="5">
+      <c r="S20" s="5">
         <v>2429000</v>
       </c>
-      <c r="O20" s="5">
+      <c r="T20" s="5">
         <v>701997000</v>
       </c>
-      <c r="P20" s="5">
+      <c r="U20" s="5">
         <v>2601000</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="V20" s="5">
         <v>44779000</v>
       </c>
-      <c r="R20" s="5">
+      <c r="W20" s="5">
         <v>72327000</v>
       </c>
-      <c r="S20" s="5">
+      <c r="X20" s="5">
         <v>8964000</v>
       </c>
-      <c r="T20" s="5">
+      <c r="Y20" s="5">
         <v>7978000</v>
       </c>
-      <c r="U20" s="5">
+      <c r="Z20" s="5">
         <v>136649000</v>
       </c>
-      <c r="V20" s="5">
+      <c r="AA20" s="5">
         <v>5293000</v>
       </c>
-      <c r="W20" s="5">
+      <c r="AB20" s="5">
         <v>7101000</v>
       </c>
-      <c r="X20" s="5">
+      <c r="AC20" s="5">
         <v>2961000</v>
       </c>
-      <c r="Y20" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="5">
+      <c r="AD20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="5">
         <v>16952000</v>
       </c>
-      <c r="AA20" s="5">
+      <c r="AF20" s="5">
         <v>5885000</v>
       </c>
-      <c r="AB20" s="5">
+      <c r="AG20" s="5">
         <v>9138000</v>
       </c>
-      <c r="AC20" s="5">
+      <c r="AH20" s="5">
         <v>183979000</v>
       </c>
-      <c r="AD20" s="5">
+      <c r="AI20" s="5">
         <v>1596201000</v>
       </c>
-      <c r="AE20" s="5">
+      <c r="AJ20" s="5">
         <v>1594000</v>
       </c>
-      <c r="AF20" s="5">
+      <c r="AK20" s="5">
         <v>-1079805000</v>
       </c>
-      <c r="AG20" s="5">
+      <c r="AL20" s="5">
         <v>518018000</v>
       </c>
-      <c r="AH20" s="5">
+      <c r="AM20" s="5">
         <v>701997000</v>
       </c>
-      <c r="AI20" s="5">
+      <c r="AN20" s="5">
         <v>220696000</v>
       </c>
-      <c r="AJ20" s="5">
+      <c r="AO20" s="5">
         <v>107746000</v>
       </c>
-      <c r="AK20" s="5">
+      <c r="AP20" s="5">
         <v>112950000</v>
       </c>
-      <c r="AL20" s="5">
+      <c r="AQ20" s="5">
         <v>116339000</v>
       </c>
-      <c r="AM20" s="5">
+      <c r="AR20" s="5">
         <v>86304000</v>
       </c>
-      <c r="AN20" s="5">
+      <c r="AS20" s="5">
         <v>80055000</v>
       </c>
-      <c r="AO20" s="5">
+      <c r="AT20" s="5">
         <v>282698000</v>
       </c>
-      <c r="AP20" s="5">
+      <c r="AU20" s="5">
         <v>-169748000</v>
       </c>
-      <c r="AQ20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR20" s="5">
+      <c r="AV20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="5">
         <v>15414000</v>
       </c>
-      <c r="AS20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT20" s="5">
+      <c r="AX20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="5">
         <v>13709000</v>
       </c>
-      <c r="AU20" s="5">
+      <c r="AZ20" s="5">
         <v>931000</v>
       </c>
-      <c r="AV20" s="5">
+      <c r="BA20" s="5">
         <v>30054000</v>
       </c>
-      <c r="AW20" s="5">
+      <c r="BB20" s="5">
         <v>-139694000</v>
       </c>
-      <c r="AX20" s="5">
+      <c r="BC20" s="5">
         <v>815000</v>
       </c>
-      <c r="AY20" s="5">
+      <c r="BD20" s="5">
         <v>-140509000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="32.25">
+    <row r="21" spans="1:56" ht="32.25" customHeight="1">
       <c r="A21" s="2">
         <v>45412</v>
       </c>
       <c r="B21" s="3">
         <v>586</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="5">
         <v>107367000</v>
       </c>
-      <c r="D21" s="5">
+      <c r="I21" s="5">
         <v>168218000</v>
       </c>
-      <c r="E21" s="5">
+      <c r="J21" s="5">
         <v>38527000</v>
       </c>
-      <c r="F21" s="5">
+      <c r="K21" s="5">
         <v>23044000</v>
       </c>
-      <c r="G21" s="5">
+      <c r="L21" s="5">
         <v>345958000</v>
       </c>
-      <c r="H21" s="5">
+      <c r="M21" s="5">
         <v>111338000</v>
       </c>
-      <c r="I21" s="5">
+      <c r="N21" s="5">
         <v>16066000</v>
       </c>
-      <c r="J21" s="5">
+      <c r="O21" s="5">
         <v>137110000</v>
       </c>
-      <c r="K21" s="5">
+      <c r="P21" s="5">
         <v>31403000</v>
       </c>
-      <c r="L21" s="5">
+      <c r="Q21" s="5">
         <v>9564000</v>
       </c>
-      <c r="M21" s="5">
+      <c r="R21" s="5">
         <v>20966000</v>
       </c>
-      <c r="N21" s="5">
+      <c r="S21" s="5">
         <v>2199000</v>
       </c>
-      <c r="O21" s="5">
+      <c r="T21" s="5">
         <v>674604000</v>
       </c>
-      <c r="P21" s="5">
+      <c r="U21" s="5">
         <v>3131000</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="V21" s="5">
         <v>43361000</v>
       </c>
-      <c r="R21" s="5">
+      <c r="W21" s="5">
         <v>63646000</v>
       </c>
-      <c r="S21" s="5">
+      <c r="X21" s="5">
         <v>8068000</v>
       </c>
-      <c r="T21" s="5">
+      <c r="Y21" s="5">
         <v>8175000</v>
       </c>
-      <c r="U21" s="5">
+      <c r="Z21" s="5">
         <v>126381000</v>
       </c>
-      <c r="V21" s="5">
+      <c r="AA21" s="5">
         <v>13247000</v>
       </c>
-      <c r="W21" s="5">
+      <c r="AB21" s="5">
         <v>9261000</v>
       </c>
-      <c r="X21" s="5">
+      <c r="AC21" s="5">
         <v>1431000</v>
       </c>
-      <c r="Y21" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="5">
+      <c r="AD21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="5">
         <v>15207000</v>
       </c>
-      <c r="AA21" s="5">
+      <c r="AF21" s="5">
         <v>2915000</v>
       </c>
-      <c r="AB21" s="5">
+      <c r="AG21" s="5">
         <v>5837000</v>
       </c>
-      <c r="AC21" s="5">
+      <c r="AH21" s="5">
         <v>174279000</v>
       </c>
-      <c r="AD21" s="5">
+      <c r="AI21" s="5">
         <v>1608847000</v>
       </c>
-      <c r="AE21" s="5">
+      <c r="AJ21" s="5">
         <v>548000</v>
       </c>
-      <c r="AF21" s="5">
+      <c r="AK21" s="5">
         <v>-1109098000</v>
       </c>
-      <c r="AG21" s="5">
+      <c r="AL21" s="5">
         <v>500325000</v>
       </c>
-      <c r="AH21" s="5">
+      <c r="AM21" s="5">
         <v>674604000</v>
       </c>
-      <c r="AI21" s="5">
+      <c r="AN21" s="5">
         <v>60440000</v>
       </c>
-      <c r="AJ21" s="5">
+      <c r="AO21" s="5">
         <v>28757000</v>
       </c>
-      <c r="AK21" s="5">
+      <c r="AP21" s="5">
         <v>31683000</v>
       </c>
-      <c r="AL21" s="5">
+      <c r="AQ21" s="5">
         <v>25589000</v>
       </c>
-      <c r="AM21" s="5">
+      <c r="AR21" s="5">
         <v>21485000</v>
       </c>
-      <c r="AN21" s="5">
+      <c r="AS21" s="5">
         <v>19180000</v>
       </c>
-      <c r="AO21" s="5">
+      <c r="AT21" s="5">
         <v>66254000</v>
       </c>
-      <c r="AP21" s="5">
+      <c r="AU21" s="5">
         <v>-34571000</v>
       </c>
-      <c r="AQ21" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="5">
+      <c r="AV21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="5">
         <v>3107000</v>
       </c>
-      <c r="AS21" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="5">
+      <c r="AX21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="5">
         <v>1530000</v>
       </c>
-      <c r="AU21" s="5">
+      <c r="AZ21" s="5">
         <v>1083000</v>
       </c>
-      <c r="AV21" s="5">
+      <c r="BA21" s="5">
         <v>5720000</v>
       </c>
-      <c r="AW21" s="5">
+      <c r="BB21" s="5">
         <v>-28851000</v>
       </c>
-      <c r="AX21" s="5">
+      <c r="BC21" s="5">
         <v>442000</v>
       </c>
-      <c r="AY21" s="5">
+      <c r="BD21" s="5">
         <v>-29293000</v>
       </c>
     </row>

--- a/financial_data/planet.xlsx
+++ b/financial_data/planet.xlsx
@@ -5,23 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinten/Desktop/untitled folder 3/space_econometrics/financial_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinten/Desktop/financial_data/20240817/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9EEE5D-4825-6A4E-B234-5C7F048F6779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE71DDD-2481-C042-A636-4170E1A4E94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="500" windowWidth="18200" windowHeight="8500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4400" yWindow="500" windowWidth="20800" windowHeight="14000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="key" sheetId="1" r:id="rId1"/>
     <sheet name="consolidated" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>Quarter</t>
   </si>
@@ -176,9 +189,6 @@
     <t>interpolated</t>
   </si>
   <si>
-    <t xml:space="preserve">Adjusted EBITDA </t>
-  </si>
-  <si>
     <t>Cash flow from operating activities</t>
   </si>
   <si>
@@ -189,18 +199,52 @@
   </si>
   <si>
     <t xml:space="preserve">Depreciation and amortization </t>
+  </si>
+  <si>
+    <t>Net loss</t>
+  </si>
+  <si>
+    <t>Income tax provision</t>
+  </si>
+  <si>
+    <t>Depreciation and amortization</t>
+  </si>
+  <si>
+    <t>Debt extinguishment loss</t>
+  </si>
+  <si>
+    <t>Change in fair value of warrant liabilities</t>
+  </si>
+  <si>
+    <t>Stock-based compensation</t>
+  </si>
+  <si>
+    <t>Restructuring costs</t>
+  </si>
+  <si>
+    <t>Employee transaction bonuses in connection with the Sinergise business combination</t>
+  </si>
+  <si>
+    <t>Other (income) expense, net</t>
+  </si>
+  <si>
+    <t>Adjusted EBITDA</t>
+  </si>
+  <si>
+    <t>EBITDA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="166" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="166" formatCode="[$$-409]#,##0"/>
+    <numFmt numFmtId="167" formatCode="[$$-409]#,##0;[Red][$$-409]#,##0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,27 +265,41 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF141414"/>
+      <name val="ArialMT"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="ArialMT"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF141414"/>
-      <name val="ArialMT"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ArialMT"/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color rgb="FF585555"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -294,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -328,14 +386,32 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,251 +742,291 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BD21"/>
+  <dimension ref="A1:BP45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G1048576"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="11.5" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="15.1640625" customWidth="1"/>
-    <col min="8" max="9" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="15.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="15.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="14.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="19.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="40" max="43" width="15.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="14" style="9" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14" style="9" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" style="8" customWidth="1"/>
+    <col min="4" max="7" width="20.6640625" style="22" customWidth="1"/>
+    <col min="8" max="12" width="20.6640625" style="11" customWidth="1"/>
+    <col min="13" max="15" width="20.6640625" style="22" customWidth="1"/>
+    <col min="16" max="19" width="20.6640625" style="11" customWidth="1"/>
+    <col min="20" max="21" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="15.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="15.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="14.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="52" max="55" width="15.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="14" style="9" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14" style="9" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="14.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="13.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="14.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="15.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="12.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="15.83203125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="1" customFormat="1" ht="71.25" customHeight="1">
+    <row r="1" spans="1:68" s="1" customFormat="1" ht="71.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="S1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BL1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:56" ht="32.25" customHeight="1">
+    <row r="2" spans="1:68" ht="32.25" customHeight="1">
       <c r="A2" s="2">
         <v>43677</v>
       </c>
       <c r="B2" s="3">
         <v>370</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
@@ -931,82 +1047,94 @@
       <c r="AK2" s="4"/>
       <c r="AL2" s="4"/>
       <c r="AM2" s="4"/>
-      <c r="AN2" s="5">
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="5">
         <v>23934000</v>
       </c>
-      <c r="AO2" s="5">
+      <c r="BA2" s="5">
         <v>25598250</v>
       </c>
-      <c r="AP2" s="5">
+      <c r="BB2" s="5">
         <v>-1664250</v>
       </c>
-      <c r="AQ2" s="5">
+      <c r="BC2" s="5">
         <v>9467750</v>
       </c>
-      <c r="AR2" s="5">
+      <c r="BD2" s="5">
         <v>8728250</v>
       </c>
-      <c r="AS2" s="5">
+      <c r="BE2" s="5">
         <v>6754750</v>
       </c>
-      <c r="AT2" s="5">
+      <c r="BF2" s="5">
         <v>24950750</v>
       </c>
-      <c r="AU2" s="5">
+      <c r="BG2" s="5">
         <v>-26615000</v>
       </c>
-      <c r="AV2" s="5">
+      <c r="BH2" s="5">
         <v>-2882250</v>
       </c>
-      <c r="AW2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="5">
+      <c r="BI2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="5">
         <v>-1736500</v>
       </c>
-      <c r="AY2" s="5">
+      <c r="BK2" s="5">
         <v>51750</v>
       </c>
-      <c r="AZ2" s="5">
+      <c r="BL2" s="5">
         <v>286000</v>
       </c>
-      <c r="BA2" s="5">
+      <c r="BM2" s="5">
         <v>-4281000</v>
       </c>
-      <c r="BB2" s="5">
+      <c r="BN2" s="5">
         <v>-30896000</v>
       </c>
-      <c r="BC2" s="5">
+      <c r="BO2" s="5">
         <v>32500</v>
       </c>
-      <c r="BD2" s="5">
+      <c r="BP2" s="5">
         <v>-30928500</v>
       </c>
     </row>
-    <row r="3" spans="1:56" ht="32.25" customHeight="1">
+    <row r="3" spans="1:68" ht="32.25" customHeight="1">
       <c r="A3" s="2">
         <v>43769</v>
       </c>
       <c r="B3" s="3">
         <v>370</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
@@ -1027,82 +1155,94 @@
       <c r="AK3" s="4"/>
       <c r="AL3" s="4"/>
       <c r="AM3" s="4"/>
-      <c r="AN3" s="5">
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="5">
         <v>23934000</v>
       </c>
-      <c r="AO3" s="5">
+      <c r="BA3" s="5">
         <v>25598250</v>
       </c>
-      <c r="AP3" s="5">
+      <c r="BB3" s="5">
         <v>-1664250</v>
       </c>
-      <c r="AQ3" s="5">
+      <c r="BC3" s="5">
         <v>9467750</v>
       </c>
-      <c r="AR3" s="5">
+      <c r="BD3" s="5">
         <v>8728250</v>
       </c>
-      <c r="AS3" s="5">
+      <c r="BE3" s="5">
         <v>6754750</v>
       </c>
-      <c r="AT3" s="5">
+      <c r="BF3" s="5">
         <v>24950750</v>
       </c>
-      <c r="AU3" s="5">
+      <c r="BG3" s="5">
         <v>-26615000</v>
       </c>
-      <c r="AV3" s="5">
+      <c r="BH3" s="5">
         <v>-2882250</v>
       </c>
-      <c r="AW3" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="5">
+      <c r="BI3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="5">
         <v>-1736500</v>
       </c>
-      <c r="AY3" s="5">
+      <c r="BK3" s="5">
         <v>51750</v>
       </c>
-      <c r="AZ3" s="5">
+      <c r="BL3" s="5">
         <v>286000</v>
       </c>
-      <c r="BA3" s="5">
+      <c r="BM3" s="5">
         <v>-4281000</v>
       </c>
-      <c r="BB3" s="5">
+      <c r="BN3" s="5">
         <v>-30896000</v>
       </c>
-      <c r="BC3" s="5">
+      <c r="BO3" s="5">
         <v>32500</v>
       </c>
-      <c r="BD3" s="5">
+      <c r="BP3" s="5">
         <v>-30928500</v>
       </c>
     </row>
-    <row r="4" spans="1:56" ht="32.25" customHeight="1">
+    <row r="4" spans="1:68" ht="32.25" customHeight="1">
       <c r="A4" s="2">
         <v>43861</v>
       </c>
       <c r="B4" s="3">
         <v>382</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
@@ -1123,82 +1263,94 @@
       <c r="AK4" s="4"/>
       <c r="AL4" s="4"/>
       <c r="AM4" s="4"/>
-      <c r="AN4" s="5">
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="5">
         <v>23934000</v>
       </c>
-      <c r="AO4" s="5">
+      <c r="BA4" s="5">
         <v>25598250</v>
       </c>
-      <c r="AP4" s="5">
+      <c r="BB4" s="5">
         <v>-1664250</v>
       </c>
-      <c r="AQ4" s="5">
+      <c r="BC4" s="5">
         <v>9467750</v>
       </c>
-      <c r="AR4" s="5">
+      <c r="BD4" s="5">
         <v>8728250</v>
       </c>
-      <c r="AS4" s="5">
+      <c r="BE4" s="5">
         <v>6754750</v>
       </c>
-      <c r="AT4" s="5">
+      <c r="BF4" s="5">
         <v>24950750</v>
       </c>
-      <c r="AU4" s="5">
+      <c r="BG4" s="5">
         <v>-26615000</v>
       </c>
-      <c r="AV4" s="5">
+      <c r="BH4" s="5">
         <v>-2882250</v>
       </c>
-      <c r="AW4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="5">
+      <c r="BI4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="5">
         <v>-1736500</v>
       </c>
-      <c r="AY4" s="5">
+      <c r="BK4" s="5">
         <v>51750</v>
       </c>
-      <c r="AZ4" s="5">
+      <c r="BL4" s="5">
         <v>286000</v>
       </c>
-      <c r="BA4" s="5">
+      <c r="BM4" s="5">
         <v>-4281000</v>
       </c>
-      <c r="BB4" s="5">
+      <c r="BN4" s="5">
         <v>-30896000</v>
       </c>
-      <c r="BC4" s="5">
+      <c r="BO4" s="5">
         <v>32500</v>
       </c>
-      <c r="BD4" s="5">
+      <c r="BP4" s="5">
         <v>-30928500</v>
       </c>
     </row>
-    <row r="5" spans="1:56" ht="32.25" customHeight="1">
+    <row r="5" spans="1:68" ht="32.25" customHeight="1">
       <c r="A5" s="2">
         <v>43951</v>
       </c>
       <c r="B5" s="3">
         <v>382</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
@@ -1219,82 +1371,94 @@
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
       <c r="AM5" s="4"/>
-      <c r="AN5" s="5">
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="5">
         <v>28292000</v>
       </c>
-      <c r="AO5" s="5">
+      <c r="BA5" s="5">
         <v>21845750</v>
       </c>
-      <c r="AP5" s="5">
+      <c r="BB5" s="5">
         <v>6446250</v>
       </c>
-      <c r="AQ5" s="5">
+      <c r="BC5" s="5">
         <v>10956250</v>
       </c>
-      <c r="AR5" s="5">
+      <c r="BD5" s="5">
         <v>9317000</v>
       </c>
-      <c r="AS5" s="5">
+      <c r="BE5" s="5">
         <v>8033500</v>
       </c>
-      <c r="AT5" s="5">
+      <c r="BF5" s="5">
         <v>28306750</v>
       </c>
-      <c r="AU5" s="5">
+      <c r="BG5" s="5">
         <v>-21860500</v>
       </c>
-      <c r="AV5" s="5">
+      <c r="BH5" s="5">
         <v>168250</v>
       </c>
-      <c r="AW5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="5">
+      <c r="BI5" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="5">
         <v>-2361750</v>
       </c>
-      <c r="AY5" s="5">
+      <c r="BK5" s="5">
         <v>-7513250</v>
       </c>
-      <c r="AZ5" s="5">
+      <c r="BL5" s="5">
         <v>59750</v>
       </c>
-      <c r="BA5" s="5">
+      <c r="BM5" s="5">
         <v>-9647000</v>
       </c>
-      <c r="BB5" s="5">
+      <c r="BN5" s="5">
         <v>-31507500</v>
       </c>
-      <c r="BC5" s="5">
+      <c r="BO5" s="5">
         <v>268250</v>
       </c>
-      <c r="BD5" s="5">
+      <c r="BP5" s="5">
         <v>-31775750</v>
       </c>
     </row>
-    <row r="6" spans="1:56" ht="32.25" customHeight="1">
+    <row r="6" spans="1:68" ht="32.25" customHeight="1">
       <c r="A6" s="2">
         <v>44043</v>
       </c>
       <c r="B6" s="3">
         <v>387</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
@@ -1315,82 +1479,94 @@
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
       <c r="AM6" s="4"/>
-      <c r="AN6" s="5">
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="5">
         <v>28292000</v>
       </c>
-      <c r="AO6" s="5">
+      <c r="BA6" s="5">
         <v>21845750</v>
       </c>
-      <c r="AP6" s="5">
+      <c r="BB6" s="5">
         <v>6446250</v>
       </c>
-      <c r="AQ6" s="5">
+      <c r="BC6" s="5">
         <v>10956250</v>
       </c>
-      <c r="AR6" s="5">
+      <c r="BD6" s="5">
         <v>9317000</v>
       </c>
-      <c r="AS6" s="5">
+      <c r="BE6" s="5">
         <v>8033500</v>
       </c>
-      <c r="AT6" s="5">
+      <c r="BF6" s="5">
         <v>28306750</v>
       </c>
-      <c r="AU6" s="5">
+      <c r="BG6" s="5">
         <v>-21860500</v>
       </c>
-      <c r="AV6" s="5">
+      <c r="BH6" s="5">
         <v>168250</v>
       </c>
-      <c r="AW6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="5">
+      <c r="BI6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="5">
         <v>-2361750</v>
       </c>
-      <c r="AY6" s="5">
+      <c r="BK6" s="5">
         <v>-7513250</v>
       </c>
-      <c r="AZ6" s="5">
+      <c r="BL6" s="5">
         <v>59750</v>
       </c>
-      <c r="BA6" s="5">
+      <c r="BM6" s="5">
         <v>-9647000</v>
       </c>
-      <c r="BB6" s="5">
+      <c r="BN6" s="5">
         <v>-31507500</v>
       </c>
-      <c r="BC6" s="5">
+      <c r="BO6" s="5">
         <v>268250</v>
       </c>
-      <c r="BD6" s="5">
+      <c r="BP6" s="5">
         <v>-31775750</v>
       </c>
     </row>
-    <row r="7" spans="1:56" ht="32.25" customHeight="1">
+    <row r="7" spans="1:68" ht="32.25" customHeight="1">
       <c r="A7" s="2">
         <v>44135</v>
       </c>
       <c r="B7" s="3">
         <v>422</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
@@ -1411,2333 +1587,3063 @@
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
       <c r="AM7" s="4"/>
-      <c r="AN7" s="5">
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="5">
         <v>28292000</v>
       </c>
-      <c r="AO7" s="5">
+      <c r="BA7" s="5">
         <v>21845750</v>
       </c>
-      <c r="AP7" s="5">
+      <c r="BB7" s="5">
         <v>6446250</v>
       </c>
-      <c r="AQ7" s="5">
+      <c r="BC7" s="5">
         <v>10956250</v>
       </c>
-      <c r="AR7" s="5">
+      <c r="BD7" s="5">
         <v>9317000</v>
       </c>
-      <c r="AS7" s="5">
+      <c r="BE7" s="5">
         <v>8033500</v>
       </c>
-      <c r="AT7" s="5">
+      <c r="BF7" s="5">
         <v>28306750</v>
       </c>
-      <c r="AU7" s="5">
+      <c r="BG7" s="5">
         <v>-21860500</v>
       </c>
-      <c r="AV7" s="5">
+      <c r="BH7" s="5">
         <v>168250</v>
       </c>
-      <c r="AW7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="5">
+      <c r="BI7" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="5">
         <v>-2361750</v>
       </c>
-      <c r="AY7" s="5">
+      <c r="BK7" s="5">
         <v>-7513250</v>
       </c>
-      <c r="AZ7" s="5">
+      <c r="BL7" s="5">
         <v>59750</v>
       </c>
-      <c r="BA7" s="5">
+      <c r="BM7" s="5">
         <v>-9647000</v>
       </c>
-      <c r="BB7" s="5">
+      <c r="BN7" s="5">
         <v>-31507500</v>
       </c>
-      <c r="BC7" s="5">
+      <c r="BO7" s="5">
         <v>268250</v>
       </c>
-      <c r="BD7" s="5">
+      <c r="BP7" s="5">
         <v>-31775750</v>
       </c>
     </row>
-    <row r="8" spans="1:56" ht="32.25" customHeight="1">
+    <row r="8" spans="1:68" ht="32.25" customHeight="1">
       <c r="A8" s="2">
         <v>44227</v>
       </c>
       <c r="B8" s="3">
         <v>470</v>
       </c>
-      <c r="C8" s="15">
-        <v>-11218</v>
-      </c>
-      <c r="D8" s="15">
-        <v>-4027</v>
-      </c>
-      <c r="E8" s="15">
-        <v>-30800</v>
-      </c>
-      <c r="F8" s="15">
-        <v>83940</v>
-      </c>
-      <c r="G8" s="15">
-        <v>62212</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="C8" s="24">
+        <v>-54424000</v>
+      </c>
+      <c r="D8" s="17">
+        <v>-127103000</v>
+      </c>
+      <c r="E8" s="17">
+        <v>9447000</v>
+      </c>
+      <c r="F8" s="17">
+        <v>-53000</v>
+      </c>
+      <c r="G8" s="17">
+        <v>1073000</v>
+      </c>
+      <c r="H8" s="17">
+        <v>62212000</v>
+      </c>
+      <c r="I8" s="17">
+        <v>-673000</v>
+      </c>
+      <c r="J8" s="17">
+        <v>30053000</v>
+      </c>
+      <c r="K8" s="17">
+        <v>14012000</v>
+      </c>
+      <c r="L8" s="17">
+        <v>0</v>
+      </c>
+      <c r="M8" s="17">
+        <v>0</v>
+      </c>
+      <c r="N8" s="17">
+        <v>-186000</v>
+      </c>
+      <c r="O8" s="17">
+        <v>-11218000</v>
+      </c>
+      <c r="P8" s="18">
+        <v>-4027000</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>-30800000</v>
+      </c>
+      <c r="R8" s="18">
+        <v>83940000</v>
+      </c>
+      <c r="S8" s="18">
+        <v>62212000</v>
+      </c>
+      <c r="T8" s="5">
         <v>71183000</v>
       </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
+      <c r="U8" s="5">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5">
         <v>47110000</v>
       </c>
-      <c r="K8" s="5">
+      <c r="W8" s="5">
         <v>7134000</v>
       </c>
-      <c r="L8" s="5">
+      <c r="X8" s="5">
         <v>125427000</v>
       </c>
-      <c r="M8" s="5">
+      <c r="Y8" s="5">
         <v>159855000</v>
       </c>
-      <c r="N8" s="5">
+      <c r="Z8" s="5">
         <v>11994000</v>
       </c>
-      <c r="O8" s="5">
+      <c r="AA8" s="5">
         <v>88393000</v>
       </c>
-      <c r="P8" s="5">
+      <c r="AB8" s="5">
         <v>5673000</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="AC8" s="5">
         <v>4982000</v>
       </c>
-      <c r="R8" s="5">
-        <v>0</v>
-      </c>
-      <c r="S8" s="5">
+      <c r="AD8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="5">
         <v>2984000</v>
       </c>
-      <c r="T8" s="5">
+      <c r="AF8" s="5">
         <v>399308000</v>
       </c>
-      <c r="U8" s="5">
+      <c r="AG8" s="5">
         <v>1446000</v>
       </c>
-      <c r="V8" s="5">
+      <c r="AH8" s="5">
         <v>30195000</v>
       </c>
-      <c r="W8" s="5">
+      <c r="AI8" s="5">
         <v>57570000</v>
       </c>
-      <c r="X8" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="5">
+      <c r="AJ8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="5">
         <v>108814000</v>
       </c>
-      <c r="AA8" s="5">
+      <c r="AM8" s="5">
         <v>15122000</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AN8" s="5">
         <v>7971000</v>
       </c>
-      <c r="AC8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="5">
+      <c r="AO8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="5">
         <v>2991000</v>
       </c>
-      <c r="AE8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="5">
+      <c r="AQ8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="5">
         <v>1287000</v>
       </c>
-      <c r="AH8" s="5">
+      <c r="AT8" s="5">
         <v>291797000</v>
       </c>
-      <c r="AI8" s="5">
+      <c r="AU8" s="5">
         <v>745630000</v>
       </c>
-      <c r="AJ8" s="5">
+      <c r="AV8" s="5">
         <v>1769000</v>
       </c>
-      <c r="AK8" s="5">
+      <c r="AW8" s="5">
         <v>-639905000</v>
       </c>
-      <c r="AL8" s="5">
+      <c r="AX8" s="5">
         <v>107511000</v>
       </c>
-      <c r="AM8" s="5">
+      <c r="AY8" s="5">
         <v>399308000</v>
       </c>
-      <c r="AN8" s="5">
+      <c r="AZ8" s="5">
         <v>28292000</v>
       </c>
-      <c r="AO8" s="5">
+      <c r="BA8" s="5">
         <v>21845750</v>
       </c>
-      <c r="AP8" s="5">
+      <c r="BB8" s="5">
         <v>6446250</v>
       </c>
-      <c r="AQ8" s="5">
+      <c r="BC8" s="5">
         <v>10956250</v>
       </c>
-      <c r="AR8" s="5">
+      <c r="BD8" s="5">
         <v>9317000</v>
       </c>
-      <c r="AS8" s="5">
+      <c r="BE8" s="5">
         <v>8033500</v>
       </c>
-      <c r="AT8" s="5">
+      <c r="BF8" s="5">
         <v>28306750</v>
       </c>
-      <c r="AU8" s="5">
+      <c r="BG8" s="5">
         <v>-21860500</v>
       </c>
-      <c r="AV8" s="5">
+      <c r="BH8" s="5">
         <v>168250</v>
       </c>
-      <c r="AW8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="5">
+      <c r="BI8" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="5">
         <v>-2361750</v>
       </c>
-      <c r="AY8" s="5">
+      <c r="BK8" s="5">
         <v>-7513250</v>
       </c>
-      <c r="AZ8" s="5">
+      <c r="BL8" s="5">
         <v>59750</v>
       </c>
-      <c r="BA8" s="5">
+      <c r="BM8" s="5">
         <v>-9647000</v>
       </c>
-      <c r="BB8" s="5">
+      <c r="BN8" s="5">
         <v>-31507500</v>
       </c>
-      <c r="BC8" s="5">
+      <c r="BO8" s="5">
         <v>268250</v>
       </c>
-      <c r="BD8" s="5">
+      <c r="BP8" s="5">
         <v>-31775750</v>
       </c>
     </row>
-    <row r="9" spans="1:56" ht="32.25" customHeight="1">
+    <row r="9" spans="1:68" ht="32.25" customHeight="1">
       <c r="A9" s="2">
         <v>44316</v>
       </c>
       <c r="B9" s="3">
         <v>470</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="6">
+      <c r="C9" s="24">
+        <v>-60957819.178082183</v>
+      </c>
+      <c r="D9" s="19">
+        <v>-129546476.71232876</v>
+      </c>
+      <c r="E9" s="19">
+        <v>9282410.9589041099</v>
+      </c>
+      <c r="F9" s="19">
+        <v>-45197.260273972599</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1325857.5342465753</v>
+      </c>
+      <c r="H9" s="19">
+        <v>58025586.301369861</v>
+      </c>
+      <c r="I9" s="19">
+        <v>-96816.438356164377</v>
+      </c>
+      <c r="J9" s="19">
+        <v>21328805.479452055</v>
+      </c>
+      <c r="K9" s="19">
+        <v>20825742.465753425</v>
+      </c>
+      <c r="L9" s="19">
+        <v>0</v>
+      </c>
+      <c r="M9" s="19">
+        <v>0</v>
+      </c>
+      <c r="N9" s="19">
+        <v>407495.89041095891</v>
+      </c>
+      <c r="O9" s="19">
+        <v>-18492591.780821919</v>
+      </c>
+      <c r="P9" s="19">
+        <v>-13337619.178082192</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>-29422084.93150685</v>
+      </c>
+      <c r="R9" s="19">
+        <v>182752920.5479452</v>
+      </c>
+      <c r="S9" s="19">
+        <v>58025586.301369861</v>
+      </c>
+      <c r="T9" s="6">
         <v>173491304.10958904</v>
       </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="U9" s="6">
+        <v>0</v>
+      </c>
+      <c r="V9" s="6">
         <v>46442621.91780822</v>
       </c>
-      <c r="K9" s="6">
+      <c r="W9" s="6">
         <v>9389723.2876712326</v>
       </c>
-      <c r="L9" s="6">
+      <c r="X9" s="6">
         <v>229323649.31506848</v>
       </c>
-      <c r="M9" s="6">
+      <c r="Y9" s="6">
         <v>153375068.49315068</v>
       </c>
-      <c r="N9" s="6">
+      <c r="Z9" s="6">
         <v>11695057.534246575</v>
       </c>
-      <c r="O9" s="6">
+      <c r="AA9" s="6">
         <v>92008106.849315062</v>
       </c>
-      <c r="P9" s="6">
+      <c r="AB9" s="6">
         <v>7751454.7945205476</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="AC9" s="6">
         <v>5167558.9041095888</v>
       </c>
-      <c r="R9" s="6">
-        <v>0</v>
-      </c>
-      <c r="S9" s="6">
+      <c r="AD9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="6">
         <v>2918164.3835616438</v>
       </c>
-      <c r="T9" s="6">
+      <c r="AF9" s="6">
         <v>502239060.27397263</v>
       </c>
-      <c r="U9" s="6">
+      <c r="AG9" s="6">
         <v>1788345.2054794519</v>
       </c>
-      <c r="V9" s="6">
+      <c r="AH9" s="6">
         <v>34737169.8630137</v>
       </c>
-      <c r="W9" s="6">
+      <c r="AI9" s="6">
         <v>59194676.712328769</v>
       </c>
-      <c r="X9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="6">
+      <c r="AJ9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="6">
         <v>114477569.8630137</v>
       </c>
-      <c r="AA9" s="6">
+      <c r="AM9" s="6">
         <v>12307405.479452055</v>
       </c>
-      <c r="AB9" s="6">
+      <c r="AN9" s="6">
         <v>8989745.2054794524</v>
       </c>
-      <c r="AC9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="6">
+      <c r="AO9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="6">
         <v>2456268.493150685</v>
       </c>
-      <c r="AE9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="6">
+      <c r="AQ9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="6">
         <v>1315772.602739726</v>
       </c>
-      <c r="AH9" s="6">
+      <c r="AT9" s="6">
         <v>262877852.05479452</v>
       </c>
-      <c r="AI9" s="6">
+      <c r="AU9" s="6">
         <v>910833750.68493152</v>
       </c>
-      <c r="AJ9" s="6">
+      <c r="AV9" s="6">
         <v>1848734.2465753425</v>
       </c>
-      <c r="AK9" s="6">
+      <c r="AW9" s="6">
         <v>-673340715.06849313</v>
       </c>
-      <c r="AL9" s="6">
+      <c r="AX9" s="6">
         <v>239361208.21917808</v>
       </c>
-      <c r="AM9" s="6">
+      <c r="AY9" s="6">
         <v>502239060.27397263</v>
       </c>
-      <c r="AN9" s="5">
+      <c r="AZ9" s="5">
         <v>31957000</v>
       </c>
-      <c r="AO9" s="5">
+      <c r="BA9" s="5">
         <v>19126000</v>
       </c>
-      <c r="AP9" s="5">
+      <c r="BB9" s="5">
         <v>12831000</v>
       </c>
-      <c r="AQ9" s="5">
+      <c r="BC9" s="5">
         <v>12130000</v>
       </c>
-      <c r="AR9" s="5">
+      <c r="BD9" s="5">
         <v>10653000</v>
       </c>
-      <c r="AS9" s="5">
+      <c r="BE9" s="5">
         <v>8315000</v>
       </c>
-      <c r="AT9" s="5">
+      <c r="BF9" s="5">
         <v>31098000</v>
       </c>
-      <c r="AU9" s="5">
+      <c r="BG9" s="5">
         <v>-18267000</v>
       </c>
-      <c r="AV9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="5">
+      <c r="BH9" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="5">
         <v>-2527000</v>
       </c>
-      <c r="AY9" s="5">
+      <c r="BK9" s="5">
         <v>-8026000</v>
       </c>
-      <c r="AZ9" s="5">
+      <c r="BL9" s="5">
         <v>-177000</v>
       </c>
-      <c r="BA9" s="5">
+      <c r="BM9" s="5">
         <v>-10730000</v>
       </c>
-      <c r="BB9" s="5">
+      <c r="BN9" s="5">
         <v>-28997000</v>
       </c>
-      <c r="BC9" s="5">
+      <c r="BO9" s="5">
         <v>258000</v>
       </c>
-      <c r="BD9" s="5">
+      <c r="BP9" s="5">
         <v>-29255000</v>
       </c>
     </row>
-    <row r="10" spans="1:56" ht="32.25" customHeight="1">
+    <row r="10" spans="1:68" ht="32.25" customHeight="1">
       <c r="A10" s="2">
         <v>44408</v>
       </c>
       <c r="B10" s="3">
         <v>470</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="6">
+      <c r="C10" s="24">
+        <v>-67711879.452054799</v>
+      </c>
+      <c r="D10" s="19">
+        <v>-132072317.80821918</v>
+      </c>
+      <c r="E10" s="19">
+        <v>9112273.9726027399</v>
+      </c>
+      <c r="F10" s="19">
+        <v>-37131.506849315068</v>
+      </c>
+      <c r="G10" s="19">
+        <v>1587238.3561643837</v>
+      </c>
+      <c r="H10" s="19">
+        <v>53698057.534246579</v>
+      </c>
+      <c r="I10" s="19">
+        <v>498789.04109589034</v>
+      </c>
+      <c r="J10" s="19">
+        <v>12310536.98630137</v>
+      </c>
+      <c r="K10" s="19">
+        <v>27869161.643835615</v>
+      </c>
+      <c r="L10" s="19">
+        <v>0</v>
+      </c>
+      <c r="M10" s="19">
+        <v>0</v>
+      </c>
+      <c r="N10" s="19">
+        <v>1020997.2602739725</v>
+      </c>
+      <c r="O10" s="19">
+        <v>-26012394.520547945</v>
+      </c>
+      <c r="P10" s="19">
+        <v>-22962079.452054795</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>-27997723.287671234</v>
+      </c>
+      <c r="R10" s="19">
+        <v>284896613.69863015</v>
+      </c>
+      <c r="S10" s="19">
+        <v>53698057.534246579</v>
+      </c>
+      <c r="T10" s="6">
         <v>279248202.73972601</v>
       </c>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6">
+      <c r="U10" s="6">
+        <v>0</v>
+      </c>
+      <c r="V10" s="6">
         <v>45752747.94520548</v>
       </c>
-      <c r="K10" s="6">
+      <c r="W10" s="6">
         <v>11721482.191780822</v>
       </c>
-      <c r="L10" s="6">
+      <c r="X10" s="6">
         <v>336722432.87671232</v>
       </c>
-      <c r="M10" s="6">
+      <c r="Y10" s="6">
         <v>146676712.32876712</v>
       </c>
-      <c r="N10" s="6">
+      <c r="Z10" s="6">
         <v>11386038.356164383</v>
       </c>
-      <c r="O10" s="6">
+      <c r="AA10" s="6">
         <v>95745071.232876718</v>
       </c>
-      <c r="P10" s="6">
+      <c r="AB10" s="6">
         <v>9899969.8630136997</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="AC10" s="6">
         <v>5359372.6027397262</v>
       </c>
-      <c r="R10" s="6">
-        <v>0</v>
-      </c>
-      <c r="S10" s="6">
+      <c r="AD10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="6">
         <v>2850109.5890410957</v>
       </c>
-      <c r="T10" s="6">
+      <c r="AF10" s="6">
         <v>608639706.84931505</v>
       </c>
-      <c r="U10" s="6">
+      <c r="AG10" s="6">
         <v>2142230.1369863013</v>
       </c>
-      <c r="V10" s="6">
+      <c r="AH10" s="6">
         <v>39432446.575342461</v>
       </c>
-      <c r="W10" s="6">
+      <c r="AI10" s="6">
         <v>60874117.80821918</v>
       </c>
-      <c r="X10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="6">
+      <c r="AJ10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="6">
         <v>120332046.57534246</v>
       </c>
-      <c r="AA10" s="6">
+      <c r="AM10" s="6">
         <v>9397936.98630137</v>
       </c>
-      <c r="AB10" s="6">
+      <c r="AN10" s="6">
         <v>10042830.136986302</v>
       </c>
-      <c r="AC10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="6">
+      <c r="AO10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="6">
         <v>1903512.3287671232</v>
       </c>
-      <c r="AE10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="6">
+      <c r="AQ10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="6">
         <v>1345515.0684931506</v>
       </c>
-      <c r="AH10" s="6">
+      <c r="AT10" s="6">
         <v>232983901.369863</v>
       </c>
-      <c r="AI10" s="6">
+      <c r="AU10" s="6">
         <v>1081606167.1232877</v>
       </c>
-      <c r="AJ10" s="6">
+      <c r="AV10" s="6">
         <v>1931156.1643835616</v>
       </c>
-      <c r="AK10" s="6">
+      <c r="AW10" s="6">
         <v>-707903476.71232879</v>
       </c>
-      <c r="AL10" s="6">
+      <c r="AX10" s="6">
         <v>375655805.47945207</v>
       </c>
-      <c r="AM10" s="6">
+      <c r="AY10" s="6">
         <v>608639706.84931505</v>
       </c>
-      <c r="AN10" s="5">
+      <c r="AZ10" s="5">
         <v>30406000</v>
       </c>
-      <c r="AO10" s="5">
+      <c r="BA10" s="5">
         <v>19820000</v>
       </c>
-      <c r="AP10" s="5">
+      <c r="BB10" s="5">
         <v>10586000</v>
       </c>
-      <c r="AQ10" s="5">
+      <c r="BC10" s="5">
         <v>12432000</v>
       </c>
-      <c r="AR10" s="5">
+      <c r="BD10" s="5">
         <v>10597000</v>
       </c>
-      <c r="AS10" s="5">
+      <c r="BE10" s="5">
         <v>11824000</v>
       </c>
-      <c r="AT10" s="5">
+      <c r="BF10" s="5">
         <v>34853000</v>
       </c>
-      <c r="AU10" s="5">
+      <c r="BG10" s="5">
         <v>-24267000</v>
       </c>
-      <c r="AV10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="5">
+      <c r="BH10" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="5">
         <v>-2611000</v>
       </c>
-      <c r="AY10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="5">
+      <c r="BK10" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="5">
         <v>-84000</v>
       </c>
-      <c r="BA10" s="5">
+      <c r="BM10" s="5">
         <v>4074000</v>
       </c>
-      <c r="BB10" s="5">
+      <c r="BN10" s="5">
         <v>-20193000</v>
       </c>
-      <c r="BC10" s="5">
+      <c r="BO10" s="5">
         <v>170000</v>
       </c>
-      <c r="BD10" s="5">
+      <c r="BP10" s="5">
         <v>-20363000</v>
       </c>
     </row>
-    <row r="11" spans="1:56" ht="32.25" customHeight="1">
+    <row r="11" spans="1:68" ht="32.25" customHeight="1">
       <c r="A11" s="2">
         <v>44500</v>
       </c>
       <c r="B11" s="3">
         <v>470</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="6">
+      <c r="C11" s="24">
+        <v>-74465939.726027399</v>
+      </c>
+      <c r="D11" s="19">
+        <v>-134598158.9041096</v>
+      </c>
+      <c r="E11" s="19">
+        <v>8942136.98630137</v>
+      </c>
+      <c r="F11" s="19">
+        <v>-29065.753424657534</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1848619.1780821919</v>
+      </c>
+      <c r="H11" s="19">
+        <v>49370528.767123289</v>
+      </c>
+      <c r="I11" s="19">
+        <v>1094394.5205479451</v>
+      </c>
+      <c r="J11" s="19">
+        <v>3292268.493150685</v>
+      </c>
+      <c r="K11" s="19">
+        <v>34912580.82191781</v>
+      </c>
+      <c r="L11" s="19">
+        <v>0</v>
+      </c>
+      <c r="M11" s="19">
+        <v>0</v>
+      </c>
+      <c r="N11" s="19">
+        <v>1634498.6301369863</v>
+      </c>
+      <c r="O11" s="19">
+        <v>-33532197.260273971</v>
+      </c>
+      <c r="P11" s="19">
+        <v>-32586539.726027399</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>-26573361.643835619</v>
+      </c>
+      <c r="R11" s="19">
+        <v>387040306.84931505</v>
+      </c>
+      <c r="S11" s="19">
+        <v>49370528.767123289</v>
+      </c>
+      <c r="T11" s="6">
         <v>385005101.36986303</v>
       </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
+      <c r="U11" s="6">
+        <v>0</v>
+      </c>
+      <c r="V11" s="6">
         <v>45062873.97260274</v>
       </c>
-      <c r="K11" s="6">
+      <c r="W11" s="6">
         <v>14053241.09589041</v>
       </c>
-      <c r="L11" s="6">
+      <c r="X11" s="6">
         <v>444121216.43835616</v>
       </c>
-      <c r="M11" s="6">
+      <c r="Y11" s="6">
         <v>139978356.16438356</v>
       </c>
-      <c r="N11" s="6">
+      <c r="Z11" s="6">
         <v>11077019.178082192</v>
       </c>
-      <c r="O11" s="6">
+      <c r="AA11" s="6">
         <v>99482035.616438359</v>
       </c>
-      <c r="P11" s="6">
+      <c r="AB11" s="6">
         <v>12048484.93150685</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="AC11" s="6">
         <v>5551186.3013698626</v>
       </c>
-      <c r="R11" s="6">
-        <v>0</v>
-      </c>
-      <c r="S11" s="6">
+      <c r="AD11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="6">
         <v>2782054.7945205481</v>
       </c>
-      <c r="T11" s="6">
+      <c r="AF11" s="6">
         <v>715040353.42465758</v>
       </c>
-      <c r="U11" s="6">
+      <c r="AG11" s="6">
         <v>2496115.0684931506</v>
       </c>
-      <c r="V11" s="6">
+      <c r="AH11" s="6">
         <v>44127723.287671238</v>
       </c>
-      <c r="W11" s="6">
+      <c r="AI11" s="6">
         <v>62553558.904109597</v>
       </c>
-      <c r="X11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="6">
+      <c r="AJ11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="6">
         <v>126186523.28767124</v>
       </c>
-      <c r="AA11" s="6">
+      <c r="AM11" s="6">
         <v>6488468.493150685</v>
       </c>
-      <c r="AB11" s="6">
+      <c r="AN11" s="6">
         <v>11095915.06849315</v>
       </c>
-      <c r="AC11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="6">
+      <c r="AO11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="6">
         <v>1350756.1643835616</v>
       </c>
-      <c r="AE11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="6">
+      <c r="AQ11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="6">
         <v>1375257.5342465753</v>
       </c>
-      <c r="AH11" s="6">
+      <c r="AT11" s="6">
         <v>203089950.68493152</v>
       </c>
-      <c r="AI11" s="6">
+      <c r="AU11" s="6">
         <v>1252378583.5616438</v>
       </c>
-      <c r="AJ11" s="6">
+      <c r="AV11" s="6">
         <v>2013578.0821917809</v>
       </c>
-      <c r="AK11" s="6">
+      <c r="AW11" s="6">
         <v>-742466238.35616446</v>
       </c>
-      <c r="AL11" s="6">
+      <c r="AX11" s="6">
         <v>511950402.73972607</v>
       </c>
-      <c r="AM11" s="6">
+      <c r="AY11" s="6">
         <v>715040353.42465758</v>
       </c>
-      <c r="AN11" s="5">
+      <c r="AZ11" s="5">
         <v>31700000</v>
       </c>
-      <c r="AO11" s="5">
+      <c r="BA11" s="5">
         <v>20811000</v>
       </c>
-      <c r="AP11" s="5">
+      <c r="BB11" s="5">
         <v>10889000</v>
       </c>
-      <c r="AQ11" s="5">
+      <c r="BC11" s="5">
         <v>14959000</v>
       </c>
-      <c r="AR11" s="5">
+      <c r="BD11" s="5">
         <v>12441000</v>
       </c>
-      <c r="AS11" s="5">
+      <c r="BE11" s="5">
         <v>11800000</v>
       </c>
-      <c r="AT11" s="5">
+      <c r="BF11" s="5">
         <v>39200000</v>
       </c>
-      <c r="AU11" s="5">
+      <c r="BG11" s="5">
         <v>-28311000</v>
       </c>
-      <c r="AV11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="5">
+      <c r="BH11" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="5">
         <v>8000</v>
       </c>
-      <c r="AX11" s="5">
+      <c r="BJ11" s="5">
         <v>-2612000</v>
       </c>
-      <c r="AY11" s="5">
+      <c r="BK11" s="5">
         <v>-10172000</v>
       </c>
-      <c r="AZ11" s="5">
+      <c r="BL11" s="5">
         <v>-60000</v>
       </c>
-      <c r="BA11" s="5">
+      <c r="BM11" s="5">
         <v>-12836000</v>
       </c>
-      <c r="BB11" s="5">
+      <c r="BN11" s="5">
         <v>-41147000</v>
       </c>
-      <c r="BC11" s="5">
+      <c r="BO11" s="5">
         <v>394000</v>
       </c>
-      <c r="BD11" s="5">
+      <c r="BP11" s="5">
         <v>-41541000</v>
       </c>
     </row>
-    <row r="12" spans="1:56" ht="32.25" customHeight="1">
+    <row r="12" spans="1:68" ht="32.25" customHeight="1">
       <c r="A12" s="2">
         <v>44592</v>
       </c>
       <c r="B12" s="3">
         <v>514</v>
       </c>
-      <c r="C12" s="15">
-        <v>-41052</v>
-      </c>
-      <c r="D12" s="15">
-        <v>-42211</v>
-      </c>
-      <c r="E12" s="15">
-        <v>-25149</v>
-      </c>
-      <c r="F12" s="15">
-        <v>489184</v>
-      </c>
-      <c r="G12" s="15">
-        <v>45043</v>
-      </c>
-      <c r="H12" s="5">
+      <c r="C12" s="24">
+        <v>-81220000</v>
+      </c>
+      <c r="D12" s="17">
+        <v>-137124000</v>
+      </c>
+      <c r="E12" s="17">
+        <v>8772000</v>
+      </c>
+      <c r="F12" s="17">
+        <v>-21000</v>
+      </c>
+      <c r="G12" s="17">
+        <v>2110000</v>
+      </c>
+      <c r="H12" s="17">
+        <v>45043000</v>
+      </c>
+      <c r="I12" s="17">
+        <v>1690000</v>
+      </c>
+      <c r="J12" s="17">
+        <v>-5726000</v>
+      </c>
+      <c r="K12" s="17">
+        <v>41956000</v>
+      </c>
+      <c r="L12" s="17">
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <v>0</v>
+      </c>
+      <c r="N12" s="17">
+        <v>2248000</v>
+      </c>
+      <c r="O12" s="17">
+        <v>-41052000</v>
+      </c>
+      <c r="P12" s="18">
+        <v>-42211000</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>-25149000</v>
+      </c>
+      <c r="R12" s="18">
+        <v>489184000</v>
+      </c>
+      <c r="S12" s="18">
+        <v>45043000</v>
+      </c>
+      <c r="T12" s="5">
         <v>490762000</v>
       </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
+      <c r="U12" s="5">
+        <v>0</v>
+      </c>
+      <c r="V12" s="5">
         <v>44373000</v>
       </c>
-      <c r="K12" s="5">
+      <c r="W12" s="5">
         <v>16385000</v>
       </c>
-      <c r="L12" s="5">
+      <c r="X12" s="5">
         <v>551520000</v>
       </c>
-      <c r="M12" s="5">
+      <c r="Y12" s="5">
         <v>133280000</v>
       </c>
-      <c r="N12" s="5">
+      <c r="Z12" s="5">
         <v>10768000</v>
       </c>
-      <c r="O12" s="5">
+      <c r="AA12" s="5">
         <v>103219000</v>
       </c>
-      <c r="P12" s="5">
+      <c r="AB12" s="5">
         <v>14197000</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="AC12" s="5">
         <v>5743000</v>
       </c>
-      <c r="R12" s="5">
-        <v>0</v>
-      </c>
-      <c r="S12" s="5">
+      <c r="AD12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="5">
         <v>2714000</v>
       </c>
-      <c r="T12" s="5">
+      <c r="AF12" s="5">
         <v>821441000</v>
       </c>
-      <c r="U12" s="5">
+      <c r="AG12" s="5">
         <v>2850000</v>
       </c>
-      <c r="V12" s="5">
+      <c r="AH12" s="5">
         <v>48823000</v>
       </c>
-      <c r="W12" s="5">
+      <c r="AI12" s="5">
         <v>64233000</v>
       </c>
-      <c r="X12" s="5">
+      <c r="AJ12" s="5">
         <v>16135000</v>
       </c>
-      <c r="Y12" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="5">
+      <c r="AK12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="5">
         <v>132041000</v>
       </c>
-      <c r="AA12" s="5">
+      <c r="AM12" s="5">
         <v>3579000</v>
       </c>
-      <c r="AB12" s="5">
+      <c r="AN12" s="5">
         <v>12149000</v>
       </c>
-      <c r="AC12" s="5">
+      <c r="AO12" s="5">
         <v>23224000</v>
       </c>
-      <c r="AD12" s="5">
+      <c r="AP12" s="5">
         <v>798000</v>
       </c>
-      <c r="AE12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="5">
+      <c r="AQ12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="5">
         <v>1405000</v>
       </c>
-      <c r="AH12" s="5">
+      <c r="AT12" s="5">
         <v>173196000</v>
       </c>
-      <c r="AI12" s="5">
+      <c r="AU12" s="5">
         <v>1423151000</v>
       </c>
-      <c r="AJ12" s="5">
+      <c r="AV12" s="5">
         <v>2096000</v>
       </c>
-      <c r="AK12" s="5">
+      <c r="AW12" s="5">
         <v>-777029000</v>
       </c>
-      <c r="AL12" s="5">
+      <c r="AX12" s="5">
         <v>648245000</v>
       </c>
-      <c r="AM12" s="5">
+      <c r="AY12" s="5">
         <v>821441000</v>
       </c>
-      <c r="AN12" s="5">
+      <c r="AZ12" s="5">
         <v>37146000</v>
       </c>
-      <c r="AO12" s="5">
+      <c r="BA12" s="5">
         <v>23230000</v>
       </c>
-      <c r="AP12" s="5">
+      <c r="BB12" s="5">
         <v>13916000</v>
       </c>
-      <c r="AQ12" s="5">
+      <c r="BC12" s="5">
         <v>27163000</v>
       </c>
-      <c r="AR12" s="5">
+      <c r="BD12" s="5">
         <v>19226000</v>
       </c>
-      <c r="AS12" s="5">
+      <c r="BE12" s="5">
         <v>24733000</v>
       </c>
-      <c r="AT12" s="5">
+      <c r="BF12" s="5">
         <v>71122000</v>
       </c>
-      <c r="AU12" s="5">
+      <c r="BG12" s="5">
         <v>-57206000</v>
       </c>
-      <c r="AV12" s="5">
+      <c r="BH12" s="5">
         <v>-1690000</v>
       </c>
-      <c r="AW12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX12" s="5">
+      <c r="BI12" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="5">
         <v>-1022000</v>
       </c>
-      <c r="AY12" s="5">
+      <c r="BK12" s="5">
         <v>23924000</v>
       </c>
-      <c r="AZ12" s="5">
+      <c r="BL12" s="5">
         <v>-1906000</v>
       </c>
-      <c r="BA12" s="5">
+      <c r="BM12" s="5">
         <v>12529000</v>
       </c>
-      <c r="BB12" s="5">
+      <c r="BN12" s="5">
         <v>-44677000</v>
       </c>
-      <c r="BC12" s="5">
+      <c r="BO12" s="5">
         <v>1288000</v>
       </c>
-      <c r="BD12" s="5">
+      <c r="BP12" s="5">
         <v>-45965000</v>
       </c>
     </row>
-    <row r="13" spans="1:56" ht="32.25" customHeight="1">
+    <row r="13" spans="1:68" ht="32.25" customHeight="1">
       <c r="A13" s="2">
         <v>44681</v>
       </c>
       <c r="B13" s="3">
         <v>514</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="5">
+      <c r="C13" s="24">
+        <v>-92007531.506849304</v>
+      </c>
+      <c r="D13" s="19">
+        <v>-143181364.38356164</v>
+      </c>
+      <c r="E13" s="19">
+        <v>6633073.9726027399</v>
+      </c>
+      <c r="F13" s="19">
+        <v>-1886586.3013698629</v>
+      </c>
+      <c r="G13" s="19">
+        <v>1802035.6164383562</v>
+      </c>
+      <c r="H13" s="19">
+        <v>44625309.589041099</v>
+      </c>
+      <c r="I13" s="19">
+        <v>1277917.8082191781</v>
+      </c>
+      <c r="J13" s="19">
+        <v>-5927895.8904109588</v>
+      </c>
+      <c r="K13" s="19">
+        <v>50145950.684931502</v>
+      </c>
+      <c r="L13" s="19">
+        <v>0</v>
+      </c>
+      <c r="M13" s="19">
+        <v>0</v>
+      </c>
+      <c r="N13" s="19">
+        <v>1619391.7808219176</v>
+      </c>
+      <c r="O13" s="19">
+        <v>-44892167.12328767</v>
+      </c>
+      <c r="P13" s="19">
+        <v>-49945953.424657539</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>-78089126.02739726</v>
+      </c>
+      <c r="R13" s="19">
+        <v>294622197.26027393</v>
+      </c>
+      <c r="S13" s="19">
+        <v>44625309.589041099</v>
+      </c>
+      <c r="T13" s="5">
         <v>484489000</v>
       </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
+      <c r="U13" s="5">
+        <v>0</v>
+      </c>
+      <c r="V13" s="5">
         <v>24581000</v>
       </c>
-      <c r="K13" s="5">
+      <c r="W13" s="5">
         <v>18192000</v>
       </c>
-      <c r="L13" s="5">
+      <c r="X13" s="5">
         <v>527262000</v>
       </c>
-      <c r="M13" s="5">
+      <c r="Y13" s="5">
         <v>125329000</v>
       </c>
-      <c r="N13" s="5">
+      <c r="Z13" s="5">
         <v>11105000</v>
       </c>
-      <c r="O13" s="5">
+      <c r="AA13" s="5">
         <v>103219000</v>
       </c>
-      <c r="P13" s="5">
+      <c r="AB13" s="5">
         <v>13604000</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="AC13" s="5">
         <v>5653000</v>
       </c>
-      <c r="R13" s="5">
+      <c r="AD13" s="5">
         <v>7035000</v>
       </c>
-      <c r="S13" s="5">
+      <c r="AE13" s="5">
         <v>2787000</v>
       </c>
-      <c r="T13" s="5">
+      <c r="AF13" s="5">
         <v>795994000</v>
       </c>
-      <c r="U13" s="5">
+      <c r="AG13" s="5">
         <v>3168000</v>
       </c>
-      <c r="V13" s="5">
+      <c r="AH13" s="5">
         <v>43184000</v>
       </c>
-      <c r="W13" s="5">
+      <c r="AI13" s="5">
         <v>60672000</v>
       </c>
-      <c r="X13" s="5">
+      <c r="AJ13" s="5">
         <v>15239000</v>
       </c>
-      <c r="Y13" s="5">
+      <c r="AK13" s="5">
         <v>7188000</v>
       </c>
-      <c r="Z13" s="5">
+      <c r="AL13" s="5">
         <v>129451000</v>
       </c>
-      <c r="AA13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="5">
+      <c r="AM13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="5">
         <v>12199000</v>
       </c>
-      <c r="AC13" s="5">
+      <c r="AO13" s="5">
         <v>19948000</v>
       </c>
-      <c r="AD13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="5">
+      <c r="AP13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="5">
         <v>2271000</v>
       </c>
-      <c r="AF13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="5">
+      <c r="AR13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="5">
         <v>1419000</v>
       </c>
-      <c r="AH13" s="5">
+      <c r="AT13" s="5">
         <v>165288000</v>
       </c>
-      <c r="AI13" s="5">
+      <c r="AU13" s="5">
         <v>1450098000</v>
       </c>
-      <c r="AJ13" s="5">
+      <c r="AV13" s="5">
         <v>2271000</v>
       </c>
-      <c r="AK13" s="5">
+      <c r="AW13" s="5">
         <v>-821690000</v>
       </c>
-      <c r="AL13" s="5">
+      <c r="AX13" s="5">
         <v>630706000</v>
       </c>
-      <c r="AM13" s="5">
+      <c r="AY13" s="5">
         <v>795994000</v>
       </c>
-      <c r="AN13" s="5">
+      <c r="AZ13" s="5">
         <v>40127000</v>
       </c>
-      <c r="AO13" s="5">
+      <c r="BA13" s="5">
         <v>23628000</v>
       </c>
-      <c r="AP13" s="5">
+      <c r="BB13" s="5">
         <v>16499000</v>
       </c>
-      <c r="AQ13" s="5">
+      <c r="BC13" s="5">
         <v>24750000</v>
       </c>
-      <c r="AR13" s="5">
+      <c r="BD13" s="5">
         <v>18855000</v>
       </c>
-      <c r="AS13" s="5">
+      <c r="BE13" s="5">
         <v>20608000</v>
       </c>
-      <c r="AT13" s="5">
+      <c r="BF13" s="5">
         <v>64213000</v>
       </c>
-      <c r="AU13" s="5">
+      <c r="BG13" s="5">
         <v>-47714000</v>
       </c>
-      <c r="AV13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="5">
+      <c r="BH13" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI13" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="5">
         <v>3276000</v>
       </c>
-      <c r="AZ13" s="5">
+      <c r="BL13" s="5">
         <v>392000</v>
       </c>
-      <c r="BA13" s="5">
+      <c r="BM13" s="5">
         <v>3668000</v>
       </c>
-      <c r="BB13" s="5">
+      <c r="BN13" s="5">
         <v>-44046000</v>
       </c>
-      <c r="BC13" s="5">
+      <c r="BO13" s="5">
         <v>314000</v>
       </c>
-      <c r="BD13" s="5">
+      <c r="BP13" s="5">
         <v>-44360000</v>
       </c>
     </row>
-    <row r="14" spans="1:56" ht="32.25" customHeight="1">
+    <row r="14" spans="1:68" ht="32.25" customHeight="1">
       <c r="A14" s="2">
         <v>44773</v>
       </c>
       <c r="B14" s="3">
         <v>514</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="6">
+      <c r="C14" s="24">
+        <v>-103158687.67123285</v>
+      </c>
+      <c r="D14" s="19">
+        <v>-149442909.58904108</v>
+      </c>
+      <c r="E14" s="19">
+        <v>4422049.3150684936</v>
+      </c>
+      <c r="F14" s="19">
+        <v>-3815057.5342465751</v>
+      </c>
+      <c r="G14" s="19">
+        <v>1483690.4109589041</v>
+      </c>
+      <c r="H14" s="19">
+        <v>44193539.726027399</v>
+      </c>
+      <c r="I14" s="19">
+        <v>851945.20547945204</v>
+      </c>
+      <c r="J14" s="19">
+        <v>-6136597.2602739725</v>
+      </c>
+      <c r="K14" s="19">
+        <v>58611967.12328767</v>
+      </c>
+      <c r="L14" s="19">
+        <v>0</v>
+      </c>
+      <c r="M14" s="19">
+        <v>0</v>
+      </c>
+      <c r="N14" s="19">
+        <v>969594.52054794505</v>
+      </c>
+      <c r="O14" s="19">
+        <v>-48861778.08219178</v>
+      </c>
+      <c r="P14" s="19">
+        <v>-57941635.616438359</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>-132813750.68493152</v>
+      </c>
+      <c r="R14" s="19">
+        <v>93502131.506849349</v>
+      </c>
+      <c r="S14" s="19">
+        <v>44193539.726027399</v>
+      </c>
+      <c r="T14" s="6">
         <v>341806500</v>
       </c>
-      <c r="I14" s="6">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6">
+      <c r="U14" s="6">
+        <v>0</v>
+      </c>
+      <c r="V14" s="6">
         <v>26795000</v>
       </c>
-      <c r="K14" s="6">
+      <c r="W14" s="6">
         <v>22269500</v>
       </c>
-      <c r="L14" s="6">
+      <c r="X14" s="6">
         <v>503952500</v>
       </c>
-      <c r="M14" s="6">
+      <c r="Y14" s="6">
         <v>120357000</v>
       </c>
-      <c r="N14" s="6">
+      <c r="Z14" s="6">
         <v>11143000</v>
       </c>
-      <c r="O14" s="6">
+      <c r="AA14" s="6">
         <v>103219000</v>
       </c>
-      <c r="P14" s="6">
+      <c r="AB14" s="6">
         <v>13011500</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="AC14" s="6">
         <v>5408000</v>
       </c>
-      <c r="R14" s="6">
+      <c r="AD14" s="6">
         <v>11420500</v>
       </c>
-      <c r="S14" s="6">
+      <c r="AE14" s="6">
         <v>3099500</v>
       </c>
-      <c r="T14" s="6">
+      <c r="AF14" s="6">
         <v>771611000</v>
       </c>
-      <c r="U14" s="6">
+      <c r="AG14" s="6">
         <v>2862500</v>
       </c>
-      <c r="V14" s="6">
+      <c r="AH14" s="6">
         <v>42906500</v>
       </c>
-      <c r="W14" s="6">
+      <c r="AI14" s="6">
         <v>54185000</v>
       </c>
-      <c r="X14" s="6">
+      <c r="AJ14" s="6">
         <v>14342500</v>
       </c>
-      <c r="Y14" s="6">
+      <c r="AK14" s="6">
         <v>5363000</v>
       </c>
-      <c r="Z14" s="6">
+      <c r="AL14" s="6">
         <v>119659500</v>
       </c>
-      <c r="AA14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="6">
+      <c r="AM14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="6">
         <v>11026000</v>
       </c>
-      <c r="AC14" s="6">
+      <c r="AO14" s="6">
         <v>18901500</v>
       </c>
-      <c r="AD14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="6">
+      <c r="AP14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="6">
         <v>8147500</v>
       </c>
-      <c r="AF14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="6">
+      <c r="AR14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="6">
         <v>1440000</v>
       </c>
-      <c r="AH14" s="6">
+      <c r="AT14" s="6">
         <v>159174500</v>
       </c>
-      <c r="AI14" s="6">
+      <c r="AU14" s="6">
         <v>1472375000</v>
       </c>
-      <c r="AJ14" s="6">
+      <c r="AV14" s="6">
         <v>1607000</v>
       </c>
-      <c r="AK14" s="6">
+      <c r="AW14" s="6">
         <v>-861572500</v>
       </c>
-      <c r="AL14" s="6">
+      <c r="AX14" s="6">
         <v>612436500</v>
       </c>
-      <c r="AM14" s="6">
+      <c r="AY14" s="6">
         <v>771611000</v>
       </c>
-      <c r="AN14" s="5">
+      <c r="AZ14" s="5">
         <v>48450000</v>
       </c>
-      <c r="AO14" s="5">
+      <c r="BA14" s="5">
         <v>24977000</v>
       </c>
-      <c r="AP14" s="5">
+      <c r="BB14" s="5">
         <v>23473000</v>
       </c>
-      <c r="AQ14" s="5">
+      <c r="BC14" s="5">
         <v>26737000</v>
       </c>
-      <c r="AR14" s="5">
+      <c r="BD14" s="5">
         <v>19483000</v>
       </c>
-      <c r="AS14" s="5">
+      <c r="BE14" s="5">
         <v>19893000</v>
       </c>
-      <c r="AT14" s="5">
+      <c r="BF14" s="5">
         <v>66113000</v>
       </c>
-      <c r="AU14" s="5">
+      <c r="BG14" s="5">
         <v>-42640000</v>
       </c>
-      <c r="AV14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AZ14" s="5">
+      <c r="BH14" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI14" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK14" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL14" s="5">
         <v>1153000</v>
       </c>
-      <c r="BA14" s="5">
+      <c r="BM14" s="5">
         <v>3265000</v>
       </c>
-      <c r="BB14" s="5">
+      <c r="BN14" s="5">
         <v>-39375000</v>
       </c>
-      <c r="BC14" s="5">
+      <c r="BO14" s="5">
         <v>154000</v>
       </c>
-      <c r="BD14" s="5">
+      <c r="BP14" s="5">
         <v>-39529000</v>
       </c>
     </row>
-    <row r="15" spans="1:56" ht="32.25" customHeight="1">
+    <row r="15" spans="1:68" ht="32.25" customHeight="1">
       <c r="A15" s="2">
         <v>44865</v>
       </c>
       <c r="B15" s="3">
         <v>514</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="H15" s="5">
+      <c r="C15" s="24">
+        <v>-114309843.83561645</v>
+      </c>
+      <c r="D15" s="19">
+        <v>-155704454.79452056</v>
+      </c>
+      <c r="E15" s="19">
+        <v>2211024.6575342468</v>
+      </c>
+      <c r="F15" s="19">
+        <v>-5743528.7671232875</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1165345.2054794519</v>
+      </c>
+      <c r="H15" s="19">
+        <v>43761769.8630137</v>
+      </c>
+      <c r="I15" s="19">
+        <v>425972.60273972602</v>
+      </c>
+      <c r="J15" s="19">
+        <v>-6345298.6301369863</v>
+      </c>
+      <c r="K15" s="19">
+        <v>67077983.561643839</v>
+      </c>
+      <c r="L15" s="19">
+        <v>0</v>
+      </c>
+      <c r="M15" s="19">
+        <v>0</v>
+      </c>
+      <c r="N15" s="19">
+        <v>319797.26027397253</v>
+      </c>
+      <c r="O15" s="19">
+        <v>-52831389.04109589</v>
+      </c>
+      <c r="P15" s="19">
+        <v>-65937317.80821918</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>-187538375.34246576</v>
+      </c>
+      <c r="R15" s="19">
+        <v>-107617934.24657533</v>
+      </c>
+      <c r="S15" s="19">
+        <v>43761769.8630137</v>
+      </c>
+      <c r="T15" s="5">
         <v>199124000</v>
       </c>
-      <c r="I15" s="5">
+      <c r="U15" s="5">
         <v>226163000</v>
       </c>
-      <c r="J15" s="5">
+      <c r="V15" s="5">
         <v>29009000</v>
       </c>
-      <c r="K15" s="5">
+      <c r="W15" s="5">
         <v>26347000</v>
       </c>
-      <c r="L15" s="5">
+      <c r="X15" s="5">
         <v>480643000</v>
       </c>
-      <c r="M15" s="5">
+      <c r="Y15" s="5">
         <v>115385000</v>
       </c>
-      <c r="N15" s="5">
+      <c r="Z15" s="5">
         <v>11181000</v>
       </c>
-      <c r="O15" s="5">
+      <c r="AA15" s="5">
         <v>103219000</v>
       </c>
-      <c r="P15" s="5">
+      <c r="AB15" s="5">
         <v>12419000</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="AC15" s="5">
         <v>5163000</v>
       </c>
-      <c r="R15" s="5">
+      <c r="AD15" s="5">
         <v>15806000</v>
       </c>
-      <c r="S15" s="5">
+      <c r="AE15" s="5">
         <v>3412000</v>
       </c>
-      <c r="T15" s="5">
+      <c r="AF15" s="5">
         <v>747228000</v>
       </c>
-      <c r="U15" s="5">
+      <c r="AG15" s="5">
         <v>2557000</v>
       </c>
-      <c r="V15" s="5">
+      <c r="AH15" s="5">
         <v>42629000</v>
       </c>
-      <c r="W15" s="5">
+      <c r="AI15" s="5">
         <v>47698000</v>
       </c>
-      <c r="X15" s="5">
+      <c r="AJ15" s="5">
         <v>13446000</v>
       </c>
-      <c r="Y15" s="5">
+      <c r="AK15" s="5">
         <v>3538000</v>
       </c>
-      <c r="Z15" s="5">
+      <c r="AL15" s="5">
         <v>109868000</v>
       </c>
-      <c r="AA15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="5">
+      <c r="AM15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="5">
         <v>9853000</v>
       </c>
-      <c r="AC15" s="5">
+      <c r="AO15" s="5">
         <v>17855000</v>
       </c>
-      <c r="AD15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="5">
+      <c r="AP15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="5">
         <v>14024000</v>
       </c>
-      <c r="AF15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="5">
+      <c r="AR15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="5">
         <v>1461000</v>
       </c>
-      <c r="AH15" s="5">
+      <c r="AT15" s="5">
         <v>153061000</v>
       </c>
-      <c r="AI15" s="5">
+      <c r="AU15" s="5">
         <v>1494652000</v>
       </c>
-      <c r="AJ15" s="5">
+      <c r="AV15" s="5">
         <v>943000</v>
       </c>
-      <c r="AK15" s="5">
+      <c r="AW15" s="5">
         <v>-901455000</v>
       </c>
-      <c r="AL15" s="5">
+      <c r="AX15" s="5">
         <v>594167000</v>
       </c>
-      <c r="AM15" s="5">
+      <c r="AY15" s="5">
         <v>747228000</v>
       </c>
-      <c r="AN15" s="5">
+      <c r="AZ15" s="5">
         <v>49704000</v>
       </c>
-      <c r="AO15" s="5">
+      <c r="BA15" s="5">
         <v>24728000</v>
       </c>
-      <c r="AP15" s="5">
+      <c r="BB15" s="5">
         <v>24976000</v>
       </c>
-      <c r="AQ15" s="5">
+      <c r="BC15" s="5">
         <v>27598000</v>
       </c>
-      <c r="AR15" s="5">
+      <c r="BD15" s="5">
         <v>19383000</v>
       </c>
-      <c r="AS15" s="5">
+      <c r="BE15" s="5">
         <v>20627000</v>
       </c>
-      <c r="AT15" s="5">
+      <c r="BF15" s="5">
         <v>67608000</v>
       </c>
-      <c r="AU15" s="5">
+      <c r="BG15" s="5">
         <v>-42632000</v>
       </c>
-      <c r="AV15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="5">
+      <c r="BH15" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI15" s="5">
         <v>2853000</v>
       </c>
-      <c r="AX15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="5">
+      <c r="BJ15" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK15" s="5">
         <v>-19000</v>
       </c>
-      <c r="AZ15" s="5">
+      <c r="BL15" s="5">
         <v>1000</v>
       </c>
-      <c r="BA15" s="5">
+      <c r="BM15" s="5">
         <v>2835000</v>
       </c>
-      <c r="BB15" s="5">
+      <c r="BN15" s="5">
         <v>-39797000</v>
       </c>
-      <c r="BC15" s="5">
+      <c r="BO15" s="5">
         <v>439000</v>
       </c>
-      <c r="BD15" s="5">
+      <c r="BP15" s="5">
         <v>-40236000</v>
       </c>
     </row>
-    <row r="16" spans="1:56" ht="32.25" customHeight="1">
+    <row r="16" spans="1:68" ht="32.25" customHeight="1">
       <c r="A16" s="2">
         <v>44957</v>
       </c>
       <c r="B16" s="3">
         <v>550</v>
       </c>
-      <c r="C16" s="14">
-        <v>-56801</v>
-      </c>
-      <c r="D16" s="14">
-        <v>-73933</v>
-      </c>
-      <c r="E16" s="14">
-        <v>-242263</v>
-      </c>
-      <c r="F16" s="14">
-        <v>-308738</v>
-      </c>
-      <c r="G16" s="14">
-        <v>43330</v>
-      </c>
-      <c r="H16" s="5">
+      <c r="C16" s="24">
+        <v>-125461000</v>
+      </c>
+      <c r="D16" s="17">
+        <v>-161966000</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <v>-7672000</v>
+      </c>
+      <c r="G16" s="17">
+        <v>847000</v>
+      </c>
+      <c r="H16" s="17">
+        <v>43330000</v>
+      </c>
+      <c r="I16" s="17">
+        <v>0</v>
+      </c>
+      <c r="J16" s="17">
+        <v>-6554000</v>
+      </c>
+      <c r="K16" s="17">
+        <v>75544000</v>
+      </c>
+      <c r="L16" s="17">
+        <v>0</v>
+      </c>
+      <c r="M16" s="17">
+        <v>0</v>
+      </c>
+      <c r="N16" s="17">
+        <v>-330000</v>
+      </c>
+      <c r="O16" s="17">
+        <v>-56801000</v>
+      </c>
+      <c r="P16" s="16">
+        <v>-73933000</v>
+      </c>
+      <c r="Q16" s="16">
+        <v>-242263000</v>
+      </c>
+      <c r="R16" s="16">
+        <v>-308738000</v>
+      </c>
+      <c r="S16" s="16">
+        <v>43330000</v>
+      </c>
+      <c r="T16" s="5">
         <v>181892000</v>
       </c>
-      <c r="I16" s="5">
+      <c r="U16" s="5">
         <v>226868000</v>
       </c>
-      <c r="J16" s="5">
+      <c r="V16" s="5">
         <v>38952000</v>
       </c>
-      <c r="K16" s="5">
+      <c r="W16" s="5">
         <v>27943000</v>
       </c>
-      <c r="L16" s="5">
+      <c r="X16" s="5">
         <v>475655000</v>
       </c>
-      <c r="M16" s="5">
+      <c r="Y16" s="5">
         <v>108091000</v>
       </c>
-      <c r="N16" s="5">
+      <c r="Z16" s="5">
         <v>11417000</v>
       </c>
-      <c r="O16" s="5">
+      <c r="AA16" s="5">
         <v>112748000</v>
       </c>
-      <c r="P16" s="5">
+      <c r="AB16" s="5">
         <v>14831000</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="AC16" s="5">
         <v>5657000</v>
       </c>
-      <c r="R16" s="5">
+      <c r="AD16" s="5">
         <v>20403000</v>
       </c>
-      <c r="S16" s="5">
+      <c r="AE16" s="5">
         <v>3921000</v>
       </c>
-      <c r="T16" s="5">
+      <c r="AF16" s="5">
         <v>752723000</v>
       </c>
-      <c r="U16" s="5">
+      <c r="AG16" s="5">
         <v>6900000</v>
       </c>
-      <c r="V16" s="5">
+      <c r="AH16" s="5">
         <v>46022000</v>
       </c>
-      <c r="W16" s="5">
+      <c r="AI16" s="5">
         <v>51900000</v>
       </c>
-      <c r="X16" s="5">
+      <c r="AJ16" s="5">
         <v>12550000</v>
       </c>
-      <c r="Y16" s="5">
+      <c r="AK16" s="5">
         <v>4885000</v>
       </c>
-      <c r="Z16" s="5">
+      <c r="AL16" s="5">
         <v>122257000</v>
       </c>
-      <c r="AA16" s="5">
+      <c r="AM16" s="5">
         <v>2882000</v>
       </c>
-      <c r="AB16" s="5">
+      <c r="AN16" s="5">
         <v>8679000</v>
       </c>
-      <c r="AC16" s="5">
+      <c r="AO16" s="5">
         <v>16670000</v>
       </c>
-      <c r="AD16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="5">
+      <c r="AP16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="5">
         <v>17145000</v>
       </c>
-      <c r="AF16" s="5">
+      <c r="AR16" s="5">
         <v>7499000</v>
       </c>
-      <c r="AG16" s="5">
+      <c r="AS16" s="5">
         <v>1487000</v>
       </c>
-      <c r="AH16" s="5">
+      <c r="AT16" s="5">
         <v>176619000</v>
       </c>
-      <c r="AI16" s="5">
+      <c r="AU16" s="5">
         <v>1513102000</v>
       </c>
-      <c r="AJ16" s="5">
+      <c r="AV16" s="5">
         <v>2271000</v>
       </c>
-      <c r="AK16" s="5">
+      <c r="AW16" s="5">
         <v>-939296000</v>
       </c>
-      <c r="AL16" s="5">
+      <c r="AX16" s="5">
         <v>576104000</v>
       </c>
-      <c r="AM16" s="5">
+      <c r="AY16" s="5">
         <v>752723000</v>
       </c>
-      <c r="AN16" s="5">
+      <c r="AZ16" s="5">
         <v>52975000</v>
       </c>
-      <c r="AO16" s="5">
+      <c r="BA16" s="5">
         <v>23915000</v>
       </c>
-      <c r="AP16" s="5">
+      <c r="BB16" s="5">
         <v>29060000</v>
       </c>
-      <c r="AQ16" s="5">
+      <c r="BC16" s="5">
         <v>31831000</v>
       </c>
-      <c r="AR16" s="5">
+      <c r="BD16" s="5">
         <v>20299000</v>
       </c>
-      <c r="AS16" s="5">
+      <c r="BE16" s="5">
         <v>19619000</v>
       </c>
-      <c r="AT16" s="5">
+      <c r="BF16" s="5">
         <v>71749000</v>
       </c>
-      <c r="AU16" s="5">
+      <c r="BG16" s="5">
         <v>-42689000</v>
       </c>
-      <c r="AV16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="5">
+      <c r="BH16" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI16" s="5">
         <v>4819000</v>
       </c>
-      <c r="AX16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="5">
+      <c r="BJ16" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK16" s="5">
         <v>3297000</v>
       </c>
-      <c r="AZ16" s="5">
+      <c r="BL16" s="5">
         <v>-1216000</v>
       </c>
-      <c r="BA16" s="5">
+      <c r="BM16" s="5">
         <v>4788000</v>
       </c>
-      <c r="BB16" s="5">
+      <c r="BN16" s="5">
         <v>-37901000</v>
       </c>
-      <c r="BC16" s="5">
+      <c r="BO16" s="5">
         <v>-60000</v>
       </c>
-      <c r="BD16" s="5">
+      <c r="BP16" s="5">
         <v>-37841000</v>
       </c>
     </row>
-    <row r="17" spans="1:56" ht="32.25" customHeight="1">
+    <row r="17" spans="1:68" ht="32.25" customHeight="1">
       <c r="A17" s="2">
         <v>45046</v>
       </c>
       <c r="B17" s="3">
         <v>550</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="5">
+      <c r="C17" s="24">
+        <v>-121073909.58904111</v>
+      </c>
+      <c r="D17" s="19">
+        <v>-156734019.1780822</v>
+      </c>
+      <c r="E17" s="19">
+        <v>0</v>
+      </c>
+      <c r="F17" s="19">
+        <v>-9559775.3424657527</v>
+      </c>
+      <c r="G17" s="19">
+        <v>839197.26027397253</v>
+      </c>
+      <c r="H17" s="19">
+        <v>44380687.671232879</v>
+      </c>
+      <c r="I17" s="19">
+        <v>0</v>
+      </c>
+      <c r="J17" s="19">
+        <v>-8298643.8356164386</v>
+      </c>
+      <c r="K17" s="19">
+        <v>71054498.630136982</v>
+      </c>
+      <c r="L17" s="19">
+        <v>1798531.5068493153</v>
+      </c>
+      <c r="M17" s="19">
+        <v>564967.12328767125</v>
+      </c>
+      <c r="N17" s="19">
+        <v>-476545.20547945204</v>
+      </c>
+      <c r="O17" s="19">
+        <v>-56431101.369863011</v>
+      </c>
+      <c r="P17" s="19">
+        <v>-68270649.315068498</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>-191380115.06849316</v>
+      </c>
+      <c r="R17" s="19">
+        <v>-254396794.52054796</v>
+      </c>
+      <c r="S17" s="19">
+        <v>44380687.671232879</v>
+      </c>
+      <c r="T17" s="5">
         <v>140763000</v>
       </c>
-      <c r="I17" s="5">
+      <c r="U17" s="5">
         <v>235415000</v>
       </c>
-      <c r="J17" s="5">
+      <c r="V17" s="5">
         <v>39072000</v>
       </c>
-      <c r="K17" s="5">
+      <c r="W17" s="5">
         <v>19275000</v>
       </c>
-      <c r="L17" s="5">
+      <c r="X17" s="5">
         <v>434525000</v>
       </c>
-      <c r="M17" s="5">
+      <c r="Y17" s="5">
         <v>118193000</v>
       </c>
-      <c r="N17" s="5">
+      <c r="Z17" s="5">
         <v>11878000</v>
       </c>
-      <c r="O17" s="5">
+      <c r="AA17" s="5">
         <v>112748000</v>
       </c>
-      <c r="P17" s="5">
+      <c r="AB17" s="5">
         <v>13999000</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="AC17" s="5">
         <v>5660000</v>
       </c>
-      <c r="R17" s="5">
+      <c r="AD17" s="5">
         <v>23697000</v>
       </c>
-      <c r="S17" s="5">
+      <c r="AE17" s="5">
         <v>2757000</v>
       </c>
-      <c r="T17" s="5">
+      <c r="AF17" s="5">
         <v>723457000</v>
       </c>
-      <c r="U17" s="5">
+      <c r="AG17" s="5">
         <v>14657000</v>
       </c>
-      <c r="V17" s="5">
+      <c r="AH17" s="5">
         <v>34432000</v>
       </c>
-      <c r="W17" s="5">
+      <c r="AI17" s="5">
         <v>44620000</v>
       </c>
-      <c r="X17" s="5">
+      <c r="AJ17" s="5">
         <v>11653000</v>
       </c>
-      <c r="Y17" s="5">
+      <c r="AK17" s="5">
         <v>6320000</v>
       </c>
-      <c r="Z17" s="5">
+      <c r="AL17" s="5">
         <v>111682000</v>
       </c>
-      <c r="AA17" s="5">
+      <c r="AM17" s="5">
         <v>2474000</v>
       </c>
-      <c r="AB17" s="5">
+      <c r="AN17" s="5">
         <v>10671000</v>
       </c>
-      <c r="AC17" s="5">
+      <c r="AO17" s="5">
         <v>10725000</v>
       </c>
-      <c r="AD17" s="5">
+      <c r="AP17" s="5">
         <v>19912000</v>
       </c>
-      <c r="AE17" s="5">
+      <c r="AQ17" s="5">
         <v>7142000</v>
       </c>
-      <c r="AF17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="5">
+      <c r="AR17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="5">
         <v>1502000</v>
       </c>
-      <c r="AH17" s="5">
+      <c r="AT17" s="5">
         <v>164108000</v>
       </c>
-      <c r="AI17" s="5">
+      <c r="AU17" s="5">
         <v>1531380000</v>
       </c>
-      <c r="AJ17" s="5">
+      <c r="AV17" s="5">
         <v>1682000</v>
       </c>
-      <c r="AK17" s="5">
+      <c r="AW17" s="5">
         <v>-973740000</v>
       </c>
-      <c r="AL17" s="5">
+      <c r="AX17" s="5">
         <v>559349000</v>
       </c>
-      <c r="AM17" s="5">
+      <c r="AY17" s="5">
         <v>723457000</v>
       </c>
-      <c r="AN17" s="5">
+      <c r="AZ17" s="5">
         <v>52703000</v>
       </c>
-      <c r="AO17" s="5">
+      <c r="BA17" s="5">
         <v>24556000</v>
       </c>
-      <c r="AP17" s="5">
+      <c r="BB17" s="5">
         <v>28147000</v>
       </c>
-      <c r="AQ17" s="5">
+      <c r="BC17" s="5">
         <v>28186000</v>
       </c>
-      <c r="AR17" s="5">
+      <c r="BD17" s="5">
         <v>23125000</v>
       </c>
-      <c r="AS17" s="5">
+      <c r="BE17" s="5">
         <v>21528000</v>
       </c>
-      <c r="AT17" s="5">
+      <c r="BF17" s="5">
         <v>72839000</v>
       </c>
-      <c r="AU17" s="5">
+      <c r="BG17" s="5">
         <v>-44692000</v>
       </c>
-      <c r="AV17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW17" s="5">
+      <c r="BH17" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI17" s="5">
         <v>4506000</v>
       </c>
-      <c r="AX17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY17" s="5">
+      <c r="BJ17" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK17" s="5">
         <v>-5945000</v>
       </c>
-      <c r="AZ17" s="5">
+      <c r="BL17" s="5">
         <v>104000</v>
       </c>
-      <c r="BA17" s="5">
+      <c r="BM17" s="5">
         <v>10555000</v>
       </c>
-      <c r="BB17" s="5">
+      <c r="BN17" s="5">
         <v>-34137000</v>
       </c>
-      <c r="BC17" s="5">
+      <c r="BO17" s="5">
         <v>307000</v>
       </c>
-      <c r="BD17" s="5">
+      <c r="BP17" s="5">
         <v>-34444000</v>
       </c>
     </row>
-    <row r="18" spans="1:56" ht="32.25" customHeight="1">
+    <row r="18" spans="1:68" ht="32.25" customHeight="1">
       <c r="A18" s="2">
         <v>45138</v>
       </c>
       <c r="B18" s="3">
         <v>550</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="5">
+      <c r="C18" s="24">
+        <v>-116538939.7260274</v>
+      </c>
+      <c r="D18" s="19">
+        <v>-151325679.4520548</v>
+      </c>
+      <c r="E18" s="19">
+        <v>0</v>
+      </c>
+      <c r="F18" s="19">
+        <v>-11511183.561643835</v>
+      </c>
+      <c r="G18" s="19">
+        <v>831131.50684931502</v>
+      </c>
+      <c r="H18" s="19">
+        <v>45466791.780821919</v>
+      </c>
+      <c r="I18" s="19">
+        <v>0</v>
+      </c>
+      <c r="J18" s="19">
+        <v>-10102095.89041096</v>
+      </c>
+      <c r="K18" s="19">
+        <v>66413665.753424659</v>
+      </c>
+      <c r="L18" s="19">
+        <v>3657687.6712328768</v>
+      </c>
+      <c r="M18" s="19">
+        <v>1148978.0821917809</v>
+      </c>
+      <c r="N18" s="19">
+        <v>-628030.13698630128</v>
+      </c>
+      <c r="O18" s="19">
+        <v>-56048734.246575341</v>
+      </c>
+      <c r="P18" s="19">
+        <v>-62417432.87671233</v>
+      </c>
+      <c r="Q18" s="19">
+        <v>-138782076.71232879</v>
+      </c>
+      <c r="R18" s="19">
+        <v>-198223863.01369864</v>
+      </c>
+      <c r="S18" s="19">
+        <v>45466791.780821919</v>
+      </c>
+      <c r="T18" s="5">
         <v>118808000</v>
       </c>
-      <c r="I18" s="5">
+      <c r="U18" s="5">
         <v>248979000</v>
       </c>
-      <c r="J18" s="5">
+      <c r="V18" s="5">
         <v>40349000</v>
       </c>
-      <c r="K18" s="5">
+      <c r="W18" s="5">
         <v>19725000</v>
       </c>
-      <c r="L18" s="5">
+      <c r="X18" s="5">
         <v>427861000</v>
       </c>
-      <c r="M18" s="5">
+      <c r="Y18" s="5">
         <v>120193000</v>
       </c>
-      <c r="N18" s="5">
+      <c r="Z18" s="5">
         <v>12992000</v>
       </c>
-      <c r="O18" s="5">
+      <c r="AA18" s="5">
         <v>112750000</v>
       </c>
-      <c r="P18" s="5">
+      <c r="AB18" s="5">
         <v>14867000</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="AC18" s="5">
         <v>5707000</v>
       </c>
-      <c r="R18" s="5">
+      <c r="AD18" s="5">
         <v>23485000</v>
       </c>
-      <c r="S18" s="5">
+      <c r="AE18" s="5">
         <v>2562000</v>
       </c>
-      <c r="T18" s="5">
+      <c r="AF18" s="5">
         <v>720417000</v>
       </c>
-      <c r="U18" s="5">
+      <c r="AG18" s="5">
         <v>3825000</v>
       </c>
-      <c r="V18" s="4">
+      <c r="AH18" s="4">
         <v>37841000</v>
       </c>
-      <c r="W18" s="4">
+      <c r="AI18" s="4">
         <v>56575000</v>
       </c>
-      <c r="X18" s="5">
+      <c r="AJ18" s="5">
         <v>10757000</v>
       </c>
-      <c r="Y18" s="5">
+      <c r="AK18" s="5">
         <v>7261000</v>
       </c>
-      <c r="Z18" s="5">
+      <c r="AL18" s="5">
         <v>116259000</v>
       </c>
-      <c r="AA18" s="4">
+      <c r="AM18" s="4">
         <v>18186000</v>
       </c>
-      <c r="AB18" s="4">
+      <c r="AN18" s="4">
         <v>9605000</v>
       </c>
-      <c r="AC18" s="5">
+      <c r="AO18" s="5">
         <v>9499000</v>
       </c>
-      <c r="AD18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="5">
+      <c r="AP18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="5">
         <v>19139000</v>
       </c>
-      <c r="AF18" s="5">
+      <c r="AR18" s="5">
         <v>5926000</v>
       </c>
-      <c r="AG18" s="5">
+      <c r="AS18" s="5">
         <v>2235000</v>
       </c>
-      <c r="AH18" s="5">
+      <c r="AT18" s="5">
         <v>180849000</v>
       </c>
-      <c r="AI18" s="5">
+      <c r="AU18" s="5">
         <v>1549920000</v>
       </c>
-      <c r="AJ18" s="5">
+      <c r="AV18" s="5">
         <v>1336000</v>
       </c>
-      <c r="AK18" s="5">
+      <c r="AW18" s="5">
         <v>-1011715000</v>
       </c>
-      <c r="AL18" s="5">
+      <c r="AX18" s="5">
         <v>539568000</v>
       </c>
-      <c r="AM18" s="5">
+      <c r="AY18" s="5">
         <v>720417000</v>
       </c>
-      <c r="AN18" s="5">
+      <c r="AZ18" s="5">
         <v>53761000</v>
       </c>
-      <c r="AO18" s="5">
+      <c r="BA18" s="5">
         <v>27469000</v>
       </c>
-      <c r="AP18" s="5">
+      <c r="BB18" s="5">
         <v>26292000</v>
       </c>
-      <c r="AQ18" s="5">
+      <c r="BC18" s="5">
         <v>26741000</v>
       </c>
-      <c r="AR18" s="5">
+      <c r="BD18" s="5">
         <v>22310000</v>
       </c>
-      <c r="AS18" s="5">
+      <c r="BE18" s="5">
         <v>20521000</v>
       </c>
-      <c r="AT18" s="5">
+      <c r="BF18" s="5">
         <v>69572000</v>
       </c>
-      <c r="AU18" s="5">
+      <c r="BG18" s="5">
         <v>-43280000</v>
       </c>
-      <c r="AV18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="5">
+      <c r="BH18" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI18" s="5">
         <v>3802000</v>
       </c>
-      <c r="AX18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY18" s="5">
+      <c r="BJ18" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK18" s="5">
         <v>1226000</v>
       </c>
-      <c r="AZ18" s="5">
+      <c r="BL18" s="5">
         <v>859000</v>
       </c>
-      <c r="BA18" s="5">
+      <c r="BM18" s="5">
         <v>5887000</v>
       </c>
-      <c r="BB18" s="5">
+      <c r="BN18" s="5">
         <v>-37393000</v>
       </c>
-      <c r="BC18" s="5">
+      <c r="BO18" s="5">
         <v>582000</v>
       </c>
-      <c r="BD18" s="5">
+      <c r="BP18" s="5">
         <v>-37975000</v>
       </c>
     </row>
-    <row r="19" spans="1:56" ht="32.25" customHeight="1">
+    <row r="19" spans="1:68" ht="32.25" customHeight="1">
       <c r="A19" s="2">
         <v>45230</v>
       </c>
       <c r="B19" s="3">
         <v>586</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="5">
+      <c r="C19" s="24">
+        <v>-112003969.86301371</v>
+      </c>
+      <c r="D19" s="19">
+        <v>-145917339.7260274</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="19">
+        <v>-13462591.780821918</v>
+      </c>
+      <c r="G19" s="19">
+        <v>823065.75342465751</v>
+      </c>
+      <c r="H19" s="19">
+        <v>46552895.89041096</v>
+      </c>
+      <c r="I19" s="19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="19">
+        <v>-11905547.94520548</v>
+      </c>
+      <c r="K19" s="19">
+        <v>61772832.87671233</v>
+      </c>
+      <c r="L19" s="19">
+        <v>5516843.8356164386</v>
+      </c>
+      <c r="M19" s="19">
+        <v>1732989.0410958906</v>
+      </c>
+      <c r="N19" s="19">
+        <v>-779515.06849315064</v>
+      </c>
+      <c r="O19" s="19">
+        <v>-55666367.12328767</v>
+      </c>
+      <c r="P19" s="19">
+        <v>-56564216.438356161</v>
+      </c>
+      <c r="Q19" s="19">
+        <v>-86184038.356164396</v>
+      </c>
+      <c r="R19" s="19">
+        <v>-142050931.50684932</v>
+      </c>
+      <c r="S19" s="19">
+        <v>46552895.89041096</v>
+      </c>
+      <c r="T19" s="5">
         <v>101547000</v>
       </c>
-      <c r="I19" s="5">
+      <c r="U19" s="5">
         <v>213347000</v>
       </c>
-      <c r="J19" s="5">
+      <c r="V19" s="5">
         <v>45145000</v>
       </c>
-      <c r="K19" s="5">
+      <c r="W19" s="5">
         <v>19616000</v>
       </c>
-      <c r="L19" s="5">
+      <c r="X19" s="5">
         <v>387535000</v>
       </c>
-      <c r="M19" s="5">
+      <c r="Y19" s="5">
         <v>114058000</v>
       </c>
-      <c r="N19" s="5">
+      <c r="Z19" s="5">
         <v>14050000</v>
       </c>
-      <c r="O19" s="5">
+      <c r="AA19" s="5">
         <v>135701000</v>
       </c>
-      <c r="P19" s="5">
+      <c r="AB19" s="5">
         <v>27427000</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="AC19" s="5">
         <v>10321000</v>
       </c>
-      <c r="R19" s="5">
+      <c r="AD19" s="5">
         <v>22091000</v>
       </c>
-      <c r="S19" s="5">
+      <c r="AE19" s="5">
         <v>2337000</v>
       </c>
-      <c r="T19" s="5">
+      <c r="AF19" s="5">
         <v>713520000</v>
       </c>
-      <c r="U19" s="5">
+      <c r="AG19" s="5">
         <v>4589000</v>
       </c>
-      <c r="V19" s="5">
+      <c r="AH19" s="5">
         <v>41961000</v>
       </c>
-      <c r="W19" s="5">
+      <c r="AI19" s="5">
         <v>67228000</v>
       </c>
-      <c r="X19" s="5">
+      <c r="AJ19" s="5">
         <v>9860000</v>
       </c>
-      <c r="Y19" s="5">
+      <c r="AK19" s="5">
         <v>7500000</v>
       </c>
-      <c r="Z19" s="5">
+      <c r="AL19" s="5">
         <v>131138000</v>
       </c>
-      <c r="AA19" s="5">
+      <c r="AM19" s="5">
         <v>7763000</v>
       </c>
-      <c r="AB19" s="5">
+      <c r="AN19" s="5">
         <v>8353000</v>
       </c>
-      <c r="AC19" s="5">
+      <c r="AO19" s="5">
         <v>2666000</v>
       </c>
-      <c r="AD19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="5">
+      <c r="AP19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="5">
         <v>17321000</v>
       </c>
-      <c r="AF19" s="5">
+      <c r="AR19" s="5">
         <v>5588000</v>
       </c>
-      <c r="AG19" s="5">
+      <c r="AS19" s="5">
         <v>7093000</v>
       </c>
-      <c r="AH19" s="5">
+      <c r="AT19" s="5">
         <v>179922000</v>
       </c>
-      <c r="AI19" s="5">
+      <c r="AU19" s="5">
         <v>1583531000</v>
       </c>
-      <c r="AJ19" s="5">
+      <c r="AV19" s="5">
         <v>-242000</v>
       </c>
-      <c r="AK19" s="5">
+      <c r="AW19" s="5">
         <v>-1049719000</v>
       </c>
-      <c r="AL19" s="5">
+      <c r="AX19" s="5">
         <v>533598000</v>
       </c>
-      <c r="AM19" s="5">
+      <c r="AY19" s="5">
         <v>713520000</v>
       </c>
-      <c r="AN19" s="5">
+      <c r="AZ19" s="5">
         <v>55380000</v>
       </c>
-      <c r="AO19" s="5">
+      <c r="BA19" s="5">
         <v>29350000</v>
       </c>
-      <c r="AP19" s="5">
+      <c r="BB19" s="5">
         <v>26030000</v>
       </c>
-      <c r="AQ19" s="5">
+      <c r="BC19" s="5">
         <v>33002000</v>
       </c>
-      <c r="AR19" s="5">
+      <c r="BD19" s="5">
         <v>20774000</v>
       </c>
-      <c r="AS19" s="5">
+      <c r="BE19" s="5">
         <v>20112000</v>
       </c>
-      <c r="AT19" s="5">
+      <c r="BF19" s="5">
         <v>73888000</v>
       </c>
-      <c r="AU19" s="5">
+      <c r="BG19" s="5">
         <v>-47858000</v>
       </c>
-      <c r="AV19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW19" s="5">
+      <c r="BH19" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI19" s="5">
         <v>3445000</v>
       </c>
-      <c r="AX19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY19" s="5">
+      <c r="BJ19" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK19" s="5">
         <v>6833000</v>
       </c>
-      <c r="AZ19" s="5">
+      <c r="BL19" s="5">
         <v>-69000</v>
       </c>
-      <c r="BA19" s="5">
+      <c r="BM19" s="5">
         <v>10209000</v>
       </c>
-      <c r="BB19" s="5">
+      <c r="BN19" s="5">
         <v>-37649000</v>
       </c>
-      <c r="BC19" s="5">
+      <c r="BO19" s="5">
         <v>355000</v>
       </c>
-      <c r="BD19" s="5">
+      <c r="BP19" s="5">
         <v>-38004000</v>
       </c>
     </row>
-    <row r="20" spans="1:56" ht="32.25" customHeight="1">
+    <row r="20" spans="1:68" ht="32.25" customHeight="1">
       <c r="A20" s="2">
         <v>45322</v>
       </c>
       <c r="B20" s="3">
         <v>586</v>
       </c>
-      <c r="C20" s="14">
-        <v>-55284</v>
-      </c>
-      <c r="D20" s="14">
-        <v>-50711</v>
-      </c>
-      <c r="E20" s="14">
-        <v>-33586</v>
-      </c>
-      <c r="F20" s="14">
-        <v>-85878</v>
-      </c>
-      <c r="G20" s="16">
-        <v>47639</v>
-      </c>
-      <c r="H20" s="5">
+      <c r="C20" s="24">
+        <v>-107469000</v>
+      </c>
+      <c r="D20" s="17">
+        <v>-140509000</v>
+      </c>
+      <c r="E20" s="17">
+        <v>0</v>
+      </c>
+      <c r="F20" s="17">
+        <v>-15414000</v>
+      </c>
+      <c r="G20" s="17">
+        <v>815000</v>
+      </c>
+      <c r="H20" s="17">
+        <v>47639000</v>
+      </c>
+      <c r="I20" s="17">
+        <v>0</v>
+      </c>
+      <c r="J20" s="17">
+        <v>-13709000</v>
+      </c>
+      <c r="K20" s="17">
+        <v>57132000</v>
+      </c>
+      <c r="L20" s="17">
+        <v>7376000</v>
+      </c>
+      <c r="M20" s="17">
+        <v>2317000</v>
+      </c>
+      <c r="N20" s="17">
+        <v>-931000</v>
+      </c>
+      <c r="O20" s="17">
+        <v>-55284000</v>
+      </c>
+      <c r="P20" s="16">
+        <v>-50711000</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>-33586000</v>
+      </c>
+      <c r="R20" s="16">
+        <v>-85878000</v>
+      </c>
+      <c r="S20" s="20">
+        <v>47639000</v>
+      </c>
+      <c r="T20" s="5">
         <v>83866000</v>
       </c>
-      <c r="I20" s="5">
+      <c r="U20" s="5">
         <v>215041000</v>
       </c>
-      <c r="J20" s="5">
+      <c r="V20" s="5">
         <v>43320000</v>
       </c>
-      <c r="K20" s="5">
+      <c r="W20" s="5">
         <v>19564000</v>
       </c>
-      <c r="L20" s="5">
+      <c r="X20" s="5">
         <v>370151000</v>
       </c>
-      <c r="M20" s="5">
+      <c r="Y20" s="5">
         <v>113429000</v>
       </c>
-      <c r="N20" s="5">
+      <c r="Z20" s="5">
         <v>14973000</v>
       </c>
-      <c r="O20" s="5">
+      <c r="AA20" s="5">
         <v>136256000</v>
       </c>
-      <c r="P20" s="5">
+      <c r="AB20" s="5">
         <v>32448000</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="AC20" s="5">
         <v>9972000</v>
       </c>
-      <c r="R20" s="5">
+      <c r="AD20" s="5">
         <v>22339000</v>
       </c>
-      <c r="S20" s="5">
+      <c r="AE20" s="5">
         <v>2429000</v>
       </c>
-      <c r="T20" s="5">
+      <c r="AF20" s="5">
         <v>701997000</v>
       </c>
-      <c r="U20" s="5">
+      <c r="AG20" s="5">
         <v>2601000</v>
       </c>
-      <c r="V20" s="5">
+      <c r="AH20" s="5">
         <v>44779000</v>
       </c>
-      <c r="W20" s="5">
+      <c r="AI20" s="5">
         <v>72327000</v>
       </c>
-      <c r="X20" s="5">
+      <c r="AJ20" s="5">
         <v>8964000</v>
       </c>
-      <c r="Y20" s="5">
+      <c r="AK20" s="5">
         <v>7978000</v>
       </c>
-      <c r="Z20" s="5">
+      <c r="AL20" s="5">
         <v>136649000</v>
       </c>
-      <c r="AA20" s="5">
+      <c r="AM20" s="5">
         <v>5293000</v>
       </c>
-      <c r="AB20" s="5">
+      <c r="AN20" s="5">
         <v>7101000</v>
       </c>
-      <c r="AC20" s="5">
+      <c r="AO20" s="5">
         <v>2961000</v>
       </c>
-      <c r="AD20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="5">
+      <c r="AP20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="5">
         <v>16952000</v>
       </c>
-      <c r="AF20" s="5">
+      <c r="AR20" s="5">
         <v>5885000</v>
       </c>
-      <c r="AG20" s="5">
+      <c r="AS20" s="5">
         <v>9138000</v>
       </c>
-      <c r="AH20" s="5">
+      <c r="AT20" s="5">
         <v>183979000</v>
       </c>
-      <c r="AI20" s="5">
+      <c r="AU20" s="5">
         <v>1596201000</v>
       </c>
-      <c r="AJ20" s="5">
+      <c r="AV20" s="5">
         <v>1594000</v>
       </c>
-      <c r="AK20" s="5">
+      <c r="AW20" s="5">
         <v>-1079805000</v>
       </c>
-      <c r="AL20" s="5">
+      <c r="AX20" s="5">
         <v>518018000</v>
       </c>
-      <c r="AM20" s="5">
+      <c r="AY20" s="5">
         <v>701997000</v>
       </c>
-      <c r="AN20" s="5">
+      <c r="AZ20" s="5">
         <v>220696000</v>
       </c>
-      <c r="AO20" s="5">
+      <c r="BA20" s="5">
         <v>107746000</v>
       </c>
-      <c r="AP20" s="5">
+      <c r="BB20" s="5">
         <v>112950000</v>
       </c>
-      <c r="AQ20" s="5">
+      <c r="BC20" s="5">
         <v>116339000</v>
       </c>
-      <c r="AR20" s="5">
+      <c r="BD20" s="5">
         <v>86304000</v>
       </c>
-      <c r="AS20" s="5">
+      <c r="BE20" s="5">
         <v>80055000</v>
       </c>
-      <c r="AT20" s="5">
+      <c r="BF20" s="5">
         <v>282698000</v>
       </c>
-      <c r="AU20" s="5">
+      <c r="BG20" s="5">
         <v>-169748000</v>
       </c>
-      <c r="AV20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW20" s="5">
+      <c r="BH20" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI20" s="5">
         <v>15414000</v>
       </c>
-      <c r="AX20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY20" s="5">
+      <c r="BJ20" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK20" s="5">
         <v>13709000</v>
       </c>
-      <c r="AZ20" s="5">
+      <c r="BL20" s="5">
         <v>931000</v>
       </c>
-      <c r="BA20" s="5">
+      <c r="BM20" s="5">
         <v>30054000</v>
       </c>
-      <c r="BB20" s="5">
+      <c r="BN20" s="5">
         <v>-139694000</v>
       </c>
-      <c r="BC20" s="5">
+      <c r="BO20" s="5">
         <v>815000</v>
       </c>
-      <c r="BD20" s="5">
+      <c r="BP20" s="5">
         <v>-140509000</v>
       </c>
     </row>
-    <row r="21" spans="1:56" ht="32.25" customHeight="1">
+    <row r="21" spans="1:68" ht="32.25" customHeight="1">
       <c r="A21" s="2">
         <v>45412</v>
       </c>
       <c r="B21" s="3">
         <v>586</v>
       </c>
-      <c r="C21" s="14"/>
+      <c r="C21" s="3"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
-      <c r="H21" s="5">
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="5">
         <v>107367000</v>
       </c>
-      <c r="I21" s="5">
+      <c r="U21" s="5">
         <v>168218000</v>
       </c>
-      <c r="J21" s="5">
+      <c r="V21" s="5">
         <v>38527000</v>
       </c>
-      <c r="K21" s="5">
+      <c r="W21" s="5">
         <v>23044000</v>
       </c>
-      <c r="L21" s="5">
+      <c r="X21" s="5">
         <v>345958000</v>
       </c>
-      <c r="M21" s="5">
+      <c r="Y21" s="5">
         <v>111338000</v>
       </c>
-      <c r="N21" s="5">
+      <c r="Z21" s="5">
         <v>16066000</v>
       </c>
-      <c r="O21" s="5">
+      <c r="AA21" s="5">
         <v>137110000</v>
       </c>
-      <c r="P21" s="5">
+      <c r="AB21" s="5">
         <v>31403000</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="AC21" s="5">
         <v>9564000</v>
       </c>
-      <c r="R21" s="5">
+      <c r="AD21" s="5">
         <v>20966000</v>
       </c>
-      <c r="S21" s="5">
+      <c r="AE21" s="5">
         <v>2199000</v>
       </c>
-      <c r="T21" s="5">
+      <c r="AF21" s="5">
         <v>674604000</v>
       </c>
-      <c r="U21" s="5">
+      <c r="AG21" s="5">
         <v>3131000</v>
       </c>
-      <c r="V21" s="5">
+      <c r="AH21" s="5">
         <v>43361000</v>
       </c>
-      <c r="W21" s="5">
+      <c r="AI21" s="5">
         <v>63646000</v>
       </c>
-      <c r="X21" s="5">
+      <c r="AJ21" s="5">
         <v>8068000</v>
       </c>
-      <c r="Y21" s="5">
+      <c r="AK21" s="5">
         <v>8175000</v>
       </c>
-      <c r="Z21" s="5">
+      <c r="AL21" s="5">
         <v>126381000</v>
       </c>
-      <c r="AA21" s="5">
+      <c r="AM21" s="5">
         <v>13247000</v>
       </c>
-      <c r="AB21" s="5">
+      <c r="AN21" s="5">
         <v>9261000</v>
       </c>
-      <c r="AC21" s="5">
+      <c r="AO21" s="5">
         <v>1431000</v>
       </c>
-      <c r="AD21" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="5">
+      <c r="AP21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="5">
         <v>15207000</v>
       </c>
-      <c r="AF21" s="5">
+      <c r="AR21" s="5">
         <v>2915000</v>
       </c>
-      <c r="AG21" s="5">
+      <c r="AS21" s="5">
         <v>5837000</v>
       </c>
-      <c r="AH21" s="5">
+      <c r="AT21" s="5">
         <v>174279000</v>
       </c>
-      <c r="AI21" s="5">
+      <c r="AU21" s="5">
         <v>1608847000</v>
       </c>
-      <c r="AJ21" s="5">
+      <c r="AV21" s="5">
         <v>548000</v>
       </c>
-      <c r="AK21" s="5">
+      <c r="AW21" s="5">
         <v>-1109098000</v>
       </c>
-      <c r="AL21" s="5">
+      <c r="AX21" s="5">
         <v>500325000</v>
       </c>
-      <c r="AM21" s="5">
+      <c r="AY21" s="5">
         <v>674604000</v>
       </c>
-      <c r="AN21" s="5">
+      <c r="AZ21" s="5">
         <v>60440000</v>
       </c>
-      <c r="AO21" s="5">
+      <c r="BA21" s="5">
         <v>28757000</v>
       </c>
-      <c r="AP21" s="5">
+      <c r="BB21" s="5">
         <v>31683000</v>
       </c>
-      <c r="AQ21" s="5">
+      <c r="BC21" s="5">
         <v>25589000</v>
       </c>
-      <c r="AR21" s="5">
+      <c r="BD21" s="5">
         <v>21485000</v>
       </c>
-      <c r="AS21" s="5">
+      <c r="BE21" s="5">
         <v>19180000</v>
       </c>
-      <c r="AT21" s="5">
+      <c r="BF21" s="5">
         <v>66254000</v>
       </c>
-      <c r="AU21" s="5">
+      <c r="BG21" s="5">
         <v>-34571000</v>
       </c>
-      <c r="AV21" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW21" s="5">
+      <c r="BH21" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI21" s="5">
         <v>3107000</v>
       </c>
-      <c r="AX21" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY21" s="5">
+      <c r="BJ21" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK21" s="5">
         <v>1530000</v>
       </c>
-      <c r="AZ21" s="5">
+      <c r="BL21" s="5">
         <v>1083000</v>
       </c>
-      <c r="BA21" s="5">
+      <c r="BM21" s="5">
         <v>5720000</v>
       </c>
-      <c r="BB21" s="5">
+      <c r="BN21" s="5">
         <v>-28851000</v>
       </c>
-      <c r="BC21" s="5">
+      <c r="BO21" s="5">
         <v>442000</v>
       </c>
-      <c r="BD21" s="5">
+      <c r="BP21" s="5">
         <v>-29293000</v>
       </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+    </row>
+    <row r="28" spans="1:68" ht="46" customHeight="1">
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+    </row>
+    <row r="33" spans="16:19">
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+    </row>
+    <row r="34" spans="16:19">
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+    </row>
+    <row r="35" spans="16:19">
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+    </row>
+    <row r="36" spans="16:19">
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+    </row>
+    <row r="37" spans="16:19">
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+    </row>
+    <row r="38" spans="16:19">
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+    </row>
+    <row r="39" spans="16:19">
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+    </row>
+    <row r="40" spans="16:19">
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+    </row>
+    <row r="41" spans="16:19">
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+    </row>
+    <row r="42" spans="16:19">
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
+      <c r="S42" s="23"/>
+    </row>
+    <row r="43" spans="16:19">
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+    </row>
+    <row r="44" spans="16:19">
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23"/>
+      <c r="S44" s="23"/>
+    </row>
+    <row r="45" spans="16:19">
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
+      <c r="S45" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/financial_data/planet.xlsx
+++ b/financial_data/planet.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinten/Desktop/untitled folder 3/space_econometrics/financial_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81669736-DE79-7C4E-9428-076F1724FDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="4700" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="key" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="consolidated" sheetId="2" r:id="rId5"/>
+    <sheet name="key" sheetId="1" r:id="rId1"/>
+    <sheet name="consolidated" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="xf0qig6TqbEQB1udgPz+CrX0g8+vcxFx70qsJY6EDxI="/>
@@ -220,48 +229,55 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="\$#,##0_);\(\$#,##0\)"/>
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF141414"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF585555"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -269,7 +285,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -279,7 +295,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FFC6C6C6"/>
@@ -293,64 +315,64 @@
       <bottom style="thin">
         <color rgb="FFC6C6C6"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -540,1083 +562,1085 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="12.43"/>
-    <col customWidth="1" min="3" max="26" width="8.86"/>
+    <col min="1" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="26" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1">
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:BP21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BC1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.43"/>
-    <col customWidth="1" min="2" max="2" width="15.14"/>
-    <col customWidth="1" min="3" max="3" width="16.0"/>
-    <col customWidth="1" min="4" max="4" width="20.71"/>
-    <col customWidth="1" min="5" max="5" width="16.57"/>
-    <col customWidth="1" min="6" max="6" width="15.43"/>
-    <col customWidth="1" min="7" max="7" width="20.29"/>
-    <col customWidth="1" min="8" max="8" width="17.0"/>
-    <col customWidth="1" min="9" max="9" width="20.29"/>
-    <col customWidth="1" min="10" max="10" width="19.71"/>
-    <col customWidth="1" min="11" max="11" width="14.14"/>
-    <col customWidth="1" min="12" max="12" width="19.0"/>
-    <col customWidth="1" min="13" max="19" width="20.71"/>
-    <col customWidth="1" min="20" max="21" width="16.71"/>
-    <col customWidth="1" min="22" max="22" width="16.43"/>
-    <col customWidth="1" min="23" max="23" width="15.71"/>
-    <col customWidth="1" min="24" max="25" width="16.71"/>
-    <col customWidth="1" min="26" max="26" width="16.43"/>
-    <col customWidth="1" min="27" max="27" width="16.71"/>
-    <col customWidth="1" min="28" max="28" width="16.43"/>
-    <col customWidth="1" min="29" max="29" width="15.43"/>
-    <col customWidth="1" min="30" max="30" width="15.71"/>
-    <col customWidth="1" min="31" max="31" width="15.43"/>
-    <col customWidth="1" min="32" max="32" width="16.71"/>
-    <col customWidth="1" min="33" max="33" width="16.43"/>
-    <col customWidth="1" min="34" max="35" width="15.43"/>
-    <col customWidth="1" min="36" max="36" width="15.71"/>
-    <col customWidth="1" min="37" max="37" width="14.71"/>
-    <col customWidth="1" min="38" max="38" width="16.71"/>
-    <col customWidth="1" min="39" max="39" width="16.43"/>
-    <col customWidth="1" min="40" max="42" width="15.43"/>
-    <col customWidth="1" min="43" max="43" width="15.71"/>
-    <col customWidth="1" min="44" max="45" width="14.71"/>
-    <col customWidth="1" min="46" max="46" width="16.71"/>
-    <col customWidth="1" min="47" max="47" width="18.43"/>
-    <col customWidth="1" min="48" max="48" width="14.71"/>
-    <col customWidth="1" min="49" max="49" width="19.14"/>
-    <col customWidth="1" min="50" max="51" width="16.71"/>
-    <col customWidth="1" min="52" max="55" width="15.14"/>
-    <col customWidth="1" min="56" max="57" width="14.0"/>
-    <col customWidth="1" min="58" max="58" width="15.14"/>
-    <col customWidth="1" min="59" max="59" width="15.86"/>
-    <col customWidth="1" min="60" max="60" width="13.43"/>
-    <col customWidth="1" min="61" max="61" width="14.0"/>
-    <col customWidth="1" min="62" max="62" width="13.43"/>
-    <col customWidth="1" min="63" max="63" width="14.71"/>
-    <col customWidth="1" min="64" max="64" width="13.43"/>
-    <col customWidth="1" min="65" max="65" width="14.71"/>
-    <col customWidth="1" min="66" max="66" width="15.86"/>
-    <col customWidth="1" min="67" max="67" width="12.71"/>
-    <col customWidth="1" min="68" max="68" width="15.86"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="13" max="19" width="20.6640625" customWidth="1"/>
+    <col min="20" max="21" width="16.6640625" customWidth="1"/>
+    <col min="22" max="22" width="16.5" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" customWidth="1"/>
+    <col min="24" max="25" width="16.6640625" customWidth="1"/>
+    <col min="26" max="26" width="16.5" customWidth="1"/>
+    <col min="27" max="27" width="16.6640625" customWidth="1"/>
+    <col min="28" max="28" width="16.5" customWidth="1"/>
+    <col min="29" max="29" width="15.5" customWidth="1"/>
+    <col min="30" max="30" width="15.6640625" customWidth="1"/>
+    <col min="31" max="31" width="15.5" customWidth="1"/>
+    <col min="32" max="32" width="16.6640625" customWidth="1"/>
+    <col min="33" max="33" width="16.5" customWidth="1"/>
+    <col min="34" max="35" width="15.5" customWidth="1"/>
+    <col min="36" max="36" width="15.6640625" customWidth="1"/>
+    <col min="37" max="37" width="14.6640625" customWidth="1"/>
+    <col min="38" max="38" width="16.6640625" customWidth="1"/>
+    <col min="39" max="39" width="16.5" customWidth="1"/>
+    <col min="40" max="42" width="15.5" customWidth="1"/>
+    <col min="43" max="43" width="15.6640625" customWidth="1"/>
+    <col min="44" max="45" width="14.6640625" customWidth="1"/>
+    <col min="46" max="46" width="16.6640625" customWidth="1"/>
+    <col min="47" max="47" width="18.5" customWidth="1"/>
+    <col min="48" max="48" width="14.6640625" customWidth="1"/>
+    <col min="49" max="49" width="19.1640625" customWidth="1"/>
+    <col min="50" max="51" width="16.6640625" customWidth="1"/>
+    <col min="52" max="55" width="15.1640625" customWidth="1"/>
+    <col min="56" max="57" width="14" customWidth="1"/>
+    <col min="58" max="58" width="15.1640625" customWidth="1"/>
+    <col min="59" max="59" width="15.83203125" customWidth="1"/>
+    <col min="60" max="60" width="13.5" customWidth="1"/>
+    <col min="61" max="61" width="14" customWidth="1"/>
+    <col min="62" max="62" width="13.5" customWidth="1"/>
+    <col min="63" max="63" width="14.6640625" customWidth="1"/>
+    <col min="64" max="64" width="13.5" customWidth="1"/>
+    <col min="65" max="65" width="14.6640625" customWidth="1"/>
+    <col min="66" max="66" width="15.83203125" customWidth="1"/>
+    <col min="67" max="67" width="12.6640625" customWidth="1"/>
+    <col min="68" max="68" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1822,12 +1846,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>43677.0</v>
+        <v>43677</v>
       </c>
       <c r="B2" s="4">
-        <v>370.0</v>
+        <v>370</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1879,63 +1903,63 @@
       <c r="AX2" s="8"/>
       <c r="AY2" s="8"/>
       <c r="AZ2" s="8">
-        <v>2.3934E7</v>
+        <v>23934000</v>
       </c>
       <c r="BA2" s="8">
-        <v>2.559825E7</v>
+        <v>25598250</v>
       </c>
       <c r="BB2" s="8">
-        <v>-1664250.0</v>
+        <v>-1664250</v>
       </c>
       <c r="BC2" s="8">
-        <v>9467750.0</v>
+        <v>9467750</v>
       </c>
       <c r="BD2" s="8">
-        <v>8728250.0</v>
+        <v>8728250</v>
       </c>
       <c r="BE2" s="8">
-        <v>6754750.0</v>
+        <v>6754750</v>
       </c>
       <c r="BF2" s="8">
-        <v>2.495075E7</v>
+        <v>24950750</v>
       </c>
       <c r="BG2" s="8">
-        <v>-2.6615E7</v>
+        <v>-26615000</v>
       </c>
       <c r="BH2" s="8">
-        <v>-2882250.0</v>
+        <v>-2882250</v>
       </c>
       <c r="BI2" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BJ2" s="8">
-        <v>-1736500.0</v>
+        <v>-1736500</v>
       </c>
       <c r="BK2" s="8">
-        <v>51750.0</v>
+        <v>51750</v>
       </c>
       <c r="BL2" s="8">
-        <v>286000.0</v>
+        <v>286000</v>
       </c>
       <c r="BM2" s="8">
-        <v>-4281000.0</v>
+        <v>-4281000</v>
       </c>
       <c r="BN2" s="8">
-        <v>-3.0896E7</v>
+        <v>-30896000</v>
       </c>
       <c r="BO2" s="8">
-        <v>32500.0</v>
+        <v>32500</v>
       </c>
       <c r="BP2" s="8">
-        <v>-3.09285E7</v>
+        <v>-30928500</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>43769.0</v>
+        <v>43769</v>
       </c>
       <c r="B3" s="4">
-        <v>370.0</v>
+        <v>370</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -1987,63 +2011,63 @@
       <c r="AX3" s="8"/>
       <c r="AY3" s="8"/>
       <c r="AZ3" s="8">
-        <v>2.3934E7</v>
+        <v>23934000</v>
       </c>
       <c r="BA3" s="8">
-        <v>2.559825E7</v>
+        <v>25598250</v>
       </c>
       <c r="BB3" s="8">
-        <v>-1664250.0</v>
+        <v>-1664250</v>
       </c>
       <c r="BC3" s="8">
-        <v>9467750.0</v>
+        <v>9467750</v>
       </c>
       <c r="BD3" s="8">
-        <v>8728250.0</v>
+        <v>8728250</v>
       </c>
       <c r="BE3" s="8">
-        <v>6754750.0</v>
+        <v>6754750</v>
       </c>
       <c r="BF3" s="8">
-        <v>2.495075E7</v>
+        <v>24950750</v>
       </c>
       <c r="BG3" s="8">
-        <v>-2.6615E7</v>
+        <v>-26615000</v>
       </c>
       <c r="BH3" s="8">
-        <v>-2882250.0</v>
+        <v>-2882250</v>
       </c>
       <c r="BI3" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BJ3" s="8">
-        <v>-1736500.0</v>
+        <v>-1736500</v>
       </c>
       <c r="BK3" s="8">
-        <v>51750.0</v>
+        <v>51750</v>
       </c>
       <c r="BL3" s="8">
-        <v>286000.0</v>
+        <v>286000</v>
       </c>
       <c r="BM3" s="8">
-        <v>-4281000.0</v>
+        <v>-4281000</v>
       </c>
       <c r="BN3" s="8">
-        <v>-3.0896E7</v>
+        <v>-30896000</v>
       </c>
       <c r="BO3" s="8">
-        <v>32500.0</v>
+        <v>32500</v>
       </c>
       <c r="BP3" s="8">
-        <v>-3.09285E7</v>
+        <v>-30928500</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>43861.0</v>
+        <v>43861</v>
       </c>
       <c r="B4" s="4">
-        <v>382.0</v>
+        <v>382</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -2095,63 +2119,63 @@
       <c r="AX4" s="8"/>
       <c r="AY4" s="8"/>
       <c r="AZ4" s="8">
-        <v>2.3934E7</v>
+        <v>23934000</v>
       </c>
       <c r="BA4" s="8">
-        <v>2.559825E7</v>
+        <v>25598250</v>
       </c>
       <c r="BB4" s="8">
-        <v>-1664250.0</v>
+        <v>-1664250</v>
       </c>
       <c r="BC4" s="8">
-        <v>9467750.0</v>
+        <v>9467750</v>
       </c>
       <c r="BD4" s="8">
-        <v>8728250.0</v>
+        <v>8728250</v>
       </c>
       <c r="BE4" s="8">
-        <v>6754750.0</v>
+        <v>6754750</v>
       </c>
       <c r="BF4" s="8">
-        <v>2.495075E7</v>
+        <v>24950750</v>
       </c>
       <c r="BG4" s="8">
-        <v>-2.6615E7</v>
+        <v>-26615000</v>
       </c>
       <c r="BH4" s="8">
-        <v>-2882250.0</v>
+        <v>-2882250</v>
       </c>
       <c r="BI4" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BJ4" s="8">
-        <v>-1736500.0</v>
+        <v>-1736500</v>
       </c>
       <c r="BK4" s="8">
-        <v>51750.0</v>
+        <v>51750</v>
       </c>
       <c r="BL4" s="8">
-        <v>286000.0</v>
+        <v>286000</v>
       </c>
       <c r="BM4" s="8">
-        <v>-4281000.0</v>
+        <v>-4281000</v>
       </c>
       <c r="BN4" s="8">
-        <v>-3.0896E7</v>
+        <v>-30896000</v>
       </c>
       <c r="BO4" s="8">
-        <v>32500.0</v>
+        <v>32500</v>
       </c>
       <c r="BP4" s="8">
-        <v>-3.09285E7</v>
+        <v>-30928500</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>43951.0</v>
+        <v>43951</v>
       </c>
       <c r="B5" s="4">
-        <v>382.0</v>
+        <v>382</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -2203,63 +2227,63 @@
       <c r="AX5" s="8"/>
       <c r="AY5" s="8"/>
       <c r="AZ5" s="8">
-        <v>2.8292E7</v>
+        <v>28292000</v>
       </c>
       <c r="BA5" s="8">
-        <v>2.184575E7</v>
+        <v>21845750</v>
       </c>
       <c r="BB5" s="8">
-        <v>6446250.0</v>
+        <v>6446250</v>
       </c>
       <c r="BC5" s="8">
-        <v>1.095625E7</v>
+        <v>10956250</v>
       </c>
       <c r="BD5" s="8">
-        <v>9317000.0</v>
+        <v>9317000</v>
       </c>
       <c r="BE5" s="8">
-        <v>8033500.0</v>
+        <v>8033500</v>
       </c>
       <c r="BF5" s="8">
-        <v>2.830675E7</v>
+        <v>28306750</v>
       </c>
       <c r="BG5" s="8">
-        <v>-2.18605E7</v>
+        <v>-21860500</v>
       </c>
       <c r="BH5" s="8">
-        <v>168250.0</v>
+        <v>168250</v>
       </c>
       <c r="BI5" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BJ5" s="8">
-        <v>-2361750.0</v>
+        <v>-2361750</v>
       </c>
       <c r="BK5" s="8">
-        <v>-7513250.0</v>
+        <v>-7513250</v>
       </c>
       <c r="BL5" s="8">
-        <v>59750.0</v>
+        <v>59750</v>
       </c>
       <c r="BM5" s="8">
-        <v>-9647000.0</v>
+        <v>-9647000</v>
       </c>
       <c r="BN5" s="8">
-        <v>-3.15075E7</v>
+        <v>-31507500</v>
       </c>
       <c r="BO5" s="8">
-        <v>268250.0</v>
+        <v>268250</v>
       </c>
       <c r="BP5" s="8">
-        <v>-3.177575E7</v>
+        <v>-31775750</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>44043.0</v>
+        <v>44043</v>
       </c>
       <c r="B6" s="4">
-        <v>387.0</v>
+        <v>387</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -2311,63 +2335,63 @@
       <c r="AX6" s="8"/>
       <c r="AY6" s="8"/>
       <c r="AZ6" s="8">
-        <v>2.8292E7</v>
+        <v>28292000</v>
       </c>
       <c r="BA6" s="8">
-        <v>2.184575E7</v>
+        <v>21845750</v>
       </c>
       <c r="BB6" s="8">
-        <v>6446250.0</v>
+        <v>6446250</v>
       </c>
       <c r="BC6" s="8">
-        <v>1.095625E7</v>
+        <v>10956250</v>
       </c>
       <c r="BD6" s="8">
-        <v>9317000.0</v>
+        <v>9317000</v>
       </c>
       <c r="BE6" s="8">
-        <v>8033500.0</v>
+        <v>8033500</v>
       </c>
       <c r="BF6" s="8">
-        <v>2.830675E7</v>
+        <v>28306750</v>
       </c>
       <c r="BG6" s="8">
-        <v>-2.18605E7</v>
+        <v>-21860500</v>
       </c>
       <c r="BH6" s="8">
-        <v>168250.0</v>
+        <v>168250</v>
       </c>
       <c r="BI6" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BJ6" s="8">
-        <v>-2361750.0</v>
+        <v>-2361750</v>
       </c>
       <c r="BK6" s="8">
-        <v>-7513250.0</v>
+        <v>-7513250</v>
       </c>
       <c r="BL6" s="8">
-        <v>59750.0</v>
+        <v>59750</v>
       </c>
       <c r="BM6" s="8">
-        <v>-9647000.0</v>
+        <v>-9647000</v>
       </c>
       <c r="BN6" s="8">
-        <v>-3.15075E7</v>
+        <v>-31507500</v>
       </c>
       <c r="BO6" s="8">
-        <v>268250.0</v>
+        <v>268250</v>
       </c>
       <c r="BP6" s="8">
-        <v>-3.177575E7</v>
+        <v>-31775750</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>44135.0</v>
+        <v>44135</v>
       </c>
       <c r="B7" s="4">
-        <v>422.0</v>
+        <v>422</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -2419,687 +2443,687 @@
       <c r="AX7" s="8"/>
       <c r="AY7" s="8"/>
       <c r="AZ7" s="8">
-        <v>2.8292E7</v>
+        <v>28292000</v>
       </c>
       <c r="BA7" s="8">
-        <v>2.184575E7</v>
+        <v>21845750</v>
       </c>
       <c r="BB7" s="8">
-        <v>6446250.0</v>
+        <v>6446250</v>
       </c>
       <c r="BC7" s="8">
-        <v>1.095625E7</v>
+        <v>10956250</v>
       </c>
       <c r="BD7" s="8">
-        <v>9317000.0</v>
+        <v>9317000</v>
       </c>
       <c r="BE7" s="8">
-        <v>8033500.0</v>
+        <v>8033500</v>
       </c>
       <c r="BF7" s="8">
-        <v>2.830675E7</v>
+        <v>28306750</v>
       </c>
       <c r="BG7" s="8">
-        <v>-2.18605E7</v>
+        <v>-21860500</v>
       </c>
       <c r="BH7" s="8">
-        <v>168250.0</v>
+        <v>168250</v>
       </c>
       <c r="BI7" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BJ7" s="8">
-        <v>-2361750.0</v>
+        <v>-2361750</v>
       </c>
       <c r="BK7" s="8">
-        <v>-7513250.0</v>
+        <v>-7513250</v>
       </c>
       <c r="BL7" s="8">
-        <v>59750.0</v>
+        <v>59750</v>
       </c>
       <c r="BM7" s="8">
-        <v>-9647000.0</v>
+        <v>-9647000</v>
       </c>
       <c r="BN7" s="8">
-        <v>-3.15075E7</v>
+        <v>-31507500</v>
       </c>
       <c r="BO7" s="8">
-        <v>268250.0</v>
+        <v>268250</v>
       </c>
       <c r="BP7" s="8">
-        <v>-3.177575E7</v>
+        <v>-31775750</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>44227.0</v>
+        <v>44227</v>
       </c>
       <c r="B8" s="4">
-        <v>470.0</v>
+        <v>470</v>
       </c>
       <c r="C8" s="8">
-        <v>-5.4424E7</v>
+        <v>-54424000</v>
       </c>
       <c r="D8" s="9">
-        <v>-1.27103E8</v>
+        <v>-127103000</v>
       </c>
       <c r="E8" s="9">
-        <v>9447000.0</v>
+        <v>9447000</v>
       </c>
       <c r="F8" s="9">
-        <v>-53000.0</v>
+        <v>-53000</v>
       </c>
       <c r="G8" s="9">
-        <v>1073000.0</v>
+        <v>1073000</v>
       </c>
       <c r="H8" s="9">
-        <v>6.2212E7</v>
+        <v>62212000</v>
       </c>
       <c r="I8" s="9">
-        <v>-673000.0</v>
+        <v>-673000</v>
       </c>
       <c r="J8" s="9">
-        <v>3.0053E7</v>
+        <v>30053000</v>
       </c>
       <c r="K8" s="9">
-        <v>1.4012E7</v>
+        <v>14012000</v>
       </c>
       <c r="L8" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M8" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N8" s="9">
-        <v>-186000.0</v>
+        <v>-186000</v>
       </c>
       <c r="O8" s="9">
-        <v>-1.1218E7</v>
+        <v>-11218000</v>
       </c>
       <c r="P8" s="9">
-        <v>-4027000.0</v>
+        <v>-4027000</v>
       </c>
       <c r="Q8" s="9">
-        <v>-3.08E7</v>
+        <v>-30800000</v>
       </c>
       <c r="R8" s="9">
-        <v>8.394E7</v>
+        <v>83940000</v>
       </c>
       <c r="S8" s="9">
-        <v>6.2212E7</v>
+        <v>62212000</v>
       </c>
       <c r="T8" s="8">
-        <v>7.1183E7</v>
+        <v>71183000</v>
       </c>
       <c r="U8" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V8" s="8">
-        <v>4.711E7</v>
+        <v>47110000</v>
       </c>
       <c r="W8" s="8">
-        <v>7134000.0</v>
+        <v>7134000</v>
       </c>
       <c r="X8" s="8">
-        <v>1.25427E8</v>
+        <v>125427000</v>
       </c>
       <c r="Y8" s="8">
-        <v>1.59855E8</v>
+        <v>159855000</v>
       </c>
       <c r="Z8" s="8">
-        <v>1.1994E7</v>
+        <v>11994000</v>
       </c>
       <c r="AA8" s="8">
-        <v>8.8393E7</v>
+        <v>88393000</v>
       </c>
       <c r="AB8" s="8">
-        <v>5673000.0</v>
+        <v>5673000</v>
       </c>
       <c r="AC8" s="8">
-        <v>4982000.0</v>
+        <v>4982000</v>
       </c>
       <c r="AD8" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="8">
-        <v>2984000.0</v>
+        <v>2984000</v>
       </c>
       <c r="AF8" s="8">
-        <v>3.99308E8</v>
+        <v>399308000</v>
       </c>
       <c r="AG8" s="8">
-        <v>1446000.0</v>
+        <v>1446000</v>
       </c>
       <c r="AH8" s="8">
-        <v>3.0195E7</v>
+        <v>30195000</v>
       </c>
       <c r="AI8" s="8">
-        <v>5.757E7</v>
+        <v>57570000</v>
       </c>
       <c r="AJ8" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK8" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="8">
-        <v>1.08814E8</v>
+        <v>108814000</v>
       </c>
       <c r="AM8" s="8">
-        <v>1.5122E7</v>
+        <v>15122000</v>
       </c>
       <c r="AN8" s="8">
-        <v>7971000.0</v>
+        <v>7971000</v>
       </c>
       <c r="AO8" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AP8" s="8">
-        <v>2991000.0</v>
+        <v>2991000</v>
       </c>
       <c r="AQ8" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AR8" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS8" s="8">
-        <v>1287000.0</v>
+        <v>1287000</v>
       </c>
       <c r="AT8" s="8">
-        <v>2.91797E8</v>
+        <v>291797000</v>
       </c>
       <c r="AU8" s="8">
-        <v>7.4563E8</v>
+        <v>745630000</v>
       </c>
       <c r="AV8" s="8">
-        <v>1769000.0</v>
+        <v>1769000</v>
       </c>
       <c r="AW8" s="8">
-        <v>-6.39905E8</v>
+        <v>-639905000</v>
       </c>
       <c r="AX8" s="8">
-        <v>1.07511E8</v>
+        <v>107511000</v>
       </c>
       <c r="AY8" s="8">
-        <v>3.99308E8</v>
+        <v>399308000</v>
       </c>
       <c r="AZ8" s="8">
-        <v>2.8292E7</v>
+        <v>28292000</v>
       </c>
       <c r="BA8" s="8">
-        <v>2.184575E7</v>
+        <v>21845750</v>
       </c>
       <c r="BB8" s="8">
-        <v>6446250.0</v>
+        <v>6446250</v>
       </c>
       <c r="BC8" s="8">
-        <v>1.095625E7</v>
+        <v>10956250</v>
       </c>
       <c r="BD8" s="8">
-        <v>9317000.0</v>
+        <v>9317000</v>
       </c>
       <c r="BE8" s="8">
-        <v>8033500.0</v>
+        <v>8033500</v>
       </c>
       <c r="BF8" s="8">
-        <v>2.830675E7</v>
+        <v>28306750</v>
       </c>
       <c r="BG8" s="8">
-        <v>-2.18605E7</v>
+        <v>-21860500</v>
       </c>
       <c r="BH8" s="8">
-        <v>168250.0</v>
+        <v>168250</v>
       </c>
       <c r="BI8" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BJ8" s="8">
-        <v>-2361750.0</v>
+        <v>-2361750</v>
       </c>
       <c r="BK8" s="8">
-        <v>-7513250.0</v>
+        <v>-7513250</v>
       </c>
       <c r="BL8" s="8">
-        <v>59750.0</v>
+        <v>59750</v>
       </c>
       <c r="BM8" s="8">
-        <v>-9647000.0</v>
+        <v>-9647000</v>
       </c>
       <c r="BN8" s="8">
-        <v>-3.15075E7</v>
+        <v>-31507500</v>
       </c>
       <c r="BO8" s="8">
-        <v>268250.0</v>
+        <v>268250</v>
       </c>
       <c r="BP8" s="8">
-        <v>-3.177575E7</v>
+        <v>-31775750</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>44316.0</v>
+        <v>44316</v>
       </c>
       <c r="B9" s="4">
-        <v>470.0</v>
+        <v>470</v>
       </c>
       <c r="C9" s="8">
-        <v>-6.095781917808218E7</v>
+        <v>-60957819.178082183</v>
       </c>
       <c r="D9" s="9">
-        <v>-1.2954647671232876E8</v>
+        <v>-129546476.71232876</v>
       </c>
       <c r="E9" s="9">
-        <v>9282410.95890411</v>
+        <v>9282410.9589041099</v>
       </c>
       <c r="F9" s="9">
-        <v>-45197.2602739726</v>
+        <v>-45197.260273972599</v>
       </c>
       <c r="G9" s="9">
         <v>1325857.5342465753</v>
       </c>
       <c r="H9" s="9">
-        <v>5.802558630136986E7</v>
+        <v>58025586.301369861</v>
       </c>
       <c r="I9" s="9">
-        <v>-96816.43835616438</v>
+        <v>-96816.438356164377</v>
       </c>
       <c r="J9" s="9">
-        <v>2.1328805479452055E7</v>
+        <v>21328805.479452055</v>
       </c>
       <c r="K9" s="9">
-        <v>2.0825742465753425E7</v>
+        <v>20825742.465753425</v>
       </c>
       <c r="L9" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M9" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N9" s="9">
-        <v>407495.8904109589</v>
+        <v>407495.89041095891</v>
       </c>
       <c r="O9" s="9">
-        <v>-1.849259178082192E7</v>
+        <v>-18492591.780821919</v>
       </c>
       <c r="P9" s="9">
-        <v>-1.3337619178082192E7</v>
+        <v>-13337619.178082192</v>
       </c>
       <c r="Q9" s="9">
-        <v>-2.942208493150685E7</v>
+        <v>-29422084.93150685</v>
       </c>
       <c r="R9" s="9">
-        <v>1.827529205479452E8</v>
+        <v>182752920.5479452</v>
       </c>
       <c r="S9" s="9">
-        <v>5.802558630136986E7</v>
+        <v>58025586.301369861</v>
       </c>
       <c r="T9" s="10">
-        <v>1.7349130410958904E8</v>
+        <v>173491304.10958904</v>
       </c>
       <c r="U9" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V9" s="10">
-        <v>4.644262191780822E7</v>
+        <v>46442621.91780822</v>
       </c>
       <c r="W9" s="10">
-        <v>9389723.287671233</v>
+        <v>9389723.2876712326</v>
       </c>
       <c r="X9" s="10">
-        <v>2.2932364931506848E8</v>
+        <v>229323649.31506848</v>
       </c>
       <c r="Y9" s="10">
-        <v>1.5337506849315068E8</v>
+        <v>153375068.49315068</v>
       </c>
       <c r="Z9" s="10">
-        <v>1.1695057534246575E7</v>
+        <v>11695057.534246575</v>
       </c>
       <c r="AA9" s="10">
-        <v>9.200810684931506E7</v>
+        <v>92008106.849315062</v>
       </c>
       <c r="AB9" s="10">
-        <v>7751454.794520548</v>
+        <v>7751454.7945205476</v>
       </c>
       <c r="AC9" s="10">
-        <v>5167558.904109589</v>
+        <v>5167558.9041095888</v>
       </c>
       <c r="AD9" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="10">
-        <v>2918164.383561644</v>
+        <v>2918164.3835616438</v>
       </c>
       <c r="AF9" s="10">
-        <v>5.0223906027397263E8</v>
+        <v>502239060.27397263</v>
       </c>
       <c r="AG9" s="10">
-        <v>1788345.205479452</v>
+        <v>1788345.2054794519</v>
       </c>
       <c r="AH9" s="10">
-        <v>3.47371698630137E7</v>
+        <v>34737169.8630137</v>
       </c>
       <c r="AI9" s="10">
-        <v>5.919467671232877E7</v>
+        <v>59194676.712328769</v>
       </c>
       <c r="AJ9" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK9" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="10">
-        <v>1.144775698630137E8</v>
+        <v>114477569.8630137</v>
       </c>
       <c r="AM9" s="10">
-        <v>1.2307405479452055E7</v>
+        <v>12307405.479452055</v>
       </c>
       <c r="AN9" s="10">
-        <v>8989745.205479452</v>
+        <v>8989745.2054794524</v>
       </c>
       <c r="AO9" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="10">
         <v>2456268.493150685</v>
       </c>
       <c r="AQ9" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AR9" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS9" s="10">
         <v>1315772.602739726</v>
       </c>
       <c r="AT9" s="10">
-        <v>2.6287785205479452E8</v>
+        <v>262877852.05479452</v>
       </c>
       <c r="AU9" s="10">
-        <v>9.108337506849315E8</v>
+        <v>910833750.68493152</v>
       </c>
       <c r="AV9" s="10">
         <v>1848734.2465753425</v>
       </c>
       <c r="AW9" s="10">
-        <v>-6.733407150684931E8</v>
+        <v>-673340715.06849313</v>
       </c>
       <c r="AX9" s="10">
-        <v>2.3936120821917808E8</v>
+        <v>239361208.21917808</v>
       </c>
       <c r="AY9" s="10">
-        <v>5.0223906027397263E8</v>
+        <v>502239060.27397263</v>
       </c>
       <c r="AZ9" s="8">
-        <v>3.1957E7</v>
+        <v>31957000</v>
       </c>
       <c r="BA9" s="8">
-        <v>1.9126E7</v>
+        <v>19126000</v>
       </c>
       <c r="BB9" s="8">
-        <v>1.2831E7</v>
+        <v>12831000</v>
       </c>
       <c r="BC9" s="8">
-        <v>1.213E7</v>
+        <v>12130000</v>
       </c>
       <c r="BD9" s="8">
-        <v>1.0653E7</v>
+        <v>10653000</v>
       </c>
       <c r="BE9" s="8">
-        <v>8315000.0</v>
+        <v>8315000</v>
       </c>
       <c r="BF9" s="8">
-        <v>3.1098E7</v>
+        <v>31098000</v>
       </c>
       <c r="BG9" s="8">
-        <v>-1.8267E7</v>
+        <v>-18267000</v>
       </c>
       <c r="BH9" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BJ9" s="8">
-        <v>-2527000.0</v>
+        <v>-2527000</v>
       </c>
       <c r="BK9" s="8">
-        <v>-8026000.0</v>
+        <v>-8026000</v>
       </c>
       <c r="BL9" s="8">
-        <v>-177000.0</v>
+        <v>-177000</v>
       </c>
       <c r="BM9" s="8">
-        <v>-1.073E7</v>
+        <v>-10730000</v>
       </c>
       <c r="BN9" s="8">
-        <v>-2.8997E7</v>
+        <v>-28997000</v>
       </c>
       <c r="BO9" s="8">
-        <v>258000.0</v>
+        <v>258000</v>
       </c>
       <c r="BP9" s="8">
-        <v>-2.9255E7</v>
+        <v>-29255000</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>44408.0</v>
+        <v>44408</v>
       </c>
       <c r="B10" s="4">
-        <v>470.0</v>
+        <v>470</v>
       </c>
       <c r="C10" s="8">
-        <v>-6.77118794520548E7</v>
+        <v>-67711879.452054799</v>
       </c>
       <c r="D10" s="9">
-        <v>-1.3207231780821918E8</v>
+        <v>-132072317.80821918</v>
       </c>
       <c r="E10" s="9">
-        <v>9112273.97260274</v>
+        <v>9112273.9726027399</v>
       </c>
       <c r="F10" s="9">
-        <v>-37131.50684931507</v>
+        <v>-37131.506849315068</v>
       </c>
       <c r="G10" s="9">
         <v>1587238.3561643837</v>
       </c>
       <c r="H10" s="9">
-        <v>5.369805753424658E7</v>
+        <v>53698057.534246579</v>
       </c>
       <c r="I10" s="9">
         <v>498789.04109589034</v>
       </c>
       <c r="J10" s="9">
-        <v>1.231053698630137E7</v>
+        <v>12310536.98630137</v>
       </c>
       <c r="K10" s="9">
-        <v>2.7869161643835615E7</v>
+        <v>27869161.643835615</v>
       </c>
       <c r="L10" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M10" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N10" s="9">
         <v>1020997.2602739725</v>
       </c>
       <c r="O10" s="9">
-        <v>-2.6012394520547945E7</v>
+        <v>-26012394.520547945</v>
       </c>
       <c r="P10" s="9">
-        <v>-2.2962079452054795E7</v>
+        <v>-22962079.452054795</v>
       </c>
       <c r="Q10" s="9">
-        <v>-2.7997723287671234E7</v>
+        <v>-27997723.287671234</v>
       </c>
       <c r="R10" s="9">
-        <v>2.8489661369863015E8</v>
+        <v>284896613.69863015</v>
       </c>
       <c r="S10" s="9">
-        <v>5.369805753424658E7</v>
+        <v>53698057.534246579</v>
       </c>
       <c r="T10" s="10">
-        <v>2.79248202739726E8</v>
+        <v>279248202.73972601</v>
       </c>
       <c r="U10" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V10" s="10">
-        <v>4.575274794520548E7</v>
+        <v>45752747.94520548</v>
       </c>
       <c r="W10" s="10">
-        <v>1.1721482191780822E7</v>
+        <v>11721482.191780822</v>
       </c>
       <c r="X10" s="10">
-        <v>3.367224328767123E8</v>
+        <v>336722432.87671232</v>
       </c>
       <c r="Y10" s="10">
-        <v>1.4667671232876712E8</v>
+        <v>146676712.32876712</v>
       </c>
       <c r="Z10" s="10">
-        <v>1.1386038356164383E7</v>
+        <v>11386038.356164383</v>
       </c>
       <c r="AA10" s="10">
-        <v>9.574507123287672E7</v>
+        <v>95745071.232876718</v>
       </c>
       <c r="AB10" s="10">
-        <v>9899969.8630137</v>
+        <v>9899969.8630136997</v>
       </c>
       <c r="AC10" s="10">
-        <v>5359372.602739726</v>
+        <v>5359372.6027397262</v>
       </c>
       <c r="AD10" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="10">
         <v>2850109.5890410957</v>
       </c>
       <c r="AF10" s="10">
-        <v>6.08639706849315E8</v>
+        <v>608639706.84931505</v>
       </c>
       <c r="AG10" s="10">
         <v>2142230.1369863013</v>
       </c>
       <c r="AH10" s="10">
-        <v>3.943244657534246E7</v>
+        <v>39432446.575342461</v>
       </c>
       <c r="AI10" s="10">
-        <v>6.087411780821918E7</v>
+        <v>60874117.80821918</v>
       </c>
       <c r="AJ10" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AL10" s="10">
-        <v>1.2033204657534246E8</v>
+        <v>120332046.57534246</v>
       </c>
       <c r="AM10" s="10">
         <v>9397936.98630137</v>
       </c>
       <c r="AN10" s="10">
-        <v>1.0042830136986302E7</v>
+        <v>10042830.136986302</v>
       </c>
       <c r="AO10" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AP10" s="10">
         <v>1903512.3287671232</v>
       </c>
       <c r="AQ10" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AR10" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS10" s="10">
         <v>1345515.0684931506</v>
       </c>
       <c r="AT10" s="10">
-        <v>2.32983901369863E8</v>
+        <v>232983901.369863</v>
       </c>
       <c r="AU10" s="10">
-        <v>1.0816061671232877E9</v>
+        <v>1081606167.1232877</v>
       </c>
       <c r="AV10" s="10">
         <v>1931156.1643835616</v>
       </c>
       <c r="AW10" s="10">
-        <v>-7.079034767123288E8</v>
+        <v>-707903476.71232879</v>
       </c>
       <c r="AX10" s="10">
-        <v>3.756558054794521E8</v>
+        <v>375655805.47945207</v>
       </c>
       <c r="AY10" s="10">
-        <v>6.08639706849315E8</v>
+        <v>608639706.84931505</v>
       </c>
       <c r="AZ10" s="8">
-        <v>3.0406E7</v>
+        <v>30406000</v>
       </c>
       <c r="BA10" s="8">
-        <v>1.982E7</v>
+        <v>19820000</v>
       </c>
       <c r="BB10" s="8">
-        <v>1.0586E7</v>
+        <v>10586000</v>
       </c>
       <c r="BC10" s="8">
-        <v>1.2432E7</v>
+        <v>12432000</v>
       </c>
       <c r="BD10" s="8">
-        <v>1.0597E7</v>
+        <v>10597000</v>
       </c>
       <c r="BE10" s="8">
-        <v>1.1824E7</v>
+        <v>11824000</v>
       </c>
       <c r="BF10" s="8">
-        <v>3.4853E7</v>
+        <v>34853000</v>
       </c>
       <c r="BG10" s="8">
-        <v>-2.4267E7</v>
+        <v>-24267000</v>
       </c>
       <c r="BH10" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BJ10" s="8">
-        <v>-2611000.0</v>
+        <v>-2611000</v>
       </c>
       <c r="BK10" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BL10" s="8">
-        <v>-84000.0</v>
+        <v>-84000</v>
       </c>
       <c r="BM10" s="8">
-        <v>4074000.0</v>
+        <v>4074000</v>
       </c>
       <c r="BN10" s="8">
-        <v>-2.0193E7</v>
+        <v>-20193000</v>
       </c>
       <c r="BO10" s="8">
-        <v>170000.0</v>
+        <v>170000</v>
       </c>
       <c r="BP10" s="8">
-        <v>-2.0363E7</v>
+        <v>-20363000</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>44500.0</v>
+        <v>44500</v>
       </c>
       <c r="B11" s="4">
-        <v>470.0</v>
+        <v>470</v>
       </c>
       <c r="C11" s="8">
-        <v>-7.44659397260274E7</v>
+        <v>-74465939.726027399</v>
       </c>
       <c r="D11" s="9">
-        <v>-1.345981589041096E8</v>
+        <v>-134598158.9041096</v>
       </c>
       <c r="E11" s="9">
         <v>8942136.98630137</v>
@@ -3111,410 +3135,410 @@
         <v>1848619.1780821919</v>
       </c>
       <c r="H11" s="9">
-        <v>4.937052876712329E7</v>
+        <v>49370528.767123289</v>
       </c>
       <c r="I11" s="9">
-        <v>1094394.520547945</v>
+        <v>1094394.5205479451</v>
       </c>
       <c r="J11" s="9">
         <v>3292268.493150685</v>
       </c>
       <c r="K11" s="9">
-        <v>3.491258082191781E7</v>
+        <v>34912580.82191781</v>
       </c>
       <c r="L11" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M11" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N11" s="9">
         <v>1634498.6301369863</v>
       </c>
       <c r="O11" s="9">
-        <v>-3.353219726027397E7</v>
+        <v>-33532197.260273971</v>
       </c>
       <c r="P11" s="9">
-        <v>-3.25865397260274E7</v>
+        <v>-32586539.726027399</v>
       </c>
       <c r="Q11" s="9">
-        <v>-2.657336164383562E7</v>
+        <v>-26573361.643835619</v>
       </c>
       <c r="R11" s="9">
-        <v>3.8704030684931505E8</v>
+        <v>387040306.84931505</v>
       </c>
       <c r="S11" s="9">
-        <v>4.937052876712329E7</v>
+        <v>49370528.767123289</v>
       </c>
       <c r="T11" s="10">
-        <v>3.8500510136986303E8</v>
+        <v>385005101.36986303</v>
       </c>
       <c r="U11" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V11" s="10">
-        <v>4.506287397260274E7</v>
+        <v>45062873.97260274</v>
       </c>
       <c r="W11" s="10">
-        <v>1.405324109589041E7</v>
+        <v>14053241.09589041</v>
       </c>
       <c r="X11" s="10">
-        <v>4.4412121643835616E8</v>
+        <v>444121216.43835616</v>
       </c>
       <c r="Y11" s="10">
-        <v>1.3997835616438356E8</v>
+        <v>139978356.16438356</v>
       </c>
       <c r="Z11" s="10">
-        <v>1.1077019178082192E7</v>
+        <v>11077019.178082192</v>
       </c>
       <c r="AA11" s="10">
-        <v>9.948203561643836E7</v>
+        <v>99482035.616438359</v>
       </c>
       <c r="AB11" s="10">
-        <v>1.204848493150685E7</v>
+        <v>12048484.93150685</v>
       </c>
       <c r="AC11" s="10">
-        <v>5551186.301369863</v>
+        <v>5551186.3013698626</v>
       </c>
       <c r="AD11" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="10">
-        <v>2782054.794520548</v>
+        <v>2782054.7945205481</v>
       </c>
       <c r="AF11" s="10">
-        <v>7.150403534246576E8</v>
+        <v>715040353.42465758</v>
       </c>
       <c r="AG11" s="10">
         <v>2496115.0684931506</v>
       </c>
       <c r="AH11" s="10">
-        <v>4.412772328767124E7</v>
+        <v>44127723.287671238</v>
       </c>
       <c r="AI11" s="10">
-        <v>6.25535589041096E7</v>
+        <v>62553558.904109597</v>
       </c>
       <c r="AJ11" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="10">
-        <v>1.2618652328767124E8</v>
+        <v>126186523.28767124</v>
       </c>
       <c r="AM11" s="10">
         <v>6488468.493150685</v>
       </c>
       <c r="AN11" s="10">
-        <v>1.109591506849315E7</v>
+        <v>11095915.06849315</v>
       </c>
       <c r="AO11" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AP11" s="10">
         <v>1350756.1643835616</v>
       </c>
       <c r="AQ11" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AR11" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS11" s="10">
         <v>1375257.5342465753</v>
       </c>
       <c r="AT11" s="10">
-        <v>2.0308995068493152E8</v>
+        <v>203089950.68493152</v>
       </c>
       <c r="AU11" s="10">
-        <v>1.2523785835616438E9</v>
+        <v>1252378583.5616438</v>
       </c>
       <c r="AV11" s="10">
-        <v>2013578.082191781</v>
+        <v>2013578.0821917809</v>
       </c>
       <c r="AW11" s="10">
-        <v>-7.424662383561645E8</v>
+        <v>-742466238.35616446</v>
       </c>
       <c r="AX11" s="10">
-        <v>5.1195040273972607E8</v>
+        <v>511950402.73972607</v>
       </c>
       <c r="AY11" s="10">
-        <v>7.150403534246576E8</v>
+        <v>715040353.42465758</v>
       </c>
       <c r="AZ11" s="8">
-        <v>3.17E7</v>
+        <v>31700000</v>
       </c>
       <c r="BA11" s="8">
-        <v>2.0811E7</v>
+        <v>20811000</v>
       </c>
       <c r="BB11" s="8">
-        <v>1.0889E7</v>
+        <v>10889000</v>
       </c>
       <c r="BC11" s="8">
-        <v>1.4959E7</v>
+        <v>14959000</v>
       </c>
       <c r="BD11" s="8">
-        <v>1.2441E7</v>
+        <v>12441000</v>
       </c>
       <c r="BE11" s="8">
-        <v>1.18E7</v>
+        <v>11800000</v>
       </c>
       <c r="BF11" s="8">
-        <v>3.92E7</v>
+        <v>39200000</v>
       </c>
       <c r="BG11" s="8">
-        <v>-2.8311E7</v>
+        <v>-28311000</v>
       </c>
       <c r="BH11" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="8">
-        <v>8000.0</v>
+        <v>8000</v>
       </c>
       <c r="BJ11" s="8">
-        <v>-2612000.0</v>
+        <v>-2612000</v>
       </c>
       <c r="BK11" s="8">
-        <v>-1.0172E7</v>
+        <v>-10172000</v>
       </c>
       <c r="BL11" s="8">
-        <v>-60000.0</v>
+        <v>-60000</v>
       </c>
       <c r="BM11" s="8">
-        <v>-1.2836E7</v>
+        <v>-12836000</v>
       </c>
       <c r="BN11" s="8">
-        <v>-4.1147E7</v>
+        <v>-41147000</v>
       </c>
       <c r="BO11" s="8">
-        <v>394000.0</v>
+        <v>394000</v>
       </c>
       <c r="BP11" s="8">
-        <v>-4.1541E7</v>
+        <v>-41541000</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>44592.0</v>
+        <v>44592</v>
       </c>
       <c r="B12" s="4">
-        <v>514.0</v>
+        <v>514</v>
       </c>
       <c r="C12" s="8">
-        <v>-8.122E7</v>
+        <v>-81220000</v>
       </c>
       <c r="D12" s="9">
-        <v>-1.37124E8</v>
+        <v>-137124000</v>
       </c>
       <c r="E12" s="9">
-        <v>8772000.0</v>
+        <v>8772000</v>
       </c>
       <c r="F12" s="9">
-        <v>-21000.0</v>
+        <v>-21000</v>
       </c>
       <c r="G12" s="9">
-        <v>2110000.0</v>
+        <v>2110000</v>
       </c>
       <c r="H12" s="9">
-        <v>4.5043E7</v>
+        <v>45043000</v>
       </c>
       <c r="I12" s="9">
-        <v>1690000.0</v>
+        <v>1690000</v>
       </c>
       <c r="J12" s="9">
-        <v>-5726000.0</v>
+        <v>-5726000</v>
       </c>
       <c r="K12" s="9">
-        <v>4.1956E7</v>
+        <v>41956000</v>
       </c>
       <c r="L12" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M12" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N12" s="9">
-        <v>2248000.0</v>
+        <v>2248000</v>
       </c>
       <c r="O12" s="9">
-        <v>-4.1052E7</v>
+        <v>-41052000</v>
       </c>
       <c r="P12" s="9">
-        <v>-4.2211E7</v>
+        <v>-42211000</v>
       </c>
       <c r="Q12" s="9">
-        <v>-2.5149E7</v>
+        <v>-25149000</v>
       </c>
       <c r="R12" s="9">
-        <v>4.89184E8</v>
+        <v>489184000</v>
       </c>
       <c r="S12" s="9">
-        <v>4.5043E7</v>
+        <v>45043000</v>
       </c>
       <c r="T12" s="8">
-        <v>4.90762E8</v>
+        <v>490762000</v>
       </c>
       <c r="U12" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V12" s="8">
-        <v>4.4373E7</v>
+        <v>44373000</v>
       </c>
       <c r="W12" s="8">
-        <v>1.6385E7</v>
+        <v>16385000</v>
       </c>
       <c r="X12" s="8">
-        <v>5.5152E8</v>
+        <v>551520000</v>
       </c>
       <c r="Y12" s="8">
-        <v>1.3328E8</v>
+        <v>133280000</v>
       </c>
       <c r="Z12" s="8">
-        <v>1.0768E7</v>
+        <v>10768000</v>
       </c>
       <c r="AA12" s="8">
-        <v>1.03219E8</v>
+        <v>103219000</v>
       </c>
       <c r="AB12" s="8">
-        <v>1.4197E7</v>
+        <v>14197000</v>
       </c>
       <c r="AC12" s="8">
-        <v>5743000.0</v>
+        <v>5743000</v>
       </c>
       <c r="AD12" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="8">
-        <v>2714000.0</v>
+        <v>2714000</v>
       </c>
       <c r="AF12" s="8">
-        <v>8.21441E8</v>
+        <v>821441000</v>
       </c>
       <c r="AG12" s="8">
-        <v>2850000.0</v>
+        <v>2850000</v>
       </c>
       <c r="AH12" s="8">
-        <v>4.8823E7</v>
+        <v>48823000</v>
       </c>
       <c r="AI12" s="8">
-        <v>6.4233E7</v>
+        <v>64233000</v>
       </c>
       <c r="AJ12" s="8">
-        <v>1.6135E7</v>
+        <v>16135000</v>
       </c>
       <c r="AK12" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="8">
-        <v>1.32041E8</v>
+        <v>132041000</v>
       </c>
       <c r="AM12" s="8">
-        <v>3579000.0</v>
+        <v>3579000</v>
       </c>
       <c r="AN12" s="8">
-        <v>1.2149E7</v>
+        <v>12149000</v>
       </c>
       <c r="AO12" s="8">
-        <v>2.3224E7</v>
+        <v>23224000</v>
       </c>
       <c r="AP12" s="8">
-        <v>798000.0</v>
+        <v>798000</v>
       </c>
       <c r="AQ12" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AR12" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS12" s="8">
-        <v>1405000.0</v>
+        <v>1405000</v>
       </c>
       <c r="AT12" s="8">
-        <v>1.73196E8</v>
+        <v>173196000</v>
       </c>
       <c r="AU12" s="8">
-        <v>1.423151E9</v>
+        <v>1423151000</v>
       </c>
       <c r="AV12" s="8">
-        <v>2096000.0</v>
+        <v>2096000</v>
       </c>
       <c r="AW12" s="8">
-        <v>-7.77029E8</v>
+        <v>-777029000</v>
       </c>
       <c r="AX12" s="8">
-        <v>6.48245E8</v>
+        <v>648245000</v>
       </c>
       <c r="AY12" s="8">
-        <v>8.21441E8</v>
+        <v>821441000</v>
       </c>
       <c r="AZ12" s="8">
-        <v>3.7146E7</v>
+        <v>37146000</v>
       </c>
       <c r="BA12" s="8">
-        <v>2.323E7</v>
+        <v>23230000</v>
       </c>
       <c r="BB12" s="8">
-        <v>1.3916E7</v>
+        <v>13916000</v>
       </c>
       <c r="BC12" s="8">
-        <v>2.7163E7</v>
+        <v>27163000</v>
       </c>
       <c r="BD12" s="8">
-        <v>1.9226E7</v>
+        <v>19226000</v>
       </c>
       <c r="BE12" s="8">
-        <v>2.4733E7</v>
+        <v>24733000</v>
       </c>
       <c r="BF12" s="8">
-        <v>7.1122E7</v>
+        <v>71122000</v>
       </c>
       <c r="BG12" s="8">
-        <v>-5.7206E7</v>
+        <v>-57206000</v>
       </c>
       <c r="BH12" s="8">
-        <v>-1690000.0</v>
+        <v>-1690000</v>
       </c>
       <c r="BI12" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BJ12" s="8">
-        <v>-1022000.0</v>
+        <v>-1022000</v>
       </c>
       <c r="BK12" s="8">
-        <v>2.3924E7</v>
+        <v>23924000</v>
       </c>
       <c r="BL12" s="8">
-        <v>-1906000.0</v>
+        <v>-1906000</v>
       </c>
       <c r="BM12" s="8">
-        <v>1.2529E7</v>
+        <v>12529000</v>
       </c>
       <c r="BN12" s="8">
-        <v>-4.4677E7</v>
+        <v>-44677000</v>
       </c>
       <c r="BO12" s="8">
-        <v>1288000.0</v>
+        <v>1288000</v>
       </c>
       <c r="BP12" s="8">
-        <v>-4.5965E7</v>
+        <v>-45965000</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>44681.0</v>
+        <v>44681</v>
       </c>
       <c r="B13" s="4">
-        <v>514.0</v>
+        <v>514</v>
       </c>
       <c r="C13" s="8">
-        <v>-9.20075315068493E7</v>
+        <v>-92007531.506849304</v>
       </c>
       <c r="D13" s="9">
-        <v>-1.4318136438356164E8</v>
+        <v>-143181364.38356164</v>
       </c>
       <c r="E13" s="9">
-        <v>6633073.97260274</v>
+        <v>6633073.9726027399</v>
       </c>
       <c r="F13" s="9">
         <v>-1886586.3013698629</v>
@@ -3523,1807 +3547,1839 @@
         <v>1802035.6164383562</v>
       </c>
       <c r="H13" s="9">
-        <v>4.46253095890411E7</v>
+        <v>44625309.589041099</v>
       </c>
       <c r="I13" s="9">
-        <v>1277917.808219178</v>
+        <v>1277917.8082191781</v>
       </c>
       <c r="J13" s="9">
-        <v>-5927895.890410959</v>
+        <v>-5927895.8904109588</v>
       </c>
       <c r="K13" s="9">
-        <v>5.01459506849315E7</v>
+        <v>50145950.684931502</v>
       </c>
       <c r="L13" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M13" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N13" s="9">
         <v>1619391.7808219176</v>
       </c>
       <c r="O13" s="9">
-        <v>-4.489216712328767E7</v>
+        <v>-44892167.12328767</v>
       </c>
       <c r="P13" s="9">
-        <v>-4.994595342465754E7</v>
+        <v>-49945953.424657539</v>
       </c>
       <c r="Q13" s="9">
-        <v>-7.808912602739726E7</v>
+        <v>-78089126.02739726</v>
       </c>
       <c r="R13" s="9">
-        <v>2.9462219726027393E8</v>
+        <v>294622197.26027393</v>
       </c>
       <c r="S13" s="9">
-        <v>4.46253095890411E7</v>
+        <v>44625309.589041099</v>
       </c>
       <c r="T13" s="8">
-        <v>4.84489E8</v>
+        <v>484489000</v>
       </c>
       <c r="U13" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V13" s="8">
-        <v>2.4581E7</v>
+        <v>24581000</v>
       </c>
       <c r="W13" s="8">
-        <v>1.8192E7</v>
+        <v>18192000</v>
       </c>
       <c r="X13" s="8">
-        <v>5.27262E8</v>
+        <v>527262000</v>
       </c>
       <c r="Y13" s="8">
-        <v>1.25329E8</v>
+        <v>125329000</v>
       </c>
       <c r="Z13" s="8">
-        <v>1.1105E7</v>
+        <v>11105000</v>
       </c>
       <c r="AA13" s="8">
-        <v>1.03219E8</v>
+        <v>103219000</v>
       </c>
       <c r="AB13" s="8">
-        <v>1.3604E7</v>
+        <v>13604000</v>
       </c>
       <c r="AC13" s="8">
-        <v>5653000.0</v>
+        <v>5653000</v>
       </c>
       <c r="AD13" s="8">
-        <v>7035000.0</v>
+        <v>7035000</v>
       </c>
       <c r="AE13" s="8">
-        <v>2787000.0</v>
+        <v>2787000</v>
       </c>
       <c r="AF13" s="8">
-        <v>7.95994E8</v>
+        <v>795994000</v>
       </c>
       <c r="AG13" s="8">
-        <v>3168000.0</v>
+        <v>3168000</v>
       </c>
       <c r="AH13" s="8">
-        <v>4.3184E7</v>
+        <v>43184000</v>
       </c>
       <c r="AI13" s="8">
-        <v>6.0672E7</v>
+        <v>60672000</v>
       </c>
       <c r="AJ13" s="8">
-        <v>1.5239E7</v>
+        <v>15239000</v>
       </c>
       <c r="AK13" s="8">
-        <v>7188000.0</v>
+        <v>7188000</v>
       </c>
       <c r="AL13" s="8">
-        <v>1.29451E8</v>
+        <v>129451000</v>
       </c>
       <c r="AM13" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN13" s="8">
-        <v>1.2199E7</v>
+        <v>12199000</v>
       </c>
       <c r="AO13" s="8">
-        <v>1.9948E7</v>
+        <v>19948000</v>
       </c>
       <c r="AP13" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ13" s="8">
-        <v>2271000.0</v>
+        <v>2271000</v>
       </c>
       <c r="AR13" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS13" s="8">
-        <v>1419000.0</v>
+        <v>1419000</v>
       </c>
       <c r="AT13" s="8">
-        <v>1.65288E8</v>
+        <v>165288000</v>
       </c>
       <c r="AU13" s="8">
-        <v>1.450098E9</v>
+        <v>1450098000</v>
       </c>
       <c r="AV13" s="8">
-        <v>2271000.0</v>
+        <v>2271000</v>
       </c>
       <c r="AW13" s="8">
-        <v>-8.2169E8</v>
+        <v>-821690000</v>
       </c>
       <c r="AX13" s="8">
-        <v>6.30706E8</v>
+        <v>630706000</v>
       </c>
       <c r="AY13" s="8">
-        <v>7.95994E8</v>
+        <v>795994000</v>
       </c>
       <c r="AZ13" s="8">
-        <v>4.0127E7</v>
+        <v>40127000</v>
       </c>
       <c r="BA13" s="8">
-        <v>2.3628E7</v>
+        <v>23628000</v>
       </c>
       <c r="BB13" s="8">
-        <v>1.6499E7</v>
+        <v>16499000</v>
       </c>
       <c r="BC13" s="8">
-        <v>2.475E7</v>
+        <v>24750000</v>
       </c>
       <c r="BD13" s="8">
-        <v>1.8855E7</v>
+        <v>18855000</v>
       </c>
       <c r="BE13" s="8">
-        <v>2.0608E7</v>
+        <v>20608000</v>
       </c>
       <c r="BF13" s="8">
-        <v>6.4213E7</v>
+        <v>64213000</v>
       </c>
       <c r="BG13" s="8">
-        <v>-4.7714E7</v>
+        <v>-47714000</v>
       </c>
       <c r="BH13" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BJ13" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BK13" s="8">
-        <v>3276000.0</v>
+        <v>3276000</v>
       </c>
       <c r="BL13" s="8">
-        <v>392000.0</v>
+        <v>392000</v>
       </c>
       <c r="BM13" s="8">
-        <v>3668000.0</v>
+        <v>3668000</v>
       </c>
       <c r="BN13" s="8">
-        <v>-4.4046E7</v>
+        <v>-44046000</v>
       </c>
       <c r="BO13" s="8">
-        <v>314000.0</v>
+        <v>314000</v>
       </c>
       <c r="BP13" s="8">
-        <v>-4.436E7</v>
+        <v>-44360000</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>44773.0</v>
+        <v>44773</v>
       </c>
       <c r="B14" s="4">
-        <v>514.0</v>
+        <v>514</v>
       </c>
       <c r="C14" s="8">
-        <v>-1.0315868767123285E8</v>
+        <v>-103158687.67123285</v>
       </c>
       <c r="D14" s="9">
-        <v>-1.4944290958904108E8</v>
+        <v>-149442909.58904108</v>
       </c>
       <c r="E14" s="9">
-        <v>4422049.315068494</v>
+        <v>4422049.3150684936</v>
       </c>
       <c r="F14" s="9">
-        <v>-3815057.534246575</v>
+        <v>-3815057.5342465751</v>
       </c>
       <c r="G14" s="9">
-        <v>1483690.410958904</v>
+        <v>1483690.4109589041</v>
       </c>
       <c r="H14" s="9">
-        <v>4.41935397260274E7</v>
+        <v>44193539.726027399</v>
       </c>
       <c r="I14" s="9">
-        <v>851945.205479452</v>
+        <v>851945.20547945204</v>
       </c>
       <c r="J14" s="9">
         <v>-6136597.2602739725</v>
       </c>
       <c r="K14" s="9">
-        <v>5.861196712328767E7</v>
+        <v>58611967.12328767</v>
       </c>
       <c r="L14" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M14" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N14" s="9">
-        <v>969594.520547945</v>
+        <v>969594.52054794505</v>
       </c>
       <c r="O14" s="9">
-        <v>-4.886177808219178E7</v>
+        <v>-48861778.08219178</v>
       </c>
       <c r="P14" s="9">
-        <v>-5.794163561643836E7</v>
+        <v>-57941635.616438359</v>
       </c>
       <c r="Q14" s="9">
-        <v>-1.3281375068493152E8</v>
+        <v>-132813750.68493152</v>
       </c>
       <c r="R14" s="9">
-        <v>9.350213150684935E7</v>
+        <v>93502131.506849349</v>
       </c>
       <c r="S14" s="9">
-        <v>4.41935397260274E7</v>
+        <v>44193539.726027399</v>
       </c>
       <c r="T14" s="10">
-        <v>3.418065E8</v>
+        <v>341806500</v>
       </c>
       <c r="U14" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V14" s="10">
-        <v>2.6795E7</v>
+        <v>26795000</v>
       </c>
       <c r="W14" s="10">
-        <v>2.22695E7</v>
+        <v>22269500</v>
       </c>
       <c r="X14" s="10">
-        <v>5.039525E8</v>
+        <v>503952500</v>
       </c>
       <c r="Y14" s="10">
-        <v>1.20357E8</v>
+        <v>120357000</v>
       </c>
       <c r="Z14" s="10">
-        <v>1.1143E7</v>
+        <v>11143000</v>
       </c>
       <c r="AA14" s="10">
-        <v>1.03219E8</v>
+        <v>103219000</v>
       </c>
       <c r="AB14" s="10">
-        <v>1.30115E7</v>
+        <v>13011500</v>
       </c>
       <c r="AC14" s="10">
-        <v>5408000.0</v>
+        <v>5408000</v>
       </c>
       <c r="AD14" s="10">
-        <v>1.14205E7</v>
+        <v>11420500</v>
       </c>
       <c r="AE14" s="10">
-        <v>3099500.0</v>
+        <v>3099500</v>
       </c>
       <c r="AF14" s="10">
-        <v>7.71611E8</v>
+        <v>771611000</v>
       </c>
       <c r="AG14" s="10">
-        <v>2862500.0</v>
+        <v>2862500</v>
       </c>
       <c r="AH14" s="10">
-        <v>4.29065E7</v>
+        <v>42906500</v>
       </c>
       <c r="AI14" s="10">
-        <v>5.4185E7</v>
+        <v>54185000</v>
       </c>
       <c r="AJ14" s="10">
-        <v>1.43425E7</v>
+        <v>14342500</v>
       </c>
       <c r="AK14" s="10">
-        <v>5363000.0</v>
+        <v>5363000</v>
       </c>
       <c r="AL14" s="10">
-        <v>1.196595E8</v>
+        <v>119659500</v>
       </c>
       <c r="AM14" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN14" s="10">
-        <v>1.1026E7</v>
+        <v>11026000</v>
       </c>
       <c r="AO14" s="10">
-        <v>1.89015E7</v>
+        <v>18901500</v>
       </c>
       <c r="AP14" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ14" s="10">
-        <v>8147500.0</v>
+        <v>8147500</v>
       </c>
       <c r="AR14" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS14" s="10">
-        <v>1440000.0</v>
+        <v>1440000</v>
       </c>
       <c r="AT14" s="10">
-        <v>1.591745E8</v>
+        <v>159174500</v>
       </c>
       <c r="AU14" s="10">
-        <v>1.472375E9</v>
+        <v>1472375000</v>
       </c>
       <c r="AV14" s="10">
-        <v>1607000.0</v>
+        <v>1607000</v>
       </c>
       <c r="AW14" s="10">
-        <v>-8.615725E8</v>
+        <v>-861572500</v>
       </c>
       <c r="AX14" s="10">
-        <v>6.124365E8</v>
+        <v>612436500</v>
       </c>
       <c r="AY14" s="10">
-        <v>7.71611E8</v>
+        <v>771611000</v>
       </c>
       <c r="AZ14" s="8">
-        <v>4.845E7</v>
+        <v>48450000</v>
       </c>
       <c r="BA14" s="8">
-        <v>2.4977E7</v>
+        <v>24977000</v>
       </c>
       <c r="BB14" s="8">
-        <v>2.3473E7</v>
+        <v>23473000</v>
       </c>
       <c r="BC14" s="8">
-        <v>2.6737E7</v>
+        <v>26737000</v>
       </c>
       <c r="BD14" s="8">
-        <v>1.9483E7</v>
+        <v>19483000</v>
       </c>
       <c r="BE14" s="8">
-        <v>1.9893E7</v>
+        <v>19893000</v>
       </c>
       <c r="BF14" s="8">
-        <v>6.6113E7</v>
+        <v>66113000</v>
       </c>
       <c r="BG14" s="8">
-        <v>-4.264E7</v>
+        <v>-42640000</v>
       </c>
       <c r="BH14" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BJ14" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BK14" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BL14" s="8">
-        <v>1153000.0</v>
+        <v>1153000</v>
       </c>
       <c r="BM14" s="8">
-        <v>3265000.0</v>
+        <v>3265000</v>
       </c>
       <c r="BN14" s="8">
-        <v>-3.9375E7</v>
+        <v>-39375000</v>
       </c>
       <c r="BO14" s="8">
-        <v>154000.0</v>
+        <v>154000</v>
       </c>
       <c r="BP14" s="8">
-        <v>-3.9529E7</v>
+        <v>-39529000</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>44865.0</v>
+        <v>44865</v>
       </c>
       <c r="B15" s="4">
-        <v>514.0</v>
+        <v>514</v>
       </c>
       <c r="C15" s="8">
-        <v>-1.1430984383561645E8</v>
+        <v>-114309843.83561645</v>
       </c>
       <c r="D15" s="9">
-        <v>-1.5570445479452056E8</v>
+        <v>-155704454.79452056</v>
       </c>
       <c r="E15" s="9">
-        <v>2211024.657534247</v>
+        <v>2211024.6575342468</v>
       </c>
       <c r="F15" s="9">
-        <v>-5743528.767123288</v>
+        <v>-5743528.7671232875</v>
       </c>
       <c r="G15" s="9">
-        <v>1165345.205479452</v>
+        <v>1165345.2054794519</v>
       </c>
       <c r="H15" s="9">
-        <v>4.37617698630137E7</v>
+        <v>43761769.8630137</v>
       </c>
       <c r="I15" s="9">
-        <v>425972.602739726</v>
+        <v>425972.60273972602</v>
       </c>
       <c r="J15" s="9">
-        <v>-6345298.630136986</v>
+        <v>-6345298.6301369863</v>
       </c>
       <c r="K15" s="9">
-        <v>6.707798356164384E7</v>
+        <v>67077983.561643839</v>
       </c>
       <c r="L15" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M15" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N15" s="9">
-        <v>319797.2602739725</v>
+        <v>319797.26027397253</v>
       </c>
       <c r="O15" s="9">
-        <v>-5.283138904109589E7</v>
+        <v>-52831389.04109589</v>
       </c>
       <c r="P15" s="9">
-        <v>-6.593731780821918E7</v>
+        <v>-65937317.80821918</v>
       </c>
       <c r="Q15" s="9">
-        <v>-1.8753837534246576E8</v>
+        <v>-187538375.34246576</v>
       </c>
       <c r="R15" s="9">
-        <v>-1.0761793424657533E8</v>
+        <v>-107617934.24657533</v>
       </c>
       <c r="S15" s="9">
-        <v>4.37617698630137E7</v>
+        <v>43761769.8630137</v>
       </c>
       <c r="T15" s="8">
-        <v>1.99124E8</v>
+        <v>199124000</v>
       </c>
       <c r="U15" s="8">
-        <v>2.26163E8</v>
+        <v>226163000</v>
       </c>
       <c r="V15" s="8">
-        <v>2.9009E7</v>
+        <v>29009000</v>
       </c>
       <c r="W15" s="8">
-        <v>2.6347E7</v>
+        <v>26347000</v>
       </c>
       <c r="X15" s="8">
-        <v>4.80643E8</v>
+        <v>480643000</v>
       </c>
       <c r="Y15" s="8">
-        <v>1.15385E8</v>
+        <v>115385000</v>
       </c>
       <c r="Z15" s="8">
-        <v>1.1181E7</v>
+        <v>11181000</v>
       </c>
       <c r="AA15" s="8">
-        <v>1.03219E8</v>
+        <v>103219000</v>
       </c>
       <c r="AB15" s="8">
-        <v>1.2419E7</v>
+        <v>12419000</v>
       </c>
       <c r="AC15" s="8">
-        <v>5163000.0</v>
+        <v>5163000</v>
       </c>
       <c r="AD15" s="8">
-        <v>1.5806E7</v>
+        <v>15806000</v>
       </c>
       <c r="AE15" s="8">
-        <v>3412000.0</v>
+        <v>3412000</v>
       </c>
       <c r="AF15" s="8">
-        <v>7.47228E8</v>
+        <v>747228000</v>
       </c>
       <c r="AG15" s="8">
-        <v>2557000.0</v>
+        <v>2557000</v>
       </c>
       <c r="AH15" s="8">
-        <v>4.2629E7</v>
+        <v>42629000</v>
       </c>
       <c r="AI15" s="8">
-        <v>4.7698E7</v>
+        <v>47698000</v>
       </c>
       <c r="AJ15" s="8">
-        <v>1.3446E7</v>
+        <v>13446000</v>
       </c>
       <c r="AK15" s="8">
-        <v>3538000.0</v>
+        <v>3538000</v>
       </c>
       <c r="AL15" s="8">
-        <v>1.09868E8</v>
+        <v>109868000</v>
       </c>
       <c r="AM15" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN15" s="8">
-        <v>9853000.0</v>
+        <v>9853000</v>
       </c>
       <c r="AO15" s="8">
-        <v>1.7855E7</v>
+        <v>17855000</v>
       </c>
       <c r="AP15" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="8">
-        <v>1.4024E7</v>
+        <v>14024000</v>
       </c>
       <c r="AR15" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS15" s="8">
-        <v>1461000.0</v>
+        <v>1461000</v>
       </c>
       <c r="AT15" s="8">
-        <v>1.53061E8</v>
+        <v>153061000</v>
       </c>
       <c r="AU15" s="8">
-        <v>1.494652E9</v>
+        <v>1494652000</v>
       </c>
       <c r="AV15" s="8">
-        <v>943000.0</v>
+        <v>943000</v>
       </c>
       <c r="AW15" s="8">
-        <v>-9.01455E8</v>
+        <v>-901455000</v>
       </c>
       <c r="AX15" s="8">
-        <v>5.94167E8</v>
+        <v>594167000</v>
       </c>
       <c r="AY15" s="8">
-        <v>7.47228E8</v>
+        <v>747228000</v>
       </c>
       <c r="AZ15" s="8">
-        <v>4.9704E7</v>
+        <v>49704000</v>
       </c>
       <c r="BA15" s="8">
-        <v>2.4728E7</v>
+        <v>24728000</v>
       </c>
       <c r="BB15" s="8">
-        <v>2.4976E7</v>
+        <v>24976000</v>
       </c>
       <c r="BC15" s="8">
-        <v>2.7598E7</v>
+        <v>27598000</v>
       </c>
       <c r="BD15" s="8">
-        <v>1.9383E7</v>
+        <v>19383000</v>
       </c>
       <c r="BE15" s="8">
-        <v>2.0627E7</v>
+        <v>20627000</v>
       </c>
       <c r="BF15" s="8">
-        <v>6.7608E7</v>
+        <v>67608000</v>
       </c>
       <c r="BG15" s="8">
-        <v>-4.2632E7</v>
+        <v>-42632000</v>
       </c>
       <c r="BH15" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="8">
-        <v>2853000.0</v>
+        <v>2853000</v>
       </c>
       <c r="BJ15" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BK15" s="8">
-        <v>-19000.0</v>
+        <v>-19000</v>
       </c>
       <c r="BL15" s="8">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="BM15" s="8">
-        <v>2835000.0</v>
+        <v>2835000</v>
       </c>
       <c r="BN15" s="8">
-        <v>-3.9797E7</v>
+        <v>-39797000</v>
       </c>
       <c r="BO15" s="8">
-        <v>439000.0</v>
+        <v>439000</v>
       </c>
       <c r="BP15" s="8">
-        <v>-4.0236E7</v>
+        <v>-40236000</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>44957.0</v>
+        <v>44957</v>
       </c>
       <c r="B16" s="4">
-        <v>550.0</v>
+        <v>550</v>
       </c>
       <c r="C16" s="8">
-        <v>-1.25461E8</v>
+        <v>-125461000</v>
       </c>
       <c r="D16" s="9">
-        <v>-1.61966E8</v>
+        <v>-161966000</v>
       </c>
       <c r="E16" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16" s="9">
-        <v>-7672000.0</v>
+        <v>-7672000</v>
       </c>
       <c r="G16" s="9">
-        <v>847000.0</v>
+        <v>847000</v>
       </c>
       <c r="H16" s="9">
-        <v>4.333E7</v>
+        <v>43330000</v>
       </c>
       <c r="I16" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J16" s="9">
-        <v>-6554000.0</v>
+        <v>-6554000</v>
       </c>
       <c r="K16" s="9">
-        <v>7.5544E7</v>
+        <v>75544000</v>
       </c>
       <c r="L16" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M16" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N16" s="9">
-        <v>-330000.0</v>
+        <v>-330000</v>
       </c>
       <c r="O16" s="9">
-        <v>-5.6801E7</v>
+        <v>-56801000</v>
       </c>
       <c r="P16" s="9">
-        <v>-7.3933E7</v>
+        <v>-73933000</v>
       </c>
       <c r="Q16" s="9">
-        <v>-2.42263E8</v>
+        <v>-242263000</v>
       </c>
       <c r="R16" s="9">
-        <v>-3.08738E8</v>
+        <v>-308738000</v>
       </c>
       <c r="S16" s="9">
-        <v>4.333E7</v>
+        <v>43330000</v>
       </c>
       <c r="T16" s="8">
-        <v>1.81892E8</v>
+        <v>181892000</v>
       </c>
       <c r="U16" s="8">
-        <v>2.26868E8</v>
+        <v>226868000</v>
       </c>
       <c r="V16" s="8">
-        <v>3.8952E7</v>
+        <v>38952000</v>
       </c>
       <c r="W16" s="8">
-        <v>2.7943E7</v>
+        <v>27943000</v>
       </c>
       <c r="X16" s="8">
-        <v>4.75655E8</v>
+        <v>475655000</v>
       </c>
       <c r="Y16" s="8">
-        <v>1.08091E8</v>
+        <v>108091000</v>
       </c>
       <c r="Z16" s="8">
-        <v>1.1417E7</v>
+        <v>11417000</v>
       </c>
       <c r="AA16" s="8">
-        <v>1.12748E8</v>
+        <v>112748000</v>
       </c>
       <c r="AB16" s="8">
-        <v>1.4831E7</v>
+        <v>14831000</v>
       </c>
       <c r="AC16" s="8">
-        <v>5657000.0</v>
+        <v>5657000</v>
       </c>
       <c r="AD16" s="8">
-        <v>2.0403E7</v>
+        <v>20403000</v>
       </c>
       <c r="AE16" s="8">
-        <v>3921000.0</v>
+        <v>3921000</v>
       </c>
       <c r="AF16" s="8">
-        <v>7.52723E8</v>
+        <v>752723000</v>
       </c>
       <c r="AG16" s="8">
-        <v>6900000.0</v>
+        <v>6900000</v>
       </c>
       <c r="AH16" s="8">
-        <v>4.6022E7</v>
+        <v>46022000</v>
       </c>
       <c r="AI16" s="8">
-        <v>5.19E7</v>
+        <v>51900000</v>
       </c>
       <c r="AJ16" s="8">
-        <v>1.255E7</v>
+        <v>12550000</v>
       </c>
       <c r="AK16" s="8">
-        <v>4885000.0</v>
+        <v>4885000</v>
       </c>
       <c r="AL16" s="8">
-        <v>1.22257E8</v>
+        <v>122257000</v>
       </c>
       <c r="AM16" s="8">
-        <v>2882000.0</v>
+        <v>2882000</v>
       </c>
       <c r="AN16" s="8">
-        <v>8679000.0</v>
+        <v>8679000</v>
       </c>
       <c r="AO16" s="8">
-        <v>1.667E7</v>
+        <v>16670000</v>
       </c>
       <c r="AP16" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ16" s="8">
-        <v>1.7145E7</v>
+        <v>17145000</v>
       </c>
       <c r="AR16" s="8">
-        <v>7499000.0</v>
+        <v>7499000</v>
       </c>
       <c r="AS16" s="8">
-        <v>1487000.0</v>
+        <v>1487000</v>
       </c>
       <c r="AT16" s="8">
-        <v>1.76619E8</v>
+        <v>176619000</v>
       </c>
       <c r="AU16" s="8">
-        <v>1.513102E9</v>
+        <v>1513102000</v>
       </c>
       <c r="AV16" s="8">
-        <v>2271000.0</v>
+        <v>2271000</v>
       </c>
       <c r="AW16" s="8">
-        <v>-9.39296E8</v>
+        <v>-939296000</v>
       </c>
       <c r="AX16" s="8">
-        <v>5.76104E8</v>
+        <v>576104000</v>
       </c>
       <c r="AY16" s="8">
-        <v>7.52723E8</v>
+        <v>752723000</v>
       </c>
       <c r="AZ16" s="8">
-        <v>5.2975E7</v>
+        <v>52975000</v>
       </c>
       <c r="BA16" s="8">
-        <v>2.3915E7</v>
+        <v>23915000</v>
       </c>
       <c r="BB16" s="8">
-        <v>2.906E7</v>
+        <v>29060000</v>
       </c>
       <c r="BC16" s="8">
-        <v>3.1831E7</v>
+        <v>31831000</v>
       </c>
       <c r="BD16" s="8">
-        <v>2.0299E7</v>
+        <v>20299000</v>
       </c>
       <c r="BE16" s="8">
-        <v>1.9619E7</v>
+        <v>19619000</v>
       </c>
       <c r="BF16" s="8">
-        <v>7.1749E7</v>
+        <v>71749000</v>
       </c>
       <c r="BG16" s="8">
-        <v>-4.2689E7</v>
+        <v>-42689000</v>
       </c>
       <c r="BH16" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="8">
-        <v>4819000.0</v>
+        <v>4819000</v>
       </c>
       <c r="BJ16" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BK16" s="8">
-        <v>3297000.0</v>
+        <v>3297000</v>
       </c>
       <c r="BL16" s="8">
-        <v>-1216000.0</v>
+        <v>-1216000</v>
       </c>
       <c r="BM16" s="8">
-        <v>4788000.0</v>
+        <v>4788000</v>
       </c>
       <c r="BN16" s="8">
-        <v>-3.7901E7</v>
+        <v>-37901000</v>
       </c>
       <c r="BO16" s="8">
-        <v>-60000.0</v>
+        <v>-60000</v>
       </c>
       <c r="BP16" s="8">
-        <v>-3.7841E7</v>
+        <v>-37841000</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>45046.0</v>
+        <v>45046</v>
       </c>
       <c r="B17" s="4">
-        <v>550.0</v>
+        <v>550</v>
       </c>
       <c r="C17" s="8">
-        <v>-1.2107390958904111E8</v>
+        <v>-121073909.58904111</v>
       </c>
       <c r="D17" s="9">
-        <v>-1.567340191780822E8</v>
+        <v>-156734019.1780822</v>
       </c>
       <c r="E17" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17" s="9">
-        <v>-9559775.342465753</v>
+        <v>-9559775.3424657527</v>
       </c>
       <c r="G17" s="9">
-        <v>839197.2602739725</v>
+        <v>839197.26027397253</v>
       </c>
       <c r="H17" s="9">
-        <v>4.438068767123288E7</v>
+        <v>44380687.671232879</v>
       </c>
       <c r="I17" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J17" s="9">
-        <v>-8298643.835616439</v>
+        <v>-8298643.8356164386</v>
       </c>
       <c r="K17" s="9">
-        <v>7.105449863013698E7</v>
+        <v>71054498.630136982</v>
       </c>
       <c r="L17" s="9">
         <v>1798531.5068493153</v>
       </c>
       <c r="M17" s="9">
-        <v>564967.1232876712</v>
+        <v>564967.12328767125</v>
       </c>
       <c r="N17" s="9">
         <v>-476545.20547945204</v>
       </c>
       <c r="O17" s="9">
-        <v>-5.643110136986301E7</v>
+        <v>-56431101.369863011</v>
       </c>
       <c r="P17" s="9">
-        <v>-6.82706493150685E7</v>
+        <v>-68270649.315068498</v>
       </c>
       <c r="Q17" s="9">
-        <v>-1.9138011506849316E8</v>
+        <v>-191380115.06849316</v>
       </c>
       <c r="R17" s="9">
-        <v>-2.5439679452054796E8</v>
+        <v>-254396794.52054796</v>
       </c>
       <c r="S17" s="9">
-        <v>4.438068767123288E7</v>
+        <v>44380687.671232879</v>
       </c>
       <c r="T17" s="8">
-        <v>1.40763E8</v>
+        <v>140763000</v>
       </c>
       <c r="U17" s="8">
-        <v>2.35415E8</v>
+        <v>235415000</v>
       </c>
       <c r="V17" s="8">
-        <v>3.9072E7</v>
+        <v>39072000</v>
       </c>
       <c r="W17" s="8">
-        <v>1.9275E7</v>
+        <v>19275000</v>
       </c>
       <c r="X17" s="8">
-        <v>4.34525E8</v>
+        <v>434525000</v>
       </c>
       <c r="Y17" s="8">
-        <v>1.18193E8</v>
+        <v>118193000</v>
       </c>
       <c r="Z17" s="8">
-        <v>1.1878E7</v>
+        <v>11878000</v>
       </c>
       <c r="AA17" s="8">
-        <v>1.12748E8</v>
+        <v>112748000</v>
       </c>
       <c r="AB17" s="8">
-        <v>1.3999E7</v>
+        <v>13999000</v>
       </c>
       <c r="AC17" s="8">
-        <v>5660000.0</v>
+        <v>5660000</v>
       </c>
       <c r="AD17" s="8">
-        <v>2.3697E7</v>
+        <v>23697000</v>
       </c>
       <c r="AE17" s="8">
-        <v>2757000.0</v>
+        <v>2757000</v>
       </c>
       <c r="AF17" s="8">
-        <v>7.23457E8</v>
+        <v>723457000</v>
       </c>
       <c r="AG17" s="8">
-        <v>1.4657E7</v>
+        <v>14657000</v>
       </c>
       <c r="AH17" s="8">
-        <v>3.4432E7</v>
+        <v>34432000</v>
       </c>
       <c r="AI17" s="8">
-        <v>4.462E7</v>
+        <v>44620000</v>
       </c>
       <c r="AJ17" s="8">
-        <v>1.1653E7</v>
+        <v>11653000</v>
       </c>
       <c r="AK17" s="8">
-        <v>6320000.0</v>
+        <v>6320000</v>
       </c>
       <c r="AL17" s="8">
-        <v>1.11682E8</v>
+        <v>111682000</v>
       </c>
       <c r="AM17" s="8">
-        <v>2474000.0</v>
+        <v>2474000</v>
       </c>
       <c r="AN17" s="8">
-        <v>1.0671E7</v>
+        <v>10671000</v>
       </c>
       <c r="AO17" s="8">
-        <v>1.0725E7</v>
+        <v>10725000</v>
       </c>
       <c r="AP17" s="8">
-        <v>1.9912E7</v>
+        <v>19912000</v>
       </c>
       <c r="AQ17" s="8">
-        <v>7142000.0</v>
+        <v>7142000</v>
       </c>
       <c r="AR17" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS17" s="8">
-        <v>1502000.0</v>
+        <v>1502000</v>
       </c>
       <c r="AT17" s="8">
-        <v>1.64108E8</v>
+        <v>164108000</v>
       </c>
       <c r="AU17" s="8">
-        <v>1.53138E9</v>
+        <v>1531380000</v>
       </c>
       <c r="AV17" s="8">
-        <v>1682000.0</v>
+        <v>1682000</v>
       </c>
       <c r="AW17" s="8">
-        <v>-9.7374E8</v>
+        <v>-973740000</v>
       </c>
       <c r="AX17" s="8">
-        <v>5.59349E8</v>
+        <v>559349000</v>
       </c>
       <c r="AY17" s="8">
-        <v>7.23457E8</v>
+        <v>723457000</v>
       </c>
       <c r="AZ17" s="8">
-        <v>5.2703E7</v>
+        <v>52703000</v>
       </c>
       <c r="BA17" s="8">
-        <v>2.4556E7</v>
+        <v>24556000</v>
       </c>
       <c r="BB17" s="8">
-        <v>2.8147E7</v>
+        <v>28147000</v>
       </c>
       <c r="BC17" s="8">
-        <v>2.8186E7</v>
+        <v>28186000</v>
       </c>
       <c r="BD17" s="8">
-        <v>2.3125E7</v>
+        <v>23125000</v>
       </c>
       <c r="BE17" s="8">
-        <v>2.1528E7</v>
+        <v>21528000</v>
       </c>
       <c r="BF17" s="8">
-        <v>7.2839E7</v>
+        <v>72839000</v>
       </c>
       <c r="BG17" s="8">
-        <v>-4.4692E7</v>
+        <v>-44692000</v>
       </c>
       <c r="BH17" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="8">
-        <v>4506000.0</v>
+        <v>4506000</v>
       </c>
       <c r="BJ17" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BK17" s="8">
-        <v>-5945000.0</v>
+        <v>-5945000</v>
       </c>
       <c r="BL17" s="8">
-        <v>104000.0</v>
+        <v>104000</v>
       </c>
       <c r="BM17" s="8">
-        <v>1.0555E7</v>
+        <v>10555000</v>
       </c>
       <c r="BN17" s="8">
-        <v>-3.4137E7</v>
+        <v>-34137000</v>
       </c>
       <c r="BO17" s="8">
-        <v>307000.0</v>
+        <v>307000</v>
       </c>
       <c r="BP17" s="8">
-        <v>-3.4444E7</v>
+        <v>-34444000</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>45138.0</v>
+        <v>45138</v>
       </c>
       <c r="B18" s="4">
-        <v>550.0</v>
+        <v>550</v>
       </c>
       <c r="C18" s="8">
-        <v>-1.165389397260274E8</v>
+        <v>-116538939.7260274</v>
       </c>
       <c r="D18" s="9">
-        <v>-1.513256794520548E8</v>
+        <v>-151325679.4520548</v>
       </c>
       <c r="E18" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18" s="9">
-        <v>-1.1511183561643835E7</v>
+        <v>-11511183.561643835</v>
       </c>
       <c r="G18" s="9">
-        <v>831131.506849315</v>
+        <v>831131.50684931502</v>
       </c>
       <c r="H18" s="9">
-        <v>4.546679178082192E7</v>
+        <v>45466791.780821919</v>
       </c>
       <c r="I18" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J18" s="9">
-        <v>-1.010209589041096E7</v>
+        <v>-10102095.89041096</v>
       </c>
       <c r="K18" s="9">
-        <v>6.641366575342466E7</v>
+        <v>66413665.753424659</v>
       </c>
       <c r="L18" s="9">
-        <v>3657687.671232877</v>
+        <v>3657687.6712328768</v>
       </c>
       <c r="M18" s="9">
-        <v>1148978.082191781</v>
+        <v>1148978.0821917809</v>
       </c>
       <c r="N18" s="9">
-        <v>-628030.1369863013</v>
+        <v>-628030.13698630128</v>
       </c>
       <c r="O18" s="9">
-        <v>-5.604873424657534E7</v>
+        <v>-56048734.246575341</v>
       </c>
       <c r="P18" s="9">
-        <v>-6.241743287671233E7</v>
+        <v>-62417432.87671233</v>
       </c>
       <c r="Q18" s="9">
-        <v>-1.387820767123288E8</v>
+        <v>-138782076.71232879</v>
       </c>
       <c r="R18" s="9">
-        <v>-1.9822386301369864E8</v>
+        <v>-198223863.01369864</v>
       </c>
       <c r="S18" s="9">
-        <v>4.546679178082192E7</v>
+        <v>45466791.780821919</v>
       </c>
       <c r="T18" s="8">
-        <v>1.18808E8</v>
+        <v>118808000</v>
       </c>
       <c r="U18" s="8">
-        <v>2.48979E8</v>
+        <v>248979000</v>
       </c>
       <c r="V18" s="8">
-        <v>4.0349E7</v>
+        <v>40349000</v>
       </c>
       <c r="W18" s="8">
-        <v>1.9725E7</v>
+        <v>19725000</v>
       </c>
       <c r="X18" s="8">
-        <v>4.27861E8</v>
+        <v>427861000</v>
       </c>
       <c r="Y18" s="8">
-        <v>1.20193E8</v>
+        <v>120193000</v>
       </c>
       <c r="Z18" s="8">
-        <v>1.2992E7</v>
+        <v>12992000</v>
       </c>
       <c r="AA18" s="8">
-        <v>1.1275E8</v>
+        <v>112750000</v>
       </c>
       <c r="AB18" s="8">
-        <v>1.4867E7</v>
+        <v>14867000</v>
       </c>
       <c r="AC18" s="8">
-        <v>5707000.0</v>
+        <v>5707000</v>
       </c>
       <c r="AD18" s="8">
-        <v>2.3485E7</v>
+        <v>23485000</v>
       </c>
       <c r="AE18" s="8">
-        <v>2562000.0</v>
+        <v>2562000</v>
       </c>
       <c r="AF18" s="8">
-        <v>7.20417E8</v>
+        <v>720417000</v>
       </c>
       <c r="AG18" s="8">
-        <v>3825000.0</v>
+        <v>3825000</v>
       </c>
       <c r="AH18" s="8">
-        <v>3.7841E7</v>
+        <v>37841000</v>
       </c>
       <c r="AI18" s="8">
-        <v>5.6575E7</v>
+        <v>56575000</v>
       </c>
       <c r="AJ18" s="8">
-        <v>1.0757E7</v>
+        <v>10757000</v>
       </c>
       <c r="AK18" s="8">
-        <v>7261000.0</v>
+        <v>7261000</v>
       </c>
       <c r="AL18" s="8">
-        <v>1.16259E8</v>
+        <v>116259000</v>
       </c>
       <c r="AM18" s="8">
-        <v>1.8186E7</v>
+        <v>18186000</v>
       </c>
       <c r="AN18" s="8">
-        <v>9605000.0</v>
+        <v>9605000</v>
       </c>
       <c r="AO18" s="8">
-        <v>9499000.0</v>
+        <v>9499000</v>
       </c>
       <c r="AP18" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ18" s="8">
-        <v>1.9139E7</v>
+        <v>19139000</v>
       </c>
       <c r="AR18" s="8">
-        <v>5926000.0</v>
+        <v>5926000</v>
       </c>
       <c r="AS18" s="8">
-        <v>2235000.0</v>
+        <v>2235000</v>
       </c>
       <c r="AT18" s="8">
-        <v>1.80849E8</v>
+        <v>180849000</v>
       </c>
       <c r="AU18" s="8">
-        <v>1.54992E9</v>
+        <v>1549920000</v>
       </c>
       <c r="AV18" s="8">
-        <v>1336000.0</v>
+        <v>1336000</v>
       </c>
       <c r="AW18" s="8">
-        <v>-1.011715E9</v>
+        <v>-1011715000</v>
       </c>
       <c r="AX18" s="8">
-        <v>5.39568E8</v>
+        <v>539568000</v>
       </c>
       <c r="AY18" s="8">
-        <v>7.20417E8</v>
+        <v>720417000</v>
       </c>
       <c r="AZ18" s="8">
-        <v>5.3761E7</v>
+        <v>53761000</v>
       </c>
       <c r="BA18" s="8">
-        <v>2.7469E7</v>
+        <v>27469000</v>
       </c>
       <c r="BB18" s="8">
-        <v>2.6292E7</v>
+        <v>26292000</v>
       </c>
       <c r="BC18" s="8">
-        <v>2.6741E7</v>
+        <v>26741000</v>
       </c>
       <c r="BD18" s="8">
-        <v>2.231E7</v>
+        <v>22310000</v>
       </c>
       <c r="BE18" s="8">
-        <v>2.0521E7</v>
+        <v>20521000</v>
       </c>
       <c r="BF18" s="8">
-        <v>6.9572E7</v>
+        <v>69572000</v>
       </c>
       <c r="BG18" s="8">
-        <v>-4.328E7</v>
+        <v>-43280000</v>
       </c>
       <c r="BH18" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="8">
-        <v>3802000.0</v>
+        <v>3802000</v>
       </c>
       <c r="BJ18" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BK18" s="8">
-        <v>1226000.0</v>
+        <v>1226000</v>
       </c>
       <c r="BL18" s="8">
-        <v>859000.0</v>
+        <v>859000</v>
       </c>
       <c r="BM18" s="8">
-        <v>5887000.0</v>
+        <v>5887000</v>
       </c>
       <c r="BN18" s="8">
-        <v>-3.7393E7</v>
+        <v>-37393000</v>
       </c>
       <c r="BO18" s="8">
-        <v>582000.0</v>
+        <v>582000</v>
       </c>
       <c r="BP18" s="8">
-        <v>-3.7975E7</v>
+        <v>-37975000</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>45230.0</v>
+        <v>45230</v>
       </c>
       <c r="B19" s="4">
-        <v>586.0</v>
+        <v>586</v>
       </c>
       <c r="C19" s="8">
-        <v>-1.1200396986301371E8</v>
+        <v>-112003969.86301371</v>
       </c>
       <c r="D19" s="9">
-        <v>-1.459173397260274E8</v>
+        <v>-145917339.7260274</v>
       </c>
       <c r="E19" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F19" s="9">
-        <v>-1.3462591780821918E7</v>
+        <v>-13462591.780821918</v>
       </c>
       <c r="G19" s="9">
-        <v>823065.7534246575</v>
+        <v>823065.75342465751</v>
       </c>
       <c r="H19" s="9">
-        <v>4.655289589041096E7</v>
+        <v>46552895.89041096</v>
       </c>
       <c r="I19" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J19" s="9">
-        <v>-1.190554794520548E7</v>
+        <v>-11905547.94520548</v>
       </c>
       <c r="K19" s="9">
-        <v>6.177283287671233E7</v>
+        <v>61772832.87671233</v>
       </c>
       <c r="L19" s="9">
-        <v>5516843.835616439</v>
+        <v>5516843.8356164386</v>
       </c>
       <c r="M19" s="9">
         <v>1732989.0410958906</v>
       </c>
       <c r="N19" s="9">
-        <v>-779515.0684931506</v>
+        <v>-779515.06849315064</v>
       </c>
       <c r="O19" s="9">
-        <v>-5.566636712328767E7</v>
+        <v>-55666367.12328767</v>
       </c>
       <c r="P19" s="9">
-        <v>-5.656421643835616E7</v>
+        <v>-56564216.438356161</v>
       </c>
       <c r="Q19" s="9">
-        <v>-8.61840383561644E7</v>
+        <v>-86184038.356164396</v>
       </c>
       <c r="R19" s="9">
-        <v>-1.4205093150684932E8</v>
+        <v>-142050931.50684932</v>
       </c>
       <c r="S19" s="9">
-        <v>4.655289589041096E7</v>
+        <v>46552895.89041096</v>
       </c>
       <c r="T19" s="8">
-        <v>1.01547E8</v>
+        <v>101547000</v>
       </c>
       <c r="U19" s="8">
-        <v>2.13347E8</v>
+        <v>213347000</v>
       </c>
       <c r="V19" s="8">
-        <v>4.5145E7</v>
+        <v>45145000</v>
       </c>
       <c r="W19" s="8">
-        <v>1.9616E7</v>
+        <v>19616000</v>
       </c>
       <c r="X19" s="8">
-        <v>3.87535E8</v>
+        <v>387535000</v>
       </c>
       <c r="Y19" s="8">
-        <v>1.14058E8</v>
+        <v>114058000</v>
       </c>
       <c r="Z19" s="8">
-        <v>1.405E7</v>
+        <v>14050000</v>
       </c>
       <c r="AA19" s="8">
-        <v>1.35701E8</v>
+        <v>135701000</v>
       </c>
       <c r="AB19" s="8">
-        <v>2.7427E7</v>
+        <v>27427000</v>
       </c>
       <c r="AC19" s="8">
-        <v>1.0321E7</v>
+        <v>10321000</v>
       </c>
       <c r="AD19" s="8">
-        <v>2.2091E7</v>
+        <v>22091000</v>
       </c>
       <c r="AE19" s="8">
-        <v>2337000.0</v>
+        <v>2337000</v>
       </c>
       <c r="AF19" s="8">
-        <v>7.1352E8</v>
+        <v>713520000</v>
       </c>
       <c r="AG19" s="8">
-        <v>4589000.0</v>
+        <v>4589000</v>
       </c>
       <c r="AH19" s="8">
-        <v>4.1961E7</v>
+        <v>41961000</v>
       </c>
       <c r="AI19" s="8">
-        <v>6.7228E7</v>
+        <v>67228000</v>
       </c>
       <c r="AJ19" s="8">
-        <v>9860000.0</v>
+        <v>9860000</v>
       </c>
       <c r="AK19" s="8">
-        <v>7500000.0</v>
+        <v>7500000</v>
       </c>
       <c r="AL19" s="8">
-        <v>1.31138E8</v>
+        <v>131138000</v>
       </c>
       <c r="AM19" s="8">
-        <v>7763000.0</v>
+        <v>7763000</v>
       </c>
       <c r="AN19" s="8">
-        <v>8353000.0</v>
+        <v>8353000</v>
       </c>
       <c r="AO19" s="8">
-        <v>2666000.0</v>
+        <v>2666000</v>
       </c>
       <c r="AP19" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ19" s="8">
-        <v>1.7321E7</v>
+        <v>17321000</v>
       </c>
       <c r="AR19" s="8">
-        <v>5588000.0</v>
+        <v>5588000</v>
       </c>
       <c r="AS19" s="8">
-        <v>7093000.0</v>
+        <v>7093000</v>
       </c>
       <c r="AT19" s="8">
-        <v>1.79922E8</v>
+        <v>179922000</v>
       </c>
       <c r="AU19" s="8">
-        <v>1.583531E9</v>
+        <v>1583531000</v>
       </c>
       <c r="AV19" s="8">
-        <v>-242000.0</v>
+        <v>-242000</v>
       </c>
       <c r="AW19" s="8">
-        <v>-1.049719E9</v>
+        <v>-1049719000</v>
       </c>
       <c r="AX19" s="8">
-        <v>5.33598E8</v>
+        <v>533598000</v>
       </c>
       <c r="AY19" s="8">
-        <v>7.1352E8</v>
+        <v>713520000</v>
       </c>
       <c r="AZ19" s="8">
-        <v>5.538E7</v>
+        <v>55380000</v>
       </c>
       <c r="BA19" s="8">
-        <v>2.935E7</v>
+        <v>29350000</v>
       </c>
       <c r="BB19" s="8">
-        <v>2.603E7</v>
+        <v>26030000</v>
       </c>
       <c r="BC19" s="8">
-        <v>3.3002E7</v>
+        <v>33002000</v>
       </c>
       <c r="BD19" s="8">
-        <v>2.0774E7</v>
+        <v>20774000</v>
       </c>
       <c r="BE19" s="8">
-        <v>2.0112E7</v>
+        <v>20112000</v>
       </c>
       <c r="BF19" s="8">
-        <v>7.3888E7</v>
+        <v>73888000</v>
       </c>
       <c r="BG19" s="8">
-        <v>-4.7858E7</v>
+        <v>-47858000</v>
       </c>
       <c r="BH19" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="8">
-        <v>3445000.0</v>
+        <v>3445000</v>
       </c>
       <c r="BJ19" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BK19" s="8">
-        <v>6833000.0</v>
+        <v>6833000</v>
       </c>
       <c r="BL19" s="8">
-        <v>-69000.0</v>
+        <v>-69000</v>
       </c>
       <c r="BM19" s="8">
-        <v>1.0209E7</v>
+        <v>10209000</v>
       </c>
       <c r="BN19" s="8">
-        <v>-3.7649E7</v>
+        <v>-37649000</v>
       </c>
       <c r="BO19" s="8">
-        <v>355000.0</v>
+        <v>355000</v>
       </c>
       <c r="BP19" s="8">
-        <v>-3.8004E7</v>
+        <v>-38004000</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>45322.0</v>
+        <v>45322</v>
       </c>
       <c r="B20" s="4">
-        <v>586.0</v>
+        <v>586</v>
       </c>
       <c r="C20" s="8">
-        <v>-1.07469E8</v>
+        <v>-107469000</v>
       </c>
       <c r="D20" s="9">
-        <v>-1.40509E8</v>
+        <v>-140509000</v>
       </c>
       <c r="E20" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F20" s="9">
-        <v>-1.5414E7</v>
+        <v>-15414000</v>
       </c>
       <c r="G20" s="9">
-        <v>815000.0</v>
+        <v>815000</v>
       </c>
       <c r="H20" s="9">
-        <v>4.7639E7</v>
+        <v>47639000</v>
       </c>
       <c r="I20" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J20" s="9">
-        <v>-1.3709E7</v>
+        <v>-13709000</v>
       </c>
       <c r="K20" s="9">
-        <v>5.7132E7</v>
+        <v>57132000</v>
       </c>
       <c r="L20" s="9">
-        <v>7376000.0</v>
+        <v>7376000</v>
       </c>
       <c r="M20" s="9">
-        <v>2317000.0</v>
+        <v>2317000</v>
       </c>
       <c r="N20" s="9">
-        <v>-931000.0</v>
+        <v>-931000</v>
       </c>
       <c r="O20" s="9">
-        <v>-5.5284E7</v>
+        <v>-55284000</v>
       </c>
       <c r="P20" s="9">
-        <v>-5.0711E7</v>
+        <v>-50711000</v>
       </c>
       <c r="Q20" s="9">
-        <v>-3.3586E7</v>
+        <v>-33586000</v>
       </c>
       <c r="R20" s="9">
-        <v>-8.5878E7</v>
+        <v>-85878000</v>
       </c>
       <c r="S20" s="11">
-        <v>4.7639E7</v>
+        <v>47639000</v>
       </c>
       <c r="T20" s="8">
-        <v>8.3866E7</v>
+        <v>83866000</v>
       </c>
       <c r="U20" s="8">
-        <v>2.15041E8</v>
+        <v>215041000</v>
       </c>
       <c r="V20" s="8">
-        <v>4.332E7</v>
+        <v>43320000</v>
       </c>
       <c r="W20" s="8">
-        <v>1.9564E7</v>
+        <v>19564000</v>
       </c>
       <c r="X20" s="8">
-        <v>3.70151E8</v>
+        <v>370151000</v>
       </c>
       <c r="Y20" s="8">
-        <v>1.13429E8</v>
+        <v>113429000</v>
       </c>
       <c r="Z20" s="8">
-        <v>1.4973E7</v>
+        <v>14973000</v>
       </c>
       <c r="AA20" s="8">
-        <v>1.36256E8</v>
+        <v>136256000</v>
       </c>
       <c r="AB20" s="8">
-        <v>3.2448E7</v>
+        <v>32448000</v>
       </c>
       <c r="AC20" s="8">
-        <v>9972000.0</v>
+        <v>9972000</v>
       </c>
       <c r="AD20" s="8">
-        <v>2.2339E7</v>
+        <v>22339000</v>
       </c>
       <c r="AE20" s="8">
-        <v>2429000.0</v>
+        <v>2429000</v>
       </c>
       <c r="AF20" s="8">
-        <v>7.01997E8</v>
+        <v>701997000</v>
       </c>
       <c r="AG20" s="8">
-        <v>2601000.0</v>
+        <v>2601000</v>
       </c>
       <c r="AH20" s="8">
-        <v>4.4779E7</v>
+        <v>44779000</v>
       </c>
       <c r="AI20" s="8">
-        <v>7.2327E7</v>
+        <v>72327000</v>
       </c>
       <c r="AJ20" s="8">
-        <v>8964000.0</v>
+        <v>8964000</v>
       </c>
       <c r="AK20" s="8">
-        <v>7978000.0</v>
+        <v>7978000</v>
       </c>
       <c r="AL20" s="8">
-        <v>1.36649E8</v>
+        <v>136649000</v>
       </c>
       <c r="AM20" s="8">
-        <v>5293000.0</v>
+        <v>5293000</v>
       </c>
       <c r="AN20" s="8">
-        <v>7101000.0</v>
+        <v>7101000</v>
       </c>
       <c r="AO20" s="8">
-        <v>2961000.0</v>
+        <v>2961000</v>
       </c>
       <c r="AP20" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ20" s="8">
-        <v>1.6952E7</v>
+        <v>16952000</v>
       </c>
       <c r="AR20" s="8">
-        <v>5885000.0</v>
+        <v>5885000</v>
       </c>
       <c r="AS20" s="8">
-        <v>9138000.0</v>
+        <v>9138000</v>
       </c>
       <c r="AT20" s="8">
-        <v>1.83979E8</v>
+        <v>183979000</v>
       </c>
       <c r="AU20" s="8">
-        <v>1.596201E9</v>
+        <v>1596201000</v>
       </c>
       <c r="AV20" s="8">
-        <v>1594000.0</v>
+        <v>1594000</v>
       </c>
       <c r="AW20" s="8">
-        <v>-1.079805E9</v>
+        <v>-1079805000</v>
       </c>
       <c r="AX20" s="8">
-        <v>5.18018E8</v>
+        <v>518018000</v>
       </c>
       <c r="AY20" s="8">
-        <v>7.01997E8</v>
+        <v>701997000</v>
       </c>
       <c r="AZ20" s="8">
-        <v>2.20696E8</v>
+        <v>220696000</v>
       </c>
       <c r="BA20" s="8">
-        <v>1.07746E8</v>
+        <v>107746000</v>
       </c>
       <c r="BB20" s="8">
-        <v>1.1295E8</v>
+        <v>112950000</v>
       </c>
       <c r="BC20" s="8">
-        <v>1.16339E8</v>
+        <v>116339000</v>
       </c>
       <c r="BD20" s="8">
-        <v>8.6304E7</v>
+        <v>86304000</v>
       </c>
       <c r="BE20" s="8">
-        <v>8.0055E7</v>
+        <v>80055000</v>
       </c>
       <c r="BF20" s="8">
-        <v>2.82698E8</v>
+        <v>282698000</v>
       </c>
       <c r="BG20" s="8">
-        <v>-1.69748E8</v>
+        <v>-169748000</v>
       </c>
       <c r="BH20" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="8">
-        <v>1.5414E7</v>
+        <v>15414000</v>
       </c>
       <c r="BJ20" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BK20" s="8">
-        <v>1.3709E7</v>
+        <v>13709000</v>
       </c>
       <c r="BL20" s="8">
-        <v>931000.0</v>
+        <v>931000</v>
       </c>
       <c r="BM20" s="8">
-        <v>3.0054E7</v>
+        <v>30054000</v>
       </c>
       <c r="BN20" s="8">
-        <v>-1.39694E8</v>
+        <v>-139694000</v>
       </c>
       <c r="BO20" s="8">
-        <v>815000.0</v>
+        <v>815000</v>
       </c>
       <c r="BP20" s="8">
-        <v>-1.40509E8</v>
+        <v>-140509000</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>45412.0</v>
+        <v>45412</v>
       </c>
       <c r="B21" s="4">
-        <v>586.0</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
+        <v>586</v>
+      </c>
+      <c r="C21" s="8">
+        <v>-18855000</v>
+      </c>
+      <c r="D21" s="9">
+        <v>-29293000</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
+        <v>-3107000</v>
+      </c>
+      <c r="G21" s="9">
+        <v>442000</v>
+      </c>
+      <c r="H21" s="9">
+        <v>13103000</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9">
+        <v>-1530000</v>
+      </c>
+      <c r="K21" s="9">
+        <v>13072000</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0</v>
+      </c>
+      <c r="N21" s="8">
+        <v>1083000</v>
+      </c>
+      <c r="O21" s="8">
+        <v>-8396000</v>
+      </c>
+      <c r="P21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0</v>
+      </c>
+      <c r="R21" s="9">
+        <v>0</v>
+      </c>
+      <c r="S21" s="9">
+        <v>0</v>
+      </c>
       <c r="T21" s="8">
-        <v>1.07367E8</v>
+        <v>107367000</v>
       </c>
       <c r="U21" s="8">
-        <v>1.68218E8</v>
+        <v>168218000</v>
       </c>
       <c r="V21" s="8">
-        <v>3.8527E7</v>
+        <v>38527000</v>
       </c>
       <c r="W21" s="8">
-        <v>2.3044E7</v>
+        <v>23044000</v>
       </c>
       <c r="X21" s="8">
-        <v>3.45958E8</v>
+        <v>345958000</v>
       </c>
       <c r="Y21" s="8">
-        <v>1.11338E8</v>
+        <v>111338000</v>
       </c>
       <c r="Z21" s="8">
-        <v>1.6066E7</v>
+        <v>16066000</v>
       </c>
       <c r="AA21" s="8">
-        <v>1.3711E8</v>
+        <v>137110000</v>
       </c>
       <c r="AB21" s="8">
-        <v>3.1403E7</v>
+        <v>31403000</v>
       </c>
       <c r="AC21" s="8">
-        <v>9564000.0</v>
+        <v>9564000</v>
       </c>
       <c r="AD21" s="8">
-        <v>2.0966E7</v>
+        <v>20966000</v>
       </c>
       <c r="AE21" s="8">
-        <v>2199000.0</v>
+        <v>2199000</v>
       </c>
       <c r="AF21" s="8">
-        <v>6.74604E8</v>
+        <v>674604000</v>
       </c>
       <c r="AG21" s="8">
-        <v>3131000.0</v>
+        <v>3131000</v>
       </c>
       <c r="AH21" s="8">
-        <v>4.3361E7</v>
+        <v>43361000</v>
       </c>
       <c r="AI21" s="8">
-        <v>6.3646E7</v>
+        <v>63646000</v>
       </c>
       <c r="AJ21" s="8">
-        <v>8068000.0</v>
+        <v>8068000</v>
       </c>
       <c r="AK21" s="8">
-        <v>8175000.0</v>
+        <v>8175000</v>
       </c>
       <c r="AL21" s="8">
-        <v>1.26381E8</v>
+        <v>126381000</v>
       </c>
       <c r="AM21" s="8">
-        <v>1.3247E7</v>
+        <v>13247000</v>
       </c>
       <c r="AN21" s="8">
-        <v>9261000.0</v>
+        <v>9261000</v>
       </c>
       <c r="AO21" s="8">
-        <v>1431000.0</v>
+        <v>1431000</v>
       </c>
       <c r="AP21" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="8">
-        <v>1.5207E7</v>
+        <v>15207000</v>
       </c>
       <c r="AR21" s="8">
-        <v>2915000.0</v>
+        <v>2915000</v>
       </c>
       <c r="AS21" s="8">
-        <v>5837000.0</v>
+        <v>5837000</v>
       </c>
       <c r="AT21" s="8">
-        <v>1.74279E8</v>
+        <v>174279000</v>
       </c>
       <c r="AU21" s="8">
-        <v>1.608847E9</v>
+        <v>1608847000</v>
       </c>
       <c r="AV21" s="8">
-        <v>548000.0</v>
+        <v>548000</v>
       </c>
       <c r="AW21" s="8">
-        <v>-1.109098E9</v>
+        <v>-1109098000</v>
       </c>
       <c r="AX21" s="8">
-        <v>5.00325E8</v>
+        <v>500325000</v>
       </c>
       <c r="AY21" s="8">
-        <v>6.74604E8</v>
+        <v>674604000</v>
       </c>
       <c r="AZ21" s="8">
-        <v>6.044E7</v>
+        <v>60440000</v>
       </c>
       <c r="BA21" s="8">
-        <v>2.8757E7</v>
+        <v>28757000</v>
       </c>
       <c r="BB21" s="8">
-        <v>3.1683E7</v>
+        <v>31683000</v>
       </c>
       <c r="BC21" s="8">
-        <v>2.5589E7</v>
+        <v>25589000</v>
       </c>
       <c r="BD21" s="8">
-        <v>2.1485E7</v>
+        <v>21485000</v>
       </c>
       <c r="BE21" s="8">
-        <v>1.918E7</v>
+        <v>19180000</v>
       </c>
       <c r="BF21" s="8">
-        <v>6.6254E7</v>
+        <v>66254000</v>
       </c>
       <c r="BG21" s="8">
-        <v>-3.4571E7</v>
+        <v>-34571000</v>
       </c>
       <c r="BH21" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="8">
-        <v>3107000.0</v>
+        <v>3107000</v>
       </c>
       <c r="BJ21" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BK21" s="8">
-        <v>1530000.0</v>
+        <v>1530000</v>
       </c>
       <c r="BL21" s="8">
-        <v>1083000.0</v>
+        <v>1083000</v>
       </c>
       <c r="BM21" s="8">
-        <v>5720000.0</v>
+        <v>5720000</v>
       </c>
       <c r="BN21" s="8">
-        <v>-2.8851E7</v>
+        <v>-28851000</v>
       </c>
       <c r="BO21" s="8">
-        <v>442000.0</v>
+        <v>442000</v>
       </c>
       <c r="BP21" s="8">
-        <v>-2.9293E7</v>
+        <v>-29293000</v>
       </c>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/financial_data/planet.xlsx
+++ b/financial_data/planet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinten/Desktop/untitled folder 3/space_econometrics/financial_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holly\space_econometrics\financial_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81669736-DE79-7C4E-9428-076F1724FDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C7533B-B488-483A-9CAB-D5E7DBFD0700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="key" sheetId="1" r:id="rId1"/>
@@ -576,998 +576,998 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="26" width="8.83203125" customWidth="1"/>
+    <col min="1" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -1581,66 +1581,72 @@
   </sheetPr>
   <dimension ref="A1:BP21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" customWidth="1"/>
-    <col min="12" max="12" width="19" customWidth="1"/>
-    <col min="13" max="19" width="20.6640625" customWidth="1"/>
-    <col min="20" max="21" width="16.6640625" customWidth="1"/>
-    <col min="22" max="22" width="16.5" customWidth="1"/>
-    <col min="23" max="23" width="15.6640625" customWidth="1"/>
-    <col min="24" max="25" width="16.6640625" customWidth="1"/>
-    <col min="26" max="26" width="16.5" customWidth="1"/>
-    <col min="27" max="27" width="16.6640625" customWidth="1"/>
-    <col min="28" max="28" width="16.5" customWidth="1"/>
-    <col min="29" max="29" width="15.5" customWidth="1"/>
-    <col min="30" max="30" width="15.6640625" customWidth="1"/>
-    <col min="31" max="31" width="15.5" customWidth="1"/>
-    <col min="32" max="32" width="16.6640625" customWidth="1"/>
-    <col min="33" max="33" width="16.5" customWidth="1"/>
-    <col min="34" max="35" width="15.5" customWidth="1"/>
-    <col min="36" max="36" width="15.6640625" customWidth="1"/>
-    <col min="37" max="37" width="14.6640625" customWidth="1"/>
-    <col min="38" max="38" width="16.6640625" customWidth="1"/>
-    <col min="39" max="39" width="16.5" customWidth="1"/>
-    <col min="40" max="42" width="15.5" customWidth="1"/>
-    <col min="43" max="43" width="15.6640625" customWidth="1"/>
-    <col min="44" max="45" width="14.6640625" customWidth="1"/>
-    <col min="46" max="46" width="16.6640625" customWidth="1"/>
-    <col min="47" max="47" width="18.5" customWidth="1"/>
-    <col min="48" max="48" width="14.6640625" customWidth="1"/>
-    <col min="49" max="49" width="19.1640625" customWidth="1"/>
-    <col min="50" max="51" width="16.6640625" customWidth="1"/>
-    <col min="52" max="55" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.42578125" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" customWidth="1"/>
+    <col min="24" max="25" width="16.7109375" customWidth="1"/>
+    <col min="26" max="26" width="16.42578125" customWidth="1"/>
+    <col min="27" max="27" width="16.7109375" customWidth="1"/>
+    <col min="28" max="28" width="16.42578125" customWidth="1"/>
+    <col min="29" max="29" width="15.42578125" customWidth="1"/>
+    <col min="30" max="30" width="15.7109375" customWidth="1"/>
+    <col min="31" max="31" width="15.42578125" customWidth="1"/>
+    <col min="32" max="32" width="16.7109375" customWidth="1"/>
+    <col min="33" max="33" width="16.42578125" customWidth="1"/>
+    <col min="34" max="35" width="15.42578125" customWidth="1"/>
+    <col min="36" max="36" width="15.7109375" customWidth="1"/>
+    <col min="37" max="37" width="14.7109375" customWidth="1"/>
+    <col min="38" max="38" width="16.7109375" customWidth="1"/>
+    <col min="39" max="39" width="16.42578125" customWidth="1"/>
+    <col min="40" max="42" width="15.42578125" customWidth="1"/>
+    <col min="43" max="43" width="15.7109375" customWidth="1"/>
+    <col min="44" max="45" width="14.7109375" customWidth="1"/>
+    <col min="46" max="46" width="16.7109375" customWidth="1"/>
+    <col min="47" max="47" width="18.42578125" customWidth="1"/>
+    <col min="48" max="48" width="14.7109375" customWidth="1"/>
+    <col min="49" max="49" width="19.140625" customWidth="1"/>
+    <col min="50" max="51" width="16.7109375" customWidth="1"/>
+    <col min="52" max="55" width="15.140625" customWidth="1"/>
     <col min="56" max="57" width="14" customWidth="1"/>
-    <col min="58" max="58" width="15.1640625" customWidth="1"/>
-    <col min="59" max="59" width="15.83203125" customWidth="1"/>
-    <col min="60" max="60" width="13.5" customWidth="1"/>
+    <col min="58" max="58" width="15.140625" customWidth="1"/>
+    <col min="59" max="59" width="15.85546875" customWidth="1"/>
+    <col min="60" max="60" width="13.42578125" customWidth="1"/>
     <col min="61" max="61" width="14" customWidth="1"/>
-    <col min="62" max="62" width="13.5" customWidth="1"/>
-    <col min="63" max="63" width="14.6640625" customWidth="1"/>
-    <col min="64" max="64" width="13.5" customWidth="1"/>
-    <col min="65" max="65" width="14.6640625" customWidth="1"/>
-    <col min="66" max="66" width="15.83203125" customWidth="1"/>
-    <col min="67" max="67" width="12.6640625" customWidth="1"/>
-    <col min="68" max="68" width="15.83203125" customWidth="1"/>
+    <col min="62" max="62" width="13.42578125" customWidth="1"/>
+    <col min="63" max="63" width="14.7109375" customWidth="1"/>
+    <col min="64" max="64" width="13.42578125" customWidth="1"/>
+    <col min="65" max="65" width="14.7109375" customWidth="1"/>
+    <col min="66" max="66" width="15.85546875" customWidth="1"/>
+    <col min="67" max="67" width="12.7109375" customWidth="1"/>
+    <col min="68" max="68" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:68" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1846,7 +1852,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43677</v>
       </c>
@@ -1954,7 +1960,7 @@
         <v>-30928500</v>
       </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43769</v>
       </c>
@@ -2062,7 +2068,7 @@
         <v>-30928500</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43861</v>
       </c>
@@ -2170,7 +2176,7 @@
         <v>-30928500</v>
       </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43951</v>
       </c>
@@ -2278,7 +2284,7 @@
         <v>-31775750</v>
       </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>44043</v>
       </c>
@@ -2386,7 +2392,7 @@
         <v>-31775750</v>
       </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>44135</v>
       </c>
@@ -2494,7 +2500,7 @@
         <v>-31775750</v>
       </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>44227</v>
       </c>
@@ -2700,7 +2706,7 @@
         <v>-31775750</v>
       </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>44316</v>
       </c>
@@ -2906,7 +2912,7 @@
         <v>-29255000</v>
       </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>44408</v>
       </c>
@@ -3112,7 +3118,7 @@
         <v>-20363000</v>
       </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>44500</v>
       </c>
@@ -3318,7 +3324,7 @@
         <v>-41541000</v>
       </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>44592</v>
       </c>
@@ -3524,7 +3530,7 @@
         <v>-45965000</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44681</v>
       </c>
@@ -3730,7 +3736,7 @@
         <v>-44360000</v>
       </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44773</v>
       </c>
@@ -3936,7 +3942,7 @@
         <v>-39529000</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>44865</v>
       </c>
@@ -4142,7 +4148,7 @@
         <v>-40236000</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>44957</v>
       </c>
@@ -4348,7 +4354,7 @@
         <v>-37841000</v>
       </c>
     </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>45046</v>
       </c>
@@ -4554,7 +4560,7 @@
         <v>-34444000</v>
       </c>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>45138</v>
       </c>
@@ -4760,7 +4766,7 @@
         <v>-37975000</v>
       </c>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>45230</v>
       </c>
@@ -4966,7 +4972,7 @@
         <v>-38004000</v>
       </c>
     </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>45322</v>
       </c>
@@ -5172,7 +5178,7 @@
         <v>-140509000</v>
       </c>
     </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>45412</v>
       </c>
